--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="1018">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -2252,6 +2252,9 @@
     <t xml:space="preserve">SANEAMENTO DE GOIAS SA</t>
   </si>
   <si>
+    <t xml:space="preserve">UPTICK PARTICIPACOES S.A. - EM LIQUIDAÇÃO</t>
+  </si>
+  <si>
     <t xml:space="preserve">02.351.877/0001-52</t>
   </si>
   <si>
@@ -2606,7 +2609,7 @@
     <t xml:space="preserve">12.091.809/0001-55</t>
   </si>
   <si>
-    <t xml:space="preserve">3R PETROLEUM ÓLEO E GÁS S.A.</t>
+    <t xml:space="preserve">BRAVA ENERGIA S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">12.420.164/0001-57</t>
@@ -21298,7 +21301,7 @@
         <v>44092</v>
       </c>
       <c r="D512" t="s">
-        <v>284</v>
+        <v>746</v>
       </c>
       <c r="E512" t="n">
         <v>0.454545454545455</v>
@@ -21569,7 +21572,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B520" s="1" t="n">
         <v>44196</v>
@@ -21578,7 +21581,7 @@
         <v>44103</v>
       </c>
       <c r="D520" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E520" t="n">
         <v>0.575757575757576</v>
@@ -21604,7 +21607,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B521" s="1" t="n">
         <v>44196</v>
@@ -21613,7 +21616,7 @@
         <v>44085</v>
       </c>
       <c r="D521" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E521" t="n">
         <v>0.484848484848485</v>
@@ -21709,7 +21712,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B524" s="1" t="n">
         <v>44196</v>
@@ -21718,7 +21721,7 @@
         <v>44084</v>
       </c>
       <c r="D524" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E524" t="n">
         <v>0.696969696969697</v>
@@ -21928,7 +21931,7 @@
         <v>44104</v>
       </c>
       <c r="D530" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E530" t="n">
         <v>0.393939393939394</v>
@@ -22348,7 +22351,7 @@
         <v>44104</v>
       </c>
       <c r="D542" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E542" t="n">
         <v>0.575757575757576</v>
@@ -22418,7 +22421,7 @@
         <v>44104</v>
       </c>
       <c r="D544" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E544" t="n">
         <v>0.727272727272727</v>
@@ -23179,7 +23182,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B566" s="1" t="n">
         <v>44196</v>
@@ -23188,7 +23191,7 @@
         <v>44099</v>
       </c>
       <c r="D566" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E566" t="n">
         <v>0.484848484848485</v>
@@ -23424,7 +23427,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B573" s="1" t="n">
         <v>44196</v>
@@ -23433,7 +23436,7 @@
         <v>44104</v>
       </c>
       <c r="D573" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E573" t="n">
         <v>0.606060606060606</v>
@@ -23564,7 +23567,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B577" s="1" t="n">
         <v>43921</v>
@@ -23573,7 +23576,7 @@
         <v>43766</v>
       </c>
       <c r="D577" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E577" t="n">
         <v>0.575757575757576</v>
@@ -23774,7 +23777,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>44196</v>
@@ -23783,7 +23786,7 @@
         <v>44104</v>
       </c>
       <c r="D583" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E583" t="n">
         <v>0.606060606060606</v>
@@ -24089,7 +24092,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>44196</v>
@@ -24098,7 +24101,7 @@
         <v>44104</v>
       </c>
       <c r="D592" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E592" t="n">
         <v>0.424242424242424</v>
@@ -24229,7 +24232,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>44196</v>
@@ -24238,7 +24241,7 @@
         <v>44043</v>
       </c>
       <c r="D596" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E596" t="n">
         <v>0.545454545454545</v>
@@ -24859,7 +24862,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44196</v>
@@ -24868,7 +24871,7 @@
         <v>44104</v>
       </c>
       <c r="D614" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E614" t="n">
         <v>0.515151515151515</v>
@@ -25113,7 +25116,7 @@
         <v>44104</v>
       </c>
       <c r="D621" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E621" t="n">
         <v>0.393939393939394</v>
@@ -25358,7 +25361,7 @@
         <v>44104</v>
       </c>
       <c r="D628" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E628" t="n">
         <v>0.515151515151515</v>
@@ -25419,7 +25422,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44196</v>
@@ -25428,7 +25431,7 @@
         <v>44175</v>
       </c>
       <c r="D630" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E630" t="n">
         <v>0.606060606060606</v>
@@ -25699,7 +25702,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44196</v>
@@ -25708,7 +25711,7 @@
         <v>44104</v>
       </c>
       <c r="D638" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E638" t="n">
         <v>0.636363636363636</v>
@@ -25769,7 +25772,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44196</v>
@@ -25778,7 +25781,7 @@
         <v>44042</v>
       </c>
       <c r="D640" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E640" t="n">
         <v>0.545454545454545</v>
@@ -25804,7 +25807,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44196</v>
@@ -25813,7 +25816,7 @@
         <v>44104</v>
       </c>
       <c r="D641" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E641" t="n">
         <v>0.575757575757576</v>
@@ -25839,7 +25842,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44196</v>
@@ -25848,7 +25851,7 @@
         <v>44104</v>
       </c>
       <c r="D642" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E642" t="n">
         <v>0.575757575757576</v>
@@ -25874,7 +25877,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44196</v>
@@ -25883,7 +25886,7 @@
         <v>44102</v>
       </c>
       <c r="D643" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E643" t="n">
         <v>0.636363636363636</v>
@@ -25909,7 +25912,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44196</v>
@@ -25918,7 +25921,7 @@
         <v>44104</v>
       </c>
       <c r="D644" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E644" t="n">
         <v>0.545454545454545</v>
@@ -26259,7 +26262,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>43921</v>
@@ -26268,7 +26271,7 @@
         <v>43769</v>
       </c>
       <c r="D654" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E654" t="n">
         <v>0.696969696969697</v>
@@ -26338,7 +26341,7 @@
         <v>44105</v>
       </c>
       <c r="D656" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E656" t="n">
         <v>0.515151515151515</v>
@@ -26854,7 +26857,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44196</v>
@@ -26863,7 +26866,7 @@
         <v>44104</v>
       </c>
       <c r="D671" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E671" t="n">
         <v>0.515151515151515</v>
@@ -27073,7 +27076,7 @@
         <v>44043</v>
       </c>
       <c r="D677" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E677" t="n">
         <v>0.666666666666667</v>
@@ -27108,7 +27111,7 @@
         <v>44061</v>
       </c>
       <c r="D678" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E678" t="n">
         <v>0.545454545454545</v>
@@ -27204,7 +27207,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44196</v>
@@ -27213,7 +27216,7 @@
         <v>44104</v>
       </c>
       <c r="D681" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E681" t="n">
         <v>0.606060606060606</v>
@@ -27309,7 +27312,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44196</v>
@@ -27318,7 +27321,7 @@
         <v>44104</v>
       </c>
       <c r="D684" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E684" t="n">
         <v>0.636363636363636</v>
@@ -27344,7 +27347,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44196</v>
@@ -27353,7 +27356,7 @@
         <v>44104</v>
       </c>
       <c r="D685" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E685" t="n">
         <v>0.606060606060606</v>
@@ -27694,7 +27697,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44196</v>
@@ -27703,7 +27706,7 @@
         <v>44104</v>
       </c>
       <c r="D695" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E695" t="n">
         <v>0.636363636363636</v>
@@ -27843,7 +27846,7 @@
         <v>44104</v>
       </c>
       <c r="D699" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E699" t="n">
         <v>0.666666666666667</v>
@@ -28394,7 +28397,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44196</v>
@@ -28403,7 +28406,7 @@
         <v>44104</v>
       </c>
       <c r="D715" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E715" t="n">
         <v>0.636363636363636</v>
@@ -28919,7 +28922,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44196</v>
@@ -28928,7 +28931,7 @@
         <v>44104</v>
       </c>
       <c r="D730" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E730" t="n">
         <v>0.575757575757576</v>
@@ -29899,7 +29902,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B758" s="1" t="n">
         <v>44196</v>
@@ -29908,7 +29911,7 @@
         <v>44103</v>
       </c>
       <c r="D758" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E758" t="n">
         <v>0.636363636363636</v>
@@ -30608,7 +30611,7 @@
         <v>44099</v>
       </c>
       <c r="D778" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E778" t="n">
         <v>0.575757575757576</v>
@@ -31089,7 +31092,7 @@
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B792" s="1" t="n">
         <v>43890</v>
@@ -31098,7 +31101,7 @@
         <v>43735</v>
       </c>
       <c r="D792" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E792" t="n">
         <v>0.606060606060606</v>
@@ -32279,7 +32282,7 @@
     </row>
     <row r="826">
       <c r="A826" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B826" s="1" t="n">
         <v>44012</v>
@@ -32288,7 +32291,7 @@
         <v>43860</v>
       </c>
       <c r="D826" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E826" t="n">
         <v>0.454545454545455</v>
@@ -32953,7 +32956,7 @@
         <v>44104</v>
       </c>
       <c r="D845" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E845" t="n">
         <v>0.606060606060606</v>
@@ -33189,7 +33192,7 @@
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B852" s="1" t="n">
         <v>44196</v>
@@ -33198,7 +33201,7 @@
         <v>44103</v>
       </c>
       <c r="D852" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E852" t="n">
         <v>0.606060606060606</v>
@@ -33434,7 +33437,7 @@
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B859" s="1" t="n">
         <v>44561</v>
@@ -33443,7 +33446,7 @@
         <v>44410</v>
       </c>
       <c r="D859" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E859" t="n">
         <v>0.606060606060606</v>
@@ -34029,7 +34032,7 @@
     </row>
     <row r="876">
       <c r="A876" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B876" s="1" t="n">
         <v>44561</v>
@@ -34038,7 +34041,7 @@
         <v>44407</v>
       </c>
       <c r="D876" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E876" t="n">
         <v>0.424242424242424</v>
@@ -34353,7 +34356,7 @@
         <v>44407</v>
       </c>
       <c r="D885" t="s">
-        <v>284</v>
+        <v>746</v>
       </c>
       <c r="E885" t="n">
         <v>0.454545454545455</v>
@@ -34449,7 +34452,7 @@
     </row>
     <row r="888">
       <c r="A888" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B888" s="1" t="n">
         <v>44561</v>
@@ -34458,7 +34461,7 @@
         <v>44409</v>
       </c>
       <c r="D888" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E888" t="n">
         <v>0.606060606060606</v>
@@ -34624,7 +34627,7 @@
     </row>
     <row r="893">
       <c r="A893" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B893" s="1" t="n">
         <v>44561</v>
@@ -34633,7 +34636,7 @@
         <v>44391</v>
       </c>
       <c r="D893" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E893" t="n">
         <v>0.454545454545455</v>
@@ -34694,7 +34697,7 @@
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B895" s="1" t="n">
         <v>44561</v>
@@ -34703,7 +34706,7 @@
         <v>44405</v>
       </c>
       <c r="D895" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E895" t="n">
         <v>0.606060606060606</v>
@@ -34729,7 +34732,7 @@
     </row>
     <row r="896">
       <c r="A896" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B896" s="1" t="n">
         <v>44561</v>
@@ -34738,7 +34741,7 @@
         <v>44403</v>
       </c>
       <c r="D896" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E896" t="n">
         <v>0.484848484848485</v>
@@ -34834,7 +34837,7 @@
     </row>
     <row r="899">
       <c r="A899" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B899" s="1" t="n">
         <v>44561</v>
@@ -34843,7 +34846,7 @@
         <v>44407</v>
       </c>
       <c r="D899" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E899" t="n">
         <v>0.696969696969697</v>
@@ -34974,7 +34977,7 @@
     </row>
     <row r="903">
       <c r="A903" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B903" s="1" t="n">
         <v>44561</v>
@@ -34983,7 +34986,7 @@
         <v>44391</v>
       </c>
       <c r="D903" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E903" t="n">
         <v>0.454545454545455</v>
@@ -35438,7 +35441,7 @@
         <v>44410</v>
       </c>
       <c r="D916" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E916" t="n">
         <v>0.575757575757576</v>
@@ -35508,7 +35511,7 @@
         <v>44407</v>
       </c>
       <c r="D918" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E918" t="n">
         <v>0.696969696969697</v>
@@ -35569,7 +35572,7 @@
     </row>
     <row r="920">
       <c r="A920" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B920" s="1" t="n">
         <v>44561</v>
@@ -35578,7 +35581,7 @@
         <v>44408</v>
       </c>
       <c r="D920" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E920" t="n">
         <v>0.515151515151515</v>
@@ -36409,7 +36412,7 @@
     </row>
     <row r="944">
       <c r="A944" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B944" s="1" t="n">
         <v>44561</v>
@@ -36418,7 +36421,7 @@
         <v>44410</v>
       </c>
       <c r="D944" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E944" t="n">
         <v>0.575757575757576</v>
@@ -36444,7 +36447,7 @@
     </row>
     <row r="945">
       <c r="A945" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B945" s="1" t="n">
         <v>44561</v>
@@ -36453,7 +36456,7 @@
         <v>44410</v>
       </c>
       <c r="D945" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E945" t="n">
         <v>0.636363636363636</v>
@@ -36479,7 +36482,7 @@
     </row>
     <row r="946">
       <c r="A946" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B946" s="1" t="n">
         <v>44561</v>
@@ -36488,7 +36491,7 @@
         <v>44410</v>
       </c>
       <c r="D946" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E946" t="n">
         <v>0.636363636363636</v>
@@ -36584,7 +36587,7 @@
     </row>
     <row r="949">
       <c r="A949" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B949" s="1" t="n">
         <v>44561</v>
@@ -36593,7 +36596,7 @@
         <v>44386</v>
       </c>
       <c r="D949" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E949" t="n">
         <v>0.575757575757576</v>
@@ -36724,7 +36727,7 @@
     </row>
     <row r="953">
       <c r="A953" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B953" s="1" t="n">
         <v>44286</v>
@@ -36733,7 +36736,7 @@
         <v>44193</v>
       </c>
       <c r="D953" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E953" t="n">
         <v>0.575757575757576</v>
@@ -36934,7 +36937,7 @@
     </row>
     <row r="959">
       <c r="A959" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B959" s="1" t="n">
         <v>44561</v>
@@ -36943,7 +36946,7 @@
         <v>44407</v>
       </c>
       <c r="D959" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E959" t="n">
         <v>0.636363636363636</v>
@@ -37249,7 +37252,7 @@
     </row>
     <row r="968">
       <c r="A968" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B968" s="1" t="n">
         <v>44561</v>
@@ -37258,7 +37261,7 @@
         <v>44407</v>
       </c>
       <c r="D968" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E968" t="n">
         <v>0.424242424242424</v>
@@ -37389,7 +37392,7 @@
     </row>
     <row r="972">
       <c r="A972" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B972" s="1" t="n">
         <v>44561</v>
@@ -37398,7 +37401,7 @@
         <v>44406</v>
       </c>
       <c r="D972" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E972" t="n">
         <v>0.545454545454545</v>
@@ -37529,7 +37532,7 @@
     </row>
     <row r="976">
       <c r="A976" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B976" s="1" t="n">
         <v>44561</v>
@@ -37538,7 +37541,7 @@
         <v>44410</v>
       </c>
       <c r="D976" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E976" t="n">
         <v>0.606060606060606</v>
@@ -38054,7 +38057,7 @@
     </row>
     <row r="991">
       <c r="A991" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B991" s="1" t="n">
         <v>44561</v>
@@ -38063,7 +38066,7 @@
         <v>44407</v>
       </c>
       <c r="D991" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E991" t="n">
         <v>0.545454545454545</v>
@@ -38159,7 +38162,7 @@
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B994" s="1" t="n">
         <v>44561</v>
@@ -38168,7 +38171,7 @@
         <v>44410</v>
       </c>
       <c r="D994" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E994" t="n">
         <v>0.606060606060606</v>
@@ -38229,7 +38232,7 @@
     </row>
     <row r="996">
       <c r="A996" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B996" s="1" t="n">
         <v>44561</v>
@@ -38238,7 +38241,7 @@
         <v>44407</v>
       </c>
       <c r="D996" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E996" t="n">
         <v>0.606060606060606</v>
@@ -38334,7 +38337,7 @@
     </row>
     <row r="999">
       <c r="A999" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B999" s="1" t="n">
         <v>44561</v>
@@ -38343,7 +38346,7 @@
         <v>44404</v>
       </c>
       <c r="D999" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E999" t="n">
         <v>0.666666666666667</v>
@@ -38404,7 +38407,7 @@
     </row>
     <row r="1001">
       <c r="A1001" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1001" s="1" t="n">
         <v>44561</v>
@@ -38413,7 +38416,7 @@
         <v>44410</v>
       </c>
       <c r="D1001" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E1001" t="n">
         <v>0.575757575757576</v>
@@ -38448,7 +38451,7 @@
         <v>44407</v>
       </c>
       <c r="D1002" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E1002" t="n">
         <v>0.454545454545455</v>
@@ -38474,7 +38477,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1003" s="1" t="n">
         <v>44561</v>
@@ -38483,7 +38486,7 @@
         <v>44407</v>
       </c>
       <c r="D1003" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1003" t="n">
         <v>0.666666666666667</v>
@@ -38544,7 +38547,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1005" s="1" t="n">
         <v>44561</v>
@@ -38553,7 +38556,7 @@
         <v>44410</v>
       </c>
       <c r="D1005" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1005" t="n">
         <v>0.515151515151515</v>
@@ -38614,7 +38617,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1007" s="1" t="n">
         <v>44561</v>
@@ -38623,7 +38626,7 @@
         <v>44407</v>
       </c>
       <c r="D1007" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1007" t="n">
         <v>0.666666666666667</v>
@@ -38789,7 +38792,7 @@
     </row>
     <row r="1012">
       <c r="A1012" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1012" s="1" t="n">
         <v>44561</v>
@@ -38798,7 +38801,7 @@
         <v>44407</v>
       </c>
       <c r="D1012" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1012" t="n">
         <v>0.636363636363636</v>
@@ -38833,7 +38836,7 @@
         <v>44400</v>
       </c>
       <c r="D1013" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E1013" t="n">
         <v>0.545454545454545</v>
@@ -38859,7 +38862,7 @@
     </row>
     <row r="1014">
       <c r="A1014" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1014" s="1" t="n">
         <v>44561</v>
@@ -38868,7 +38871,7 @@
         <v>44410</v>
       </c>
       <c r="D1014" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1014" t="n">
         <v>0.696969696969697</v>
@@ -38894,7 +38897,7 @@
     </row>
     <row r="1015">
       <c r="A1015" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1015" s="1" t="n">
         <v>44561</v>
@@ -38903,7 +38906,7 @@
         <v>44408</v>
       </c>
       <c r="D1015" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1015" t="n">
         <v>0.636363636363636</v>
@@ -38964,7 +38967,7 @@
     </row>
     <row r="1017">
       <c r="A1017" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B1017" s="1" t="n">
         <v>44561</v>
@@ -38973,7 +38976,7 @@
         <v>44407</v>
       </c>
       <c r="D1017" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E1017" t="n">
         <v>0.606060606060606</v>
@@ -39069,7 +39072,7 @@
     </row>
     <row r="1020">
       <c r="A1020" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1020" s="1" t="n">
         <v>44561</v>
@@ -39078,7 +39081,7 @@
         <v>44410</v>
       </c>
       <c r="D1020" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1020" t="n">
         <v>0.696969696969697</v>
@@ -39139,7 +39142,7 @@
     </row>
     <row r="1022">
       <c r="A1022" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1022" s="1" t="n">
         <v>44561</v>
@@ -39148,7 +39151,7 @@
         <v>44407</v>
       </c>
       <c r="D1022" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1022" t="n">
         <v>0.545454545454545</v>
@@ -39244,7 +39247,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1025" s="1" t="n">
         <v>44561</v>
@@ -39253,7 +39256,7 @@
         <v>44406</v>
       </c>
       <c r="D1025" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1025" t="n">
         <v>0.636363636363636</v>
@@ -39279,7 +39282,7 @@
     </row>
     <row r="1026">
       <c r="A1026" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1026" s="1" t="n">
         <v>44561</v>
@@ -39288,7 +39291,7 @@
         <v>44407</v>
       </c>
       <c r="D1026" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1026" t="n">
         <v>0.696969696969697</v>
@@ -39384,7 +39387,7 @@
     </row>
     <row r="1029">
       <c r="A1029" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1029" s="1" t="n">
         <v>44561</v>
@@ -39393,7 +39396,7 @@
         <v>44407</v>
       </c>
       <c r="D1029" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E1029" t="n">
         <v>0.636363636363636</v>
@@ -39454,7 +39457,7 @@
     </row>
     <row r="1031">
       <c r="A1031" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B1031" s="1" t="n">
         <v>44561</v>
@@ -39463,7 +39466,7 @@
         <v>44407</v>
       </c>
       <c r="D1031" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E1031" t="n">
         <v>0.515151515151515</v>
@@ -39489,7 +39492,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1032" s="1" t="n">
         <v>44561</v>
@@ -39498,7 +39501,7 @@
         <v>44407</v>
       </c>
       <c r="D1032" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1032" t="n">
         <v>0.545454545454545</v>
@@ -39524,7 +39527,7 @@
     </row>
     <row r="1033">
       <c r="A1033" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B1033" s="1" t="n">
         <v>44561</v>
@@ -39533,7 +39536,7 @@
         <v>44407</v>
       </c>
       <c r="D1033" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E1033" t="n">
         <v>0.606060606060606</v>
@@ -39559,7 +39562,7 @@
     </row>
     <row r="1034">
       <c r="A1034" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B1034" s="1" t="n">
         <v>44561</v>
@@ -39568,7 +39571,7 @@
         <v>44407</v>
       </c>
       <c r="D1034" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E1034" t="n">
         <v>0.606060606060606</v>
@@ -39594,7 +39597,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1035" s="1" t="n">
         <v>44561</v>
@@ -39603,7 +39606,7 @@
         <v>44410</v>
       </c>
       <c r="D1035" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1035" t="n">
         <v>0.696969696969697</v>
@@ -39629,7 +39632,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1036" s="1" t="n">
         <v>44561</v>
@@ -39638,7 +39641,7 @@
         <v>44407</v>
       </c>
       <c r="D1036" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1036" t="n">
         <v>0.666666666666667</v>
@@ -39664,7 +39667,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B1037" s="1" t="n">
         <v>44561</v>
@@ -39673,7 +39676,7 @@
         <v>44407</v>
       </c>
       <c r="D1037" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E1037" t="n">
         <v>0.636363636363636</v>
@@ -39699,7 +39702,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B1038" s="1" t="n">
         <v>44561</v>
@@ -39708,7 +39711,7 @@
         <v>44407</v>
       </c>
       <c r="D1038" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E1038" t="n">
         <v>0.636363636363636</v>
@@ -39804,7 +39807,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1041" s="1" t="n">
         <v>44561</v>
@@ -39813,7 +39816,7 @@
         <v>44406</v>
       </c>
       <c r="D1041" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1041" t="n">
         <v>0.666666666666667</v>
@@ -39874,7 +39877,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1043" s="1" t="n">
         <v>44561</v>
@@ -39883,7 +39886,7 @@
         <v>44407</v>
       </c>
       <c r="D1043" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1043" t="n">
         <v>0.636363636363636</v>
@@ -39909,7 +39912,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1044" s="1" t="n">
         <v>44561</v>
@@ -39918,7 +39921,7 @@
         <v>44410</v>
       </c>
       <c r="D1044" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1044" t="n">
         <v>0.636363636363636</v>
@@ -39944,7 +39947,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1045" s="1" t="n">
         <v>44561</v>
@@ -39953,7 +39956,7 @@
         <v>44407</v>
       </c>
       <c r="D1045" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1045" t="n">
         <v>0.515151515151515</v>
@@ -39979,7 +39982,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1046" s="1" t="n">
         <v>44561</v>
@@ -39988,7 +39991,7 @@
         <v>44410</v>
       </c>
       <c r="D1046" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1046" t="n">
         <v>0.636363636363636</v>
@@ -40224,7 +40227,7 @@
     </row>
     <row r="1053">
       <c r="A1053" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B1053" s="1" t="n">
         <v>44286</v>
@@ -40233,7 +40236,7 @@
         <v>44165</v>
       </c>
       <c r="D1053" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E1053" t="n">
         <v>0.696969696969697</v>
@@ -40259,7 +40262,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1054" s="1" t="n">
         <v>44561</v>
@@ -40268,7 +40271,7 @@
         <v>44410</v>
       </c>
       <c r="D1054" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1054" t="n">
         <v>0.484848484848485</v>
@@ -40338,7 +40341,7 @@
         <v>44410</v>
       </c>
       <c r="D1056" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E1056" t="n">
         <v>0.515151515151515</v>
@@ -40434,7 +40437,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1059" s="1" t="n">
         <v>44561</v>
@@ -40443,7 +40446,7 @@
         <v>44410</v>
       </c>
       <c r="D1059" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1059" t="n">
         <v>0.636363636363636</v>
@@ -40469,7 +40472,7 @@
     </row>
     <row r="1060">
       <c r="A1060" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1060" s="1" t="n">
         <v>44561</v>
@@ -40478,7 +40481,7 @@
         <v>44406</v>
       </c>
       <c r="D1060" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1060" t="n">
         <v>0.666666666666667</v>
@@ -40504,7 +40507,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1061" s="1" t="n">
         <v>44561</v>
@@ -40513,7 +40516,7 @@
         <v>44407</v>
       </c>
       <c r="D1061" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1061" t="n">
         <v>0.606060606060606</v>
@@ -40924,7 +40927,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1073" s="1" t="n">
         <v>44561</v>
@@ -40933,7 +40936,7 @@
         <v>44407</v>
       </c>
       <c r="D1073" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1073" t="n">
         <v>0.606060606060606</v>
@@ -40959,7 +40962,7 @@
     </row>
     <row r="1074">
       <c r="A1074" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B1074" s="1" t="n">
         <v>44561</v>
@@ -40968,7 +40971,7 @@
         <v>44398</v>
       </c>
       <c r="D1074" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E1074" t="n">
         <v>0.515151515151515</v>
@@ -40994,7 +40997,7 @@
     </row>
     <row r="1075">
       <c r="A1075" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1075" s="1" t="n">
         <v>44561</v>
@@ -41003,7 +41006,7 @@
         <v>44408</v>
       </c>
       <c r="D1075" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1075" t="n">
         <v>0.484848484848485</v>
@@ -41134,7 +41137,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1079" s="1" t="n">
         <v>44561</v>
@@ -41143,7 +41146,7 @@
         <v>44410</v>
       </c>
       <c r="D1079" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1079" t="n">
         <v>0.575757575757576</v>
@@ -41204,7 +41207,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1081" s="1" t="n">
         <v>44561</v>
@@ -41213,7 +41216,7 @@
         <v>44407</v>
       </c>
       <c r="D1081" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1081" t="n">
         <v>0.727272727272727</v>
@@ -41248,7 +41251,7 @@
         <v>44347</v>
       </c>
       <c r="D1082" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E1082" t="n">
         <v>0.606060606060606</v>
@@ -41274,7 +41277,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1083" s="1" t="n">
         <v>44561</v>
@@ -41283,7 +41286,7 @@
         <v>44407</v>
       </c>
       <c r="D1083" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E1083" t="n">
         <v>0.606060606060606</v>
@@ -41318,7 +41321,7 @@
         <v>44391</v>
       </c>
       <c r="D1084" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E1084" t="n">
         <v>0.545454545454545</v>
@@ -41414,7 +41417,7 @@
     </row>
     <row r="1087">
       <c r="A1087" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B1087" s="1" t="n">
         <v>44561</v>
@@ -41423,7 +41426,7 @@
         <v>44407</v>
       </c>
       <c r="D1087" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E1087" t="n">
         <v>0.606060606060606</v>
@@ -41484,7 +41487,7 @@
     </row>
     <row r="1089">
       <c r="A1089" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B1089" s="1" t="n">
         <v>44561</v>
@@ -41493,7 +41496,7 @@
         <v>44407</v>
       </c>
       <c r="D1089" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E1089" t="n">
         <v>0.575757575757576</v>
@@ -41589,7 +41592,7 @@
     </row>
     <row r="1092">
       <c r="A1092" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B1092" s="1" t="n">
         <v>44561</v>
@@ -41598,7 +41601,7 @@
         <v>44410</v>
       </c>
       <c r="D1092" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E1092" t="n">
         <v>0.636363636363636</v>
@@ -41624,7 +41627,7 @@
     </row>
     <row r="1093">
       <c r="A1093" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1093" s="1" t="n">
         <v>44561</v>
@@ -41633,7 +41636,7 @@
         <v>44407</v>
       </c>
       <c r="D1093" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E1093" t="n">
         <v>0.575757575757576</v>
@@ -41659,7 +41662,7 @@
     </row>
     <row r="1094">
       <c r="A1094" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B1094" s="1" t="n">
         <v>44561</v>
@@ -41668,7 +41671,7 @@
         <v>44410</v>
       </c>
       <c r="D1094" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E1094" t="n">
         <v>0.575757575757576</v>
@@ -41694,7 +41697,7 @@
     </row>
     <row r="1095">
       <c r="A1095" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B1095" s="1" t="n">
         <v>44561</v>
@@ -41703,7 +41706,7 @@
         <v>44407</v>
       </c>
       <c r="D1095" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E1095" t="n">
         <v>0.636363636363636</v>
@@ -41729,7 +41732,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B1096" s="1" t="n">
         <v>44561</v>
@@ -41738,7 +41741,7 @@
         <v>44407</v>
       </c>
       <c r="D1096" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E1096" t="n">
         <v>0.606060606060606</v>
@@ -41764,7 +41767,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B1097" s="1" t="n">
         <v>44561</v>
@@ -41773,7 +41776,7 @@
         <v>44407</v>
       </c>
       <c r="D1097" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1097" t="n">
         <v>0.636363636363636</v>
@@ -41799,7 +41802,7 @@
     </row>
     <row r="1098">
       <c r="A1098" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B1098" s="1" t="n">
         <v>44561</v>
@@ -41808,7 +41811,7 @@
         <v>44407</v>
       </c>
       <c r="D1098" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E1098" t="n">
         <v>0.606060606060606</v>
@@ -42044,7 +42047,7 @@
     </row>
     <row r="1105">
       <c r="A1105" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B1105" s="1" t="n">
         <v>44561</v>
@@ -42053,7 +42056,7 @@
         <v>44407</v>
       </c>
       <c r="D1105" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E1105" t="n">
         <v>0.545454545454545</v>
@@ -42149,7 +42152,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B1108" s="1" t="n">
         <v>44561</v>
@@ -42158,7 +42161,7 @@
         <v>44410</v>
       </c>
       <c r="D1108" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E1108" t="n">
         <v>0.727272727272727</v>
@@ -42184,7 +42187,7 @@
     </row>
     <row r="1109">
       <c r="A1109" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1109" s="1" t="n">
         <v>44561</v>
@@ -42193,7 +42196,7 @@
         <v>44407</v>
       </c>
       <c r="D1109" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1109" t="n">
         <v>0.636363636363636</v>
@@ -42219,7 +42222,7 @@
     </row>
     <row r="1110">
       <c r="A1110" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B1110" s="1" t="n">
         <v>44561</v>
@@ -42228,7 +42231,7 @@
         <v>44410</v>
       </c>
       <c r="D1110" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E1110" t="n">
         <v>0.606060606060606</v>
@@ -42289,7 +42292,7 @@
     </row>
     <row r="1112">
       <c r="A1112" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B1112" s="1" t="n">
         <v>44561</v>
@@ -42298,7 +42301,7 @@
         <v>44547</v>
       </c>
       <c r="D1112" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E1112" t="n">
         <v>0.636363636363636</v>
@@ -42438,7 +42441,7 @@
         <v>44410</v>
       </c>
       <c r="D1116" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E1116" t="n">
         <v>0.727272727272727</v>
@@ -42989,7 +42992,7 @@
     </row>
     <row r="1132">
       <c r="A1132" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B1132" s="1" t="n">
         <v>44561</v>
@@ -42998,7 +43001,7 @@
         <v>44407</v>
       </c>
       <c r="D1132" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E1132" t="n">
         <v>0.606060606060606</v>
@@ -43164,7 +43167,7 @@
     </row>
     <row r="1137">
       <c r="A1137" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B1137" s="1" t="n">
         <v>44561</v>
@@ -43173,7 +43176,7 @@
         <v>44223</v>
       </c>
       <c r="D1137" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E1137" t="n">
         <v>0.515151515151515</v>
@@ -43269,7 +43272,7 @@
     </row>
     <row r="1140">
       <c r="A1140" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B1140" s="1" t="n">
         <v>44561</v>
@@ -43278,7 +43281,7 @@
         <v>44407</v>
       </c>
       <c r="D1140" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E1140" t="n">
         <v>0.575757575757576</v>
@@ -43304,7 +43307,7 @@
     </row>
     <row r="1141">
       <c r="A1141" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1141" s="1" t="n">
         <v>44561</v>
@@ -43313,7 +43316,7 @@
         <v>44407</v>
       </c>
       <c r="D1141" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E1141" t="n">
         <v>0.515151515151515</v>
@@ -43339,7 +43342,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1142" s="1" t="n">
         <v>44561</v>
@@ -43348,7 +43351,7 @@
         <v>44407</v>
       </c>
       <c r="D1142" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E1142" t="n">
         <v>0.666666666666667</v>
@@ -43374,7 +43377,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1143" s="1" t="n">
         <v>44561</v>
@@ -43383,7 +43386,7 @@
         <v>44410</v>
       </c>
       <c r="D1143" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1143" t="n">
         <v>0.454545454545455</v>
@@ -43689,7 +43692,7 @@
     </row>
     <row r="1152">
       <c r="A1152" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B1152" s="1" t="n">
         <v>44561</v>
@@ -43698,7 +43701,7 @@
         <v>44407</v>
       </c>
       <c r="D1152" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E1152" t="n">
         <v>0.575757575757576</v>
@@ -43724,7 +43727,7 @@
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B1153" s="1" t="n">
         <v>44561</v>
@@ -43733,7 +43736,7 @@
         <v>44411</v>
       </c>
       <c r="D1153" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E1153" t="n">
         <v>0.606060606060606</v>
@@ -44564,7 +44567,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B1177" s="1" t="n">
         <v>44561</v>
@@ -44573,7 +44576,7 @@
         <v>44410</v>
       </c>
       <c r="D1177" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E1177" t="n">
         <v>0.575757575757576</v>
@@ -44599,7 +44602,7 @@
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B1178" s="1" t="n">
         <v>44561</v>
@@ -44608,7 +44611,7 @@
         <v>44410</v>
       </c>
       <c r="D1178" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E1178" t="n">
         <v>0.575757575757576</v>
@@ -44669,7 +44672,7 @@
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B1180" s="1" t="n">
         <v>44561</v>
@@ -44678,7 +44681,7 @@
         <v>44410</v>
       </c>
       <c r="D1180" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E1180" t="n">
         <v>0.666666666666667</v>
@@ -44809,7 +44812,7 @@
     </row>
     <row r="1184">
       <c r="A1184" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B1184" s="1" t="n">
         <v>44561</v>
@@ -44818,7 +44821,7 @@
         <v>44407</v>
       </c>
       <c r="D1184" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E1184" t="n">
         <v>0.636363636363636</v>
@@ -45483,7 +45486,7 @@
         <v>44406</v>
       </c>
       <c r="D1203" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E1203" t="n">
         <v>0.606060606060606</v>
@@ -45719,7 +45722,7 @@
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B1210" s="1" t="n">
         <v>44561</v>
@@ -45728,7 +45731,7 @@
         <v>44407</v>
       </c>
       <c r="D1210" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E1210" t="n">
         <v>0.606060606060606</v>
@@ -45999,7 +46002,7 @@
     </row>
     <row r="1218">
       <c r="A1218" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B1218" s="1" t="n">
         <v>44561</v>
@@ -46008,7 +46011,7 @@
         <v>44410</v>
       </c>
       <c r="D1218" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E1218" t="n">
         <v>0.636363636363636</v>
@@ -46034,7 +46037,7 @@
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B1219" s="1" t="n">
         <v>44561</v>
@@ -46043,7 +46046,7 @@
         <v>44404</v>
       </c>
       <c r="D1219" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E1219" t="n">
         <v>0.636363636363636</v>
@@ -46069,7 +46072,7 @@
     </row>
     <row r="1220">
       <c r="A1220" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B1220" s="1" t="n">
         <v>44255</v>
@@ -46078,7 +46081,7 @@
         <v>44103</v>
       </c>
       <c r="D1220" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E1220" t="n">
         <v>0.636363636363636</v>
@@ -46314,7 +46317,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B1227" s="1" t="n">
         <v>44561</v>
@@ -46323,7 +46326,7 @@
         <v>44410</v>
       </c>
       <c r="D1227" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E1227" t="n">
         <v>0.696969696969697</v>
@@ -46734,7 +46737,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B1239" s="1" t="n">
         <v>44561</v>
@@ -46743,7 +46746,7 @@
         <v>44407</v>
       </c>
       <c r="D1239" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E1239" t="n">
         <v>0.727272727272727</v>
@@ -47329,7 +47332,7 @@
     </row>
     <row r="1256">
       <c r="A1256" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B1256" s="1" t="n">
         <v>44377</v>
@@ -47338,7 +47341,7 @@
         <v>44225</v>
       </c>
       <c r="D1256" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E1256" t="n">
         <v>0.454545454545455</v>
@@ -48003,7 +48006,7 @@
         <v>44407</v>
       </c>
       <c r="D1275" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E1275" t="n">
         <v>0.696969696969697</v>
@@ -48204,7 +48207,7 @@
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B1281" s="1" t="n">
         <v>44561</v>
@@ -48213,7 +48216,7 @@
         <v>44406</v>
       </c>
       <c r="D1281" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E1281" t="n">
         <v>0.696969696969697</v>
@@ -48274,7 +48277,7 @@
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B1283" s="1" t="n">
         <v>44561</v>
@@ -48283,7 +48286,7 @@
         <v>44406</v>
       </c>
       <c r="D1283" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E1283" t="n">
         <v>0.636363636363636</v>
@@ -48309,7 +48312,7 @@
     </row>
     <row r="1284">
       <c r="A1284" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B1284" s="1" t="n">
         <v>44561</v>
@@ -48318,7 +48321,7 @@
         <v>44407</v>
       </c>
       <c r="D1284" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E1284" t="n">
         <v>0.606060606060606</v>
@@ -48554,7 +48557,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B1291" s="1" t="n">
         <v>44926</v>
@@ -48563,7 +48566,7 @@
         <v>44761</v>
       </c>
       <c r="D1291" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E1291" t="n">
         <v>0.666666666666667</v>
@@ -48589,7 +48592,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B1292" s="1" t="n">
         <v>44926</v>
@@ -48598,7 +48601,7 @@
         <v>44774</v>
       </c>
       <c r="D1292" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E1292" t="n">
         <v>0.636363636363636</v>
@@ -48624,7 +48627,7 @@
     </row>
     <row r="1293">
       <c r="A1293" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B1293" s="1" t="n">
         <v>44926</v>
@@ -48633,7 +48636,7 @@
         <v>44771</v>
       </c>
       <c r="D1293" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E1293" t="n">
         <v>0.696969696969697</v>
@@ -49184,7 +49187,7 @@
     </row>
     <row r="1309">
       <c r="A1309" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B1309" s="1" t="n">
         <v>44926</v>
@@ -49193,7 +49196,7 @@
         <v>44771</v>
       </c>
       <c r="D1309" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E1309" t="n">
         <v>0.454545454545455</v>
@@ -49473,7 +49476,7 @@
         <v>44768</v>
       </c>
       <c r="D1317" t="s">
-        <v>284</v>
+        <v>746</v>
       </c>
       <c r="E1317" t="n">
         <v>0.454545454545455</v>
@@ -49534,7 +49537,7 @@
     </row>
     <row r="1319">
       <c r="A1319" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B1319" s="1" t="n">
         <v>44926</v>
@@ -49543,7 +49546,7 @@
         <v>44770</v>
       </c>
       <c r="D1319" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E1319" t="n">
         <v>0.636363636363636</v>
@@ -49674,7 +49677,7 @@
     </row>
     <row r="1323">
       <c r="A1323" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B1323" s="1" t="n">
         <v>44926</v>
@@ -49683,7 +49686,7 @@
         <v>44770</v>
       </c>
       <c r="D1323" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E1323" t="n">
         <v>0.454545454545455</v>
@@ -49744,7 +49747,7 @@
     </row>
     <row r="1325">
       <c r="A1325" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B1325" s="1" t="n">
         <v>44926</v>
@@ -49753,7 +49756,7 @@
         <v>44767</v>
       </c>
       <c r="D1325" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E1325" t="n">
         <v>0.606060606060606</v>
@@ -49779,7 +49782,7 @@
     </row>
     <row r="1326">
       <c r="A1326" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B1326" s="1" t="n">
         <v>44926</v>
@@ -49788,7 +49791,7 @@
         <v>44727</v>
       </c>
       <c r="D1326" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E1326" t="n">
         <v>0.484848484848485</v>
@@ -49884,7 +49887,7 @@
     </row>
     <row r="1329">
       <c r="A1329" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B1329" s="1" t="n">
         <v>44926</v>
@@ -49893,7 +49896,7 @@
         <v>44774</v>
       </c>
       <c r="D1329" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E1329" t="n">
         <v>0.636363636363636</v>
@@ -50024,7 +50027,7 @@
     </row>
     <row r="1333">
       <c r="A1333" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B1333" s="1" t="n">
         <v>44926</v>
@@ -50033,7 +50036,7 @@
         <v>44770</v>
       </c>
       <c r="D1333" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E1333" t="n">
         <v>0.454545454545455</v>
@@ -50059,7 +50062,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B1334" s="1" t="n">
         <v>44651</v>
@@ -50068,7 +50071,7 @@
         <v>44501</v>
       </c>
       <c r="D1334" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E1334" t="n">
         <v>0.606060606060606</v>
@@ -50523,7 +50526,7 @@
         <v>44768</v>
       </c>
       <c r="D1347" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E1347" t="n">
         <v>0.636363636363636</v>
@@ -50593,7 +50596,7 @@
         <v>44772</v>
       </c>
       <c r="D1349" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E1349" t="n">
         <v>0.636363636363636</v>
@@ -50654,7 +50657,7 @@
     </row>
     <row r="1351">
       <c r="A1351" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B1351" s="1" t="n">
         <v>44926</v>
@@ -50663,7 +50666,7 @@
         <v>44771</v>
       </c>
       <c r="D1351" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E1351" t="n">
         <v>0.606060606060606</v>
@@ -50759,7 +50762,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B1354" s="1" t="n">
         <v>44926</v>
@@ -50768,7 +50771,7 @@
         <v>44755</v>
       </c>
       <c r="D1354" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E1354" t="n">
         <v>0.636363636363636</v>
@@ -50829,7 +50832,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B1356" s="1" t="n">
         <v>44926</v>
@@ -50838,7 +50841,7 @@
         <v>44771</v>
       </c>
       <c r="D1356" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E1356" t="n">
         <v>0.666666666666667</v>
@@ -51459,7 +51462,7 @@
     </row>
     <row r="1374">
       <c r="A1374" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B1374" s="1" t="n">
         <v>44926</v>
@@ -51468,7 +51471,7 @@
         <v>44768</v>
       </c>
       <c r="D1374" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E1374" t="n">
         <v>0.575757575757576</v>
@@ -51494,7 +51497,7 @@
     </row>
     <row r="1375">
       <c r="A1375" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B1375" s="1" t="n">
         <v>44926</v>
@@ -51503,7 +51506,7 @@
         <v>44771</v>
       </c>
       <c r="D1375" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E1375" t="n">
         <v>0.636363636363636</v>
@@ -51529,7 +51532,7 @@
     </row>
     <row r="1376">
       <c r="A1376" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B1376" s="1" t="n">
         <v>44926</v>
@@ -51538,7 +51541,7 @@
         <v>44774</v>
       </c>
       <c r="D1376" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E1376" t="n">
         <v>0.636363636363636</v>
@@ -51634,7 +51637,7 @@
     </row>
     <row r="1379">
       <c r="A1379" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B1379" s="1" t="n">
         <v>44926</v>
@@ -51643,7 +51646,7 @@
         <v>44750</v>
       </c>
       <c r="D1379" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E1379" t="n">
         <v>0.575757575757576</v>
@@ -51739,7 +51742,7 @@
     </row>
     <row r="1382">
       <c r="A1382" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B1382" s="1" t="n">
         <v>44651</v>
@@ -51748,7 +51751,7 @@
         <v>44498</v>
       </c>
       <c r="D1382" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E1382" t="n">
         <v>0.575757575757576</v>
@@ -51949,7 +51952,7 @@
     </row>
     <row r="1388">
       <c r="A1388" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B1388" s="1" t="n">
         <v>44926</v>
@@ -51958,7 +51961,7 @@
         <v>44771</v>
       </c>
       <c r="D1388" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E1388" t="n">
         <v>0.636363636363636</v>
@@ -52159,7 +52162,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B1394" s="1" t="n">
         <v>44926</v>
@@ -52168,7 +52171,7 @@
         <v>44760</v>
       </c>
       <c r="D1394" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E1394" t="n">
         <v>0.484848484848485</v>
@@ -52299,7 +52302,7 @@
     </row>
     <row r="1398">
       <c r="A1398" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B1398" s="1" t="n">
         <v>44926</v>
@@ -52308,7 +52311,7 @@
         <v>44770</v>
       </c>
       <c r="D1398" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E1398" t="n">
         <v>0.424242424242424</v>
@@ -52439,7 +52442,7 @@
     </row>
     <row r="1402">
       <c r="A1402" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B1402" s="1" t="n">
         <v>44926</v>
@@ -52448,7 +52451,7 @@
         <v>44771</v>
       </c>
       <c r="D1402" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E1402" t="n">
         <v>0.545454545454545</v>
@@ -52579,7 +52582,7 @@
     </row>
     <row r="1406">
       <c r="A1406" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B1406" s="1" t="n">
         <v>44926</v>
@@ -52588,7 +52591,7 @@
         <v>44771</v>
       </c>
       <c r="D1406" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E1406" t="n">
         <v>0.636363636363636</v>
@@ -53069,7 +53072,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B1420" s="1" t="n">
         <v>44926</v>
@@ -53078,7 +53081,7 @@
         <v>44770</v>
       </c>
       <c r="D1420" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E1420" t="n">
         <v>0.696969696969697</v>
@@ -53139,7 +53142,7 @@
     </row>
     <row r="1422">
       <c r="A1422" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B1422" s="1" t="n">
         <v>44926</v>
@@ -53148,7 +53151,7 @@
         <v>44771</v>
       </c>
       <c r="D1422" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E1422" t="n">
         <v>0.545454545454545</v>
@@ -53244,7 +53247,7 @@
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B1425" s="1" t="n">
         <v>44926</v>
@@ -53253,7 +53256,7 @@
         <v>44774</v>
       </c>
       <c r="D1425" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E1425" t="n">
         <v>0.606060606060606</v>
@@ -53314,7 +53317,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B1427" s="1" t="n">
         <v>44926</v>
@@ -53323,7 +53326,7 @@
         <v>44771</v>
       </c>
       <c r="D1427" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E1427" t="n">
         <v>0.606060606060606</v>
@@ -53419,7 +53422,7 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B1430" s="1" t="n">
         <v>44926</v>
@@ -53428,7 +53431,7 @@
         <v>44771</v>
       </c>
       <c r="D1430" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E1430" t="n">
         <v>0.575757575757576</v>
@@ -53498,7 +53501,7 @@
         <v>44771</v>
       </c>
       <c r="D1432" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E1432" t="n">
         <v>0.606060606060606</v>
@@ -53524,7 +53527,7 @@
     </row>
     <row r="1433">
       <c r="A1433" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1433" s="1" t="n">
         <v>44926</v>
@@ -53533,7 +53536,7 @@
         <v>44771</v>
       </c>
       <c r="D1433" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1433" t="n">
         <v>0.666666666666667</v>
@@ -53594,7 +53597,7 @@
     </row>
     <row r="1435">
       <c r="A1435" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1435" s="1" t="n">
         <v>44926</v>
@@ -53603,7 +53606,7 @@
         <v>44774</v>
       </c>
       <c r="D1435" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1435" t="n">
         <v>0.515151515151515</v>
@@ -53629,7 +53632,7 @@
     </row>
     <row r="1436">
       <c r="A1436" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1436" s="1" t="n">
         <v>44926</v>
@@ -53638,7 +53641,7 @@
         <v>44771</v>
       </c>
       <c r="D1436" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1436" t="n">
         <v>0.666666666666667</v>
@@ -53804,7 +53807,7 @@
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1441" s="1" t="n">
         <v>44926</v>
@@ -53813,7 +53816,7 @@
         <v>44769</v>
       </c>
       <c r="D1441" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1441" t="n">
         <v>0.636363636363636</v>
@@ -53848,7 +53851,7 @@
         <v>44771</v>
       </c>
       <c r="D1442" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E1442" t="n">
         <v>0.545454545454545</v>
@@ -53874,7 +53877,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1443" s="1" t="n">
         <v>44926</v>
@@ -53883,7 +53886,7 @@
         <v>44771</v>
       </c>
       <c r="D1443" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1443" t="n">
         <v>0.636363636363636</v>
@@ -53944,7 +53947,7 @@
     </row>
     <row r="1445">
       <c r="A1445" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B1445" s="1" t="n">
         <v>44926</v>
@@ -53953,7 +53956,7 @@
         <v>44771</v>
       </c>
       <c r="D1445" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E1445" t="n">
         <v>0.575757575757576</v>
@@ -54014,7 +54017,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B1447" s="1" t="n">
         <v>44926</v>
@@ -54023,7 +54026,7 @@
         <v>44771</v>
       </c>
       <c r="D1447" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E1447" t="n">
         <v>0.636363636363636</v>
@@ -54084,7 +54087,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1449" s="1" t="n">
         <v>44926</v>
@@ -54093,7 +54096,7 @@
         <v>44767</v>
       </c>
       <c r="D1449" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1449" t="n">
         <v>0.666666666666667</v>
@@ -54154,7 +54157,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1451" s="1" t="n">
         <v>44926</v>
@@ -54163,7 +54166,7 @@
         <v>44770</v>
       </c>
       <c r="D1451" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1451" t="n">
         <v>0.666666666666667</v>
@@ -54259,7 +54262,7 @@
     </row>
     <row r="1454">
       <c r="A1454" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1454" s="1" t="n">
         <v>44926</v>
@@ -54268,7 +54271,7 @@
         <v>44771</v>
       </c>
       <c r="D1454" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1454" t="n">
         <v>0.636363636363636</v>
@@ -54294,7 +54297,7 @@
     </row>
     <row r="1455">
       <c r="A1455" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1455" s="1" t="n">
         <v>44926</v>
@@ -54303,7 +54306,7 @@
         <v>44771</v>
       </c>
       <c r="D1455" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1455" t="n">
         <v>0.696969696969697</v>
@@ -54399,7 +54402,7 @@
     </row>
     <row r="1458">
       <c r="A1458" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1458" s="1" t="n">
         <v>44926</v>
@@ -54408,7 +54411,7 @@
         <v>44771</v>
       </c>
       <c r="D1458" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E1458" t="n">
         <v>0.636363636363636</v>
@@ -54469,7 +54472,7 @@
     </row>
     <row r="1460">
       <c r="A1460" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B1460" s="1" t="n">
         <v>44926</v>
@@ -54478,7 +54481,7 @@
         <v>44770</v>
       </c>
       <c r="D1460" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E1460" t="n">
         <v>0.606060606060606</v>
@@ -54504,7 +54507,7 @@
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1461" s="1" t="n">
         <v>44926</v>
@@ -54513,7 +54516,7 @@
         <v>44771</v>
       </c>
       <c r="D1461" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1461" t="n">
         <v>0.606060606060606</v>
@@ -54539,7 +54542,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B1462" s="1" t="n">
         <v>44926</v>
@@ -54548,7 +54551,7 @@
         <v>44773</v>
       </c>
       <c r="D1462" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E1462" t="n">
         <v>0.636363636363636</v>
@@ -54574,7 +54577,7 @@
     </row>
     <row r="1463">
       <c r="A1463" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B1463" s="1" t="n">
         <v>44926</v>
@@ -54583,7 +54586,7 @@
         <v>44771</v>
       </c>
       <c r="D1463" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E1463" t="n">
         <v>0.606060606060606</v>
@@ -54609,7 +54612,7 @@
     </row>
     <row r="1464">
       <c r="A1464" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B1464" s="1" t="n">
         <v>44926</v>
@@ -54618,7 +54621,7 @@
         <v>44771</v>
       </c>
       <c r="D1464" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E1464" t="n">
         <v>0.666666666666667</v>
@@ -54644,7 +54647,7 @@
     </row>
     <row r="1465">
       <c r="A1465" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1465" s="1" t="n">
         <v>44926</v>
@@ -54653,7 +54656,7 @@
         <v>44771</v>
       </c>
       <c r="D1465" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1465" t="n">
         <v>0.636363636363636</v>
@@ -54679,7 +54682,7 @@
     </row>
     <row r="1466">
       <c r="A1466" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1466" s="1" t="n">
         <v>44926</v>
@@ -54688,7 +54691,7 @@
         <v>44771</v>
       </c>
       <c r="D1466" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1466" t="n">
         <v>0.666666666666667</v>
@@ -54714,7 +54717,7 @@
     </row>
     <row r="1467">
       <c r="A1467" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B1467" s="1" t="n">
         <v>44926</v>
@@ -54723,7 +54726,7 @@
         <v>44771</v>
       </c>
       <c r="D1467" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E1467" t="n">
         <v>0.636363636363636</v>
@@ -54749,7 +54752,7 @@
     </row>
     <row r="1468">
       <c r="A1468" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B1468" s="1" t="n">
         <v>44926</v>
@@ -54758,7 +54761,7 @@
         <v>44771</v>
       </c>
       <c r="D1468" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E1468" t="n">
         <v>0.606060606060606</v>
@@ -54854,7 +54857,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1471" s="1" t="n">
         <v>44926</v>
@@ -54863,7 +54866,7 @@
         <v>44770</v>
       </c>
       <c r="D1471" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1471" t="n">
         <v>0.606060606060606</v>
@@ -54924,7 +54927,7 @@
     </row>
     <row r="1473">
       <c r="A1473" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B1473" s="1" t="n">
         <v>44926</v>
@@ -54933,7 +54936,7 @@
         <v>44762</v>
       </c>
       <c r="D1473" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E1473" t="n">
         <v>0.454545454545455</v>
@@ -54959,7 +54962,7 @@
     </row>
     <row r="1474">
       <c r="A1474" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1474" s="1" t="n">
         <v>44926</v>
@@ -54968,7 +54971,7 @@
         <v>44771</v>
       </c>
       <c r="D1474" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1474" t="n">
         <v>0.636363636363636</v>
@@ -54994,7 +54997,7 @@
     </row>
     <row r="1475">
       <c r="A1475" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1475" s="1" t="n">
         <v>44926</v>
@@ -55003,7 +55006,7 @@
         <v>44742</v>
       </c>
       <c r="D1475" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1475" t="n">
         <v>0.575757575757576</v>
@@ -55029,7 +55032,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1476" s="1" t="n">
         <v>44926</v>
@@ -55038,7 +55041,7 @@
         <v>44771</v>
       </c>
       <c r="D1476" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1476" t="n">
         <v>0.575757575757576</v>
@@ -55064,7 +55067,7 @@
     </row>
     <row r="1477">
       <c r="A1477" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1477" s="1" t="n">
         <v>44926</v>
@@ -55073,7 +55076,7 @@
         <v>44770</v>
       </c>
       <c r="D1477" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1477" t="n">
         <v>0.636363636363636</v>
@@ -55344,7 +55347,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1485" s="1" t="n">
         <v>44926</v>
@@ -55353,7 +55356,7 @@
         <v>44774</v>
       </c>
       <c r="D1485" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1485" t="n">
         <v>0.484848484848485</v>
@@ -55423,7 +55426,7 @@
         <v>44753</v>
       </c>
       <c r="D1487" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E1487" t="n">
         <v>0.545454545454545</v>
@@ -55519,7 +55522,7 @@
     </row>
     <row r="1490">
       <c r="A1490" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1490" s="1" t="n">
         <v>44926</v>
@@ -55528,7 +55531,7 @@
         <v>44771</v>
       </c>
       <c r="D1490" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1490" t="n">
         <v>0.727272727272727</v>
@@ -55554,7 +55557,7 @@
     </row>
     <row r="1491">
       <c r="A1491" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1491" s="1" t="n">
         <v>44926</v>
@@ -55563,7 +55566,7 @@
         <v>44771</v>
       </c>
       <c r="D1491" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1491" t="n">
         <v>0.666666666666667</v>
@@ -55589,7 +55592,7 @@
     </row>
     <row r="1492">
       <c r="A1492" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1492" s="1" t="n">
         <v>44926</v>
@@ -55598,7 +55601,7 @@
         <v>44770</v>
       </c>
       <c r="D1492" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1492" t="n">
         <v>0.636363636363636</v>
@@ -56009,7 +56012,7 @@
     </row>
     <row r="1504">
       <c r="A1504" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1504" s="1" t="n">
         <v>44926</v>
@@ -56018,7 +56021,7 @@
         <v>44771</v>
       </c>
       <c r="D1504" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1504" t="n">
         <v>0.606060606060606</v>
@@ -56044,7 +56047,7 @@
     </row>
     <row r="1505">
       <c r="A1505" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B1505" s="1" t="n">
         <v>44926</v>
@@ -56053,7 +56056,7 @@
         <v>44774</v>
       </c>
       <c r="D1505" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E1505" t="n">
         <v>0.515151515151515</v>
@@ -56079,7 +56082,7 @@
     </row>
     <row r="1506">
       <c r="A1506" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1506" s="1" t="n">
         <v>44926</v>
@@ -56088,7 +56091,7 @@
         <v>44774</v>
       </c>
       <c r="D1506" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1506" t="n">
         <v>0.545454545454545</v>
@@ -56219,7 +56222,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1510" s="1" t="n">
         <v>44926</v>
@@ -56228,7 +56231,7 @@
         <v>44771</v>
       </c>
       <c r="D1510" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1510" t="n">
         <v>0.636363636363636</v>
@@ -56254,7 +56257,7 @@
     </row>
     <row r="1511">
       <c r="A1511" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1511" s="1" t="n">
         <v>44926</v>
@@ -56263,7 +56266,7 @@
         <v>44771</v>
       </c>
       <c r="D1511" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1511" t="n">
         <v>0.757575757575758</v>
@@ -56298,7 +56301,7 @@
         <v>44671</v>
       </c>
       <c r="D1512" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E1512" t="n">
         <v>0.636363636363636</v>
@@ -56324,7 +56327,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1513" s="1" t="n">
         <v>44926</v>
@@ -56333,7 +56336,7 @@
         <v>44771</v>
       </c>
       <c r="D1513" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E1513" t="n">
         <v>0.636363636363636</v>
@@ -56368,7 +56371,7 @@
         <v>44755</v>
       </c>
       <c r="D1514" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E1514" t="n">
         <v>0.545454545454545</v>
@@ -56429,7 +56432,7 @@
     </row>
     <row r="1516">
       <c r="A1516" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B1516" s="1" t="n">
         <v>44926</v>
@@ -56438,7 +56441,7 @@
         <v>44773</v>
       </c>
       <c r="D1516" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E1516" t="n">
         <v>0.666666666666667</v>
@@ -56499,7 +56502,7 @@
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B1518" s="1" t="n">
         <v>44926</v>
@@ -56508,7 +56511,7 @@
         <v>44771</v>
       </c>
       <c r="D1518" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E1518" t="n">
         <v>0.575757575757576</v>
@@ -56569,7 +56572,7 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B1520" s="1" t="n">
         <v>44926</v>
@@ -56578,7 +56581,7 @@
         <v>44771</v>
       </c>
       <c r="D1520" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E1520" t="n">
         <v>0.727272727272727</v>
@@ -56639,7 +56642,7 @@
     </row>
     <row r="1522">
       <c r="A1522" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B1522" s="1" t="n">
         <v>44926</v>
@@ -56648,7 +56651,7 @@
         <v>44771</v>
       </c>
       <c r="D1522" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E1522" t="n">
         <v>0.636363636363636</v>
@@ -56674,7 +56677,7 @@
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B1523" s="1" t="n">
         <v>44926</v>
@@ -56683,7 +56686,7 @@
         <v>44742</v>
       </c>
       <c r="D1523" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E1523" t="n">
         <v>0.606060606060606</v>
@@ -56709,7 +56712,7 @@
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B1524" s="1" t="n">
         <v>44926</v>
@@ -56718,7 +56721,7 @@
         <v>44804</v>
       </c>
       <c r="D1524" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E1524" t="n">
         <v>0.515151515151515</v>
@@ -56744,7 +56747,7 @@
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1525" s="1" t="n">
         <v>44926</v>
@@ -56753,7 +56756,7 @@
         <v>44771</v>
       </c>
       <c r="D1525" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E1525" t="n">
         <v>0.636363636363636</v>
@@ -56779,7 +56782,7 @@
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B1526" s="1" t="n">
         <v>44926</v>
@@ -56788,7 +56791,7 @@
         <v>44771</v>
       </c>
       <c r="D1526" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E1526" t="n">
         <v>0.575757575757576</v>
@@ -56814,7 +56817,7 @@
     </row>
     <row r="1527">
       <c r="A1527" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B1527" s="1" t="n">
         <v>44926</v>
@@ -56823,7 +56826,7 @@
         <v>44771</v>
       </c>
       <c r="D1527" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E1527" t="n">
         <v>0.606060606060606</v>
@@ -56849,7 +56852,7 @@
     </row>
     <row r="1528">
       <c r="A1528" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B1528" s="1" t="n">
         <v>44926</v>
@@ -56858,7 +56861,7 @@
         <v>44771</v>
       </c>
       <c r="D1528" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E1528" t="n">
         <v>0.606060606060606</v>
@@ -56884,7 +56887,7 @@
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B1529" s="1" t="n">
         <v>44926</v>
@@ -56893,7 +56896,7 @@
         <v>44742</v>
       </c>
       <c r="D1529" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1529" t="n">
         <v>0.636363636363636</v>
@@ -57024,7 +57027,7 @@
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B1533" s="1" t="n">
         <v>44926</v>
@@ -57033,7 +57036,7 @@
         <v>44771</v>
       </c>
       <c r="D1533" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E1533" t="n">
         <v>0.515151515151515</v>
@@ -57164,7 +57167,7 @@
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B1537" s="1" t="n">
         <v>44926</v>
@@ -57173,7 +57176,7 @@
         <v>44774</v>
       </c>
       <c r="D1537" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E1537" t="n">
         <v>0.575757575757576</v>
@@ -57269,7 +57272,7 @@
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B1540" s="1" t="n">
         <v>44926</v>
@@ -57278,7 +57281,7 @@
         <v>44771</v>
       </c>
       <c r="D1540" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E1540" t="n">
         <v>0.666666666666667</v>
@@ -57304,7 +57307,7 @@
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1541" s="1" t="n">
         <v>44926</v>
@@ -57313,7 +57316,7 @@
         <v>44771</v>
       </c>
       <c r="D1541" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1541" t="n">
         <v>0.696969696969697</v>
@@ -57339,7 +57342,7 @@
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B1542" s="1" t="n">
         <v>44926</v>
@@ -57348,7 +57351,7 @@
         <v>44776</v>
       </c>
       <c r="D1542" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E1542" t="n">
         <v>0.606060606060606</v>
@@ -57374,7 +57377,7 @@
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B1543" s="1" t="n">
         <v>44926</v>
@@ -57383,7 +57386,7 @@
         <v>44774</v>
       </c>
       <c r="D1543" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E1543" t="n">
         <v>0.515151515151515</v>
@@ -57444,7 +57447,7 @@
     </row>
     <row r="1545">
       <c r="A1545" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B1545" s="1" t="n">
         <v>44926</v>
@@ -57453,7 +57456,7 @@
         <v>44771</v>
       </c>
       <c r="D1545" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E1545" t="n">
         <v>0.575757575757576</v>
@@ -57558,7 +57561,7 @@
         <v>44771</v>
       </c>
       <c r="D1548" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E1548" t="n">
         <v>0.727272727272727</v>
@@ -57794,7 +57797,7 @@
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1555" s="1" t="n">
         <v>44926</v>
@@ -57803,7 +57806,7 @@
         <v>44742</v>
       </c>
       <c r="D1555" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E1555" t="n">
         <v>0.606060606060606</v>
@@ -58039,7 +58042,7 @@
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B1562" s="1" t="n">
         <v>44651</v>
@@ -58048,7 +58051,7 @@
         <v>44497</v>
       </c>
       <c r="D1562" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E1562" t="n">
         <v>0.757575757575758</v>
@@ -58179,7 +58182,7 @@
     </row>
     <row r="1566">
       <c r="A1566" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B1566" s="1" t="n">
         <v>44926</v>
@@ -58188,7 +58191,7 @@
         <v>44771</v>
       </c>
       <c r="D1566" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E1566" t="n">
         <v>0.636363636363636</v>
@@ -58424,7 +58427,7 @@
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B1573" s="1" t="n">
         <v>44926</v>
@@ -58433,7 +58436,7 @@
         <v>44771</v>
       </c>
       <c r="D1573" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E1573" t="n">
         <v>0.606060606060606</v>
@@ -58459,7 +58462,7 @@
     </row>
     <row r="1574">
       <c r="A1574" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1574" s="1" t="n">
         <v>44926</v>
@@ -58468,7 +58471,7 @@
         <v>44771</v>
       </c>
       <c r="D1574" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E1574" t="n">
         <v>0.515151515151515</v>
@@ -58494,7 +58497,7 @@
     </row>
     <row r="1575">
       <c r="A1575" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1575" s="1" t="n">
         <v>44926</v>
@@ -58503,7 +58506,7 @@
         <v>44773</v>
       </c>
       <c r="D1575" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E1575" t="n">
         <v>0.636363636363636</v>
@@ -58529,7 +58532,7 @@
     </row>
     <row r="1576">
       <c r="A1576" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B1576" s="1" t="n">
         <v>44926</v>
@@ -58538,7 +58541,7 @@
         <v>44767</v>
       </c>
       <c r="D1576" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E1576" t="n">
         <v>0.424242424242424</v>
@@ -58564,7 +58567,7 @@
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1577" s="1" t="n">
         <v>44926</v>
@@ -58573,7 +58576,7 @@
         <v>44774</v>
       </c>
       <c r="D1577" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1577" t="n">
         <v>0.424242424242424</v>
@@ -58634,7 +58637,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B1579" s="1" t="n">
         <v>44926</v>
@@ -58643,7 +58646,7 @@
         <v>44764</v>
       </c>
       <c r="D1579" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E1579" t="n">
         <v>0.515151515151515</v>
@@ -58774,7 +58777,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B1583" s="1" t="n">
         <v>44926</v>
@@ -58783,7 +58786,7 @@
         <v>44769</v>
       </c>
       <c r="D1583" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E1583" t="n">
         <v>0.636363636363636</v>
@@ -58949,7 +58952,7 @@
     </row>
     <row r="1588">
       <c r="A1588" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B1588" s="1" t="n">
         <v>44926</v>
@@ -58958,7 +58961,7 @@
         <v>44771</v>
       </c>
       <c r="D1588" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E1588" t="n">
         <v>0.606060606060606</v>
@@ -58984,7 +58987,7 @@
     </row>
     <row r="1589">
       <c r="A1589" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B1589" s="1" t="n">
         <v>44926</v>
@@ -58993,7 +58996,7 @@
         <v>44771</v>
       </c>
       <c r="D1589" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E1589" t="n">
         <v>0.606060606060606</v>
@@ -59019,7 +59022,7 @@
     </row>
     <row r="1590">
       <c r="A1590" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B1590" s="1" t="n">
         <v>44926</v>
@@ -59028,7 +59031,7 @@
         <v>44771</v>
       </c>
       <c r="D1590" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E1590" t="n">
         <v>0.636363636363636</v>
@@ -59824,7 +59827,7 @@
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B1613" s="1" t="n">
         <v>44926</v>
@@ -59833,7 +59836,7 @@
         <v>44774</v>
       </c>
       <c r="D1613" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E1613" t="n">
         <v>0.575757575757576</v>
@@ -59859,7 +59862,7 @@
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B1614" s="1" t="n">
         <v>44926</v>
@@ -59868,7 +59871,7 @@
         <v>44771</v>
       </c>
       <c r="D1614" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E1614" t="n">
         <v>0.575757575757576</v>
@@ -59929,7 +59932,7 @@
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B1616" s="1" t="n">
         <v>44926</v>
@@ -59938,7 +59941,7 @@
         <v>44774</v>
       </c>
       <c r="D1616" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E1616" t="n">
         <v>0.666666666666667</v>
@@ -60069,7 +60072,7 @@
     </row>
     <row r="1620">
       <c r="A1620" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B1620" s="1" t="n">
         <v>44926</v>
@@ -60078,7 +60081,7 @@
         <v>44771</v>
       </c>
       <c r="D1620" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E1620" t="n">
         <v>0.636363636363636</v>
@@ -60708,7 +60711,7 @@
         <v>44774</v>
       </c>
       <c r="D1638" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E1638" t="n">
         <v>0.636363636363636</v>
@@ -60874,7 +60877,7 @@
     </row>
     <row r="1643">
       <c r="A1643" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B1643" s="1" t="n">
         <v>44926</v>
@@ -60883,7 +60886,7 @@
         <v>44770</v>
       </c>
       <c r="D1643" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E1643" t="n">
         <v>0.727272727272727</v>
@@ -60979,7 +60982,7 @@
     </row>
     <row r="1646">
       <c r="A1646" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B1646" s="1" t="n">
         <v>44926</v>
@@ -60988,7 +60991,7 @@
         <v>44767</v>
       </c>
       <c r="D1646" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E1646" t="n">
         <v>0.606060606060606</v>
@@ -61259,7 +61262,7 @@
     </row>
     <row r="1654">
       <c r="A1654" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B1654" s="1" t="n">
         <v>44926</v>
@@ -61268,7 +61271,7 @@
         <v>44774</v>
       </c>
       <c r="D1654" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E1654" t="n">
         <v>0.636363636363636</v>
@@ -61294,7 +61297,7 @@
     </row>
     <row r="1655">
       <c r="A1655" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B1655" s="1" t="n">
         <v>44926</v>
@@ -61303,7 +61306,7 @@
         <v>44771</v>
       </c>
       <c r="D1655" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E1655" t="n">
         <v>0.545454545454545</v>
@@ -61329,7 +61332,7 @@
     </row>
     <row r="1656">
       <c r="A1656" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B1656" s="1" t="n">
         <v>44620</v>
@@ -61338,7 +61341,7 @@
         <v>44466</v>
       </c>
       <c r="D1656" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E1656" t="n">
         <v>0.636363636363636</v>
@@ -61469,7 +61472,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B1660" s="1" t="n">
         <v>44742</v>
@@ -61478,7 +61481,7 @@
         <v>44592</v>
       </c>
       <c r="D1660" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E1660" t="n">
         <v>0.606060606060606</v>
@@ -61609,7 +61612,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B1664" s="1" t="n">
         <v>44926</v>
@@ -61618,7 +61621,7 @@
         <v>44774</v>
       </c>
       <c r="D1664" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E1664" t="n">
         <v>0.696969696969697</v>
@@ -61994,7 +61997,7 @@
     </row>
     <row r="1675">
       <c r="A1675" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B1675" s="1" t="n">
         <v>44562</v>
@@ -62003,7 +62006,7 @@
         <v>44771</v>
       </c>
       <c r="D1675" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E1675" t="n">
         <v>0.727272727272727</v>
@@ -62029,7 +62032,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B1676" s="1" t="n">
         <v>44926</v>
@@ -62038,7 +62041,7 @@
         <v>44771</v>
       </c>
       <c r="D1676" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E1676" t="n">
         <v>0.727272727272727</v>
@@ -62624,7 +62627,7 @@
     </row>
     <row r="1693">
       <c r="A1693" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B1693" s="1" t="n">
         <v>44742</v>
@@ -62633,7 +62636,7 @@
         <v>44588</v>
       </c>
       <c r="D1693" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E1693" t="n">
         <v>0.454545454545455</v>
@@ -63263,7 +63266,7 @@
         <v>44771</v>
       </c>
       <c r="D1711" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E1711" t="n">
         <v>0.727272727272727</v>
@@ -63464,7 +63467,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B1717" s="1" t="n">
         <v>44926</v>
@@ -63473,7 +63476,7 @@
         <v>44771</v>
       </c>
       <c r="D1717" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E1717" t="n">
         <v>0.696969696969697</v>
@@ -63534,7 +63537,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B1719" s="1" t="n">
         <v>44926</v>
@@ -63543,7 +63546,7 @@
         <v>44771</v>
       </c>
       <c r="D1719" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E1719" t="n">
         <v>0.636363636363636</v>
@@ -63569,7 +63572,7 @@
     </row>
     <row r="1720">
       <c r="A1720" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B1720" s="1" t="n">
         <v>44926</v>
@@ -63578,7 +63581,7 @@
         <v>44771</v>
       </c>
       <c r="D1720" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E1720" t="n">
         <v>0.636363636363636</v>
@@ -63814,7 +63817,7 @@
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B1727" s="1" t="n">
         <v>45291</v>
@@ -63823,7 +63826,7 @@
         <v>45112</v>
       </c>
       <c r="D1727" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E1727" t="n">
         <v>0.666666666666667</v>
@@ -63849,7 +63852,7 @@
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B1728" s="1" t="n">
         <v>45291</v>
@@ -63858,7 +63861,7 @@
         <v>45138</v>
       </c>
       <c r="D1728" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E1728" t="n">
         <v>0.636363636363636</v>
@@ -63884,7 +63887,7 @@
     </row>
     <row r="1729">
       <c r="A1729" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B1729" s="1" t="n">
         <v>45291</v>
@@ -63893,7 +63896,7 @@
         <v>45134</v>
       </c>
       <c r="D1729" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E1729" t="n">
         <v>0.696969696969697</v>
@@ -64374,7 +64377,7 @@
     </row>
     <row r="1743">
       <c r="A1743" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B1743" s="1" t="n">
         <v>45291</v>
@@ -64383,7 +64386,7 @@
         <v>45135</v>
       </c>
       <c r="D1743" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E1743" t="n">
         <v>0.454545454545455</v>
@@ -64593,7 +64596,7 @@
         <v>45111</v>
       </c>
       <c r="D1749" t="s">
-        <v>284</v>
+        <v>746</v>
       </c>
       <c r="E1749" t="n">
         <v>0.454545454545455</v>
@@ -64689,7 +64692,7 @@
     </row>
     <row r="1752">
       <c r="A1752" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B1752" s="1" t="n">
         <v>45291</v>
@@ -64698,7 +64701,7 @@
         <v>45138</v>
       </c>
       <c r="D1752" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E1752" t="n">
         <v>0.606060606060606</v>
@@ -64864,7 +64867,7 @@
     </row>
     <row r="1757">
       <c r="A1757" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B1757" s="1" t="n">
         <v>45291</v>
@@ -64873,7 +64876,7 @@
         <v>45110</v>
       </c>
       <c r="D1757" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E1757" t="n">
         <v>0.606060606060606</v>
@@ -64899,7 +64902,7 @@
     </row>
     <row r="1758">
       <c r="A1758" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B1758" s="1" t="n">
         <v>45291</v>
@@ -64908,7 +64911,7 @@
         <v>45134</v>
       </c>
       <c r="D1758" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E1758" t="n">
         <v>0.484848484848485</v>
@@ -65004,7 +65007,7 @@
     </row>
     <row r="1761">
       <c r="A1761" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B1761" s="1" t="n">
         <v>45291</v>
@@ -65013,7 +65016,7 @@
         <v>45138</v>
       </c>
       <c r="D1761" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E1761" t="n">
         <v>0.636363636363636</v>
@@ -65144,7 +65147,7 @@
     </row>
     <row r="1765">
       <c r="A1765" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B1765" s="1" t="n">
         <v>45291</v>
@@ -65153,7 +65156,7 @@
         <v>45124</v>
       </c>
       <c r="D1765" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E1765" t="n">
         <v>0.454545454545455</v>
@@ -65179,7 +65182,7 @@
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B1766" s="1" t="n">
         <v>45016</v>
@@ -65188,7 +65191,7 @@
         <v>44861</v>
       </c>
       <c r="D1766" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E1766" t="n">
         <v>0.606060606060606</v>
@@ -65573,7 +65576,7 @@
         <v>45138</v>
       </c>
       <c r="D1777" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E1777" t="n">
         <v>0.606060606060606</v>
@@ -65643,7 +65646,7 @@
         <v>45138</v>
       </c>
       <c r="D1779" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E1779" t="n">
         <v>0.636363636363636</v>
@@ -65704,7 +65707,7 @@
     </row>
     <row r="1781">
       <c r="A1781" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B1781" s="1" t="n">
         <v>45291</v>
@@ -65713,7 +65716,7 @@
         <v>45135</v>
       </c>
       <c r="D1781" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E1781" t="n">
         <v>0.636363636363636</v>
@@ -65809,7 +65812,7 @@
     </row>
     <row r="1784">
       <c r="A1784" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B1784" s="1" t="n">
         <v>45291</v>
@@ -65818,7 +65821,7 @@
         <v>45137</v>
       </c>
       <c r="D1784" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E1784" t="n">
         <v>0.636363636363636</v>
@@ -65879,7 +65882,7 @@
     </row>
     <row r="1786">
       <c r="A1786" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B1786" s="1" t="n">
         <v>45291</v>
@@ -65888,7 +65891,7 @@
         <v>45138</v>
       </c>
       <c r="D1786" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E1786" t="n">
         <v>0.666666666666667</v>
@@ -66509,7 +66512,7 @@
     </row>
     <row r="1804">
       <c r="A1804" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B1804" s="1" t="n">
         <v>45291</v>
@@ -66518,7 +66521,7 @@
         <v>45135</v>
       </c>
       <c r="D1804" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E1804" t="n">
         <v>0.575757575757576</v>
@@ -66544,7 +66547,7 @@
     </row>
     <row r="1805">
       <c r="A1805" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B1805" s="1" t="n">
         <v>45291</v>
@@ -66553,7 +66556,7 @@
         <v>45138</v>
       </c>
       <c r="D1805" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E1805" t="n">
         <v>0.636363636363636</v>
@@ -66579,7 +66582,7 @@
     </row>
     <row r="1806">
       <c r="A1806" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B1806" s="1" t="n">
         <v>45291</v>
@@ -66588,7 +66591,7 @@
         <v>45138</v>
       </c>
       <c r="D1806" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E1806" t="n">
         <v>0.636363636363636</v>
@@ -66684,7 +66687,7 @@
     </row>
     <row r="1809">
       <c r="A1809" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B1809" s="1" t="n">
         <v>45291</v>
@@ -66693,7 +66696,7 @@
         <v>45138</v>
       </c>
       <c r="D1809" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E1809" t="n">
         <v>0.636363636363636</v>
@@ -66754,7 +66757,7 @@
     </row>
     <row r="1811">
       <c r="A1811" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B1811" s="1" t="n">
         <v>45016</v>
@@ -66763,7 +66766,7 @@
         <v>44868</v>
       </c>
       <c r="D1811" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E1811" t="n">
         <v>0.575757575757576</v>
@@ -66964,7 +66967,7 @@
     </row>
     <row r="1817">
       <c r="A1817" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B1817" s="1" t="n">
         <v>45291</v>
@@ -66973,7 +66976,7 @@
         <v>45138</v>
       </c>
       <c r="D1817" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E1817" t="n">
         <v>0.606060606060606</v>
@@ -67104,7 +67107,7 @@
     </row>
     <row r="1821">
       <c r="A1821" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B1821" s="1" t="n">
         <v>45291</v>
@@ -67113,7 +67116,7 @@
         <v>45138</v>
       </c>
       <c r="D1821" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E1821" t="n">
         <v>0.484848484848485</v>
@@ -67244,7 +67247,7 @@
     </row>
     <row r="1825">
       <c r="A1825" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B1825" s="1" t="n">
         <v>45291</v>
@@ -67253,7 +67256,7 @@
         <v>45138</v>
       </c>
       <c r="D1825" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E1825" t="n">
         <v>0.393939393939394</v>
@@ -67384,7 +67387,7 @@
     </row>
     <row r="1829">
       <c r="A1829" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B1829" s="1" t="n">
         <v>45291</v>
@@ -67393,7 +67396,7 @@
         <v>45127</v>
       </c>
       <c r="D1829" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E1829" t="n">
         <v>0.545454545454545</v>
@@ -67524,7 +67527,7 @@
     </row>
     <row r="1833">
       <c r="A1833" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B1833" s="1" t="n">
         <v>45291</v>
@@ -67533,7 +67536,7 @@
         <v>45138</v>
       </c>
       <c r="D1833" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E1833" t="n">
         <v>0.636363636363636</v>
@@ -68014,7 +68017,7 @@
     </row>
     <row r="1847">
       <c r="A1847" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B1847" s="1" t="n">
         <v>45291</v>
@@ -68023,7 +68026,7 @@
         <v>45174</v>
       </c>
       <c r="D1847" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E1847" t="n">
         <v>0.636363636363636</v>
@@ -68084,7 +68087,7 @@
     </row>
     <row r="1849">
       <c r="A1849" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B1849" s="1" t="n">
         <v>45291</v>
@@ -68093,7 +68096,7 @@
         <v>45132</v>
       </c>
       <c r="D1849" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E1849" t="n">
         <v>0.575757575757576</v>
@@ -68224,7 +68227,7 @@
     </row>
     <row r="1853">
       <c r="A1853" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B1853" s="1" t="n">
         <v>45291</v>
@@ -68233,7 +68236,7 @@
         <v>45134</v>
       </c>
       <c r="D1853" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E1853" t="n">
         <v>0.606060606060606</v>
@@ -68294,7 +68297,7 @@
     </row>
     <row r="1855">
       <c r="A1855" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B1855" s="1" t="n">
         <v>45291</v>
@@ -68303,7 +68306,7 @@
         <v>45138</v>
       </c>
       <c r="D1855" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E1855" t="n">
         <v>0.575757575757576</v>
@@ -68373,7 +68376,7 @@
         <v>45135</v>
       </c>
       <c r="D1857" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E1857" t="n">
         <v>0.636363636363636</v>
@@ -68399,7 +68402,7 @@
     </row>
     <row r="1858">
       <c r="A1858" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1858" s="1" t="n">
         <v>45291</v>
@@ -68408,7 +68411,7 @@
         <v>45138</v>
       </c>
       <c r="D1858" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1858" t="n">
         <v>0.606060606060606</v>
@@ -68469,7 +68472,7 @@
     </row>
     <row r="1860">
       <c r="A1860" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1860" s="1" t="n">
         <v>45291</v>
@@ -68478,7 +68481,7 @@
         <v>45128</v>
       </c>
       <c r="D1860" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1860" t="n">
         <v>0.575757575757576</v>
@@ -68504,7 +68507,7 @@
     </row>
     <row r="1861">
       <c r="A1861" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1861" s="1" t="n">
         <v>45291</v>
@@ -68513,7 +68516,7 @@
         <v>45135</v>
       </c>
       <c r="D1861" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1861" t="n">
         <v>0.666666666666667</v>
@@ -68679,7 +68682,7 @@
     </row>
     <row r="1866">
       <c r="A1866" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1866" s="1" t="n">
         <v>45291</v>
@@ -68688,7 +68691,7 @@
         <v>45138</v>
       </c>
       <c r="D1866" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1866" t="n">
         <v>0.636363636363636</v>
@@ -68723,7 +68726,7 @@
         <v>45135</v>
       </c>
       <c r="D1867" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E1867" t="n">
         <v>0.424242424242424</v>
@@ -68749,7 +68752,7 @@
     </row>
     <row r="1868">
       <c r="A1868" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1868" s="1" t="n">
         <v>45291</v>
@@ -68758,7 +68761,7 @@
         <v>45137</v>
       </c>
       <c r="D1868" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1868" t="n">
         <v>0.696969696969697</v>
@@ -68784,7 +68787,7 @@
     </row>
     <row r="1869">
       <c r="A1869" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1869" s="1" t="n">
         <v>45291</v>
@@ -68793,7 +68796,7 @@
         <v>45138</v>
       </c>
       <c r="D1869" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1869" t="n">
         <v>0.636363636363636</v>
@@ -68819,7 +68822,7 @@
     </row>
     <row r="1870">
       <c r="A1870" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B1870" s="1" t="n">
         <v>45291</v>
@@ -68828,7 +68831,7 @@
         <v>45138</v>
       </c>
       <c r="D1870" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E1870" t="n">
         <v>0.606060606060606</v>
@@ -68924,7 +68927,7 @@
     </row>
     <row r="1873">
       <c r="A1873" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1873" s="1" t="n">
         <v>45291</v>
@@ -68933,7 +68936,7 @@
         <v>45103</v>
       </c>
       <c r="D1873" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1873" t="n">
         <v>0.666666666666667</v>
@@ -68994,7 +68997,7 @@
     </row>
     <row r="1875">
       <c r="A1875" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1875" s="1" t="n">
         <v>45291</v>
@@ -69003,7 +69006,7 @@
         <v>45138</v>
       </c>
       <c r="D1875" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1875" t="n">
         <v>0.666666666666667</v>
@@ -69064,7 +69067,7 @@
     </row>
     <row r="1877">
       <c r="A1877" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1877" s="1" t="n">
         <v>45291</v>
@@ -69073,7 +69076,7 @@
         <v>45138</v>
       </c>
       <c r="D1877" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1877" t="n">
         <v>0.636363636363636</v>
@@ -69099,7 +69102,7 @@
     </row>
     <row r="1878">
       <c r="A1878" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1878" s="1" t="n">
         <v>45291</v>
@@ -69108,7 +69111,7 @@
         <v>45138</v>
       </c>
       <c r="D1878" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1878" t="n">
         <v>0.727272727272727</v>
@@ -69204,7 +69207,7 @@
     </row>
     <row r="1881">
       <c r="A1881" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1881" s="1" t="n">
         <v>45291</v>
@@ -69213,7 +69216,7 @@
         <v>45134</v>
       </c>
       <c r="D1881" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E1881" t="n">
         <v>0.636363636363636</v>
@@ -69274,7 +69277,7 @@
     </row>
     <row r="1883">
       <c r="A1883" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B1883" s="1" t="n">
         <v>45291</v>
@@ -69283,7 +69286,7 @@
         <v>45135</v>
       </c>
       <c r="D1883" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E1883" t="n">
         <v>0.636363636363636</v>
@@ -69309,7 +69312,7 @@
     </row>
     <row r="1884">
       <c r="A1884" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1884" s="1" t="n">
         <v>45291</v>
@@ -69318,7 +69321,7 @@
         <v>45138</v>
       </c>
       <c r="D1884" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1884" t="n">
         <v>0.636363636363636</v>
@@ -69344,7 +69347,7 @@
     </row>
     <row r="1885">
       <c r="A1885" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B1885" s="1" t="n">
         <v>45291</v>
@@ -69353,7 +69356,7 @@
         <v>45138</v>
       </c>
       <c r="D1885" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E1885" t="n">
         <v>0.636363636363636</v>
@@ -69379,7 +69382,7 @@
     </row>
     <row r="1886">
       <c r="A1886" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B1886" s="1" t="n">
         <v>45291</v>
@@ -69388,7 +69391,7 @@
         <v>45138</v>
       </c>
       <c r="D1886" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E1886" t="n">
         <v>0.606060606060606</v>
@@ -69414,7 +69417,7 @@
     </row>
     <row r="1887">
       <c r="A1887" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B1887" s="1" t="n">
         <v>45291</v>
@@ -69423,7 +69426,7 @@
         <v>45138</v>
       </c>
       <c r="D1887" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E1887" t="n">
         <v>0.636363636363636</v>
@@ -69449,7 +69452,7 @@
     </row>
     <row r="1888">
       <c r="A1888" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1888" s="1" t="n">
         <v>45291</v>
@@ -69458,7 +69461,7 @@
         <v>45135</v>
       </c>
       <c r="D1888" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1888" t="n">
         <v>0.666666666666667</v>
@@ -69484,7 +69487,7 @@
     </row>
     <row r="1889">
       <c r="A1889" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1889" s="1" t="n">
         <v>45291</v>
@@ -69493,7 +69496,7 @@
         <v>45134</v>
       </c>
       <c r="D1889" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1889" t="n">
         <v>0.666666666666667</v>
@@ -69519,7 +69522,7 @@
     </row>
     <row r="1890">
       <c r="A1890" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B1890" s="1" t="n">
         <v>45291</v>
@@ -69528,7 +69531,7 @@
         <v>45138</v>
       </c>
       <c r="D1890" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E1890" t="n">
         <v>0.636363636363636</v>
@@ -69554,7 +69557,7 @@
     </row>
     <row r="1891">
       <c r="A1891" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B1891" s="1" t="n">
         <v>45291</v>
@@ -69563,7 +69566,7 @@
         <v>45138</v>
       </c>
       <c r="D1891" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E1891" t="n">
         <v>0.606060606060606</v>
@@ -69659,7 +69662,7 @@
     </row>
     <row r="1894">
       <c r="A1894" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1894" s="1" t="n">
         <v>45291</v>
@@ -69668,7 +69671,7 @@
         <v>45138</v>
       </c>
       <c r="D1894" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1894" t="n">
         <v>0.636363636363636</v>
@@ -69729,7 +69732,7 @@
     </row>
     <row r="1896">
       <c r="A1896" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B1896" s="1" t="n">
         <v>45291</v>
@@ -69738,7 +69741,7 @@
         <v>45133</v>
       </c>
       <c r="D1896" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E1896" t="n">
         <v>0.454545454545455</v>
@@ -69764,7 +69767,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1897" s="1" t="n">
         <v>45291</v>
@@ -69773,7 +69776,7 @@
         <v>45136</v>
       </c>
       <c r="D1897" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1897" t="n">
         <v>0.636363636363636</v>
@@ -69799,7 +69802,7 @@
     </row>
     <row r="1898">
       <c r="A1898" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1898" s="1" t="n">
         <v>45291</v>
@@ -69808,7 +69811,7 @@
         <v>45135</v>
       </c>
       <c r="D1898" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1898" t="n">
         <v>0.575757575757576</v>
@@ -69834,7 +69837,7 @@
     </row>
     <row r="1899">
       <c r="A1899" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1899" s="1" t="n">
         <v>45291</v>
@@ -69843,7 +69846,7 @@
         <v>45138</v>
       </c>
       <c r="D1899" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1899" t="n">
         <v>0.575757575757576</v>
@@ -69869,7 +69872,7 @@
     </row>
     <row r="1900">
       <c r="A1900" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1900" s="1" t="n">
         <v>45291</v>
@@ -69878,7 +69881,7 @@
         <v>45138</v>
       </c>
       <c r="D1900" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1900" t="n">
         <v>0.636363636363636</v>
@@ -70193,7 +70196,7 @@
         <v>45138</v>
       </c>
       <c r="D1909" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E1909" t="n">
         <v>0.545454545454545</v>
@@ -70289,7 +70292,7 @@
     </row>
     <row r="1912">
       <c r="A1912" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1912" s="1" t="n">
         <v>45291</v>
@@ -70298,7 +70301,7 @@
         <v>45138</v>
       </c>
       <c r="D1912" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1912" t="n">
         <v>0.727272727272727</v>
@@ -70324,7 +70327,7 @@
     </row>
     <row r="1913">
       <c r="A1913" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1913" s="1" t="n">
         <v>45291</v>
@@ -70333,7 +70336,7 @@
         <v>45133</v>
       </c>
       <c r="D1913" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1913" t="n">
         <v>0.666666666666667</v>
@@ -70359,7 +70362,7 @@
     </row>
     <row r="1914">
       <c r="A1914" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1914" s="1" t="n">
         <v>45291</v>
@@ -70368,7 +70371,7 @@
         <v>45138</v>
       </c>
       <c r="D1914" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1914" t="n">
         <v>0.636363636363636</v>
@@ -70744,7 +70747,7 @@
     </row>
     <row r="1925">
       <c r="A1925" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1925" s="1" t="n">
         <v>45291</v>
@@ -70753,7 +70756,7 @@
         <v>45138</v>
       </c>
       <c r="D1925" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1925" t="n">
         <v>0.606060606060606</v>
@@ -70779,7 +70782,7 @@
     </row>
     <row r="1926">
       <c r="A1926" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B1926" s="1" t="n">
         <v>45291</v>
@@ -70788,7 +70791,7 @@
         <v>45138</v>
       </c>
       <c r="D1926" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E1926" t="n">
         <v>0.515151515151515</v>
@@ -70814,7 +70817,7 @@
     </row>
     <row r="1927">
       <c r="A1927" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1927" s="1" t="n">
         <v>45291</v>
@@ -70823,7 +70826,7 @@
         <v>45145</v>
       </c>
       <c r="D1927" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1927" t="n">
         <v>0.545454545454545</v>
@@ -70884,7 +70887,7 @@
     </row>
     <row r="1929">
       <c r="A1929" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B1929" s="1" t="n">
         <v>45291</v>
@@ -70893,7 +70896,7 @@
         <v>45138</v>
       </c>
       <c r="D1929" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E1929" t="n">
         <v>0.636363636363636</v>
@@ -70954,7 +70957,7 @@
     </row>
     <row r="1931">
       <c r="A1931" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1931" s="1" t="n">
         <v>45291</v>
@@ -70963,7 +70966,7 @@
         <v>45135</v>
       </c>
       <c r="D1931" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1931" t="n">
         <v>0.606060606060606</v>
@@ -70989,7 +70992,7 @@
     </row>
     <row r="1932">
       <c r="A1932" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1932" s="1" t="n">
         <v>45291</v>
@@ -70998,7 +71001,7 @@
         <v>45138</v>
       </c>
       <c r="D1932" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1932" t="n">
         <v>0.757575757575758</v>
@@ -71033,7 +71036,7 @@
         <v>45064</v>
       </c>
       <c r="D1933" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E1933" t="n">
         <v>0.636363636363636</v>
@@ -71059,7 +71062,7 @@
     </row>
     <row r="1934">
       <c r="A1934" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1934" s="1" t="n">
         <v>45291</v>
@@ -71068,7 +71071,7 @@
         <v>45138</v>
       </c>
       <c r="D1934" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E1934" t="n">
         <v>0.696969696969697</v>
@@ -71094,7 +71097,7 @@
     </row>
     <row r="1935">
       <c r="A1935" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B1935" s="1" t="n">
         <v>45291</v>
@@ -71103,7 +71106,7 @@
         <v>45134</v>
       </c>
       <c r="D1935" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E1935" t="n">
         <v>0.575757575757576</v>
@@ -71138,7 +71141,7 @@
         <v>45137</v>
       </c>
       <c r="D1936" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E1936" t="n">
         <v>0.545454545454545</v>
@@ -71199,7 +71202,7 @@
     </row>
     <row r="1938">
       <c r="A1938" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B1938" s="1" t="n">
         <v>45291</v>
@@ -71208,7 +71211,7 @@
         <v>45138</v>
       </c>
       <c r="D1938" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E1938" t="n">
         <v>0.666666666666667</v>
@@ -71269,7 +71272,7 @@
     </row>
     <row r="1940">
       <c r="A1940" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B1940" s="1" t="n">
         <v>45291</v>
@@ -71278,7 +71281,7 @@
         <v>45135</v>
       </c>
       <c r="D1940" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E1940" t="n">
         <v>0.575757575757576</v>
@@ -71339,7 +71342,7 @@
     </row>
     <row r="1942">
       <c r="A1942" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B1942" s="1" t="n">
         <v>45291</v>
@@ -71348,7 +71351,7 @@
         <v>45138</v>
       </c>
       <c r="D1942" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E1942" t="n">
         <v>0.727272727272727</v>
@@ -71409,7 +71412,7 @@
     </row>
     <row r="1944">
       <c r="A1944" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B1944" s="1" t="n">
         <v>45291</v>
@@ -71418,7 +71421,7 @@
         <v>45135</v>
       </c>
       <c r="D1944" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E1944" t="n">
         <v>0.696969696969697</v>
@@ -71444,7 +71447,7 @@
     </row>
     <row r="1945">
       <c r="A1945" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B1945" s="1" t="n">
         <v>45291</v>
@@ -71453,7 +71456,7 @@
         <v>45138</v>
       </c>
       <c r="D1945" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E1945" t="n">
         <v>0.666666666666667</v>
@@ -71479,7 +71482,7 @@
     </row>
     <row r="1946">
       <c r="A1946" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B1946" s="1" t="n">
         <v>45291</v>
@@ -71488,7 +71491,7 @@
         <v>45135</v>
       </c>
       <c r="D1946" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E1946" t="n">
         <v>0.636363636363636</v>
@@ -71514,7 +71517,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1947" s="1" t="n">
         <v>45291</v>
@@ -71523,7 +71526,7 @@
         <v>45135</v>
       </c>
       <c r="D1947" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E1947" t="n">
         <v>0.575757575757576</v>
@@ -71549,7 +71552,7 @@
     </row>
     <row r="1948">
       <c r="A1948" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B1948" s="1" t="n">
         <v>45291</v>
@@ -71558,7 +71561,7 @@
         <v>45135</v>
       </c>
       <c r="D1948" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E1948" t="n">
         <v>0.606060606060606</v>
@@ -71584,7 +71587,7 @@
     </row>
     <row r="1949">
       <c r="A1949" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B1949" s="1" t="n">
         <v>45291</v>
@@ -71593,7 +71596,7 @@
         <v>45138</v>
       </c>
       <c r="D1949" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E1949" t="n">
         <v>0.575757575757576</v>
@@ -71619,7 +71622,7 @@
     </row>
     <row r="1950">
       <c r="A1950" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B1950" s="1" t="n">
         <v>45291</v>
@@ -71628,7 +71631,7 @@
         <v>45138</v>
       </c>
       <c r="D1950" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1950" t="n">
         <v>0.666666666666667</v>
@@ -71759,7 +71762,7 @@
     </row>
     <row r="1954">
       <c r="A1954" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B1954" s="1" t="n">
         <v>45291</v>
@@ -71768,7 +71771,7 @@
         <v>45138</v>
       </c>
       <c r="D1954" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E1954" t="n">
         <v>0.606060606060606</v>
@@ -71864,7 +71867,7 @@
     </row>
     <row r="1957">
       <c r="A1957" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B1957" s="1" t="n">
         <v>45291</v>
@@ -71873,7 +71876,7 @@
         <v>45138</v>
       </c>
       <c r="D1957" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E1957" t="n">
         <v>0.545454545454545</v>
@@ -71969,7 +71972,7 @@
     </row>
     <row r="1960">
       <c r="A1960" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B1960" s="1" t="n">
         <v>45291</v>
@@ -71978,7 +71981,7 @@
         <v>45138</v>
       </c>
       <c r="D1960" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E1960" t="n">
         <v>0.666666666666667</v>
@@ -72004,7 +72007,7 @@
     </row>
     <row r="1961">
       <c r="A1961" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1961" s="1" t="n">
         <v>45291</v>
@@ -72013,7 +72016,7 @@
         <v>45133</v>
       </c>
       <c r="D1961" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1961" t="n">
         <v>0.696969696969697</v>
@@ -72039,7 +72042,7 @@
     </row>
     <row r="1962">
       <c r="A1962" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B1962" s="1" t="n">
         <v>45291</v>
@@ -72048,7 +72051,7 @@
         <v>45138</v>
       </c>
       <c r="D1962" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E1962" t="n">
         <v>0.515151515151515</v>
@@ -72109,7 +72112,7 @@
     </row>
     <row r="1964">
       <c r="A1964" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B1964" s="1" t="n">
         <v>45291</v>
@@ -72118,7 +72121,7 @@
         <v>45135</v>
       </c>
       <c r="D1964" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E1964" t="n">
         <v>0.575757575757576</v>
@@ -72223,7 +72226,7 @@
         <v>45138</v>
       </c>
       <c r="D1967" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E1967" t="n">
         <v>0.727272727272727</v>
@@ -72424,7 +72427,7 @@
     </row>
     <row r="1973">
       <c r="A1973" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1973" s="1" t="n">
         <v>45291</v>
@@ -72433,7 +72436,7 @@
         <v>45106</v>
       </c>
       <c r="D1973" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E1973" t="n">
         <v>0.606060606060606</v>
@@ -72669,7 +72672,7 @@
     </row>
     <row r="1980">
       <c r="A1980" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B1980" s="1" t="n">
         <v>45016</v>
@@ -72678,7 +72681,7 @@
         <v>44865</v>
       </c>
       <c r="D1980" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E1980" t="n">
         <v>0.757575757575758</v>
@@ -72809,7 +72812,7 @@
     </row>
     <row r="1984">
       <c r="A1984" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B1984" s="1" t="n">
         <v>45291</v>
@@ -72818,7 +72821,7 @@
         <v>45138</v>
       </c>
       <c r="D1984" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E1984" t="n">
         <v>0.606060606060606</v>
@@ -73054,7 +73057,7 @@
     </row>
     <row r="1991">
       <c r="A1991" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B1991" s="1" t="n">
         <v>45291</v>
@@ -73063,7 +73066,7 @@
         <v>45138</v>
       </c>
       <c r="D1991" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E1991" t="n">
         <v>0.606060606060606</v>
@@ -73089,7 +73092,7 @@
     </row>
     <row r="1992">
       <c r="A1992" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1992" s="1" t="n">
         <v>45291</v>
@@ -73098,7 +73101,7 @@
         <v>45135</v>
       </c>
       <c r="D1992" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E1992" t="n">
         <v>0.515151515151515</v>
@@ -73124,7 +73127,7 @@
     </row>
     <row r="1993">
       <c r="A1993" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1993" s="1" t="n">
         <v>45291</v>
@@ -73133,7 +73136,7 @@
         <v>45139</v>
       </c>
       <c r="D1993" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E1993" t="n">
         <v>0.636363636363636</v>
@@ -73159,7 +73162,7 @@
     </row>
     <row r="1994">
       <c r="A1994" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B1994" s="1" t="n">
         <v>45291</v>
@@ -73168,7 +73171,7 @@
         <v>45134</v>
       </c>
       <c r="D1994" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E1994" t="n">
         <v>0.636363636363636</v>
@@ -73194,7 +73197,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B1995" s="1" t="n">
         <v>45291</v>
@@ -73203,7 +73206,7 @@
         <v>45138</v>
       </c>
       <c r="D1995" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E1995" t="n">
         <v>0.696969696969697</v>
@@ -73229,7 +73232,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1996" s="1" t="n">
         <v>45291</v>
@@ -73238,7 +73241,7 @@
         <v>45138</v>
       </c>
       <c r="D1996" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1996" t="n">
         <v>0.424242424242424</v>
@@ -73264,7 +73267,7 @@
     </row>
     <row r="1997">
       <c r="A1997" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B1997" s="1" t="n">
         <v>45291</v>
@@ -73273,7 +73276,7 @@
         <v>45138</v>
       </c>
       <c r="D1997" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E1997" t="n">
         <v>0.606060606060606</v>
@@ -73334,7 +73337,7 @@
     </row>
     <row r="1999">
       <c r="A1999" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B1999" s="1" t="n">
         <v>45291</v>
@@ -73343,7 +73346,7 @@
         <v>45132</v>
       </c>
       <c r="D1999" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E1999" t="n">
         <v>0.515151515151515</v>
@@ -73474,7 +73477,7 @@
     </row>
     <row r="2003">
       <c r="A2003" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B2003" s="1" t="n">
         <v>45291</v>
@@ -73483,7 +73486,7 @@
         <v>45135</v>
       </c>
       <c r="D2003" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2003" t="n">
         <v>0.606060606060606</v>
@@ -73509,7 +73512,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B2004" s="1" t="n">
         <v>45291</v>
@@ -73518,7 +73521,7 @@
         <v>45138</v>
       </c>
       <c r="D2004" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E2004" t="n">
         <v>0.606060606060606</v>
@@ -73649,7 +73652,7 @@
     </row>
     <row r="2008">
       <c r="A2008" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B2008" s="1" t="n">
         <v>45291</v>
@@ -73658,7 +73661,7 @@
         <v>45138</v>
       </c>
       <c r="D2008" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E2008" t="n">
         <v>0.606060606060606</v>
@@ -73684,7 +73687,7 @@
     </row>
     <row r="2009">
       <c r="A2009" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B2009" s="1" t="n">
         <v>45291</v>
@@ -73693,7 +73696,7 @@
         <v>45138</v>
       </c>
       <c r="D2009" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E2009" t="n">
         <v>0.575757575757576</v>
@@ -73719,7 +73722,7 @@
     </row>
     <row r="2010">
       <c r="A2010" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B2010" s="1" t="n">
         <v>45291</v>
@@ -73728,7 +73731,7 @@
         <v>45132</v>
       </c>
       <c r="D2010" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E2010" t="n">
         <v>0.606060606060606</v>
@@ -73789,7 +73792,7 @@
     </row>
     <row r="2012">
       <c r="A2012" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B2012" s="1" t="n">
         <v>45291</v>
@@ -73798,7 +73801,7 @@
         <v>45128</v>
       </c>
       <c r="D2012" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E2012" t="n">
         <v>0.696969696969697</v>
@@ -74559,7 +74562,7 @@
     </row>
     <row r="2034">
       <c r="A2034" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B2034" s="1" t="n">
         <v>45291</v>
@@ -74568,7 +74571,7 @@
         <v>45138</v>
       </c>
       <c r="D2034" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E2034" t="n">
         <v>0.575757575757576</v>
@@ -74594,7 +74597,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B2035" s="1" t="n">
         <v>45291</v>
@@ -74603,7 +74606,7 @@
         <v>45138</v>
       </c>
       <c r="D2035" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E2035" t="n">
         <v>0.606060606060606</v>
@@ -74664,7 +74667,7 @@
     </row>
     <row r="2037">
       <c r="A2037" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B2037" s="1" t="n">
         <v>45291</v>
@@ -74673,7 +74676,7 @@
         <v>45138</v>
       </c>
       <c r="D2037" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E2037" t="n">
         <v>0.666666666666667</v>
@@ -74804,7 +74807,7 @@
     </row>
     <row r="2041">
       <c r="A2041" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B2041" s="1" t="n">
         <v>45291</v>
@@ -74813,7 +74816,7 @@
         <v>45138</v>
       </c>
       <c r="D2041" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E2041" t="n">
         <v>0.636363636363636</v>
@@ -75408,7 +75411,7 @@
         <v>45167</v>
       </c>
       <c r="D2058" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E2058" t="n">
         <v>0.636363636363636</v>
@@ -75574,7 +75577,7 @@
     </row>
     <row r="2063">
       <c r="A2063" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B2063" s="1" t="n">
         <v>45291</v>
@@ -75583,7 +75586,7 @@
         <v>45132</v>
       </c>
       <c r="D2063" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E2063" t="n">
         <v>0.757575757575758</v>
@@ -75679,7 +75682,7 @@
     </row>
     <row r="2066">
       <c r="A2066" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B2066" s="1" t="n">
         <v>45291</v>
@@ -75688,7 +75691,7 @@
         <v>45135</v>
       </c>
       <c r="D2066" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E2066" t="n">
         <v>0.666666666666667</v>
@@ -75959,7 +75962,7 @@
     </row>
     <row r="2074">
       <c r="A2074" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B2074" s="1" t="n">
         <v>45291</v>
@@ -75968,7 +75971,7 @@
         <v>45138</v>
       </c>
       <c r="D2074" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E2074" t="n">
         <v>0.575757575757576</v>
@@ -75994,7 +75997,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B2075" s="1" t="n">
         <v>44985</v>
@@ -76003,7 +76006,7 @@
         <v>44834</v>
       </c>
       <c r="D2075" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E2075" t="n">
         <v>0.666666666666667</v>
@@ -76134,7 +76137,7 @@
     </row>
     <row r="2079">
       <c r="A2079" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B2079" s="1" t="n">
         <v>45107</v>
@@ -76143,7 +76146,7 @@
         <v>44944</v>
       </c>
       <c r="D2079" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E2079" t="n">
         <v>0.636363636363636</v>
@@ -76274,7 +76277,7 @@
     </row>
     <row r="2083">
       <c r="A2083" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B2083" s="1" t="n">
         <v>45291</v>
@@ -76283,7 +76286,7 @@
         <v>45128</v>
       </c>
       <c r="D2083" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E2083" t="n">
         <v>0.696969696969697</v>
@@ -76624,7 +76627,7 @@
     </row>
     <row r="2093">
       <c r="A2093" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B2093" s="1" t="n">
         <v>45291</v>
@@ -76633,7 +76636,7 @@
         <v>45138</v>
       </c>
       <c r="D2093" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E2093" t="n">
         <v>0.696969696969697</v>
@@ -77219,7 +77222,7 @@
     </row>
     <row r="2110">
       <c r="A2110" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B2110" s="1" t="n">
         <v>45107</v>
@@ -77228,7 +77231,7 @@
         <v>44930</v>
       </c>
       <c r="D2110" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E2110" t="n">
         <v>0.454545454545455</v>
@@ -78024,7 +78027,7 @@
     </row>
     <row r="2133">
       <c r="A2133" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B2133" s="1" t="n">
         <v>45291</v>
@@ -78033,7 +78036,7 @@
         <v>45138</v>
       </c>
       <c r="D2133" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E2133" t="n">
         <v>0.696969696969697</v>
@@ -78094,7 +78097,7 @@
     </row>
     <row r="2135">
       <c r="A2135" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B2135" s="1" t="n">
         <v>45291</v>
@@ -78103,7 +78106,7 @@
         <v>45135</v>
       </c>
       <c r="D2135" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E2135" t="n">
         <v>0.666666666666667</v>
@@ -78129,7 +78132,7 @@
     </row>
     <row r="2136">
       <c r="A2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B2136" s="1" t="n">
         <v>45291</v>
@@ -78138,7 +78141,7 @@
         <v>45135</v>
       </c>
       <c r="D2136" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E2136" t="n">
         <v>0.636363636363636</v>
@@ -78339,7 +78342,7 @@
     </row>
     <row r="2142">
       <c r="A2142" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B2142" s="1" t="n">
         <v>45657</v>
@@ -78348,7 +78351,7 @@
         <v>45503</v>
       </c>
       <c r="D2142" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E2142" t="n">
         <v>0.666666666666667</v>
@@ -78374,7 +78377,7 @@
     </row>
     <row r="2143">
       <c r="A2143" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B2143" s="1" t="n">
         <v>45657</v>
@@ -78383,7 +78386,7 @@
         <v>45504</v>
       </c>
       <c r="D2143" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E2143" t="n">
         <v>0.636363636363636</v>
@@ -78409,7 +78412,7 @@
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B2144" s="1" t="n">
         <v>45657</v>
@@ -78418,7 +78421,7 @@
         <v>45499</v>
       </c>
       <c r="D2144" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E2144" t="n">
         <v>0.696969696969697</v>
@@ -78768,7 +78771,7 @@
         <v>45497</v>
       </c>
       <c r="D2154" t="s">
-        <v>284</v>
+        <v>746</v>
       </c>
       <c r="E2154" t="n">
         <v>0.454545454545455</v>
@@ -78829,7 +78832,7 @@
     </row>
     <row r="2156">
       <c r="A2156" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B2156" s="1" t="n">
         <v>45657</v>
@@ -78838,7 +78841,7 @@
         <v>45449</v>
       </c>
       <c r="D2156" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E2156" t="n">
         <v>0.606060606060606</v>
@@ -78899,7 +78902,7 @@
     </row>
     <row r="2158">
       <c r="A2158" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B2158" s="1" t="n">
         <v>45382</v>
@@ -78908,7 +78911,7 @@
         <v>45230</v>
       </c>
       <c r="D2158" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E2158" t="n">
         <v>0.606060606060606</v>
@@ -79048,7 +79051,7 @@
         <v>45504</v>
       </c>
       <c r="D2162" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E2162" t="n">
         <v>0.606060606060606</v>
@@ -79083,7 +79086,7 @@
         <v>45504</v>
       </c>
       <c r="D2163" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E2163" t="n">
         <v>0.636363636363636</v>
@@ -79179,7 +79182,7 @@
     </row>
     <row r="2166">
       <c r="A2166" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B2166" s="1" t="n">
         <v>45657</v>
@@ -79188,7 +79191,7 @@
         <v>45489</v>
       </c>
       <c r="D2166" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E2166" t="n">
         <v>0.636363636363636</v>
@@ -79529,7 +79532,7 @@
     </row>
     <row r="2176">
       <c r="A2176" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B2176" s="1" t="n">
         <v>45657</v>
@@ -79538,7 +79541,7 @@
         <v>45504</v>
       </c>
       <c r="D2176" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E2176" t="n">
         <v>0.606060606060606</v>
@@ -79984,7 +79987,7 @@
     </row>
     <row r="2189">
       <c r="A2189" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B2189" s="1" t="n">
         <v>45657</v>
@@ -79993,7 +79996,7 @@
         <v>45492</v>
       </c>
       <c r="D2189" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E2189" t="n">
         <v>0.636363636363636</v>
@@ -80168,7 +80171,7 @@
         <v>45502</v>
       </c>
       <c r="D2194" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E2194" t="n">
         <v>0.636363636363636</v>
@@ -80194,7 +80197,7 @@
     </row>
     <row r="2195">
       <c r="A2195" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B2195" s="1" t="n">
         <v>45657</v>
@@ -80203,7 +80206,7 @@
         <v>45504</v>
       </c>
       <c r="D2195" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E2195" t="n">
         <v>0.606060606060606</v>
@@ -80229,7 +80232,7 @@
     </row>
     <row r="2196">
       <c r="A2196" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B2196" s="1" t="n">
         <v>45657</v>
@@ -80238,7 +80241,7 @@
         <v>45497</v>
       </c>
       <c r="D2196" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E2196" t="n">
         <v>0.666666666666667</v>
@@ -80299,7 +80302,7 @@
     </row>
     <row r="2198">
       <c r="A2198" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B2198" s="1" t="n">
         <v>45657</v>
@@ -80308,7 +80311,7 @@
         <v>45504</v>
       </c>
       <c r="D2198" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E2198" t="n">
         <v>0.696969696969697</v>
@@ -80334,7 +80337,7 @@
     </row>
     <row r="2199">
       <c r="A2199" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B2199" s="1" t="n">
         <v>45657</v>
@@ -80343,7 +80346,7 @@
         <v>45496</v>
       </c>
       <c r="D2199" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E2199" t="n">
         <v>0.666666666666667</v>
@@ -80404,7 +80407,7 @@
     </row>
     <row r="2201">
       <c r="A2201" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B2201" s="1" t="n">
         <v>45657</v>
@@ -80413,7 +80416,7 @@
         <v>45502</v>
       </c>
       <c r="D2201" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E2201" t="n">
         <v>0.636363636363636</v>
@@ -80439,7 +80442,7 @@
     </row>
     <row r="2202">
       <c r="A2202" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B2202" s="1" t="n">
         <v>45657</v>
@@ -80448,7 +80451,7 @@
         <v>45504</v>
       </c>
       <c r="D2202" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E2202" t="n">
         <v>0.636363636363636</v>
@@ -80474,7 +80477,7 @@
     </row>
     <row r="2203">
       <c r="A2203" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2203" s="1" t="n">
         <v>45657</v>
@@ -80483,7 +80486,7 @@
         <v>45504</v>
       </c>
       <c r="D2203" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E2203" t="n">
         <v>0.636363636363636</v>
@@ -80509,7 +80512,7 @@
     </row>
     <row r="2204">
       <c r="A2204" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B2204" s="1" t="n">
         <v>45657</v>
@@ -80518,7 +80521,7 @@
         <v>45504</v>
       </c>
       <c r="D2204" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E2204" t="n">
         <v>0.636363636363636</v>
@@ -80544,7 +80547,7 @@
     </row>
     <row r="2205">
       <c r="A2205" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B2205" s="1" t="n">
         <v>45657</v>
@@ -80553,7 +80556,7 @@
         <v>45504</v>
       </c>
       <c r="D2205" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E2205" t="n">
         <v>0.636363636363636</v>
@@ -80579,7 +80582,7 @@
     </row>
     <row r="2206">
       <c r="A2206" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B2206" s="1" t="n">
         <v>45657</v>
@@ -80588,7 +80591,7 @@
         <v>45504</v>
       </c>
       <c r="D2206" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E2206" t="n">
         <v>0.666666666666667</v>
@@ -80614,7 +80617,7 @@
     </row>
     <row r="2207">
       <c r="A2207" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2207" s="1" t="n">
         <v>45657</v>
@@ -80623,7 +80626,7 @@
         <v>45490</v>
       </c>
       <c r="D2207" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E2207" t="n">
         <v>0.666666666666667</v>
@@ -80649,7 +80652,7 @@
     </row>
     <row r="2208">
       <c r="A2208" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B2208" s="1" t="n">
         <v>45657</v>
@@ -80658,7 +80661,7 @@
         <v>45504</v>
       </c>
       <c r="D2208" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E2208" t="n">
         <v>0.636363636363636</v>
@@ -80754,7 +80757,7 @@
     </row>
     <row r="2211">
       <c r="A2211" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2211" s="1" t="n">
         <v>45657</v>
@@ -80763,7 +80766,7 @@
         <v>45503</v>
       </c>
       <c r="D2211" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2211" t="n">
         <v>0.454545454545455</v>
@@ -80789,7 +80792,7 @@
     </row>
     <row r="2212">
       <c r="A2212" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B2212" s="1" t="n">
         <v>45657</v>
@@ -80798,7 +80801,7 @@
         <v>45499</v>
       </c>
       <c r="D2212" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E2212" t="n">
         <v>0.636363636363636</v>
@@ -80824,7 +80827,7 @@
     </row>
     <row r="2213">
       <c r="A2213" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B2213" s="1" t="n">
         <v>45657</v>
@@ -80833,7 +80836,7 @@
         <v>45504</v>
       </c>
       <c r="D2213" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E2213" t="n">
         <v>0.575757575757576</v>
@@ -80964,7 +80967,7 @@
     </row>
     <row r="2217">
       <c r="A2217" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B2217" s="1" t="n">
         <v>45657</v>
@@ -80973,7 +80976,7 @@
         <v>45503</v>
       </c>
       <c r="D2217" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E2217" t="n">
         <v>0.696969696969697</v>
@@ -80999,7 +81002,7 @@
     </row>
     <row r="2218">
       <c r="A2218" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B2218" s="1" t="n">
         <v>45657</v>
@@ -81008,7 +81011,7 @@
         <v>45503</v>
       </c>
       <c r="D2218" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E2218" t="n">
         <v>0.636363636363636</v>
@@ -81209,7 +81212,7 @@
     </row>
     <row r="2224">
       <c r="A2224" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B2224" s="1" t="n">
         <v>45657</v>
@@ -81218,7 +81221,7 @@
         <v>45504</v>
       </c>
       <c r="D2224" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E2224" t="n">
         <v>0.606060606060606</v>
@@ -81244,7 +81247,7 @@
     </row>
     <row r="2225">
       <c r="A2225" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B2225" s="1" t="n">
         <v>45657</v>
@@ -81253,7 +81256,7 @@
         <v>45496</v>
       </c>
       <c r="D2225" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E2225" t="n">
         <v>0.636363636363636</v>
@@ -81288,7 +81291,7 @@
         <v>45489</v>
       </c>
       <c r="D2226" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E2226" t="n">
         <v>0.545454545454545</v>
@@ -81384,7 +81387,7 @@
     </row>
     <row r="2229">
       <c r="A2229" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B2229" s="1" t="n">
         <v>45657</v>
@@ -81393,7 +81396,7 @@
         <v>45371</v>
       </c>
       <c r="D2229" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E2229" t="n">
         <v>0.666666666666667</v>
@@ -81419,7 +81422,7 @@
     </row>
     <row r="2230">
       <c r="A2230" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B2230" s="1" t="n">
         <v>45657</v>
@@ -81428,7 +81431,7 @@
         <v>45587</v>
       </c>
       <c r="D2230" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E2230" t="n">
         <v>0.636363636363636</v>
@@ -81454,7 +81457,7 @@
     </row>
     <row r="2231">
       <c r="A2231" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B2231" s="1" t="n">
         <v>45657</v>
@@ -81463,7 +81466,7 @@
         <v>45504</v>
       </c>
       <c r="D2231" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E2231" t="n">
         <v>0.666666666666667</v>
@@ -81489,7 +81492,7 @@
     </row>
     <row r="2232">
       <c r="A2232" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B2232" s="1" t="n">
         <v>45657</v>
@@ -81498,7 +81501,7 @@
         <v>45504</v>
       </c>
       <c r="D2232" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E2232" t="n">
         <v>0.606060606060606</v>
@@ -81629,7 +81632,7 @@
     </row>
     <row r="2236">
       <c r="A2236" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B2236" s="1" t="n">
         <v>45657</v>
@@ -81638,7 +81641,7 @@
         <v>45488</v>
       </c>
       <c r="D2236" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E2236" t="n">
         <v>0.606060606060606</v>
@@ -81839,7 +81842,7 @@
     </row>
     <row r="2242">
       <c r="A2242" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B2242" s="1" t="n">
         <v>45657</v>
@@ -81848,7 +81851,7 @@
         <v>45504</v>
       </c>
       <c r="D2242" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E2242" t="n">
         <v>0.636363636363636</v>
@@ -81874,7 +81877,7 @@
     </row>
     <row r="2243">
       <c r="A2243" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B2243" s="1" t="n">
         <v>45657</v>
@@ -81883,7 +81886,7 @@
         <v>45504</v>
       </c>
       <c r="D2243" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E2243" t="n">
         <v>0.515151515151515</v>
@@ -81909,7 +81912,7 @@
     </row>
     <row r="2244">
       <c r="A2244" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B2244" s="1" t="n">
         <v>45657</v>
@@ -81918,7 +81921,7 @@
         <v>45503</v>
       </c>
       <c r="D2244" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E2244" t="n">
         <v>0.696969696969697</v>
@@ -81944,7 +81947,7 @@
     </row>
     <row r="2245">
       <c r="A2245" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B2245" s="1" t="n">
         <v>45657</v>
@@ -81953,7 +81956,7 @@
         <v>45504</v>
       </c>
       <c r="D2245" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E2245" t="n">
         <v>0.606060606060606</v>
@@ -82084,7 +82087,7 @@
     </row>
     <row r="2249">
       <c r="A2249" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B2249" s="1" t="n">
         <v>45657</v>
@@ -82093,7 +82096,7 @@
         <v>45504</v>
       </c>
       <c r="D2249" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2249" t="n">
         <v>0.575757575757576</v>
@@ -82119,34 +82122,34 @@
     </row>
     <row r="2250">
       <c r="A2250" t="s">
-        <v>803</v>
+        <v>992</v>
       </c>
       <c r="B2250" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2250" s="1" t="n">
-        <v>45504</v>
+        <v>45628</v>
       </c>
       <c r="D2250" t="s">
-        <v>804</v>
+        <v>993</v>
       </c>
       <c r="E2250" t="n">
         <v>0.606060606060606</v>
       </c>
       <c r="F2250" t="n">
-        <v>0.696969696969697</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2250" t="n">
-        <v>0.541666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H2250" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I2250" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2250" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2250" t="n">
         <v>0.571428571428571</v>
@@ -82154,7 +82157,7 @@
     </row>
     <row r="2251">
       <c r="A2251" t="s">
-        <v>559</v>
+        <v>804</v>
       </c>
       <c r="B2251" s="1" t="n">
         <v>45657</v>
@@ -82163,16 +82166,16 @@
         <v>45504</v>
       </c>
       <c r="D2251" t="s">
-        <v>560</v>
+        <v>805</v>
       </c>
       <c r="E2251" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2251" t="n">
-        <v>0.727272727272727</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2251" t="n">
-        <v>0.583333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2251" t="n">
         <v>0.571428571428571</v>
@@ -82189,7 +82192,7 @@
     </row>
     <row r="2252">
       <c r="A2252" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B2252" s="1" t="n">
         <v>45657</v>
@@ -82198,25 +82201,25 @@
         <v>45504</v>
       </c>
       <c r="D2252" t="s">
-        <v>176</v>
+        <v>560</v>
       </c>
       <c r="E2252" t="n">
-        <v>0.606060606060606</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2252" t="n">
-        <v>0.666666666666667</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2252" t="n">
-        <v>0.541666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2252" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2252" t="n">
-        <v>0.2</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="J2252" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2252" t="n">
         <v>0.571428571428571</v>
@@ -82224,7 +82227,7 @@
     </row>
     <row r="2253">
       <c r="A2253" t="s">
-        <v>565</v>
+        <v>175</v>
       </c>
       <c r="B2253" s="1" t="n">
         <v>45657</v>
@@ -82233,33 +82236,33 @@
         <v>45504</v>
       </c>
       <c r="D2253" t="s">
-        <v>566</v>
+        <v>176</v>
       </c>
       <c r="E2253" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2253" t="n">
-        <v>0.696969696969697</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2253" t="n">
-        <v>0.333333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2253" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2253" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2253" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K2253" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2254" s="1" t="n">
         <v>45657</v>
@@ -82268,375 +82271,375 @@
         <v>45504</v>
       </c>
       <c r="D2254" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E2254" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2254" t="n">
-        <v>0.727272727272727</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2254" t="n">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H2254" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I2254" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2254" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2254" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B2255" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2255" s="1" t="n">
-        <v>45502</v>
+        <v>45504</v>
       </c>
       <c r="D2255" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E2255" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2255" t="n">
-        <v>0.696969696969697</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2255" t="n">
-        <v>0.458333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2255" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2255" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2255" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2255" t="n">
-        <v>0.428571428571429</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B2256" s="1" t="n">
-        <v>45382</v>
+        <v>45657</v>
       </c>
       <c r="C2256" s="1" t="n">
-        <v>45230</v>
+        <v>45502</v>
       </c>
       <c r="D2256" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E2256" t="n">
         <v>0.636363636363636</v>
       </c>
       <c r="F2256" t="n">
-        <v>0.636363636363636</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2256" t="n">
-        <v>0.625</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2256" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2256" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="J2256" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="K2256" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B2257" s="1" t="n">
-        <v>45657</v>
+        <v>45382</v>
       </c>
       <c r="C2257" s="1" t="n">
-        <v>45502</v>
+        <v>45230</v>
       </c>
       <c r="D2257" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E2257" t="n">
-        <v>0.484848484848485</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2257" t="n">
-        <v>0.606060606060606</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2257" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="H2257" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2257" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2257" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K2257" t="n">
-        <v>0.761904761904762</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B2258" s="1" t="n">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="C2258" s="1" t="n">
-        <v>45504</v>
+        <v>45502</v>
       </c>
       <c r="D2258" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E2258" t="n">
-        <v>0.636363636363636</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="F2258" t="n">
         <v>0.606060606060606</v>
       </c>
       <c r="G2258" t="n">
-        <v>0.458333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H2258" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I2258" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2258" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2258" t="n">
-        <v>0.666666666666667</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B2259" s="1" t="n">
-        <v>45657</v>
+        <v>45504</v>
       </c>
       <c r="C2259" s="1" t="n">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="D2259" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E2259" t="n">
         <v>0.636363636363636</v>
       </c>
       <c r="F2259" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2259" t="n">
-        <v>0.541666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2259" t="n">
-        <v>0.523809523809524</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2259" t="n">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2259" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K2259" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B2260" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2260" s="1" t="n">
-        <v>45502</v>
+        <v>45499</v>
       </c>
       <c r="D2260" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E2260" t="n">
-        <v>0.515151515151515</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2260" t="n">
-        <v>0.515151515151515</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2260" t="n">
-        <v>0.375</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2260" t="n">
-        <v>0.476190476190476</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2260" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2260" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2260" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="s">
-        <v>929</v>
+        <v>591</v>
       </c>
       <c r="B2261" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2261" s="1" t="n">
-        <v>45503</v>
+        <v>45502</v>
       </c>
       <c r="D2261" t="s">
-        <v>930</v>
+        <v>592</v>
       </c>
       <c r="E2261" t="n">
-        <v>0.606060606060606</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2261" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2261" t="n">
-        <v>0.583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H2261" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2261" t="n">
-        <v>0.266666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2261" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2261" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="s">
-        <v>595</v>
+        <v>930</v>
       </c>
       <c r="B2262" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2262" s="1" t="n">
-        <v>45475</v>
+        <v>45503</v>
       </c>
       <c r="D2262" t="s">
-        <v>596</v>
+        <v>931</v>
       </c>
       <c r="E2262" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2262" t="n">
-        <v>0.515151515151515</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2262" t="n">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2262" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2262" t="n">
-        <v>0.133333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2262" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="K2262" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="s">
-        <v>933</v>
+        <v>595</v>
       </c>
       <c r="B2263" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2263" s="1" t="n">
-        <v>45503</v>
+        <v>45475</v>
       </c>
       <c r="D2263" t="s">
-        <v>934</v>
+        <v>596</v>
       </c>
       <c r="E2263" t="n">
-        <v>0.666666666666667</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2263" t="n">
-        <v>0.545454545454545</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2263" t="n">
-        <v>0.416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H2263" t="n">
-        <v>0.714285714285714</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2263" t="n">
-        <v>0.333333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2263" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2263" t="n">
-        <v>0.380952380952381</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="s">
-        <v>605</v>
+        <v>934</v>
       </c>
       <c r="B2264" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2264" s="1" t="n">
-        <v>45475</v>
+        <v>45503</v>
       </c>
       <c r="D2264" t="s">
-        <v>606</v>
+        <v>935</v>
       </c>
       <c r="E2264" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2264" t="n">
-        <v>0.484848484848485</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2264" t="n">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2264" t="n">
-        <v>0.523809523809524</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I2264" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="J2264" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="K2264" t="n">
         <v>0.380952380952381</v>
@@ -82644,89 +82647,89 @@
     </row>
     <row r="2265">
       <c r="A2265" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2265" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2265" s="1" t="n">
-        <v>45490</v>
+        <v>45475</v>
       </c>
       <c r="D2265" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E2265" t="n">
-        <v>0.757575757575758</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2265" t="n">
-        <v>0.575757575757576</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="G2265" t="n">
-        <v>0.416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H2265" t="n">
-        <v>0.571428571428571</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2265" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J2265" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2265" t="n">
-        <v>0.428571428571429</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="s">
-        <v>189</v>
+        <v>607</v>
       </c>
       <c r="B2266" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2266" s="1" t="n">
-        <v>45503</v>
+        <v>45490</v>
       </c>
       <c r="D2266" t="s">
-        <v>190</v>
+        <v>608</v>
       </c>
       <c r="E2266" t="n">
-        <v>0.666666666666667</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="F2266" t="n">
-        <v>0.666666666666667</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="G2266" t="n">
-        <v>0.625</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2266" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2266" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J2266" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2266" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2267" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2267" s="1" t="n">
-        <v>45488</v>
+        <v>45503</v>
       </c>
       <c r="D2267" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E2267" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2267" t="n">
         <v>0.666666666666667</v>
@@ -82738,7 +82741,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2267" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2267" t="n">
         <v>0</v>
@@ -82749,139 +82752,139 @@
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>611</v>
+        <v>193</v>
       </c>
       <c r="B2268" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2268" s="1" t="n">
-        <v>45504</v>
+        <v>45488</v>
       </c>
       <c r="D2268" t="s">
-        <v>612</v>
+        <v>194</v>
       </c>
       <c r="E2268" t="n">
-        <v>0.515151515151515</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2268" t="n">
-        <v>0.454545454545455</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2268" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="H2268" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2268" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2268" t="n">
-        <v>0.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="K2268" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="s">
-        <v>197</v>
+        <v>611</v>
       </c>
       <c r="B2269" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2269" s="1" t="n">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="D2269" t="s">
-        <v>198</v>
+        <v>612</v>
       </c>
       <c r="E2269" t="n">
-        <v>0.757575757575758</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2269" t="n">
-        <v>0.515151515151515</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2269" t="n">
         <v>0.5</v>
       </c>
       <c r="H2269" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2269" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2269" t="n">
-        <v>0.133333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2269" t="n">
-        <v>0.666666666666667</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="s">
-        <v>613</v>
+        <v>197</v>
       </c>
       <c r="B2270" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2270" s="1" t="n">
-        <v>45504</v>
+        <v>45499</v>
       </c>
       <c r="D2270" t="s">
-        <v>614</v>
+        <v>198</v>
       </c>
       <c r="E2270" t="n">
-        <v>0.636363636363636</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="F2270" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2270" t="n">
         <v>0.5</v>
       </c>
       <c r="H2270" t="n">
-        <v>0.523809523809524</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2270" t="n">
-        <v>0.2</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="J2270" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="K2270" t="n">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B2271" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2271" s="1" t="n">
-        <v>45426</v>
+        <v>45504</v>
       </c>
       <c r="D2271" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E2271" t="n">
-        <v>0.696969696969697</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2271" t="n">
-        <v>0.696969696969697</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2271" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H2271" t="n">
-        <v>0.666666666666667</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2271" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J2271" t="n">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2271" t="n">
         <v>0.761904761904762</v>
@@ -82889,98 +82892,98 @@
     </row>
     <row r="2272">
       <c r="A2272" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B2272" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2272" s="1" t="n">
-        <v>45504</v>
+        <v>45426</v>
       </c>
       <c r="D2272" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E2272" t="n">
         <v>0.696969696969697</v>
       </c>
       <c r="F2272" t="n">
-        <v>0.545454545454545</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2272" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H2272" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I2272" t="n">
-        <v>0.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="J2272" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K2272" t="n">
-        <v>0.428571428571429</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B2273" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2273" s="1" t="n">
-        <v>45470</v>
+        <v>45504</v>
       </c>
       <c r="D2273" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E2273" t="n">
-        <v>0.636363636363636</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F2273" t="n">
-        <v>0.757575757575758</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2273" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2273" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2273" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2273" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="K2273" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B2274" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2274" s="1" t="n">
-        <v>45502</v>
+        <v>45470</v>
       </c>
       <c r="D2274" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E2274" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2274" t="n">
-        <v>0.606060606060606</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="G2274" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2274" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I2274" t="n">
         <v>0.133333333333333</v>
@@ -82989,39 +82992,39 @@
         <v>0</v>
       </c>
       <c r="K2274" t="n">
-        <v>0.285714285714286</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="s">
-        <v>935</v>
+        <v>631</v>
       </c>
       <c r="B2275" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2275" s="1" t="n">
-        <v>45504</v>
+        <v>45502</v>
       </c>
       <c r="D2275" t="s">
-        <v>936</v>
+        <v>632</v>
       </c>
       <c r="E2275" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2275" t="n">
         <v>0.606060606060606</v>
       </c>
-      <c r="F2275" t="n">
-        <v>0.696969696969697</v>
-      </c>
       <c r="G2275" t="n">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H2275" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2275" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2275" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2275" t="n">
         <v>0.285714285714286</v>
@@ -83029,60 +83032,60 @@
     </row>
     <row r="2276">
       <c r="A2276" t="s">
-        <v>808</v>
+        <v>936</v>
       </c>
       <c r="B2276" s="1" t="n">
-        <v>45351</v>
+        <v>45657</v>
       </c>
       <c r="C2276" s="1" t="n">
-        <v>45198</v>
+        <v>45504</v>
       </c>
       <c r="D2276" t="s">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="E2276" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2276" t="n">
         <v>0.696969696969697</v>
       </c>
       <c r="G2276" t="n">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H2276" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2276" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="J2276" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2276" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="s">
-        <v>651</v>
+        <v>809</v>
       </c>
       <c r="B2277" s="1" t="n">
-        <v>45657</v>
+        <v>45351</v>
       </c>
       <c r="C2277" s="1" t="n">
-        <v>45499</v>
+        <v>45198</v>
       </c>
       <c r="D2277" t="s">
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="E2277" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2277" t="n">
-        <v>0.727272727272727</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2277" t="n">
-        <v>0.541666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2277" t="n">
         <v>0.571428571428571</v>
@@ -83091,7 +83094,7 @@
         <v>0.266666666666667</v>
       </c>
       <c r="J2277" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2277" t="n">
         <v>0.571428571428571</v>
@@ -83099,19 +83102,19 @@
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B2278" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2278" s="1" t="n">
-        <v>45504</v>
+        <v>45499</v>
       </c>
       <c r="D2278" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E2278" t="n">
-        <v>0.515151515151515</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2278" t="n">
         <v>0.727272727272727</v>
@@ -83123,179 +83126,179 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2278" t="n">
-        <v>0.133333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2278" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K2278" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="s">
-        <v>995</v>
+        <v>653</v>
       </c>
       <c r="B2279" s="1" t="n">
-        <v>45473</v>
+        <v>45657</v>
       </c>
       <c r="C2279" s="1" t="n">
-        <v>45322</v>
+        <v>45504</v>
       </c>
       <c r="D2279" t="s">
-        <v>996</v>
+        <v>654</v>
       </c>
       <c r="E2279" t="n">
-        <v>0.575757575757576</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2279" t="n">
-        <v>0.696969696969697</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2279" t="n">
-        <v>0.416666666666667</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2279" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2279" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2279" t="n">
-        <v>0.733333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="K2279" t="n">
-        <v>0.666666666666667</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="s">
-        <v>659</v>
+        <v>996</v>
       </c>
       <c r="B2280" s="1" t="n">
-        <v>45657</v>
+        <v>45473</v>
       </c>
       <c r="C2280" s="1" t="n">
-        <v>45504</v>
+        <v>45322</v>
       </c>
       <c r="D2280" t="s">
-        <v>660</v>
+        <v>997</v>
       </c>
       <c r="E2280" t="n">
-        <v>0.606060606060606</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2280" t="n">
-        <v>0.606060606060606</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2280" t="n">
-        <v>0.458333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2280" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2280" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2280" t="n">
-        <v>0.2</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="K2280" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B2281" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2281" s="1" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="D2281" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E2281" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2281" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2281" t="n">
-        <v>0.375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2281" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2281" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2281" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="K2281" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B2282" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2282" s="1" t="n">
-        <v>45467</v>
+        <v>45503</v>
       </c>
       <c r="D2282" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E2282" t="n">
-        <v>0.484848484848485</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2282" t="n">
-        <v>0.484848484848485</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2282" t="n">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H2282" t="n">
+        <v>0.380952380952381</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2282" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="K2282" t="n">
         <v>0.476190476190476</v>
-      </c>
-      <c r="I2282" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J2282" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="K2282" t="n">
-        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B2283" s="1" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="C2283" s="1" t="n">
-        <v>45504</v>
+        <v>45467</v>
       </c>
       <c r="D2283" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E2283" t="n">
-        <v>0.606060606060606</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="F2283" t="n">
-        <v>0.696969696969697</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="G2283" t="n">
-        <v>0.5</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2283" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2283" t="n">
         <v>0.2</v>
@@ -83304,27 +83307,27 @@
         <v>0.133333333333333</v>
       </c>
       <c r="K2283" t="n">
-        <v>0.476190476190476</v>
+        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B2284" s="1" t="n">
-        <v>45657</v>
+        <v>45322</v>
       </c>
       <c r="C2284" s="1" t="n">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="D2284" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E2284" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2284" t="n">
-        <v>0.666666666666667</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2284" t="n">
         <v>0.5</v>
@@ -83333,123 +83336,123 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2284" t="n">
-        <v>0.666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2284" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2284" t="n">
-        <v>0.619047619047619</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B2285" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2285" s="1" t="n">
-        <v>45503</v>
+        <v>45490</v>
       </c>
       <c r="D2285" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E2285" t="n">
-        <v>0.424242424242424</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2285" t="n">
-        <v>0.545454545454545</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2285" t="n">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2285" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J2285" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2285" t="n">
         <v>0.619047619047619</v>
-      </c>
-      <c r="I2285" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="J2285" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K2285" t="n">
-        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B2286" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2286" s="1" t="n">
-        <v>45504</v>
+        <v>45503</v>
       </c>
       <c r="D2286" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E2286" t="n">
-        <v>0.575757575757576</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="F2286" t="n">
-        <v>0.454545454545455</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2286" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="H2286" t="n">
-        <v>0.476190476190476</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2286" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2286" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2286" t="n">
-        <v>0.571428571428571</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B2287" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2287" s="1" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="D2287" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E2287" t="n">
-        <v>0.454545454545455</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2287" t="n">
         <v>0.454545454545455</v>
       </c>
       <c r="G2287" t="n">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2287" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2287" t="n">
         <v>0.2</v>
       </c>
       <c r="J2287" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K2287" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B2288" s="1" t="n">
         <v>45657</v>
@@ -83458,165 +83461,165 @@
         <v>45503</v>
       </c>
       <c r="D2288" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E2288" t="n">
-        <v>0.545454545454545</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2288" t="n">
-        <v>0.484848484848485</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2288" t="n">
-        <v>0.416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H2288" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2288" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2288" t="n">
-        <v>0.4</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2288" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="s">
-        <v>233</v>
+        <v>695</v>
       </c>
       <c r="B2289" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2289" s="1" t="n">
-        <v>45497</v>
+        <v>45503</v>
       </c>
       <c r="D2289" t="s">
-        <v>234</v>
+        <v>696</v>
       </c>
       <c r="E2289" t="n">
-        <v>0.606060606060606</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2289" t="n">
-        <v>0.606060606060606</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="G2289" t="n">
-        <v>0.583333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2289" t="n">
-        <v>0.571428571428571</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="I2289" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2289" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2289" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="s">
-        <v>723</v>
+        <v>233</v>
       </c>
       <c r="B2290" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2290" s="1" t="n">
-        <v>45472</v>
+        <v>45497</v>
       </c>
       <c r="D2290" t="s">
-        <v>724</v>
+        <v>234</v>
       </c>
       <c r="E2290" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2290" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2290" t="n">
-        <v>0.375</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2290" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2290" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2290" t="n">
         <v>0.333333333333333</v>
-      </c>
-      <c r="J2290" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K2290" t="n">
-        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="s">
-        <v>235</v>
+        <v>723</v>
       </c>
       <c r="B2291" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2291" s="1" t="n">
-        <v>45138</v>
+        <v>45472</v>
       </c>
       <c r="D2291" t="s">
-        <v>236</v>
+        <v>724</v>
       </c>
       <c r="E2291" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2291" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2291" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H2291" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2291" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J2291" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K2291" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="s">
-        <v>725</v>
+        <v>235</v>
       </c>
       <c r="B2292" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2292" s="1" t="n">
-        <v>45490</v>
+        <v>45138</v>
       </c>
       <c r="D2292" t="s">
-        <v>726</v>
+        <v>236</v>
       </c>
       <c r="E2292" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2292" t="n">
-        <v>0.454545454545455</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2292" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H2292" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2292" t="n">
-        <v>0.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="J2292" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2292" t="n">
         <v>0.571428571428571</v>
@@ -83624,34 +83627,34 @@
     </row>
     <row r="2293">
       <c r="A2293" t="s">
-        <v>237</v>
+        <v>725</v>
       </c>
       <c r="B2293" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2293" s="1" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="D2293" t="s">
-        <v>238</v>
+        <v>726</v>
       </c>
       <c r="E2293" t="n">
-        <v>0.666666666666667</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2293" t="n">
-        <v>0.636363636363636</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2293" t="n">
-        <v>0.541666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="H2293" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2293" t="n">
-        <v>0.666666666666667</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2293" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2293" t="n">
         <v>0.571428571428571</v>
@@ -83659,22 +83662,22 @@
     </row>
     <row r="2294">
       <c r="A2294" t="s">
-        <v>945</v>
+        <v>237</v>
       </c>
       <c r="B2294" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2294" s="1" t="n">
-        <v>45504</v>
+        <v>45489</v>
       </c>
       <c r="D2294" t="s">
-        <v>946</v>
+        <v>238</v>
       </c>
       <c r="E2294" t="n">
-        <v>0.696969696969697</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2294" t="n">
-        <v>0.757575757575758</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2294" t="n">
         <v>0.541666666666667</v>
@@ -83683,18 +83686,18 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2294" t="n">
-        <v>0.266666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J2294" t="n">
         <v>0.2</v>
       </c>
       <c r="K2294" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B2295" s="1" t="n">
         <v>45657</v>
@@ -83703,27 +83706,62 @@
         <v>45504</v>
       </c>
       <c r="D2295" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E2295" t="n">
-        <v>0.575757575757576</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F2295" t="n">
         <v>0.757575757575758</v>
       </c>
       <c r="G2295" t="n">
-        <v>0.291666666666667</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2295" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2295" t="n">
         <v>0.266666666666667</v>
       </c>
       <c r="J2295" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2295" t="n">
+        <v>0.380952380952381</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2296" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C2296" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>949</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2296" t="n">
         <v>0.285714285714286</v>
       </c>
     </row>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -82927,98 +82927,98 @@
     </row>
     <row r="2273">
       <c r="A2273" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B2273" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2273" s="1" t="n">
-        <v>45504</v>
+        <v>45636</v>
       </c>
       <c r="D2273" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E2273" t="n">
-        <v>0.696969696969697</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2273" t="n">
-        <v>0.545454545454545</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="G2273" t="n">
-        <v>0.5</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2273" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2273" t="n">
-        <v>0.133333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="J2273" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="K2273" t="n">
-        <v>0.428571428571429</v>
+        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B2274" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2274" s="1" t="n">
-        <v>45470</v>
+        <v>45504</v>
       </c>
       <c r="D2274" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E2274" t="n">
-        <v>0.636363636363636</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F2274" t="n">
-        <v>0.757575757575758</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2274" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2274" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2274" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2274" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="K2274" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B2275" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2275" s="1" t="n">
-        <v>45502</v>
+        <v>45470</v>
       </c>
       <c r="D2275" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E2275" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2275" t="n">
-        <v>0.606060606060606</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="G2275" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2275" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I2275" t="n">
         <v>0.133333333333333</v>
@@ -83027,39 +83027,39 @@
         <v>0</v>
       </c>
       <c r="K2275" t="n">
-        <v>0.285714285714286</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="s">
-        <v>936</v>
+        <v>631</v>
       </c>
       <c r="B2276" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2276" s="1" t="n">
-        <v>45504</v>
+        <v>45502</v>
       </c>
       <c r="D2276" t="s">
-        <v>937</v>
+        <v>632</v>
       </c>
       <c r="E2276" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2276" t="n">
         <v>0.606060606060606</v>
       </c>
-      <c r="F2276" t="n">
-        <v>0.696969696969697</v>
-      </c>
       <c r="G2276" t="n">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H2276" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2276" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2276" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2276" t="n">
         <v>0.285714285714286</v>
@@ -83067,60 +83067,60 @@
     </row>
     <row r="2277">
       <c r="A2277" t="s">
-        <v>809</v>
+        <v>936</v>
       </c>
       <c r="B2277" s="1" t="n">
-        <v>45351</v>
+        <v>45657</v>
       </c>
       <c r="C2277" s="1" t="n">
-        <v>45198</v>
+        <v>45504</v>
       </c>
       <c r="D2277" t="s">
-        <v>810</v>
+        <v>937</v>
       </c>
       <c r="E2277" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2277" t="n">
         <v>0.696969696969697</v>
       </c>
       <c r="G2277" t="n">
-        <v>0.583333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H2277" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2277" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="J2277" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2277" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>651</v>
+        <v>809</v>
       </c>
       <c r="B2278" s="1" t="n">
-        <v>45657</v>
+        <v>45351</v>
       </c>
       <c r="C2278" s="1" t="n">
-        <v>45499</v>
+        <v>45198</v>
       </c>
       <c r="D2278" t="s">
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="E2278" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2278" t="n">
-        <v>0.727272727272727</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2278" t="n">
-        <v>0.541666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2278" t="n">
         <v>0.571428571428571</v>
@@ -83129,7 +83129,7 @@
         <v>0.266666666666667</v>
       </c>
       <c r="J2278" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2278" t="n">
         <v>0.571428571428571</v>
@@ -83137,19 +83137,19 @@
     </row>
     <row r="2279">
       <c r="A2279" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B2279" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2279" s="1" t="n">
-        <v>45504</v>
+        <v>45499</v>
       </c>
       <c r="D2279" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E2279" t="n">
-        <v>0.515151515151515</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2279" t="n">
         <v>0.727272727272727</v>
@@ -83161,179 +83161,179 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2279" t="n">
-        <v>0.133333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2279" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K2279" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="s">
-        <v>996</v>
+        <v>653</v>
       </c>
       <c r="B2280" s="1" t="n">
-        <v>45473</v>
+        <v>45657</v>
       </c>
       <c r="C2280" s="1" t="n">
-        <v>45322</v>
+        <v>45504</v>
       </c>
       <c r="D2280" t="s">
-        <v>997</v>
+        <v>654</v>
       </c>
       <c r="E2280" t="n">
-        <v>0.575757575757576</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2280" t="n">
-        <v>0.696969696969697</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2280" t="n">
-        <v>0.416666666666667</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2280" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2280" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2280" t="n">
-        <v>0.733333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="K2280" t="n">
-        <v>0.666666666666667</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="s">
-        <v>659</v>
+        <v>996</v>
       </c>
       <c r="B2281" s="1" t="n">
-        <v>45657</v>
+        <v>45473</v>
       </c>
       <c r="C2281" s="1" t="n">
-        <v>45504</v>
+        <v>45322</v>
       </c>
       <c r="D2281" t="s">
-        <v>660</v>
+        <v>997</v>
       </c>
       <c r="E2281" t="n">
-        <v>0.606060606060606</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2281" t="n">
-        <v>0.606060606060606</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2281" t="n">
-        <v>0.458333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2281" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2281" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2281" t="n">
-        <v>0.2</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="K2281" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B2282" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2282" s="1" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="D2282" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E2282" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2282" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2282" t="n">
-        <v>0.375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2282" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2282" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2282" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="K2282" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B2283" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2283" s="1" t="n">
-        <v>45467</v>
+        <v>45503</v>
       </c>
       <c r="D2283" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E2283" t="n">
-        <v>0.484848484848485</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2283" t="n">
-        <v>0.484848484848485</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2283" t="n">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H2283" t="n">
+        <v>0.380952380952381</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2283" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="K2283" t="n">
         <v>0.476190476190476</v>
-      </c>
-      <c r="I2283" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J2283" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="K2283" t="n">
-        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B2284" s="1" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="C2284" s="1" t="n">
-        <v>45504</v>
+        <v>45467</v>
       </c>
       <c r="D2284" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E2284" t="n">
-        <v>0.606060606060606</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="F2284" t="n">
-        <v>0.696969696969697</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="G2284" t="n">
-        <v>0.5</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2284" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2284" t="n">
         <v>0.2</v>
@@ -83342,27 +83342,27 @@
         <v>0.133333333333333</v>
       </c>
       <c r="K2284" t="n">
-        <v>0.476190476190476</v>
+        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B2285" s="1" t="n">
-        <v>45657</v>
+        <v>45322</v>
       </c>
       <c r="C2285" s="1" t="n">
-        <v>45490</v>
+        <v>45504</v>
       </c>
       <c r="D2285" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E2285" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2285" t="n">
-        <v>0.666666666666667</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2285" t="n">
         <v>0.5</v>
@@ -83371,123 +83371,123 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2285" t="n">
-        <v>0.666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2285" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2285" t="n">
-        <v>0.619047619047619</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B2286" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2286" s="1" t="n">
-        <v>45503</v>
+        <v>45490</v>
       </c>
       <c r="D2286" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E2286" t="n">
-        <v>0.424242424242424</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2286" t="n">
-        <v>0.545454545454545</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2286" t="n">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2286" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J2286" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2286" t="n">
         <v>0.619047619047619</v>
-      </c>
-      <c r="I2286" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="J2286" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K2286" t="n">
-        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B2287" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2287" s="1" t="n">
-        <v>45504</v>
+        <v>45503</v>
       </c>
       <c r="D2287" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E2287" t="n">
-        <v>0.575757575757576</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="F2287" t="n">
-        <v>0.454545454545455</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2287" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="H2287" t="n">
-        <v>0.476190476190476</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2287" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2287" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2287" t="n">
-        <v>0.571428571428571</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B2288" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2288" s="1" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="D2288" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E2288" t="n">
-        <v>0.454545454545455</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2288" t="n">
         <v>0.454545454545455</v>
       </c>
       <c r="G2288" t="n">
-        <v>0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2288" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2288" t="n">
         <v>0.2</v>
       </c>
       <c r="J2288" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K2288" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B2289" s="1" t="n">
         <v>45657</v>
@@ -83496,165 +83496,165 @@
         <v>45503</v>
       </c>
       <c r="D2289" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E2289" t="n">
-        <v>0.545454545454545</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2289" t="n">
-        <v>0.484848484848485</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2289" t="n">
-        <v>0.416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H2289" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2289" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2289" t="n">
-        <v>0.4</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2289" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="s">
-        <v>233</v>
+        <v>695</v>
       </c>
       <c r="B2290" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2290" s="1" t="n">
-        <v>45497</v>
+        <v>45503</v>
       </c>
       <c r="D2290" t="s">
-        <v>234</v>
+        <v>696</v>
       </c>
       <c r="E2290" t="n">
-        <v>0.606060606060606</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2290" t="n">
-        <v>0.606060606060606</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="G2290" t="n">
-        <v>0.583333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2290" t="n">
-        <v>0.571428571428571</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="I2290" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2290" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2290" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="s">
-        <v>723</v>
+        <v>233</v>
       </c>
       <c r="B2291" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2291" s="1" t="n">
-        <v>45472</v>
+        <v>45497</v>
       </c>
       <c r="D2291" t="s">
-        <v>724</v>
+        <v>234</v>
       </c>
       <c r="E2291" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2291" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2291" t="n">
-        <v>0.375</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2291" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2291" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2291" t="n">
         <v>0.333333333333333</v>
-      </c>
-      <c r="J2291" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K2291" t="n">
-        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="s">
-        <v>235</v>
+        <v>723</v>
       </c>
       <c r="B2292" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2292" s="1" t="n">
-        <v>45138</v>
+        <v>45472</v>
       </c>
       <c r="D2292" t="s">
-        <v>236</v>
+        <v>724</v>
       </c>
       <c r="E2292" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2292" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2292" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H2292" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2292" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J2292" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K2292" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="s">
-        <v>725</v>
+        <v>235</v>
       </c>
       <c r="B2293" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2293" s="1" t="n">
-        <v>45490</v>
+        <v>45138</v>
       </c>
       <c r="D2293" t="s">
-        <v>726</v>
+        <v>236</v>
       </c>
       <c r="E2293" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2293" t="n">
-        <v>0.454545454545455</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2293" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H2293" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2293" t="n">
-        <v>0.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="J2293" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2293" t="n">
         <v>0.571428571428571</v>
@@ -83662,34 +83662,34 @@
     </row>
     <row r="2294">
       <c r="A2294" t="s">
-        <v>237</v>
+        <v>725</v>
       </c>
       <c r="B2294" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2294" s="1" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="D2294" t="s">
-        <v>238</v>
+        <v>726</v>
       </c>
       <c r="E2294" t="n">
-        <v>0.666666666666667</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2294" t="n">
-        <v>0.636363636363636</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2294" t="n">
-        <v>0.541666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="H2294" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2294" t="n">
-        <v>0.666666666666667</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2294" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2294" t="n">
         <v>0.571428571428571</v>
@@ -83697,22 +83697,22 @@
     </row>
     <row r="2295">
       <c r="A2295" t="s">
-        <v>946</v>
+        <v>237</v>
       </c>
       <c r="B2295" s="1" t="n">
         <v>45657</v>
       </c>
       <c r="C2295" s="1" t="n">
-        <v>45504</v>
+        <v>45489</v>
       </c>
       <c r="D2295" t="s">
-        <v>947</v>
+        <v>238</v>
       </c>
       <c r="E2295" t="n">
-        <v>0.696969696969697</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2295" t="n">
-        <v>0.757575757575758</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2295" t="n">
         <v>0.541666666666667</v>
@@ -83721,18 +83721,18 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2295" t="n">
-        <v>0.266666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J2295" t="n">
         <v>0.2</v>
       </c>
       <c r="K2295" t="n">
-        <v>0.380952380952381</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B2296" s="1" t="n">
         <v>45657</v>
@@ -83741,27 +83741,62 @@
         <v>45504</v>
       </c>
       <c r="D2296" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E2296" t="n">
-        <v>0.575757575757576</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F2296" t="n">
         <v>0.757575757575758</v>
       </c>
       <c r="G2296" t="n">
-        <v>0.291666666666667</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2296" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2296" t="n">
         <v>0.266666666666667</v>
       </c>
       <c r="J2296" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2296" t="n">
+        <v>0.380952380952381</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="s">
+        <v>948</v>
+      </c>
+      <c r="B2297" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C2297" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>949</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2297" t="n">
         <v>0.285714285714286</v>
       </c>
     </row>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">14.127.813/0001-51</t>
   </si>
   <si>
-    <t xml:space="preserve">GETNINJAS S.A.</t>
+    <t xml:space="preserve">REAG INVESTIMENTOS S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">14.776.142/0001-50</t>
@@ -83803,6 +83803,41 @@
         <v>0.285714285714286</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2298" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C2298" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2298" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -89648,6 +89648,41 @@
         <v>0.571428571428571</v>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2465" s="1" t="n">
+        <v>45838</v>
+      </c>
+      <c r="C2465" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>813</v>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2465" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2465" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2465" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1020">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -2805,6 +2805,9 @@
   </si>
   <si>
     <t xml:space="preserve">VITTIA S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBRIL S.A. - EM RECUPERAÇÃO JUDICIAL</t>
   </si>
   <si>
     <t xml:space="preserve">59.418.806/0001-47</t>
@@ -44019,7 +44022,7 @@
         <v>44407</v>
       </c>
       <c r="D1161" t="s">
-        <v>570</v>
+        <v>931</v>
       </c>
       <c r="E1161" t="n">
         <v>0.575757575757576</v>
@@ -44570,7 +44573,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B1177" s="1" t="n">
         <v>44561</v>
@@ -44579,7 +44582,7 @@
         <v>44410</v>
       </c>
       <c r="D1177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E1177" t="n">
         <v>0.575757575757576</v>
@@ -44605,7 +44608,7 @@
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B1178" s="1" t="n">
         <v>44561</v>
@@ -44614,7 +44617,7 @@
         <v>44410</v>
       </c>
       <c r="D1178" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E1178" t="n">
         <v>0.575757575757576</v>
@@ -44675,7 +44678,7 @@
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B1180" s="1" t="n">
         <v>44561</v>
@@ -44684,7 +44687,7 @@
         <v>44410</v>
       </c>
       <c r="D1180" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E1180" t="n">
         <v>0.666666666666667</v>
@@ -45725,7 +45728,7 @@
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B1210" s="1" t="n">
         <v>44561</v>
@@ -45734,7 +45737,7 @@
         <v>44407</v>
       </c>
       <c r="D1210" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E1210" t="n">
         <v>0.606060606060606</v>
@@ -46005,7 +46008,7 @@
     </row>
     <row r="1218">
       <c r="A1218" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B1218" s="1" t="n">
         <v>44561</v>
@@ -46014,7 +46017,7 @@
         <v>44410</v>
       </c>
       <c r="D1218" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E1218" t="n">
         <v>0.636363636363636</v>
@@ -46040,7 +46043,7 @@
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B1219" s="1" t="n">
         <v>44561</v>
@@ -46049,7 +46052,7 @@
         <v>44404</v>
       </c>
       <c r="D1219" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E1219" t="n">
         <v>0.636363636363636</v>
@@ -46320,7 +46323,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B1227" s="1" t="n">
         <v>44561</v>
@@ -46329,7 +46332,7 @@
         <v>44410</v>
       </c>
       <c r="D1227" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E1227" t="n">
         <v>0.696969696969697</v>
@@ -46740,7 +46743,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B1239" s="1" t="n">
         <v>44561</v>
@@ -46749,7 +46752,7 @@
         <v>44407</v>
       </c>
       <c r="D1239" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E1239" t="n">
         <v>0.727272727272727</v>
@@ -48210,7 +48213,7 @@
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B1281" s="1" t="n">
         <v>44561</v>
@@ -48219,7 +48222,7 @@
         <v>44406</v>
       </c>
       <c r="D1281" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E1281" t="n">
         <v>0.696969696969697</v>
@@ -48280,7 +48283,7 @@
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B1283" s="1" t="n">
         <v>44561</v>
@@ -48289,7 +48292,7 @@
         <v>44406</v>
       </c>
       <c r="D1283" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E1283" t="n">
         <v>0.636363636363636</v>
@@ -48560,7 +48563,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B1291" s="1" t="n">
         <v>44926</v>
@@ -48569,7 +48572,7 @@
         <v>44761</v>
       </c>
       <c r="D1291" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E1291" t="n">
         <v>0.666666666666667</v>
@@ -48595,7 +48598,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B1292" s="1" t="n">
         <v>44926</v>
@@ -48604,7 +48607,7 @@
         <v>44774</v>
       </c>
       <c r="D1292" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E1292" t="n">
         <v>0.636363636363636</v>
@@ -50065,7 +50068,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B1334" s="1" t="n">
         <v>44651</v>
@@ -50074,7 +50077,7 @@
         <v>44501</v>
       </c>
       <c r="D1334" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E1334" t="n">
         <v>0.606060606060606</v>
@@ -50765,7 +50768,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B1354" s="1" t="n">
         <v>44926</v>
@@ -50774,7 +50777,7 @@
         <v>44755</v>
       </c>
       <c r="D1354" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E1354" t="n">
         <v>0.636363636363636</v>
@@ -50835,7 +50838,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B1356" s="1" t="n">
         <v>44926</v>
@@ -50844,7 +50847,7 @@
         <v>44771</v>
       </c>
       <c r="D1356" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E1356" t="n">
         <v>0.666666666666667</v>
@@ -52165,7 +52168,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B1394" s="1" t="n">
         <v>44926</v>
@@ -52174,7 +52177,7 @@
         <v>44760</v>
       </c>
       <c r="D1394" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E1394" t="n">
         <v>0.484848484848485</v>
@@ -53075,7 +53078,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B1420" s="1" t="n">
         <v>44926</v>
@@ -53084,7 +53087,7 @@
         <v>44770</v>
       </c>
       <c r="D1420" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E1420" t="n">
         <v>0.696969696969697</v>
@@ -54020,7 +54023,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B1447" s="1" t="n">
         <v>44926</v>
@@ -54029,7 +54032,7 @@
         <v>44771</v>
       </c>
       <c r="D1447" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E1447" t="n">
         <v>0.636363636363636</v>
@@ -54545,7 +54548,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B1462" s="1" t="n">
         <v>44926</v>
@@ -54554,7 +54557,7 @@
         <v>44773</v>
       </c>
       <c r="D1462" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E1462" t="n">
         <v>0.636363636363636</v>
@@ -54930,7 +54933,7 @@
     </row>
     <row r="1473">
       <c r="A1473" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B1473" s="1" t="n">
         <v>44926</v>
@@ -54939,7 +54942,7 @@
         <v>44762</v>
       </c>
       <c r="D1473" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E1473" t="n">
         <v>0.454545454545455</v>
@@ -56575,7 +56578,7 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B1520" s="1" t="n">
         <v>44926</v>
@@ -56584,7 +56587,7 @@
         <v>44771</v>
       </c>
       <c r="D1520" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E1520" t="n">
         <v>0.727272727272727</v>
@@ -56680,7 +56683,7 @@
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B1523" s="1" t="n">
         <v>44926</v>
@@ -56689,7 +56692,7 @@
         <v>44742</v>
       </c>
       <c r="D1523" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E1523" t="n">
         <v>0.606060606060606</v>
@@ -56715,7 +56718,7 @@
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B1524" s="1" t="n">
         <v>44926</v>
@@ -56724,7 +56727,7 @@
         <v>44804</v>
       </c>
       <c r="D1524" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E1524" t="n">
         <v>0.515151515151515</v>
@@ -56785,7 +56788,7 @@
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B1526" s="1" t="n">
         <v>44926</v>
@@ -56794,7 +56797,7 @@
         <v>44771</v>
       </c>
       <c r="D1526" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E1526" t="n">
         <v>0.575757575757576</v>
@@ -57030,7 +57033,7 @@
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B1533" s="1" t="n">
         <v>44926</v>
@@ -57039,7 +57042,7 @@
         <v>44771</v>
       </c>
       <c r="D1533" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E1533" t="n">
         <v>0.515151515151515</v>
@@ -57380,7 +57383,7 @@
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1543" s="1" t="n">
         <v>44926</v>
@@ -57389,7 +57392,7 @@
         <v>44774</v>
       </c>
       <c r="D1543" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E1543" t="n">
         <v>0.515151515151515</v>
@@ -57800,7 +57803,7 @@
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B1555" s="1" t="n">
         <v>44926</v>
@@ -57809,7 +57812,7 @@
         <v>44742</v>
       </c>
       <c r="D1555" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E1555" t="n">
         <v>0.606060606060606</v>
@@ -58045,7 +58048,7 @@
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B1562" s="1" t="n">
         <v>44651</v>
@@ -58054,7 +58057,7 @@
         <v>44497</v>
       </c>
       <c r="D1562" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E1562" t="n">
         <v>0.757575757575758</v>
@@ -58535,7 +58538,7 @@
     </row>
     <row r="1576">
       <c r="A1576" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B1576" s="1" t="n">
         <v>44926</v>
@@ -58544,7 +58547,7 @@
         <v>44767</v>
       </c>
       <c r="D1576" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E1576" t="n">
         <v>0.424242424242424</v>
@@ -58640,7 +58643,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B1579" s="1" t="n">
         <v>44926</v>
@@ -58649,7 +58652,7 @@
         <v>44764</v>
       </c>
       <c r="D1579" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E1579" t="n">
         <v>0.515151515151515</v>
@@ -58780,7 +58783,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B1583" s="1" t="n">
         <v>44926</v>
@@ -58789,7 +58792,7 @@
         <v>44769</v>
       </c>
       <c r="D1583" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E1583" t="n">
         <v>0.636363636363636</v>
@@ -58955,7 +58958,7 @@
     </row>
     <row r="1588">
       <c r="A1588" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B1588" s="1" t="n">
         <v>44926</v>
@@ -58964,7 +58967,7 @@
         <v>44771</v>
       </c>
       <c r="D1588" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E1588" t="n">
         <v>0.606060606060606</v>
@@ -59314,7 +59317,7 @@
         <v>44768</v>
       </c>
       <c r="D1598" t="s">
-        <v>570</v>
+        <v>931</v>
       </c>
       <c r="E1598" t="n">
         <v>0.575757575757576</v>
@@ -59830,7 +59833,7 @@
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B1613" s="1" t="n">
         <v>44926</v>
@@ -59839,7 +59842,7 @@
         <v>44774</v>
       </c>
       <c r="D1613" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E1613" t="n">
         <v>0.575757575757576</v>
@@ -59865,7 +59868,7 @@
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B1614" s="1" t="n">
         <v>44926</v>
@@ -59874,7 +59877,7 @@
         <v>44771</v>
       </c>
       <c r="D1614" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E1614" t="n">
         <v>0.575757575757576</v>
@@ -59935,7 +59938,7 @@
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B1616" s="1" t="n">
         <v>44926</v>
@@ -59944,7 +59947,7 @@
         <v>44774</v>
       </c>
       <c r="D1616" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E1616" t="n">
         <v>0.666666666666667</v>
@@ -60880,7 +60883,7 @@
     </row>
     <row r="1643">
       <c r="A1643" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B1643" s="1" t="n">
         <v>44926</v>
@@ -60889,7 +60892,7 @@
         <v>44770</v>
       </c>
       <c r="D1643" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E1643" t="n">
         <v>0.727272727272727</v>
@@ -60985,7 +60988,7 @@
     </row>
     <row r="1646">
       <c r="A1646" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B1646" s="1" t="n">
         <v>44926</v>
@@ -60994,7 +60997,7 @@
         <v>44767</v>
       </c>
       <c r="D1646" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E1646" t="n">
         <v>0.606060606060606</v>
@@ -61265,7 +61268,7 @@
     </row>
     <row r="1654">
       <c r="A1654" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B1654" s="1" t="n">
         <v>44926</v>
@@ -61274,7 +61277,7 @@
         <v>44774</v>
       </c>
       <c r="D1654" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E1654" t="n">
         <v>0.636363636363636</v>
@@ -61300,7 +61303,7 @@
     </row>
     <row r="1655">
       <c r="A1655" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B1655" s="1" t="n">
         <v>44926</v>
@@ -61309,7 +61312,7 @@
         <v>44771</v>
       </c>
       <c r="D1655" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E1655" t="n">
         <v>0.545454545454545</v>
@@ -61475,7 +61478,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B1660" s="1" t="n">
         <v>44742</v>
@@ -61484,7 +61487,7 @@
         <v>44592</v>
       </c>
       <c r="D1660" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E1660" t="n">
         <v>0.606060606060606</v>
@@ -61615,7 +61618,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B1664" s="1" t="n">
         <v>44926</v>
@@ -61624,7 +61627,7 @@
         <v>44774</v>
       </c>
       <c r="D1664" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E1664" t="n">
         <v>0.696969696969697</v>
@@ -62000,7 +62003,7 @@
     </row>
     <row r="1675">
       <c r="A1675" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B1675" s="1" t="n">
         <v>44562</v>
@@ -62009,7 +62012,7 @@
         <v>44771</v>
       </c>
       <c r="D1675" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E1675" t="n">
         <v>0.727272727272727</v>
@@ -62035,7 +62038,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B1676" s="1" t="n">
         <v>44926</v>
@@ -62044,7 +62047,7 @@
         <v>44771</v>
       </c>
       <c r="D1676" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E1676" t="n">
         <v>0.727272727272727</v>
@@ -63470,7 +63473,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B1717" s="1" t="n">
         <v>44926</v>
@@ -63479,7 +63482,7 @@
         <v>44771</v>
       </c>
       <c r="D1717" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E1717" t="n">
         <v>0.696969696969697</v>
@@ -63540,7 +63543,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B1719" s="1" t="n">
         <v>44926</v>
@@ -63549,7 +63552,7 @@
         <v>44771</v>
       </c>
       <c r="D1719" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E1719" t="n">
         <v>0.636363636363636</v>
@@ -63820,7 +63823,7 @@
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B1727" s="1" t="n">
         <v>45291</v>
@@ -63829,7 +63832,7 @@
         <v>45112</v>
       </c>
       <c r="D1727" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E1727" t="n">
         <v>0.666666666666667</v>
@@ -63855,7 +63858,7 @@
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B1728" s="1" t="n">
         <v>45291</v>
@@ -63864,7 +63867,7 @@
         <v>45138</v>
       </c>
       <c r="D1728" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E1728" t="n">
         <v>0.636363636363636</v>
@@ -65185,7 +65188,7 @@
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B1766" s="1" t="n">
         <v>45016</v>
@@ -65194,7 +65197,7 @@
         <v>44861</v>
       </c>
       <c r="D1766" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E1766" t="n">
         <v>0.606060606060606</v>
@@ -65815,7 +65818,7 @@
     </row>
     <row r="1784">
       <c r="A1784" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B1784" s="1" t="n">
         <v>45291</v>
@@ -65824,7 +65827,7 @@
         <v>45137</v>
       </c>
       <c r="D1784" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E1784" t="n">
         <v>0.636363636363636</v>
@@ -65885,7 +65888,7 @@
     </row>
     <row r="1786">
       <c r="A1786" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B1786" s="1" t="n">
         <v>45291</v>
@@ -65894,7 +65897,7 @@
         <v>45138</v>
       </c>
       <c r="D1786" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E1786" t="n">
         <v>0.666666666666667</v>
@@ -67145,7 +67148,7 @@
     </row>
     <row r="1822">
       <c r="A1822" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B1822" s="1" t="n">
         <v>45291</v>
@@ -67154,7 +67157,7 @@
         <v>45138</v>
       </c>
       <c r="D1822" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E1822" t="n">
         <v>0.484848484848485</v>
@@ -68055,7 +68058,7 @@
     </row>
     <row r="1848">
       <c r="A1848" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B1848" s="1" t="n">
         <v>45291</v>
@@ -68064,7 +68067,7 @@
         <v>45174</v>
       </c>
       <c r="D1848" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E1848" t="n">
         <v>0.636363636363636</v>
@@ -69385,7 +69388,7 @@
     </row>
     <row r="1886">
       <c r="A1886" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B1886" s="1" t="n">
         <v>45291</v>
@@ -69394,7 +69397,7 @@
         <v>45138</v>
       </c>
       <c r="D1886" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E1886" t="n">
         <v>0.636363636363636</v>
@@ -69770,7 +69773,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B1897" s="1" t="n">
         <v>45291</v>
@@ -69779,7 +69782,7 @@
         <v>45133</v>
       </c>
       <c r="D1897" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E1897" t="n">
         <v>0.454545454545455</v>
@@ -70925,7 +70928,7 @@
     </row>
     <row r="1930">
       <c r="A1930" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B1930" s="1" t="n">
         <v>45291</v>
@@ -70934,7 +70937,7 @@
         <v>45138</v>
       </c>
       <c r="D1930" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E1930" t="n">
         <v>0.636363636363636</v>
@@ -71135,7 +71138,7 @@
     </row>
     <row r="1936">
       <c r="A1936" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B1936" s="1" t="n">
         <v>45291</v>
@@ -71144,7 +71147,7 @@
         <v>45134</v>
       </c>
       <c r="D1936" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E1936" t="n">
         <v>0.575757575757576</v>
@@ -71380,7 +71383,7 @@
     </row>
     <row r="1943">
       <c r="A1943" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B1943" s="1" t="n">
         <v>45291</v>
@@ -71389,7 +71392,7 @@
         <v>45138</v>
       </c>
       <c r="D1943" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E1943" t="n">
         <v>0.727272727272727</v>
@@ -71450,7 +71453,7 @@
     </row>
     <row r="1945">
       <c r="A1945" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B1945" s="1" t="n">
         <v>45291</v>
@@ -71459,7 +71462,7 @@
         <v>45135</v>
       </c>
       <c r="D1945" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E1945" t="n">
         <v>0.696969696969697</v>
@@ -71520,7 +71523,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B1947" s="1" t="n">
         <v>45291</v>
@@ -71529,7 +71532,7 @@
         <v>45135</v>
       </c>
       <c r="D1947" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E1947" t="n">
         <v>0.636363636363636</v>
@@ -71800,7 +71803,7 @@
     </row>
     <row r="1955">
       <c r="A1955" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B1955" s="1" t="n">
         <v>45291</v>
@@ -71809,7 +71812,7 @@
         <v>45138</v>
       </c>
       <c r="D1955" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E1955" t="n">
         <v>0.606060606060606</v>
@@ -72080,7 +72083,7 @@
     </row>
     <row r="1963">
       <c r="A1963" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B1963" s="1" t="n">
         <v>45291</v>
@@ -72089,7 +72092,7 @@
         <v>45138</v>
       </c>
       <c r="D1963" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E1963" t="n">
         <v>0.515151515151515</v>
@@ -72465,7 +72468,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B1974" s="1" t="n">
         <v>45291</v>
@@ -72474,7 +72477,7 @@
         <v>45106</v>
       </c>
       <c r="D1974" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E1974" t="n">
         <v>0.606060606060606</v>
@@ -72710,7 +72713,7 @@
     </row>
     <row r="1981">
       <c r="A1981" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B1981" s="1" t="n">
         <v>45016</v>
@@ -72719,7 +72722,7 @@
         <v>44865</v>
       </c>
       <c r="D1981" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E1981" t="n">
         <v>0.757575757575758</v>
@@ -73200,7 +73203,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B1995" s="1" t="n">
         <v>45291</v>
@@ -73209,7 +73212,7 @@
         <v>45134</v>
       </c>
       <c r="D1995" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E1995" t="n">
         <v>0.636363636363636</v>
@@ -73235,7 +73238,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B1996" s="1" t="n">
         <v>45291</v>
@@ -73244,7 +73247,7 @@
         <v>45138</v>
       </c>
       <c r="D1996" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E1996" t="n">
         <v>0.696969696969697</v>
@@ -73305,7 +73308,7 @@
     </row>
     <row r="1998">
       <c r="A1998" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B1998" s="1" t="n">
         <v>45291</v>
@@ -73314,7 +73317,7 @@
         <v>45138</v>
       </c>
       <c r="D1998" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E1998" t="n">
         <v>0.606060606060606</v>
@@ -73375,7 +73378,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B2000" s="1" t="n">
         <v>45291</v>
@@ -73384,7 +73387,7 @@
         <v>45132</v>
       </c>
       <c r="D2000" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2000" t="n">
         <v>0.515151515151515</v>
@@ -73515,7 +73518,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B2004" s="1" t="n">
         <v>45291</v>
@@ -73524,7 +73527,7 @@
         <v>45135</v>
       </c>
       <c r="D2004" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E2004" t="n">
         <v>0.606060606060606</v>
@@ -73550,7 +73553,7 @@
     </row>
     <row r="2005">
       <c r="A2005" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B2005" s="1" t="n">
         <v>45291</v>
@@ -73559,7 +73562,7 @@
         <v>45138</v>
       </c>
       <c r="D2005" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E2005" t="n">
         <v>0.606060606060606</v>
@@ -73690,7 +73693,7 @@
     </row>
     <row r="2009">
       <c r="A2009" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B2009" s="1" t="n">
         <v>45291</v>
@@ -73699,7 +73702,7 @@
         <v>45138</v>
       </c>
       <c r="D2009" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E2009" t="n">
         <v>0.606060606060606</v>
@@ -73830,7 +73833,7 @@
     </row>
     <row r="2013">
       <c r="A2013" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B2013" s="1" t="n">
         <v>45291</v>
@@ -73839,7 +73842,7 @@
         <v>45128</v>
       </c>
       <c r="D2013" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E2013" t="n">
         <v>0.696969696969697</v>
@@ -74084,7 +74087,7 @@
         <v>45135</v>
       </c>
       <c r="D2020" t="s">
-        <v>570</v>
+        <v>931</v>
       </c>
       <c r="E2020" t="n">
         <v>0.575757575757576</v>
@@ -74600,7 +74603,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B2035" s="1" t="n">
         <v>45291</v>
@@ -74609,7 +74612,7 @@
         <v>45138</v>
       </c>
       <c r="D2035" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E2035" t="n">
         <v>0.575757575757576</v>
@@ -74635,7 +74638,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B2036" s="1" t="n">
         <v>45291</v>
@@ -74644,7 +74647,7 @@
         <v>45138</v>
       </c>
       <c r="D2036" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E2036" t="n">
         <v>0.606060606060606</v>
@@ -74705,7 +74708,7 @@
     </row>
     <row r="2038">
       <c r="A2038" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B2038" s="1" t="n">
         <v>45291</v>
@@ -74714,7 +74717,7 @@
         <v>45138</v>
       </c>
       <c r="D2038" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E2038" t="n">
         <v>0.666666666666667</v>
@@ -75615,7 +75618,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B2064" s="1" t="n">
         <v>45291</v>
@@ -75624,7 +75627,7 @@
         <v>45132</v>
       </c>
       <c r="D2064" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E2064" t="n">
         <v>0.757575757575758</v>
@@ -75720,7 +75723,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B2067" s="1" t="n">
         <v>45291</v>
@@ -75729,7 +75732,7 @@
         <v>45135</v>
       </c>
       <c r="D2067" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E2067" t="n">
         <v>0.666666666666667</v>
@@ -76000,7 +76003,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B2075" s="1" t="n">
         <v>45291</v>
@@ -76009,7 +76012,7 @@
         <v>45138</v>
       </c>
       <c r="D2075" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E2075" t="n">
         <v>0.575757575757576</v>
@@ -76175,7 +76178,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B2080" s="1" t="n">
         <v>45107</v>
@@ -76184,7 +76187,7 @@
         <v>44944</v>
       </c>
       <c r="D2080" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E2080" t="n">
         <v>0.636363636363636</v>
@@ -76315,7 +76318,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B2084" s="1" t="n">
         <v>45291</v>
@@ -76324,7 +76327,7 @@
         <v>45128</v>
       </c>
       <c r="D2084" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E2084" t="n">
         <v>0.696969696969697</v>
@@ -76665,7 +76668,7 @@
     </row>
     <row r="2094">
       <c r="A2094" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B2094" s="1" t="n">
         <v>45291</v>
@@ -76674,7 +76677,7 @@
         <v>45138</v>
       </c>
       <c r="D2094" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E2094" t="n">
         <v>0.696969696969697</v>
@@ -78065,7 +78068,7 @@
     </row>
     <row r="2134">
       <c r="A2134" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B2134" s="1" t="n">
         <v>45291</v>
@@ -78074,7 +78077,7 @@
         <v>45138</v>
       </c>
       <c r="D2134" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E2134" t="n">
         <v>0.696969696969697</v>
@@ -78135,7 +78138,7 @@
     </row>
     <row r="2136">
       <c r="A2136" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B2136" s="1" t="n">
         <v>45291</v>
@@ -78144,7 +78147,7 @@
         <v>45135</v>
       </c>
       <c r="D2136" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E2136" t="n">
         <v>0.666666666666667</v>
@@ -78415,7 +78418,7 @@
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B2144" s="1" t="n">
         <v>45657</v>
@@ -78424,7 +78427,7 @@
         <v>45503</v>
       </c>
       <c r="D2144" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E2144" t="n">
         <v>0.666666666666667</v>
@@ -78450,7 +78453,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B2145" s="1" t="n">
         <v>45657</v>
@@ -78459,7 +78462,7 @@
         <v>45504</v>
       </c>
       <c r="D2145" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E2145" t="n">
         <v>0.636363636363636</v>
@@ -79570,7 +79573,7 @@
     </row>
     <row r="2177">
       <c r="A2177" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B2177" s="1" t="n">
         <v>45382</v>
@@ -79579,7 +79582,7 @@
         <v>45230</v>
       </c>
       <c r="D2177" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E2177" t="n">
         <v>0.606060606060606</v>
@@ -80060,7 +80063,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B2191" s="1" t="n">
         <v>45657</v>
@@ -80069,7 +80072,7 @@
         <v>45489</v>
       </c>
       <c r="D2191" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E2191" t="n">
         <v>0.636363636363636</v>
@@ -81635,7 +81638,7 @@
     </row>
     <row r="2236">
       <c r="A2236" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B2236" s="1" t="n">
         <v>45657</v>
@@ -81644,7 +81647,7 @@
         <v>45492</v>
       </c>
       <c r="D2236" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E2236" t="n">
         <v>0.636363636363636</v>
@@ -82755,7 +82758,7 @@
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2268" s="1" t="n">
         <v>45657</v>
@@ -82764,7 +82767,7 @@
         <v>45504</v>
       </c>
       <c r="D2268" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2268" t="n">
         <v>0.636363636363636</v>
@@ -83105,7 +83108,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B2278" s="1" t="n">
         <v>45657</v>
@@ -83114,7 +83117,7 @@
         <v>45503</v>
       </c>
       <c r="D2278" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2278" t="n">
         <v>0.454545454545455</v>
@@ -83945,7 +83948,7 @@
     </row>
     <row r="2302">
       <c r="A2302" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B2302" s="1" t="n">
         <v>45657</v>
@@ -83954,7 +83957,7 @@
         <v>45504</v>
       </c>
       <c r="D2302" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E2302" t="n">
         <v>0.636363636363636</v>
@@ -84085,7 +84088,7 @@
     </row>
     <row r="2306">
       <c r="A2306" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B2306" s="1" t="n">
         <v>45657</v>
@@ -84094,7 +84097,7 @@
         <v>45496</v>
       </c>
       <c r="D2306" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E2306" t="n">
         <v>0.636363636363636</v>
@@ -84155,7 +84158,7 @@
     </row>
     <row r="2308">
       <c r="A2308" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B2308" s="1" t="n">
         <v>45657</v>
@@ -84164,7 +84167,7 @@
         <v>45491</v>
       </c>
       <c r="D2308" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E2308" t="n">
         <v>0.575757575757576</v>
@@ -84400,7 +84403,7 @@
     </row>
     <row r="2315">
       <c r="A2315" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B2315" s="1" t="n">
         <v>45657</v>
@@ -84409,7 +84412,7 @@
         <v>45371</v>
       </c>
       <c r="D2315" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E2315" t="n">
         <v>0.666666666666667</v>
@@ -84470,7 +84473,7 @@
     </row>
     <row r="2317">
       <c r="A2317" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B2317" s="1" t="n">
         <v>45657</v>
@@ -84479,7 +84482,7 @@
         <v>45587</v>
       </c>
       <c r="D2317" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E2317" t="n">
         <v>0.636363636363636</v>
@@ -84680,7 +84683,7 @@
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B2323" s="1" t="n">
         <v>45657</v>
@@ -84689,7 +84692,7 @@
         <v>45503</v>
       </c>
       <c r="D2323" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E2323" t="n">
         <v>0.606060606060606</v>
@@ -84820,7 +84823,7 @@
     </row>
     <row r="2327">
       <c r="A2327" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B2327" s="1" t="n">
         <v>45657</v>
@@ -84829,7 +84832,7 @@
         <v>45504</v>
       </c>
       <c r="D2327" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E2327" t="n">
         <v>0.636363636363636</v>
@@ -85205,7 +85208,7 @@
     </row>
     <row r="2338">
       <c r="A2338" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B2338" s="1" t="n">
         <v>45657</v>
@@ -85214,7 +85217,7 @@
         <v>45488</v>
       </c>
       <c r="D2338" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E2338" t="n">
         <v>0.606060606060606</v>
@@ -85345,7 +85348,7 @@
     </row>
     <row r="2342">
       <c r="A2342" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B2342" s="1" t="n">
         <v>45382</v>
@@ -85354,7 +85357,7 @@
         <v>45230</v>
       </c>
       <c r="D2342" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E2342" t="n">
         <v>0.727272727272727</v>
@@ -85800,7 +85803,7 @@
     </row>
     <row r="2355">
       <c r="A2355" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B2355" s="1" t="n">
         <v>45657</v>
@@ -85809,7 +85812,7 @@
         <v>45503</v>
       </c>
       <c r="D2355" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E2355" t="n">
         <v>0.696969696969697</v>
@@ -85835,7 +85838,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B2356" s="1" t="n">
         <v>45657</v>
@@ -85844,7 +85847,7 @@
         <v>45504</v>
       </c>
       <c r="D2356" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E2356" t="n">
         <v>0.606060606060606</v>
@@ -85905,7 +85908,7 @@
     </row>
     <row r="2358">
       <c r="A2358" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B2358" s="1" t="n">
         <v>45657</v>
@@ -85914,7 +85917,7 @@
         <v>45502</v>
       </c>
       <c r="D2358" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2358" t="n">
         <v>0.515151515151515</v>
@@ -86045,7 +86048,7 @@
     </row>
     <row r="2362">
       <c r="A2362" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B2362" s="1" t="n">
         <v>45657</v>
@@ -86054,7 +86057,7 @@
         <v>45504</v>
       </c>
       <c r="D2362" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E2362" t="n">
         <v>0.575757575757576</v>
@@ -86080,7 +86083,7 @@
     </row>
     <row r="2363">
       <c r="A2363" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B2363" s="1" t="n">
         <v>45657</v>
@@ -86089,7 +86092,7 @@
         <v>45503</v>
       </c>
       <c r="D2363" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E2363" t="n">
         <v>0.636363636363636</v>
@@ -86220,7 +86223,7 @@
     </row>
     <row r="2367">
       <c r="A2367" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B2367" s="1" t="n">
         <v>45657</v>
@@ -86229,7 +86232,7 @@
         <v>45628</v>
       </c>
       <c r="D2367" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E2367" t="n">
         <v>0.606060606060606</v>
@@ -86360,7 +86363,7 @@
     </row>
     <row r="2371">
       <c r="A2371" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B2371" s="1" t="n">
         <v>45657</v>
@@ -86369,7 +86372,7 @@
         <v>45503</v>
       </c>
       <c r="D2371" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E2371" t="n">
         <v>0.696969696969697</v>
@@ -86579,7 +86582,7 @@
         <v>45499</v>
       </c>
       <c r="D2377" t="s">
-        <v>570</v>
+        <v>931</v>
       </c>
       <c r="E2377" t="n">
         <v>0.575757575757576</v>
@@ -87025,7 +87028,7 @@
     </row>
     <row r="2390">
       <c r="A2390" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B2390" s="1" t="n">
         <v>45657</v>
@@ -87034,7 +87037,7 @@
         <v>45503</v>
       </c>
       <c r="D2390" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E2390" t="n">
         <v>0.606060606060606</v>
@@ -87095,7 +87098,7 @@
     </row>
     <row r="2392">
       <c r="A2392" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B2392" s="1" t="n">
         <v>45657</v>
@@ -87104,7 +87107,7 @@
         <v>45503</v>
       </c>
       <c r="D2392" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E2392" t="n">
         <v>0.666666666666667</v>
@@ -87795,7 +87798,7 @@
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B2412" s="1" t="n">
         <v>45657</v>
@@ -87804,7 +87807,7 @@
         <v>45504</v>
       </c>
       <c r="D2412" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E2412" t="n">
         <v>0.606060606060606</v>
@@ -87970,7 +87973,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B2417" s="1" t="n">
         <v>45657</v>
@@ -87979,7 +87982,7 @@
         <v>45504</v>
       </c>
       <c r="D2417" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E2417" t="n">
         <v>0.575757575757576</v>
@@ -88145,7 +88148,7 @@
     </row>
     <row r="2422">
       <c r="A2422" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B2422" s="1" t="n">
         <v>45473</v>
@@ -88154,7 +88157,7 @@
         <v>45322</v>
       </c>
       <c r="D2422" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E2422" t="n">
         <v>0.575757575757576</v>
@@ -88250,7 +88253,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B2425" s="1" t="n">
         <v>45657</v>
@@ -88259,7 +88262,7 @@
         <v>45503</v>
       </c>
       <c r="D2425" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E2425" t="n">
         <v>0.696969696969697</v>
@@ -88530,7 +88533,7 @@
     </row>
     <row r="2433">
       <c r="A2433" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B2433" s="1" t="n">
         <v>45657</v>
@@ -88539,7 +88542,7 @@
         <v>45504</v>
       </c>
       <c r="D2433" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E2433" t="n">
         <v>0.696969696969697</v>
@@ -89510,7 +89513,7 @@
     </row>
     <row r="2461">
       <c r="A2461" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B2461" s="1" t="n">
         <v>45657</v>
@@ -89519,7 +89522,7 @@
         <v>45504</v>
       </c>
       <c r="D2461" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E2461" t="n">
         <v>0.696969696969697</v>
@@ -89580,7 +89583,7 @@
     </row>
     <row r="2463">
       <c r="A2463" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B2463" s="1" t="n">
         <v>45657</v>
@@ -89589,7 +89592,7 @@
         <v>45504</v>
       </c>
       <c r="D2463" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E2463" t="n">
         <v>0.575757575757576</v>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1021">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -2523,6 +2523,9 @@
   </si>
   <si>
     <t xml:space="preserve">DESKTOP S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENOVA ENERGIA S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">08.810.422/0001-34</t>
@@ -37862,7 +37865,7 @@
         <v>44407</v>
       </c>
       <c r="D985" t="s">
-        <v>400</v>
+        <v>837</v>
       </c>
       <c r="E985" t="n">
         <v>0.666666666666667</v>
@@ -38168,7 +38171,7 @@
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B994" s="1" t="n">
         <v>44561</v>
@@ -38177,7 +38180,7 @@
         <v>44410</v>
       </c>
       <c r="D994" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E994" t="n">
         <v>0.606060606060606</v>
@@ -38238,7 +38241,7 @@
     </row>
     <row r="996">
       <c r="A996" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B996" s="1" t="n">
         <v>44561</v>
@@ -38247,7 +38250,7 @@
         <v>44407</v>
       </c>
       <c r="D996" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E996" t="n">
         <v>0.606060606060606</v>
@@ -38343,7 +38346,7 @@
     </row>
     <row r="999">
       <c r="A999" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B999" s="1" t="n">
         <v>44561</v>
@@ -38352,7 +38355,7 @@
         <v>44404</v>
       </c>
       <c r="D999" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E999" t="n">
         <v>0.666666666666667</v>
@@ -38413,7 +38416,7 @@
     </row>
     <row r="1001">
       <c r="A1001" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1001" s="1" t="n">
         <v>44561</v>
@@ -38422,7 +38425,7 @@
         <v>44410</v>
       </c>
       <c r="D1001" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1001" t="n">
         <v>0.575757575757576</v>
@@ -38483,7 +38486,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1003" s="1" t="n">
         <v>44561</v>
@@ -38492,7 +38495,7 @@
         <v>44407</v>
       </c>
       <c r="D1003" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1003" t="n">
         <v>0.666666666666667</v>
@@ -38553,7 +38556,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1005" s="1" t="n">
         <v>44561</v>
@@ -38562,7 +38565,7 @@
         <v>44410</v>
       </c>
       <c r="D1005" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1005" t="n">
         <v>0.515151515151515</v>
@@ -38623,7 +38626,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1007" s="1" t="n">
         <v>44561</v>
@@ -38632,7 +38635,7 @@
         <v>44407</v>
       </c>
       <c r="D1007" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1007" t="n">
         <v>0.666666666666667</v>
@@ -38798,7 +38801,7 @@
     </row>
     <row r="1012">
       <c r="A1012" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1012" s="1" t="n">
         <v>44561</v>
@@ -38807,7 +38810,7 @@
         <v>44407</v>
       </c>
       <c r="D1012" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1012" t="n">
         <v>0.636363636363636</v>
@@ -38868,7 +38871,7 @@
     </row>
     <row r="1014">
       <c r="A1014" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1014" s="1" t="n">
         <v>44561</v>
@@ -38877,7 +38880,7 @@
         <v>44410</v>
       </c>
       <c r="D1014" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1014" t="n">
         <v>0.696969696969697</v>
@@ -38903,7 +38906,7 @@
     </row>
     <row r="1015">
       <c r="A1015" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1015" s="1" t="n">
         <v>44561</v>
@@ -38912,7 +38915,7 @@
         <v>44408</v>
       </c>
       <c r="D1015" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1015" t="n">
         <v>0.636363636363636</v>
@@ -39078,7 +39081,7 @@
     </row>
     <row r="1020">
       <c r="A1020" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1020" s="1" t="n">
         <v>44561</v>
@@ -39087,7 +39090,7 @@
         <v>44410</v>
       </c>
       <c r="D1020" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1020" t="n">
         <v>0.696969696969697</v>
@@ -39148,7 +39151,7 @@
     </row>
     <row r="1022">
       <c r="A1022" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1022" s="1" t="n">
         <v>44561</v>
@@ -39157,7 +39160,7 @@
         <v>44407</v>
       </c>
       <c r="D1022" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1022" t="n">
         <v>0.545454545454545</v>
@@ -39253,7 +39256,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1025" s="1" t="n">
         <v>44561</v>
@@ -39262,7 +39265,7 @@
         <v>44406</v>
       </c>
       <c r="D1025" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1025" t="n">
         <v>0.636363636363636</v>
@@ -39288,7 +39291,7 @@
     </row>
     <row r="1026">
       <c r="A1026" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1026" s="1" t="n">
         <v>44561</v>
@@ -39297,7 +39300,7 @@
         <v>44407</v>
       </c>
       <c r="D1026" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1026" t="n">
         <v>0.696969696969697</v>
@@ -39498,7 +39501,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1032" s="1" t="n">
         <v>44561</v>
@@ -39507,7 +39510,7 @@
         <v>44407</v>
       </c>
       <c r="D1032" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1032" t="n">
         <v>0.545454545454545</v>
@@ -39603,7 +39606,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1035" s="1" t="n">
         <v>44561</v>
@@ -39612,7 +39615,7 @@
         <v>44410</v>
       </c>
       <c r="D1035" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1035" t="n">
         <v>0.696969696969697</v>
@@ -39638,7 +39641,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1036" s="1" t="n">
         <v>44561</v>
@@ -39647,7 +39650,7 @@
         <v>44407</v>
       </c>
       <c r="D1036" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1036" t="n">
         <v>0.666666666666667</v>
@@ -39813,7 +39816,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1041" s="1" t="n">
         <v>44561</v>
@@ -39822,7 +39825,7 @@
         <v>44406</v>
       </c>
       <c r="D1041" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1041" t="n">
         <v>0.666666666666667</v>
@@ -39883,7 +39886,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1043" s="1" t="n">
         <v>44561</v>
@@ -39892,7 +39895,7 @@
         <v>44407</v>
       </c>
       <c r="D1043" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1043" t="n">
         <v>0.636363636363636</v>
@@ -39918,7 +39921,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1044" s="1" t="n">
         <v>44561</v>
@@ -39927,7 +39930,7 @@
         <v>44410</v>
       </c>
       <c r="D1044" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1044" t="n">
         <v>0.636363636363636</v>
@@ -39953,7 +39956,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1045" s="1" t="n">
         <v>44561</v>
@@ -39962,7 +39965,7 @@
         <v>44407</v>
       </c>
       <c r="D1045" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1045" t="n">
         <v>0.515151515151515</v>
@@ -39988,7 +39991,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1046" s="1" t="n">
         <v>44561</v>
@@ -39997,7 +40000,7 @@
         <v>44410</v>
       </c>
       <c r="D1046" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1046" t="n">
         <v>0.636363636363636</v>
@@ -40268,7 +40271,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1054" s="1" t="n">
         <v>44561</v>
@@ -40277,7 +40280,7 @@
         <v>44410</v>
       </c>
       <c r="D1054" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1054" t="n">
         <v>0.484848484848485</v>
@@ -40443,7 +40446,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1059" s="1" t="n">
         <v>44561</v>
@@ -40452,7 +40455,7 @@
         <v>44410</v>
       </c>
       <c r="D1059" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1059" t="n">
         <v>0.636363636363636</v>
@@ -40478,7 +40481,7 @@
     </row>
     <row r="1060">
       <c r="A1060" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1060" s="1" t="n">
         <v>44561</v>
@@ -40487,7 +40490,7 @@
         <v>44406</v>
       </c>
       <c r="D1060" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1060" t="n">
         <v>0.666666666666667</v>
@@ -40513,7 +40516,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1061" s="1" t="n">
         <v>44561</v>
@@ -40522,7 +40525,7 @@
         <v>44407</v>
       </c>
       <c r="D1061" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1061" t="n">
         <v>0.606060606060606</v>
@@ -40933,7 +40936,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1073" s="1" t="n">
         <v>44561</v>
@@ -40942,7 +40945,7 @@
         <v>44407</v>
       </c>
       <c r="D1073" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1073" t="n">
         <v>0.606060606060606</v>
@@ -41003,7 +41006,7 @@
     </row>
     <row r="1075">
       <c r="A1075" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1075" s="1" t="n">
         <v>44561</v>
@@ -41012,7 +41015,7 @@
         <v>44408</v>
       </c>
       <c r="D1075" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1075" t="n">
         <v>0.484848484848485</v>
@@ -41143,7 +41146,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1079" s="1" t="n">
         <v>44561</v>
@@ -41152,7 +41155,7 @@
         <v>44410</v>
       </c>
       <c r="D1079" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1079" t="n">
         <v>0.575757575757576</v>
@@ -41213,7 +41216,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1081" s="1" t="n">
         <v>44561</v>
@@ -41222,7 +41225,7 @@
         <v>44407</v>
       </c>
       <c r="D1081" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E1081" t="n">
         <v>0.727272727272727</v>
@@ -41283,7 +41286,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B1083" s="1" t="n">
         <v>44561</v>
@@ -41292,7 +41295,7 @@
         <v>44407</v>
       </c>
       <c r="D1083" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E1083" t="n">
         <v>0.606060606060606</v>
@@ -41493,7 +41496,7 @@
     </row>
     <row r="1089">
       <c r="A1089" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1089" s="1" t="n">
         <v>44561</v>
@@ -41502,7 +41505,7 @@
         <v>44407</v>
       </c>
       <c r="D1089" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E1089" t="n">
         <v>0.575757575757576</v>
@@ -41633,7 +41636,7 @@
     </row>
     <row r="1093">
       <c r="A1093" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B1093" s="1" t="n">
         <v>44561</v>
@@ -41642,7 +41645,7 @@
         <v>44407</v>
       </c>
       <c r="D1093" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E1093" t="n">
         <v>0.575757575757576</v>
@@ -41668,7 +41671,7 @@
     </row>
     <row r="1094">
       <c r="A1094" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B1094" s="1" t="n">
         <v>44561</v>
@@ -41677,7 +41680,7 @@
         <v>44410</v>
       </c>
       <c r="D1094" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E1094" t="n">
         <v>0.575757575757576</v>
@@ -41703,7 +41706,7 @@
     </row>
     <row r="1095">
       <c r="A1095" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B1095" s="1" t="n">
         <v>44561</v>
@@ -41712,7 +41715,7 @@
         <v>44407</v>
       </c>
       <c r="D1095" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1095" t="n">
         <v>0.636363636363636</v>
@@ -41773,7 +41776,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B1097" s="1" t="n">
         <v>44561</v>
@@ -41782,7 +41785,7 @@
         <v>44407</v>
       </c>
       <c r="D1097" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E1097" t="n">
         <v>0.636363636363636</v>
@@ -41808,7 +41811,7 @@
     </row>
     <row r="1098">
       <c r="A1098" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B1098" s="1" t="n">
         <v>44561</v>
@@ -41817,7 +41820,7 @@
         <v>44407</v>
       </c>
       <c r="D1098" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E1098" t="n">
         <v>0.606060606060606</v>
@@ -42053,7 +42056,7 @@
     </row>
     <row r="1105">
       <c r="A1105" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B1105" s="1" t="n">
         <v>44561</v>
@@ -42062,7 +42065,7 @@
         <v>44407</v>
       </c>
       <c r="D1105" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E1105" t="n">
         <v>0.545454545454545</v>
@@ -42158,7 +42161,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1108" s="1" t="n">
         <v>44561</v>
@@ -42167,7 +42170,7 @@
         <v>44410</v>
       </c>
       <c r="D1108" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1108" t="n">
         <v>0.727272727272727</v>
@@ -42193,7 +42196,7 @@
     </row>
     <row r="1109">
       <c r="A1109" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B1109" s="1" t="n">
         <v>44561</v>
@@ -42202,7 +42205,7 @@
         <v>44407</v>
       </c>
       <c r="D1109" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E1109" t="n">
         <v>0.636363636363636</v>
@@ -42228,7 +42231,7 @@
     </row>
     <row r="1110">
       <c r="A1110" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B1110" s="1" t="n">
         <v>44561</v>
@@ -42237,7 +42240,7 @@
         <v>44410</v>
       </c>
       <c r="D1110" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E1110" t="n">
         <v>0.606060606060606</v>
@@ -43173,7 +43176,7 @@
     </row>
     <row r="1137">
       <c r="A1137" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B1137" s="1" t="n">
         <v>44561</v>
@@ -43182,7 +43185,7 @@
         <v>44223</v>
       </c>
       <c r="D1137" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E1137" t="n">
         <v>0.515151515151515</v>
@@ -43278,7 +43281,7 @@
     </row>
     <row r="1140">
       <c r="A1140" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1140" s="1" t="n">
         <v>44561</v>
@@ -43287,7 +43290,7 @@
         <v>44407</v>
       </c>
       <c r="D1140" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E1140" t="n">
         <v>0.575757575757576</v>
@@ -43313,7 +43316,7 @@
     </row>
     <row r="1141">
       <c r="A1141" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1141" s="1" t="n">
         <v>44561</v>
@@ -43322,7 +43325,7 @@
         <v>44407</v>
       </c>
       <c r="D1141" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E1141" t="n">
         <v>0.515151515151515</v>
@@ -43348,7 +43351,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1142" s="1" t="n">
         <v>44561</v>
@@ -43357,7 +43360,7 @@
         <v>44407</v>
       </c>
       <c r="D1142" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1142" t="n">
         <v>0.666666666666667</v>
@@ -43383,7 +43386,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B1143" s="1" t="n">
         <v>44561</v>
@@ -43392,7 +43395,7 @@
         <v>44410</v>
       </c>
       <c r="D1143" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E1143" t="n">
         <v>0.454545454545455</v>
@@ -43733,7 +43736,7 @@
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B1153" s="1" t="n">
         <v>44561</v>
@@ -43742,7 +43745,7 @@
         <v>44411</v>
       </c>
       <c r="D1153" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E1153" t="n">
         <v>0.606060606060606</v>
@@ -44022,7 +44025,7 @@
         <v>44407</v>
       </c>
       <c r="D1161" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1161" t="n">
         <v>0.575757575757576</v>
@@ -44573,7 +44576,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B1177" s="1" t="n">
         <v>44561</v>
@@ -44582,7 +44585,7 @@
         <v>44410</v>
       </c>
       <c r="D1177" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E1177" t="n">
         <v>0.575757575757576</v>
@@ -44608,7 +44611,7 @@
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B1178" s="1" t="n">
         <v>44561</v>
@@ -44617,7 +44620,7 @@
         <v>44410</v>
       </c>
       <c r="D1178" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E1178" t="n">
         <v>0.575757575757576</v>
@@ -44678,7 +44681,7 @@
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B1180" s="1" t="n">
         <v>44561</v>
@@ -44687,7 +44690,7 @@
         <v>44410</v>
       </c>
       <c r="D1180" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E1180" t="n">
         <v>0.666666666666667</v>
@@ -45728,7 +45731,7 @@
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B1210" s="1" t="n">
         <v>44561</v>
@@ -45737,7 +45740,7 @@
         <v>44407</v>
       </c>
       <c r="D1210" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E1210" t="n">
         <v>0.606060606060606</v>
@@ -46008,7 +46011,7 @@
     </row>
     <row r="1218">
       <c r="A1218" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B1218" s="1" t="n">
         <v>44561</v>
@@ -46017,7 +46020,7 @@
         <v>44410</v>
       </c>
       <c r="D1218" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E1218" t="n">
         <v>0.636363636363636</v>
@@ -46043,7 +46046,7 @@
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B1219" s="1" t="n">
         <v>44561</v>
@@ -46052,7 +46055,7 @@
         <v>44404</v>
       </c>
       <c r="D1219" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E1219" t="n">
         <v>0.636363636363636</v>
@@ -46323,7 +46326,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B1227" s="1" t="n">
         <v>44561</v>
@@ -46332,7 +46335,7 @@
         <v>44410</v>
       </c>
       <c r="D1227" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E1227" t="n">
         <v>0.696969696969697</v>
@@ -46743,7 +46746,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1239" s="1" t="n">
         <v>44561</v>
@@ -46752,7 +46755,7 @@
         <v>44407</v>
       </c>
       <c r="D1239" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E1239" t="n">
         <v>0.727272727272727</v>
@@ -48213,7 +48216,7 @@
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B1281" s="1" t="n">
         <v>44561</v>
@@ -48222,7 +48225,7 @@
         <v>44406</v>
       </c>
       <c r="D1281" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E1281" t="n">
         <v>0.696969696969697</v>
@@ -48283,7 +48286,7 @@
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B1283" s="1" t="n">
         <v>44561</v>
@@ -48292,7 +48295,7 @@
         <v>44406</v>
       </c>
       <c r="D1283" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E1283" t="n">
         <v>0.636363636363636</v>
@@ -48563,7 +48566,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B1291" s="1" t="n">
         <v>44926</v>
@@ -48572,7 +48575,7 @@
         <v>44761</v>
       </c>
       <c r="D1291" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E1291" t="n">
         <v>0.666666666666667</v>
@@ -48598,7 +48601,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B1292" s="1" t="n">
         <v>44926</v>
@@ -48607,7 +48610,7 @@
         <v>44774</v>
       </c>
       <c r="D1292" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E1292" t="n">
         <v>0.636363636363636</v>
@@ -50068,7 +50071,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B1334" s="1" t="n">
         <v>44651</v>
@@ -50077,7 +50080,7 @@
         <v>44501</v>
       </c>
       <c r="D1334" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E1334" t="n">
         <v>0.606060606060606</v>
@@ -50768,7 +50771,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B1354" s="1" t="n">
         <v>44926</v>
@@ -50777,7 +50780,7 @@
         <v>44755</v>
       </c>
       <c r="D1354" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E1354" t="n">
         <v>0.636363636363636</v>
@@ -50838,7 +50841,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B1356" s="1" t="n">
         <v>44926</v>
@@ -50847,7 +50850,7 @@
         <v>44771</v>
       </c>
       <c r="D1356" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E1356" t="n">
         <v>0.666666666666667</v>
@@ -52168,7 +52171,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B1394" s="1" t="n">
         <v>44926</v>
@@ -52177,7 +52180,7 @@
         <v>44760</v>
       </c>
       <c r="D1394" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E1394" t="n">
         <v>0.484848484848485</v>
@@ -52912,7 +52915,7 @@
         <v>44774</v>
       </c>
       <c r="D1415" t="s">
-        <v>400</v>
+        <v>837</v>
       </c>
       <c r="E1415" t="n">
         <v>0.666666666666667</v>
@@ -53078,7 +53081,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B1420" s="1" t="n">
         <v>44926</v>
@@ -53087,7 +53090,7 @@
         <v>44770</v>
       </c>
       <c r="D1420" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E1420" t="n">
         <v>0.696969696969697</v>
@@ -53253,7 +53256,7 @@
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B1425" s="1" t="n">
         <v>44926</v>
@@ -53262,7 +53265,7 @@
         <v>44774</v>
       </c>
       <c r="D1425" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E1425" t="n">
         <v>0.606060606060606</v>
@@ -53323,7 +53326,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B1427" s="1" t="n">
         <v>44926</v>
@@ -53332,7 +53335,7 @@
         <v>44771</v>
       </c>
       <c r="D1427" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E1427" t="n">
         <v>0.606060606060606</v>
@@ -53428,7 +53431,7 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1430" s="1" t="n">
         <v>44926</v>
@@ -53437,7 +53440,7 @@
         <v>44771</v>
       </c>
       <c r="D1430" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E1430" t="n">
         <v>0.575757575757576</v>
@@ -53533,7 +53536,7 @@
     </row>
     <row r="1433">
       <c r="A1433" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1433" s="1" t="n">
         <v>44926</v>
@@ -53542,7 +53545,7 @@
         <v>44771</v>
       </c>
       <c r="D1433" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1433" t="n">
         <v>0.666666666666667</v>
@@ -53603,7 +53606,7 @@
     </row>
     <row r="1435">
       <c r="A1435" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1435" s="1" t="n">
         <v>44926</v>
@@ -53612,7 +53615,7 @@
         <v>44774</v>
       </c>
       <c r="D1435" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1435" t="n">
         <v>0.515151515151515</v>
@@ -53638,7 +53641,7 @@
     </row>
     <row r="1436">
       <c r="A1436" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1436" s="1" t="n">
         <v>44926</v>
@@ -53647,7 +53650,7 @@
         <v>44771</v>
       </c>
       <c r="D1436" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1436" t="n">
         <v>0.666666666666667</v>
@@ -53813,7 +53816,7 @@
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1441" s="1" t="n">
         <v>44926</v>
@@ -53822,7 +53825,7 @@
         <v>44769</v>
       </c>
       <c r="D1441" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1441" t="n">
         <v>0.636363636363636</v>
@@ -53883,7 +53886,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1443" s="1" t="n">
         <v>44926</v>
@@ -53892,7 +53895,7 @@
         <v>44771</v>
       </c>
       <c r="D1443" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1443" t="n">
         <v>0.636363636363636</v>
@@ -54023,7 +54026,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B1447" s="1" t="n">
         <v>44926</v>
@@ -54032,7 +54035,7 @@
         <v>44771</v>
       </c>
       <c r="D1447" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E1447" t="n">
         <v>0.636363636363636</v>
@@ -54093,7 +54096,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1449" s="1" t="n">
         <v>44926</v>
@@ -54102,7 +54105,7 @@
         <v>44767</v>
       </c>
       <c r="D1449" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1449" t="n">
         <v>0.666666666666667</v>
@@ -54163,7 +54166,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1451" s="1" t="n">
         <v>44926</v>
@@ -54172,7 +54175,7 @@
         <v>44770</v>
       </c>
       <c r="D1451" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1451" t="n">
         <v>0.666666666666667</v>
@@ -54268,7 +54271,7 @@
     </row>
     <row r="1454">
       <c r="A1454" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1454" s="1" t="n">
         <v>44926</v>
@@ -54277,7 +54280,7 @@
         <v>44771</v>
       </c>
       <c r="D1454" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1454" t="n">
         <v>0.636363636363636</v>
@@ -54303,7 +54306,7 @@
     </row>
     <row r="1455">
       <c r="A1455" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1455" s="1" t="n">
         <v>44926</v>
@@ -54312,7 +54315,7 @@
         <v>44771</v>
       </c>
       <c r="D1455" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1455" t="n">
         <v>0.696969696969697</v>
@@ -54513,7 +54516,7 @@
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1461" s="1" t="n">
         <v>44926</v>
@@ -54522,7 +54525,7 @@
         <v>44771</v>
       </c>
       <c r="D1461" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1461" t="n">
         <v>0.606060606060606</v>
@@ -54548,7 +54551,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B1462" s="1" t="n">
         <v>44926</v>
@@ -54557,7 +54560,7 @@
         <v>44773</v>
       </c>
       <c r="D1462" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E1462" t="n">
         <v>0.636363636363636</v>
@@ -54653,7 +54656,7 @@
     </row>
     <row r="1465">
       <c r="A1465" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1465" s="1" t="n">
         <v>44926</v>
@@ -54662,7 +54665,7 @@
         <v>44771</v>
       </c>
       <c r="D1465" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1465" t="n">
         <v>0.636363636363636</v>
@@ -54688,7 +54691,7 @@
     </row>
     <row r="1466">
       <c r="A1466" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1466" s="1" t="n">
         <v>44926</v>
@@ -54697,7 +54700,7 @@
         <v>44771</v>
       </c>
       <c r="D1466" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1466" t="n">
         <v>0.666666666666667</v>
@@ -54863,7 +54866,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1471" s="1" t="n">
         <v>44926</v>
@@ -54872,7 +54875,7 @@
         <v>44770</v>
       </c>
       <c r="D1471" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1471" t="n">
         <v>0.606060606060606</v>
@@ -54933,7 +54936,7 @@
     </row>
     <row r="1473">
       <c r="A1473" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B1473" s="1" t="n">
         <v>44926</v>
@@ -54942,7 +54945,7 @@
         <v>44762</v>
       </c>
       <c r="D1473" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E1473" t="n">
         <v>0.454545454545455</v>
@@ -54968,7 +54971,7 @@
     </row>
     <row r="1474">
       <c r="A1474" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1474" s="1" t="n">
         <v>44926</v>
@@ -54977,7 +54980,7 @@
         <v>44771</v>
       </c>
       <c r="D1474" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1474" t="n">
         <v>0.636363636363636</v>
@@ -55003,7 +55006,7 @@
     </row>
     <row r="1475">
       <c r="A1475" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1475" s="1" t="n">
         <v>44926</v>
@@ -55012,7 +55015,7 @@
         <v>44742</v>
       </c>
       <c r="D1475" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1475" t="n">
         <v>0.575757575757576</v>
@@ -55038,7 +55041,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1476" s="1" t="n">
         <v>44926</v>
@@ -55047,7 +55050,7 @@
         <v>44771</v>
       </c>
       <c r="D1476" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1476" t="n">
         <v>0.575757575757576</v>
@@ -55073,7 +55076,7 @@
     </row>
     <row r="1477">
       <c r="A1477" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1477" s="1" t="n">
         <v>44926</v>
@@ -55082,7 +55085,7 @@
         <v>44770</v>
       </c>
       <c r="D1477" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1477" t="n">
         <v>0.636363636363636</v>
@@ -55353,7 +55356,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1485" s="1" t="n">
         <v>44926</v>
@@ -55362,7 +55365,7 @@
         <v>44774</v>
       </c>
       <c r="D1485" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1485" t="n">
         <v>0.484848484848485</v>
@@ -55528,7 +55531,7 @@
     </row>
     <row r="1490">
       <c r="A1490" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1490" s="1" t="n">
         <v>44926</v>
@@ -55537,7 +55540,7 @@
         <v>44771</v>
       </c>
       <c r="D1490" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1490" t="n">
         <v>0.727272727272727</v>
@@ -55563,7 +55566,7 @@
     </row>
     <row r="1491">
       <c r="A1491" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1491" s="1" t="n">
         <v>44926</v>
@@ -55572,7 +55575,7 @@
         <v>44771</v>
       </c>
       <c r="D1491" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1491" t="n">
         <v>0.666666666666667</v>
@@ -55598,7 +55601,7 @@
     </row>
     <row r="1492">
       <c r="A1492" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1492" s="1" t="n">
         <v>44926</v>
@@ -55607,7 +55610,7 @@
         <v>44770</v>
       </c>
       <c r="D1492" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1492" t="n">
         <v>0.636363636363636</v>
@@ -56018,7 +56021,7 @@
     </row>
     <row r="1504">
       <c r="A1504" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1504" s="1" t="n">
         <v>44926</v>
@@ -56027,7 +56030,7 @@
         <v>44771</v>
       </c>
       <c r="D1504" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1504" t="n">
         <v>0.606060606060606</v>
@@ -56088,7 +56091,7 @@
     </row>
     <row r="1506">
       <c r="A1506" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1506" s="1" t="n">
         <v>44926</v>
@@ -56097,7 +56100,7 @@
         <v>44774</v>
       </c>
       <c r="D1506" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1506" t="n">
         <v>0.545454545454545</v>
@@ -56228,7 +56231,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1510" s="1" t="n">
         <v>44926</v>
@@ -56237,7 +56240,7 @@
         <v>44771</v>
       </c>
       <c r="D1510" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1510" t="n">
         <v>0.636363636363636</v>
@@ -56263,7 +56266,7 @@
     </row>
     <row r="1511">
       <c r="A1511" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1511" s="1" t="n">
         <v>44926</v>
@@ -56272,7 +56275,7 @@
         <v>44771</v>
       </c>
       <c r="D1511" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E1511" t="n">
         <v>0.757575757575758</v>
@@ -56333,7 +56336,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B1513" s="1" t="n">
         <v>44926</v>
@@ -56342,7 +56345,7 @@
         <v>44771</v>
       </c>
       <c r="D1513" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E1513" t="n">
         <v>0.636363636363636</v>
@@ -56508,7 +56511,7 @@
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1518" s="1" t="n">
         <v>44926</v>
@@ -56517,7 +56520,7 @@
         <v>44771</v>
       </c>
       <c r="D1518" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E1518" t="n">
         <v>0.575757575757576</v>
@@ -56578,7 +56581,7 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B1520" s="1" t="n">
         <v>44926</v>
@@ -56587,7 +56590,7 @@
         <v>44771</v>
       </c>
       <c r="D1520" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E1520" t="n">
         <v>0.727272727272727</v>
@@ -56683,7 +56686,7 @@
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B1523" s="1" t="n">
         <v>44926</v>
@@ -56692,7 +56695,7 @@
         <v>44742</v>
       </c>
       <c r="D1523" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E1523" t="n">
         <v>0.606060606060606</v>
@@ -56718,7 +56721,7 @@
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B1524" s="1" t="n">
         <v>44926</v>
@@ -56727,7 +56730,7 @@
         <v>44804</v>
       </c>
       <c r="D1524" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E1524" t="n">
         <v>0.515151515151515</v>
@@ -56753,7 +56756,7 @@
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B1525" s="1" t="n">
         <v>44926</v>
@@ -56762,7 +56765,7 @@
         <v>44771</v>
       </c>
       <c r="D1525" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E1525" t="n">
         <v>0.636363636363636</v>
@@ -56788,7 +56791,7 @@
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B1526" s="1" t="n">
         <v>44926</v>
@@ -56797,7 +56800,7 @@
         <v>44771</v>
       </c>
       <c r="D1526" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E1526" t="n">
         <v>0.575757575757576</v>
@@ -56823,7 +56826,7 @@
     </row>
     <row r="1527">
       <c r="A1527" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B1527" s="1" t="n">
         <v>44926</v>
@@ -56832,7 +56835,7 @@
         <v>44771</v>
       </c>
       <c r="D1527" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1527" t="n">
         <v>0.606060606060606</v>
@@ -56893,7 +56896,7 @@
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B1529" s="1" t="n">
         <v>44926</v>
@@ -56902,7 +56905,7 @@
         <v>44742</v>
       </c>
       <c r="D1529" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E1529" t="n">
         <v>0.636363636363636</v>
@@ -57033,7 +57036,7 @@
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B1533" s="1" t="n">
         <v>44926</v>
@@ -57042,7 +57045,7 @@
         <v>44771</v>
       </c>
       <c r="D1533" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E1533" t="n">
         <v>0.515151515151515</v>
@@ -57173,7 +57176,7 @@
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B1537" s="1" t="n">
         <v>44926</v>
@@ -57182,7 +57185,7 @@
         <v>44774</v>
       </c>
       <c r="D1537" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E1537" t="n">
         <v>0.575757575757576</v>
@@ -57278,7 +57281,7 @@
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1540" s="1" t="n">
         <v>44926</v>
@@ -57287,7 +57290,7 @@
         <v>44771</v>
       </c>
       <c r="D1540" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1540" t="n">
         <v>0.666666666666667</v>
@@ -57313,7 +57316,7 @@
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B1541" s="1" t="n">
         <v>44926</v>
@@ -57322,7 +57325,7 @@
         <v>44771</v>
       </c>
       <c r="D1541" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E1541" t="n">
         <v>0.696969696969697</v>
@@ -57348,7 +57351,7 @@
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B1542" s="1" t="n">
         <v>44926</v>
@@ -57357,7 +57360,7 @@
         <v>44776</v>
       </c>
       <c r="D1542" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E1542" t="n">
         <v>0.606060606060606</v>
@@ -57383,7 +57386,7 @@
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B1543" s="1" t="n">
         <v>44926</v>
@@ -57392,7 +57395,7 @@
         <v>44774</v>
       </c>
       <c r="D1543" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E1543" t="n">
         <v>0.515151515151515</v>
@@ -57803,7 +57806,7 @@
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B1555" s="1" t="n">
         <v>44926</v>
@@ -57812,7 +57815,7 @@
         <v>44742</v>
       </c>
       <c r="D1555" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E1555" t="n">
         <v>0.606060606060606</v>
@@ -58048,7 +58051,7 @@
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B1562" s="1" t="n">
         <v>44651</v>
@@ -58057,7 +58060,7 @@
         <v>44497</v>
       </c>
       <c r="D1562" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E1562" t="n">
         <v>0.757575757575758</v>
@@ -58433,7 +58436,7 @@
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1573" s="1" t="n">
         <v>44926</v>
@@ -58442,7 +58445,7 @@
         <v>44771</v>
       </c>
       <c r="D1573" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E1573" t="n">
         <v>0.606060606060606</v>
@@ -58468,7 +58471,7 @@
     </row>
     <row r="1574">
       <c r="A1574" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1574" s="1" t="n">
         <v>44926</v>
@@ -58477,7 +58480,7 @@
         <v>44771</v>
       </c>
       <c r="D1574" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E1574" t="n">
         <v>0.515151515151515</v>
@@ -58503,7 +58506,7 @@
     </row>
     <row r="1575">
       <c r="A1575" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1575" s="1" t="n">
         <v>44926</v>
@@ -58512,7 +58515,7 @@
         <v>44773</v>
       </c>
       <c r="D1575" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1575" t="n">
         <v>0.636363636363636</v>
@@ -58538,7 +58541,7 @@
     </row>
     <row r="1576">
       <c r="A1576" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B1576" s="1" t="n">
         <v>44926</v>
@@ -58547,7 +58550,7 @@
         <v>44767</v>
       </c>
       <c r="D1576" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E1576" t="n">
         <v>0.424242424242424</v>
@@ -58573,7 +58576,7 @@
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B1577" s="1" t="n">
         <v>44926</v>
@@ -58582,7 +58585,7 @@
         <v>44774</v>
       </c>
       <c r="D1577" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E1577" t="n">
         <v>0.424242424242424</v>
@@ -58643,7 +58646,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B1579" s="1" t="n">
         <v>44926</v>
@@ -58652,7 +58655,7 @@
         <v>44764</v>
       </c>
       <c r="D1579" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E1579" t="n">
         <v>0.515151515151515</v>
@@ -58783,7 +58786,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B1583" s="1" t="n">
         <v>44926</v>
@@ -58792,7 +58795,7 @@
         <v>44769</v>
       </c>
       <c r="D1583" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E1583" t="n">
         <v>0.636363636363636</v>
@@ -58958,7 +58961,7 @@
     </row>
     <row r="1588">
       <c r="A1588" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B1588" s="1" t="n">
         <v>44926</v>
@@ -58967,7 +58970,7 @@
         <v>44771</v>
       </c>
       <c r="D1588" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E1588" t="n">
         <v>0.606060606060606</v>
@@ -59028,7 +59031,7 @@
     </row>
     <row r="1590">
       <c r="A1590" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B1590" s="1" t="n">
         <v>44926</v>
@@ -59037,7 +59040,7 @@
         <v>44771</v>
       </c>
       <c r="D1590" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E1590" t="n">
         <v>0.636363636363636</v>
@@ -59317,7 +59320,7 @@
         <v>44768</v>
       </c>
       <c r="D1598" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1598" t="n">
         <v>0.575757575757576</v>
@@ -59833,7 +59836,7 @@
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B1613" s="1" t="n">
         <v>44926</v>
@@ -59842,7 +59845,7 @@
         <v>44774</v>
       </c>
       <c r="D1613" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E1613" t="n">
         <v>0.575757575757576</v>
@@ -59868,7 +59871,7 @@
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B1614" s="1" t="n">
         <v>44926</v>
@@ -59877,7 +59880,7 @@
         <v>44771</v>
       </c>
       <c r="D1614" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E1614" t="n">
         <v>0.575757575757576</v>
@@ -59938,7 +59941,7 @@
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B1616" s="1" t="n">
         <v>44926</v>
@@ -59947,7 +59950,7 @@
         <v>44774</v>
       </c>
       <c r="D1616" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E1616" t="n">
         <v>0.666666666666667</v>
@@ -60883,7 +60886,7 @@
     </row>
     <row r="1643">
       <c r="A1643" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B1643" s="1" t="n">
         <v>44926</v>
@@ -60892,7 +60895,7 @@
         <v>44770</v>
       </c>
       <c r="D1643" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E1643" t="n">
         <v>0.727272727272727</v>
@@ -60988,7 +60991,7 @@
     </row>
     <row r="1646">
       <c r="A1646" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B1646" s="1" t="n">
         <v>44926</v>
@@ -60997,7 +61000,7 @@
         <v>44767</v>
       </c>
       <c r="D1646" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E1646" t="n">
         <v>0.606060606060606</v>
@@ -61268,7 +61271,7 @@
     </row>
     <row r="1654">
       <c r="A1654" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B1654" s="1" t="n">
         <v>44926</v>
@@ -61277,7 +61280,7 @@
         <v>44774</v>
       </c>
       <c r="D1654" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E1654" t="n">
         <v>0.636363636363636</v>
@@ -61303,7 +61306,7 @@
     </row>
     <row r="1655">
       <c r="A1655" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B1655" s="1" t="n">
         <v>44926</v>
@@ -61312,7 +61315,7 @@
         <v>44771</v>
       </c>
       <c r="D1655" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E1655" t="n">
         <v>0.545454545454545</v>
@@ -61478,7 +61481,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B1660" s="1" t="n">
         <v>44742</v>
@@ -61487,7 +61490,7 @@
         <v>44592</v>
       </c>
       <c r="D1660" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E1660" t="n">
         <v>0.606060606060606</v>
@@ -61618,7 +61621,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B1664" s="1" t="n">
         <v>44926</v>
@@ -61627,7 +61630,7 @@
         <v>44774</v>
       </c>
       <c r="D1664" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E1664" t="n">
         <v>0.696969696969697</v>
@@ -62003,7 +62006,7 @@
     </row>
     <row r="1675">
       <c r="A1675" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1675" s="1" t="n">
         <v>44562</v>
@@ -62012,7 +62015,7 @@
         <v>44771</v>
       </c>
       <c r="D1675" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E1675" t="n">
         <v>0.727272727272727</v>
@@ -62038,7 +62041,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1676" s="1" t="n">
         <v>44926</v>
@@ -62047,7 +62050,7 @@
         <v>44771</v>
       </c>
       <c r="D1676" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E1676" t="n">
         <v>0.727272727272727</v>
@@ -63473,7 +63476,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B1717" s="1" t="n">
         <v>44926</v>
@@ -63482,7 +63485,7 @@
         <v>44771</v>
       </c>
       <c r="D1717" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E1717" t="n">
         <v>0.696969696969697</v>
@@ -63543,7 +63546,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B1719" s="1" t="n">
         <v>44926</v>
@@ -63552,7 +63555,7 @@
         <v>44771</v>
       </c>
       <c r="D1719" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E1719" t="n">
         <v>0.636363636363636</v>
@@ -63823,7 +63826,7 @@
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B1727" s="1" t="n">
         <v>45291</v>
@@ -63832,7 +63835,7 @@
         <v>45112</v>
       </c>
       <c r="D1727" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E1727" t="n">
         <v>0.666666666666667</v>
@@ -63858,7 +63861,7 @@
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B1728" s="1" t="n">
         <v>45291</v>
@@ -63867,7 +63870,7 @@
         <v>45138</v>
       </c>
       <c r="D1728" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E1728" t="n">
         <v>0.636363636363636</v>
@@ -65188,7 +65191,7 @@
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B1766" s="1" t="n">
         <v>45016</v>
@@ -65197,7 +65200,7 @@
         <v>44861</v>
       </c>
       <c r="D1766" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E1766" t="n">
         <v>0.606060606060606</v>
@@ -65818,7 +65821,7 @@
     </row>
     <row r="1784">
       <c r="A1784" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B1784" s="1" t="n">
         <v>45291</v>
@@ -65827,7 +65830,7 @@
         <v>45137</v>
       </c>
       <c r="D1784" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E1784" t="n">
         <v>0.636363636363636</v>
@@ -65888,7 +65891,7 @@
     </row>
     <row r="1786">
       <c r="A1786" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B1786" s="1" t="n">
         <v>45291</v>
@@ -65897,7 +65900,7 @@
         <v>45138</v>
       </c>
       <c r="D1786" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E1786" t="n">
         <v>0.666666666666667</v>
@@ -67148,7 +67151,7 @@
     </row>
     <row r="1822">
       <c r="A1822" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B1822" s="1" t="n">
         <v>45291</v>
@@ -67157,7 +67160,7 @@
         <v>45138</v>
       </c>
       <c r="D1822" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E1822" t="n">
         <v>0.484848484848485</v>
@@ -67892,7 +67895,7 @@
         <v>45138</v>
       </c>
       <c r="D1843" t="s">
-        <v>400</v>
+        <v>837</v>
       </c>
       <c r="E1843" t="n">
         <v>0.666666666666667</v>
@@ -68058,7 +68061,7 @@
     </row>
     <row r="1848">
       <c r="A1848" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B1848" s="1" t="n">
         <v>45291</v>
@@ -68067,7 +68070,7 @@
         <v>45174</v>
       </c>
       <c r="D1848" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E1848" t="n">
         <v>0.636363636363636</v>
@@ -68268,7 +68271,7 @@
     </row>
     <row r="1854">
       <c r="A1854" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B1854" s="1" t="n">
         <v>45291</v>
@@ -68277,7 +68280,7 @@
         <v>45134</v>
       </c>
       <c r="D1854" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E1854" t="n">
         <v>0.606060606060606</v>
@@ -68338,7 +68341,7 @@
     </row>
     <row r="1856">
       <c r="A1856" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1856" s="1" t="n">
         <v>45291</v>
@@ -68347,7 +68350,7 @@
         <v>45138</v>
       </c>
       <c r="D1856" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E1856" t="n">
         <v>0.575757575757576</v>
@@ -68443,7 +68446,7 @@
     </row>
     <row r="1859">
       <c r="A1859" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1859" s="1" t="n">
         <v>45291</v>
@@ -68452,7 +68455,7 @@
         <v>45138</v>
       </c>
       <c r="D1859" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1859" t="n">
         <v>0.606060606060606</v>
@@ -68513,7 +68516,7 @@
     </row>
     <row r="1861">
       <c r="A1861" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1861" s="1" t="n">
         <v>45291</v>
@@ -68522,7 +68525,7 @@
         <v>45128</v>
       </c>
       <c r="D1861" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1861" t="n">
         <v>0.575757575757576</v>
@@ -68548,7 +68551,7 @@
     </row>
     <row r="1862">
       <c r="A1862" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1862" s="1" t="n">
         <v>45291</v>
@@ -68557,7 +68560,7 @@
         <v>45135</v>
       </c>
       <c r="D1862" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1862" t="n">
         <v>0.666666666666667</v>
@@ -68723,7 +68726,7 @@
     </row>
     <row r="1867">
       <c r="A1867" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1867" s="1" t="n">
         <v>45291</v>
@@ -68732,7 +68735,7 @@
         <v>45138</v>
       </c>
       <c r="D1867" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1867" t="n">
         <v>0.636363636363636</v>
@@ -68793,7 +68796,7 @@
     </row>
     <row r="1869">
       <c r="A1869" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1869" s="1" t="n">
         <v>45291</v>
@@ -68802,7 +68805,7 @@
         <v>45137</v>
       </c>
       <c r="D1869" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1869" t="n">
         <v>0.696969696969697</v>
@@ -68828,7 +68831,7 @@
     </row>
     <row r="1870">
       <c r="A1870" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1870" s="1" t="n">
         <v>45291</v>
@@ -68837,7 +68840,7 @@
         <v>45138</v>
       </c>
       <c r="D1870" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1870" t="n">
         <v>0.636363636363636</v>
@@ -68968,7 +68971,7 @@
     </row>
     <row r="1874">
       <c r="A1874" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1874" s="1" t="n">
         <v>45291</v>
@@ -68977,7 +68980,7 @@
         <v>45103</v>
       </c>
       <c r="D1874" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1874" t="n">
         <v>0.666666666666667</v>
@@ -69038,7 +69041,7 @@
     </row>
     <row r="1876">
       <c r="A1876" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1876" s="1" t="n">
         <v>45291</v>
@@ -69047,7 +69050,7 @@
         <v>45138</v>
       </c>
       <c r="D1876" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1876" t="n">
         <v>0.666666666666667</v>
@@ -69108,7 +69111,7 @@
     </row>
     <row r="1878">
       <c r="A1878" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1878" s="1" t="n">
         <v>45291</v>
@@ -69117,7 +69120,7 @@
         <v>45138</v>
       </c>
       <c r="D1878" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1878" t="n">
         <v>0.636363636363636</v>
@@ -69143,7 +69146,7 @@
     </row>
     <row r="1879">
       <c r="A1879" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1879" s="1" t="n">
         <v>45291</v>
@@ -69152,7 +69155,7 @@
         <v>45138</v>
       </c>
       <c r="D1879" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1879" t="n">
         <v>0.727272727272727</v>
@@ -69353,7 +69356,7 @@
     </row>
     <row r="1885">
       <c r="A1885" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1885" s="1" t="n">
         <v>45291</v>
@@ -69362,7 +69365,7 @@
         <v>45138</v>
       </c>
       <c r="D1885" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1885" t="n">
         <v>0.636363636363636</v>
@@ -69388,7 +69391,7 @@
     </row>
     <row r="1886">
       <c r="A1886" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B1886" s="1" t="n">
         <v>45291</v>
@@ -69397,7 +69400,7 @@
         <v>45138</v>
       </c>
       <c r="D1886" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E1886" t="n">
         <v>0.636363636363636</v>
@@ -69493,7 +69496,7 @@
     </row>
     <row r="1889">
       <c r="A1889" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1889" s="1" t="n">
         <v>45291</v>
@@ -69502,7 +69505,7 @@
         <v>45135</v>
       </c>
       <c r="D1889" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1889" t="n">
         <v>0.666666666666667</v>
@@ -69528,7 +69531,7 @@
     </row>
     <row r="1890">
       <c r="A1890" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1890" s="1" t="n">
         <v>45291</v>
@@ -69537,7 +69540,7 @@
         <v>45134</v>
       </c>
       <c r="D1890" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1890" t="n">
         <v>0.666666666666667</v>
@@ -69703,7 +69706,7 @@
     </row>
     <row r="1895">
       <c r="A1895" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1895" s="1" t="n">
         <v>45291</v>
@@ -69712,7 +69715,7 @@
         <v>45138</v>
       </c>
       <c r="D1895" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1895" t="n">
         <v>0.636363636363636</v>
@@ -69773,7 +69776,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B1897" s="1" t="n">
         <v>45291</v>
@@ -69782,7 +69785,7 @@
         <v>45133</v>
       </c>
       <c r="D1897" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E1897" t="n">
         <v>0.454545454545455</v>
@@ -69808,7 +69811,7 @@
     </row>
     <row r="1898">
       <c r="A1898" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1898" s="1" t="n">
         <v>45291</v>
@@ -69817,7 +69820,7 @@
         <v>45136</v>
       </c>
       <c r="D1898" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1898" t="n">
         <v>0.636363636363636</v>
@@ -69843,7 +69846,7 @@
     </row>
     <row r="1899">
       <c r="A1899" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1899" s="1" t="n">
         <v>45291</v>
@@ -69852,7 +69855,7 @@
         <v>45135</v>
       </c>
       <c r="D1899" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1899" t="n">
         <v>0.575757575757576</v>
@@ -69878,7 +69881,7 @@
     </row>
     <row r="1900">
       <c r="A1900" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1900" s="1" t="n">
         <v>45291</v>
@@ -69887,7 +69890,7 @@
         <v>45138</v>
       </c>
       <c r="D1900" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1900" t="n">
         <v>0.575757575757576</v>
@@ -69913,7 +69916,7 @@
     </row>
     <row r="1901">
       <c r="A1901" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1901" s="1" t="n">
         <v>45291</v>
@@ -69922,7 +69925,7 @@
         <v>45138</v>
       </c>
       <c r="D1901" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1901" t="n">
         <v>0.636363636363636</v>
@@ -70333,7 +70336,7 @@
     </row>
     <row r="1913">
       <c r="A1913" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1913" s="1" t="n">
         <v>45291</v>
@@ -70342,7 +70345,7 @@
         <v>45138</v>
       </c>
       <c r="D1913" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1913" t="n">
         <v>0.727272727272727</v>
@@ -70368,7 +70371,7 @@
     </row>
     <row r="1914">
       <c r="A1914" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1914" s="1" t="n">
         <v>45291</v>
@@ -70377,7 +70380,7 @@
         <v>45133</v>
       </c>
       <c r="D1914" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1914" t="n">
         <v>0.666666666666667</v>
@@ -70403,7 +70406,7 @@
     </row>
     <row r="1915">
       <c r="A1915" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1915" s="1" t="n">
         <v>45291</v>
@@ -70412,7 +70415,7 @@
         <v>45138</v>
       </c>
       <c r="D1915" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1915" t="n">
         <v>0.636363636363636</v>
@@ -70788,7 +70791,7 @@
     </row>
     <row r="1926">
       <c r="A1926" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1926" s="1" t="n">
         <v>45291</v>
@@ -70797,7 +70800,7 @@
         <v>45138</v>
       </c>
       <c r="D1926" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1926" t="n">
         <v>0.606060606060606</v>
@@ -70858,7 +70861,7 @@
     </row>
     <row r="1928">
       <c r="A1928" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1928" s="1" t="n">
         <v>45291</v>
@@ -70867,7 +70870,7 @@
         <v>45145</v>
       </c>
       <c r="D1928" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1928" t="n">
         <v>0.545454545454545</v>
@@ -70928,7 +70931,7 @@
     </row>
     <row r="1930">
       <c r="A1930" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B1930" s="1" t="n">
         <v>45291</v>
@@ -70937,7 +70940,7 @@
         <v>45138</v>
       </c>
       <c r="D1930" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E1930" t="n">
         <v>0.636363636363636</v>
@@ -70998,7 +71001,7 @@
     </row>
     <row r="1932">
       <c r="A1932" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1932" s="1" t="n">
         <v>45291</v>
@@ -71007,7 +71010,7 @@
         <v>45135</v>
       </c>
       <c r="D1932" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1932" t="n">
         <v>0.606060606060606</v>
@@ -71033,7 +71036,7 @@
     </row>
     <row r="1933">
       <c r="A1933" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1933" s="1" t="n">
         <v>45291</v>
@@ -71042,7 +71045,7 @@
         <v>45138</v>
       </c>
       <c r="D1933" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E1933" t="n">
         <v>0.757575757575758</v>
@@ -71103,7 +71106,7 @@
     </row>
     <row r="1935">
       <c r="A1935" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B1935" s="1" t="n">
         <v>45291</v>
@@ -71112,7 +71115,7 @@
         <v>45138</v>
       </c>
       <c r="D1935" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E1935" t="n">
         <v>0.696969696969697</v>
@@ -71138,7 +71141,7 @@
     </row>
     <row r="1936">
       <c r="A1936" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B1936" s="1" t="n">
         <v>45291</v>
@@ -71147,7 +71150,7 @@
         <v>45134</v>
       </c>
       <c r="D1936" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E1936" t="n">
         <v>0.575757575757576</v>
@@ -71313,7 +71316,7 @@
     </row>
     <row r="1941">
       <c r="A1941" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B1941" s="1" t="n">
         <v>45291</v>
@@ -71322,7 +71325,7 @@
         <v>45135</v>
       </c>
       <c r="D1941" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E1941" t="n">
         <v>0.575757575757576</v>
@@ -71383,7 +71386,7 @@
     </row>
     <row r="1943">
       <c r="A1943" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B1943" s="1" t="n">
         <v>45291</v>
@@ -71392,7 +71395,7 @@
         <v>45138</v>
       </c>
       <c r="D1943" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E1943" t="n">
         <v>0.727272727272727</v>
@@ -71453,7 +71456,7 @@
     </row>
     <row r="1945">
       <c r="A1945" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B1945" s="1" t="n">
         <v>45291</v>
@@ -71462,7 +71465,7 @@
         <v>45135</v>
       </c>
       <c r="D1945" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E1945" t="n">
         <v>0.696969696969697</v>
@@ -71523,7 +71526,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B1947" s="1" t="n">
         <v>45291</v>
@@ -71532,7 +71535,7 @@
         <v>45135</v>
       </c>
       <c r="D1947" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E1947" t="n">
         <v>0.636363636363636</v>
@@ -71558,7 +71561,7 @@
     </row>
     <row r="1948">
       <c r="A1948" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B1948" s="1" t="n">
         <v>45291</v>
@@ -71567,7 +71570,7 @@
         <v>45135</v>
       </c>
       <c r="D1948" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E1948" t="n">
         <v>0.575757575757576</v>
@@ -71593,7 +71596,7 @@
     </row>
     <row r="1949">
       <c r="A1949" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B1949" s="1" t="n">
         <v>45291</v>
@@ -71602,7 +71605,7 @@
         <v>45135</v>
       </c>
       <c r="D1949" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E1949" t="n">
         <v>0.606060606060606</v>
@@ -71663,7 +71666,7 @@
     </row>
     <row r="1951">
       <c r="A1951" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B1951" s="1" t="n">
         <v>45291</v>
@@ -71672,7 +71675,7 @@
         <v>45138</v>
       </c>
       <c r="D1951" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E1951" t="n">
         <v>0.666666666666667</v>
@@ -71803,7 +71806,7 @@
     </row>
     <row r="1955">
       <c r="A1955" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B1955" s="1" t="n">
         <v>45291</v>
@@ -71812,7 +71815,7 @@
         <v>45138</v>
       </c>
       <c r="D1955" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E1955" t="n">
         <v>0.606060606060606</v>
@@ -71908,7 +71911,7 @@
     </row>
     <row r="1958">
       <c r="A1958" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B1958" s="1" t="n">
         <v>45291</v>
@@ -71917,7 +71920,7 @@
         <v>45138</v>
       </c>
       <c r="D1958" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E1958" t="n">
         <v>0.545454545454545</v>
@@ -72013,7 +72016,7 @@
     </row>
     <row r="1961">
       <c r="A1961" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B1961" s="1" t="n">
         <v>45291</v>
@@ -72022,7 +72025,7 @@
         <v>45138</v>
       </c>
       <c r="D1961" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E1961" t="n">
         <v>0.666666666666667</v>
@@ -72048,7 +72051,7 @@
     </row>
     <row r="1962">
       <c r="A1962" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B1962" s="1" t="n">
         <v>45291</v>
@@ -72057,7 +72060,7 @@
         <v>45133</v>
       </c>
       <c r="D1962" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E1962" t="n">
         <v>0.696969696969697</v>
@@ -72083,7 +72086,7 @@
     </row>
     <row r="1963">
       <c r="A1963" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B1963" s="1" t="n">
         <v>45291</v>
@@ -72092,7 +72095,7 @@
         <v>45138</v>
       </c>
       <c r="D1963" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E1963" t="n">
         <v>0.515151515151515</v>
@@ -72468,7 +72471,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B1974" s="1" t="n">
         <v>45291</v>
@@ -72477,7 +72480,7 @@
         <v>45106</v>
       </c>
       <c r="D1974" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E1974" t="n">
         <v>0.606060606060606</v>
@@ -72713,7 +72716,7 @@
     </row>
     <row r="1981">
       <c r="A1981" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B1981" s="1" t="n">
         <v>45016</v>
@@ -72722,7 +72725,7 @@
         <v>44865</v>
       </c>
       <c r="D1981" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E1981" t="n">
         <v>0.757575757575758</v>
@@ -73098,7 +73101,7 @@
     </row>
     <row r="1992">
       <c r="A1992" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1992" s="1" t="n">
         <v>45291</v>
@@ -73107,7 +73110,7 @@
         <v>45138</v>
       </c>
       <c r="D1992" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E1992" t="n">
         <v>0.606060606060606</v>
@@ -73133,7 +73136,7 @@
     </row>
     <row r="1993">
       <c r="A1993" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1993" s="1" t="n">
         <v>45291</v>
@@ -73142,7 +73145,7 @@
         <v>45135</v>
       </c>
       <c r="D1993" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E1993" t="n">
         <v>0.515151515151515</v>
@@ -73168,7 +73171,7 @@
     </row>
     <row r="1994">
       <c r="A1994" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1994" s="1" t="n">
         <v>45291</v>
@@ -73177,7 +73180,7 @@
         <v>45139</v>
       </c>
       <c r="D1994" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E1994" t="n">
         <v>0.636363636363636</v>
@@ -73203,7 +73206,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B1995" s="1" t="n">
         <v>45291</v>
@@ -73212,7 +73215,7 @@
         <v>45134</v>
       </c>
       <c r="D1995" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E1995" t="n">
         <v>0.636363636363636</v>
@@ -73238,7 +73241,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B1996" s="1" t="n">
         <v>45291</v>
@@ -73247,7 +73250,7 @@
         <v>45138</v>
       </c>
       <c r="D1996" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E1996" t="n">
         <v>0.696969696969697</v>
@@ -73273,7 +73276,7 @@
     </row>
     <row r="1997">
       <c r="A1997" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B1997" s="1" t="n">
         <v>45291</v>
@@ -73282,7 +73285,7 @@
         <v>45138</v>
       </c>
       <c r="D1997" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E1997" t="n">
         <v>0.424242424242424</v>
@@ -73308,7 +73311,7 @@
     </row>
     <row r="1998">
       <c r="A1998" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B1998" s="1" t="n">
         <v>45291</v>
@@ -73317,7 +73320,7 @@
         <v>45138</v>
       </c>
       <c r="D1998" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E1998" t="n">
         <v>0.606060606060606</v>
@@ -73378,7 +73381,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2000" s="1" t="n">
         <v>45291</v>
@@ -73387,7 +73390,7 @@
         <v>45132</v>
       </c>
       <c r="D2000" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2000" t="n">
         <v>0.515151515151515</v>
@@ -73518,7 +73521,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B2004" s="1" t="n">
         <v>45291</v>
@@ -73527,7 +73530,7 @@
         <v>45135</v>
       </c>
       <c r="D2004" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E2004" t="n">
         <v>0.606060606060606</v>
@@ -73553,7 +73556,7 @@
     </row>
     <row r="2005">
       <c r="A2005" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2005" s="1" t="n">
         <v>45291</v>
@@ -73562,7 +73565,7 @@
         <v>45138</v>
       </c>
       <c r="D2005" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E2005" t="n">
         <v>0.606060606060606</v>
@@ -73693,7 +73696,7 @@
     </row>
     <row r="2009">
       <c r="A2009" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2009" s="1" t="n">
         <v>45291</v>
@@ -73702,7 +73705,7 @@
         <v>45138</v>
       </c>
       <c r="D2009" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2009" t="n">
         <v>0.606060606060606</v>
@@ -73763,7 +73766,7 @@
     </row>
     <row r="2011">
       <c r="A2011" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B2011" s="1" t="n">
         <v>45291</v>
@@ -73772,7 +73775,7 @@
         <v>45132</v>
       </c>
       <c r="D2011" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E2011" t="n">
         <v>0.606060606060606</v>
@@ -73833,7 +73836,7 @@
     </row>
     <row r="2013">
       <c r="A2013" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2013" s="1" t="n">
         <v>45291</v>
@@ -73842,7 +73845,7 @@
         <v>45128</v>
       </c>
       <c r="D2013" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2013" t="n">
         <v>0.696969696969697</v>
@@ -74087,7 +74090,7 @@
         <v>45135</v>
       </c>
       <c r="D2020" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2020" t="n">
         <v>0.575757575757576</v>
@@ -74603,7 +74606,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2035" s="1" t="n">
         <v>45291</v>
@@ -74612,7 +74615,7 @@
         <v>45138</v>
       </c>
       <c r="D2035" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2035" t="n">
         <v>0.575757575757576</v>
@@ -74638,7 +74641,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2036" s="1" t="n">
         <v>45291</v>
@@ -74647,7 +74650,7 @@
         <v>45138</v>
       </c>
       <c r="D2036" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E2036" t="n">
         <v>0.606060606060606</v>
@@ -74708,7 +74711,7 @@
     </row>
     <row r="2038">
       <c r="A2038" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2038" s="1" t="n">
         <v>45291</v>
@@ -74717,7 +74720,7 @@
         <v>45138</v>
       </c>
       <c r="D2038" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E2038" t="n">
         <v>0.666666666666667</v>
@@ -75618,7 +75621,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B2064" s="1" t="n">
         <v>45291</v>
@@ -75627,7 +75630,7 @@
         <v>45132</v>
       </c>
       <c r="D2064" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E2064" t="n">
         <v>0.757575757575758</v>
@@ -75723,7 +75726,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2067" s="1" t="n">
         <v>45291</v>
@@ -75732,7 +75735,7 @@
         <v>45135</v>
       </c>
       <c r="D2067" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2067" t="n">
         <v>0.666666666666667</v>
@@ -76003,7 +76006,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2075" s="1" t="n">
         <v>45291</v>
@@ -76012,7 +76015,7 @@
         <v>45138</v>
       </c>
       <c r="D2075" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2075" t="n">
         <v>0.575757575757576</v>
@@ -76178,7 +76181,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2080" s="1" t="n">
         <v>45107</v>
@@ -76187,7 +76190,7 @@
         <v>44944</v>
       </c>
       <c r="D2080" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2080" t="n">
         <v>0.636363636363636</v>
@@ -76318,7 +76321,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2084" s="1" t="n">
         <v>45291</v>
@@ -76327,7 +76330,7 @@
         <v>45128</v>
       </c>
       <c r="D2084" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2084" t="n">
         <v>0.696969696969697</v>
@@ -76668,7 +76671,7 @@
     </row>
     <row r="2094">
       <c r="A2094" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2094" s="1" t="n">
         <v>45291</v>
@@ -76677,7 +76680,7 @@
         <v>45138</v>
       </c>
       <c r="D2094" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2094" t="n">
         <v>0.696969696969697</v>
@@ -78068,7 +78071,7 @@
     </row>
     <row r="2134">
       <c r="A2134" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2134" s="1" t="n">
         <v>45291</v>
@@ -78077,7 +78080,7 @@
         <v>45138</v>
       </c>
       <c r="D2134" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2134" t="n">
         <v>0.696969696969697</v>
@@ -78138,7 +78141,7 @@
     </row>
     <row r="2136">
       <c r="A2136" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2136" s="1" t="n">
         <v>45291</v>
@@ -78147,7 +78150,7 @@
         <v>45135</v>
       </c>
       <c r="D2136" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2136" t="n">
         <v>0.666666666666667</v>
@@ -78418,7 +78421,7 @@
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2144" s="1" t="n">
         <v>45657</v>
@@ -78427,7 +78430,7 @@
         <v>45503</v>
       </c>
       <c r="D2144" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E2144" t="n">
         <v>0.666666666666667</v>
@@ -78453,7 +78456,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B2145" s="1" t="n">
         <v>45657</v>
@@ -78462,7 +78465,7 @@
         <v>45504</v>
       </c>
       <c r="D2145" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E2145" t="n">
         <v>0.636363636363636</v>
@@ -79573,7 +79576,7 @@
     </row>
     <row r="2177">
       <c r="A2177" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B2177" s="1" t="n">
         <v>45382</v>
@@ -79582,7 +79585,7 @@
         <v>45230</v>
       </c>
       <c r="D2177" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E2177" t="n">
         <v>0.606060606060606</v>
@@ -80063,7 +80066,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2191" s="1" t="n">
         <v>45657</v>
@@ -80072,7 +80075,7 @@
         <v>45489</v>
       </c>
       <c r="D2191" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E2191" t="n">
         <v>0.636363636363636</v>
@@ -81507,7 +81510,7 @@
         <v>45504</v>
       </c>
       <c r="D2232" t="s">
-        <v>400</v>
+        <v>837</v>
       </c>
       <c r="E2232" t="n">
         <v>0.666666666666667</v>
@@ -81638,7 +81641,7 @@
     </row>
     <row r="2236">
       <c r="A2236" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B2236" s="1" t="n">
         <v>45657</v>
@@ -81647,7 +81650,7 @@
         <v>45492</v>
       </c>
       <c r="D2236" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E2236" t="n">
         <v>0.636363636363636</v>
@@ -81813,7 +81816,7 @@
     </row>
     <row r="2241">
       <c r="A2241" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B2241" s="1" t="n">
         <v>45657</v>
@@ -81822,7 +81825,7 @@
         <v>45504</v>
       </c>
       <c r="D2241" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E2241" t="n">
         <v>0.606060606060606</v>
@@ -81953,7 +81956,7 @@
     </row>
     <row r="2245">
       <c r="A2245" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B2245" s="1" t="n">
         <v>45657</v>
@@ -81962,7 +81965,7 @@
         <v>45504</v>
       </c>
       <c r="D2245" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E2245" t="n">
         <v>0.606060606060606</v>
@@ -81988,7 +81991,7 @@
     </row>
     <row r="2246">
       <c r="A2246" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B2246" s="1" t="n">
         <v>45657</v>
@@ -81997,7 +82000,7 @@
         <v>45503</v>
       </c>
       <c r="D2246" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E2246" t="n">
         <v>0.515151515151515</v>
@@ -82023,7 +82026,7 @@
     </row>
     <row r="2247">
       <c r="A2247" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B2247" s="1" t="n">
         <v>45657</v>
@@ -82032,7 +82035,7 @@
         <v>45497</v>
       </c>
       <c r="D2247" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E2247" t="n">
         <v>0.666666666666667</v>
@@ -82233,7 +82236,7 @@
     </row>
     <row r="2253">
       <c r="A2253" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B2253" s="1" t="n">
         <v>45657</v>
@@ -82242,7 +82245,7 @@
         <v>45504</v>
       </c>
       <c r="D2253" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E2253" t="n">
         <v>0.696969696969697</v>
@@ -82268,7 +82271,7 @@
     </row>
     <row r="2254">
       <c r="A2254" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B2254" s="1" t="n">
         <v>45657</v>
@@ -82277,7 +82280,7 @@
         <v>45504</v>
       </c>
       <c r="D2254" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E2254" t="n">
         <v>0.636363636363636</v>
@@ -82408,7 +82411,7 @@
     </row>
     <row r="2258">
       <c r="A2258" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B2258" s="1" t="n">
         <v>45657</v>
@@ -82417,7 +82420,7 @@
         <v>45496</v>
       </c>
       <c r="D2258" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E2258" t="n">
         <v>0.666666666666667</v>
@@ -82478,7 +82481,7 @@
     </row>
     <row r="2260">
       <c r="A2260" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B2260" s="1" t="n">
         <v>45657</v>
@@ -82487,7 +82490,7 @@
         <v>45504</v>
       </c>
       <c r="D2260" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E2260" t="n">
         <v>0.636363636363636</v>
@@ -82513,7 +82516,7 @@
     </row>
     <row r="2261">
       <c r="A2261" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B2261" s="1" t="n">
         <v>45657</v>
@@ -82522,7 +82525,7 @@
         <v>45502</v>
       </c>
       <c r="D2261" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E2261" t="n">
         <v>0.636363636363636</v>
@@ -82548,7 +82551,7 @@
     </row>
     <row r="2262">
       <c r="A2262" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B2262" s="1" t="n">
         <v>45657</v>
@@ -82557,7 +82560,7 @@
         <v>45504</v>
       </c>
       <c r="D2262" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E2262" t="n">
         <v>0.727272727272727</v>
@@ -82723,7 +82726,7 @@
     </row>
     <row r="2267">
       <c r="A2267" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B2267" s="1" t="n">
         <v>45656</v>
@@ -82732,7 +82735,7 @@
         <v>45503</v>
       </c>
       <c r="D2267" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E2267" t="n">
         <v>0.636363636363636</v>
@@ -82758,7 +82761,7 @@
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B2268" s="1" t="n">
         <v>45657</v>
@@ -82767,7 +82770,7 @@
         <v>45504</v>
       </c>
       <c r="D2268" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E2268" t="n">
         <v>0.636363636363636</v>
@@ -82863,7 +82866,7 @@
     </row>
     <row r="2271">
       <c r="A2271" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2271" s="1" t="n">
         <v>45657</v>
@@ -82872,7 +82875,7 @@
         <v>45504</v>
       </c>
       <c r="D2271" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E2271" t="n">
         <v>0.666666666666667</v>
@@ -82898,7 +82901,7 @@
     </row>
     <row r="2272">
       <c r="A2272" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B2272" s="1" t="n">
         <v>45657</v>
@@ -82907,7 +82910,7 @@
         <v>45490</v>
       </c>
       <c r="D2272" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E2272" t="n">
         <v>0.666666666666667</v>
@@ -83038,7 +83041,7 @@
     </row>
     <row r="2276">
       <c r="A2276" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B2276" s="1" t="n">
         <v>45657</v>
@@ -83047,7 +83050,7 @@
         <v>45509</v>
       </c>
       <c r="D2276" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E2276" t="n">
         <v>0.636363636363636</v>
@@ -83108,7 +83111,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B2278" s="1" t="n">
         <v>45657</v>
@@ -83117,7 +83120,7 @@
         <v>45503</v>
       </c>
       <c r="D2278" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E2278" t="n">
         <v>0.454545454545455</v>
@@ -83143,7 +83146,7 @@
     </row>
     <row r="2279">
       <c r="A2279" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B2279" s="1" t="n">
         <v>45657</v>
@@ -83152,7 +83155,7 @@
         <v>45499</v>
       </c>
       <c r="D2279" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E2279" t="n">
         <v>0.636363636363636</v>
@@ -83178,7 +83181,7 @@
     </row>
     <row r="2280">
       <c r="A2280" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B2280" s="1" t="n">
         <v>45657</v>
@@ -83187,7 +83190,7 @@
         <v>45504</v>
       </c>
       <c r="D2280" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E2280" t="n">
         <v>0.575757575757576</v>
@@ -83213,7 +83216,7 @@
     </row>
     <row r="2281">
       <c r="A2281" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B2281" s="1" t="n">
         <v>45657</v>
@@ -83222,7 +83225,7 @@
         <v>45504</v>
       </c>
       <c r="D2281" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E2281" t="n">
         <v>0.575757575757576</v>
@@ -83563,7 +83566,7 @@
     </row>
     <row r="2291">
       <c r="A2291" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B2291" s="1" t="n">
         <v>45657</v>
@@ -83572,7 +83575,7 @@
         <v>45504</v>
       </c>
       <c r="D2291" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E2291" t="n">
         <v>0.727272727272727</v>
@@ -83598,7 +83601,7 @@
     </row>
     <row r="2292">
       <c r="A2292" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B2292" s="1" t="n">
         <v>45657</v>
@@ -83607,7 +83610,7 @@
         <v>45503</v>
       </c>
       <c r="D2292" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E2292" t="n">
         <v>0.696969696969697</v>
@@ -83633,7 +83636,7 @@
     </row>
     <row r="2293">
       <c r="A2293" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B2293" s="1" t="n">
         <v>45657</v>
@@ -83642,7 +83645,7 @@
         <v>45503</v>
       </c>
       <c r="D2293" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E2293" t="n">
         <v>0.636363636363636</v>
@@ -83878,7 +83881,7 @@
     </row>
     <row r="2300">
       <c r="A2300" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B2300" s="1" t="n">
         <v>45657</v>
@@ -83887,7 +83890,7 @@
         <v>45495</v>
       </c>
       <c r="D2300" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E2300" t="n">
         <v>0.606060606060606</v>
@@ -83948,7 +83951,7 @@
     </row>
     <row r="2302">
       <c r="A2302" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2302" s="1" t="n">
         <v>45657</v>
@@ -83957,7 +83960,7 @@
         <v>45504</v>
       </c>
       <c r="D2302" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E2302" t="n">
         <v>0.636363636363636</v>
@@ -84018,7 +84021,7 @@
     </row>
     <row r="2304">
       <c r="A2304" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B2304" s="1" t="n">
         <v>45657</v>
@@ -84027,7 +84030,7 @@
         <v>45504</v>
       </c>
       <c r="D2304" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E2304" t="n">
         <v>0.606060606060606</v>
@@ -84053,7 +84056,7 @@
     </row>
     <row r="2305">
       <c r="A2305" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B2305" s="1" t="n">
         <v>45657</v>
@@ -84062,7 +84065,7 @@
         <v>45504</v>
       </c>
       <c r="D2305" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E2305" t="n">
         <v>0.757575757575758</v>
@@ -84088,7 +84091,7 @@
     </row>
     <row r="2306">
       <c r="A2306" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B2306" s="1" t="n">
         <v>45657</v>
@@ -84097,7 +84100,7 @@
         <v>45496</v>
       </c>
       <c r="D2306" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E2306" t="n">
         <v>0.636363636363636</v>
@@ -84123,7 +84126,7 @@
     </row>
     <row r="2307">
       <c r="A2307" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B2307" s="1" t="n">
         <v>45657</v>
@@ -84132,7 +84135,7 @@
         <v>45504</v>
       </c>
       <c r="D2307" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E2307" t="n">
         <v>0.696969696969697</v>
@@ -84158,7 +84161,7 @@
     </row>
     <row r="2308">
       <c r="A2308" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B2308" s="1" t="n">
         <v>45657</v>
@@ -84167,7 +84170,7 @@
         <v>45491</v>
       </c>
       <c r="D2308" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E2308" t="n">
         <v>0.575757575757576</v>
@@ -84333,7 +84336,7 @@
     </row>
     <row r="2313">
       <c r="A2313" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B2313" s="1" t="n">
         <v>45657</v>
@@ -84342,7 +84345,7 @@
         <v>45499</v>
       </c>
       <c r="D2313" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E2313" t="n">
         <v>0.575757575757576</v>
@@ -84403,7 +84406,7 @@
     </row>
     <row r="2315">
       <c r="A2315" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2315" s="1" t="n">
         <v>45657</v>
@@ -84412,7 +84415,7 @@
         <v>45371</v>
       </c>
       <c r="D2315" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E2315" t="n">
         <v>0.666666666666667</v>
@@ -84473,7 +84476,7 @@
     </row>
     <row r="2317">
       <c r="A2317" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B2317" s="1" t="n">
         <v>45657</v>
@@ -84482,7 +84485,7 @@
         <v>45587</v>
       </c>
       <c r="D2317" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E2317" t="n">
         <v>0.636363636363636</v>
@@ -84543,7 +84546,7 @@
     </row>
     <row r="2319">
       <c r="A2319" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B2319" s="1" t="n">
         <v>45657</v>
@@ -84552,7 +84555,7 @@
         <v>45504</v>
       </c>
       <c r="D2319" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E2319" t="n">
         <v>0.606060606060606</v>
@@ -84578,7 +84581,7 @@
     </row>
     <row r="2320">
       <c r="A2320" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B2320" s="1" t="n">
         <v>45657</v>
@@ -84587,7 +84590,7 @@
         <v>45504</v>
       </c>
       <c r="D2320" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E2320" t="n">
         <v>0.606060606060606</v>
@@ -84683,7 +84686,7 @@
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B2323" s="1" t="n">
         <v>45657</v>
@@ -84692,7 +84695,7 @@
         <v>45503</v>
       </c>
       <c r="D2323" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E2323" t="n">
         <v>0.606060606060606</v>
@@ -84823,7 +84826,7 @@
     </row>
     <row r="2327">
       <c r="A2327" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2327" s="1" t="n">
         <v>45657</v>
@@ -84832,7 +84835,7 @@
         <v>45504</v>
       </c>
       <c r="D2327" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E2327" t="n">
         <v>0.636363636363636</v>
@@ -85208,7 +85211,7 @@
     </row>
     <row r="2338">
       <c r="A2338" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2338" s="1" t="n">
         <v>45657</v>
@@ -85217,7 +85220,7 @@
         <v>45488</v>
       </c>
       <c r="D2338" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E2338" t="n">
         <v>0.606060606060606</v>
@@ -85348,7 +85351,7 @@
     </row>
     <row r="2342">
       <c r="A2342" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B2342" s="1" t="n">
         <v>45382</v>
@@ -85357,7 +85360,7 @@
         <v>45230</v>
       </c>
       <c r="D2342" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E2342" t="n">
         <v>0.727272727272727</v>
@@ -85698,7 +85701,7 @@
     </row>
     <row r="2352">
       <c r="A2352" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B2352" s="1" t="n">
         <v>45657</v>
@@ -85707,7 +85710,7 @@
         <v>45504</v>
       </c>
       <c r="D2352" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E2352" t="n">
         <v>0.636363636363636</v>
@@ -85733,7 +85736,7 @@
     </row>
     <row r="2353">
       <c r="A2353" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B2353" s="1" t="n">
         <v>45657</v>
@@ -85742,7 +85745,7 @@
         <v>45504</v>
       </c>
       <c r="D2353" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E2353" t="n">
         <v>0.515151515151515</v>
@@ -85768,7 +85771,7 @@
     </row>
     <row r="2354">
       <c r="A2354" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B2354" s="1" t="n">
         <v>45657</v>
@@ -85777,7 +85780,7 @@
         <v>45504</v>
       </c>
       <c r="D2354" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E2354" t="n">
         <v>0.636363636363636</v>
@@ -85803,7 +85806,7 @@
     </row>
     <row r="2355">
       <c r="A2355" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2355" s="1" t="n">
         <v>45657</v>
@@ -85812,7 +85815,7 @@
         <v>45503</v>
       </c>
       <c r="D2355" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E2355" t="n">
         <v>0.696969696969697</v>
@@ -85838,7 +85841,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B2356" s="1" t="n">
         <v>45657</v>
@@ -85847,7 +85850,7 @@
         <v>45504</v>
       </c>
       <c r="D2356" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E2356" t="n">
         <v>0.606060606060606</v>
@@ -85908,7 +85911,7 @@
     </row>
     <row r="2358">
       <c r="A2358" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B2358" s="1" t="n">
         <v>45657</v>
@@ -85917,7 +85920,7 @@
         <v>45502</v>
       </c>
       <c r="D2358" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E2358" t="n">
         <v>0.515151515151515</v>
@@ -86048,7 +86051,7 @@
     </row>
     <row r="2362">
       <c r="A2362" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B2362" s="1" t="n">
         <v>45657</v>
@@ -86057,7 +86060,7 @@
         <v>45504</v>
       </c>
       <c r="D2362" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E2362" t="n">
         <v>0.575757575757576</v>
@@ -86083,7 +86086,7 @@
     </row>
     <row r="2363">
       <c r="A2363" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2363" s="1" t="n">
         <v>45657</v>
@@ -86092,7 +86095,7 @@
         <v>45503</v>
       </c>
       <c r="D2363" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E2363" t="n">
         <v>0.636363636363636</v>
@@ -86223,7 +86226,7 @@
     </row>
     <row r="2367">
       <c r="A2367" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B2367" s="1" t="n">
         <v>45657</v>
@@ -86232,7 +86235,7 @@
         <v>45628</v>
       </c>
       <c r="D2367" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E2367" t="n">
         <v>0.606060606060606</v>
@@ -86293,7 +86296,7 @@
     </row>
     <row r="2369">
       <c r="A2369" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B2369" s="1" t="n">
         <v>45657</v>
@@ -86302,7 +86305,7 @@
         <v>45503</v>
       </c>
       <c r="D2369" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E2369" t="n">
         <v>0.606060606060606</v>
@@ -86363,7 +86366,7 @@
     </row>
     <row r="2371">
       <c r="A2371" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B2371" s="1" t="n">
         <v>45657</v>
@@ -86372,7 +86375,7 @@
         <v>45503</v>
       </c>
       <c r="D2371" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E2371" t="n">
         <v>0.696969696969697</v>
@@ -86582,7 +86585,7 @@
         <v>45499</v>
       </c>
       <c r="D2377" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2377" t="n">
         <v>0.575757575757576</v>
@@ -87028,7 +87031,7 @@
     </row>
     <row r="2390">
       <c r="A2390" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2390" s="1" t="n">
         <v>45657</v>
@@ -87037,7 +87040,7 @@
         <v>45503</v>
       </c>
       <c r="D2390" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2390" t="n">
         <v>0.606060606060606</v>
@@ -87098,7 +87101,7 @@
     </row>
     <row r="2392">
       <c r="A2392" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2392" s="1" t="n">
         <v>45657</v>
@@ -87107,7 +87110,7 @@
         <v>45503</v>
       </c>
       <c r="D2392" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E2392" t="n">
         <v>0.666666666666667</v>
@@ -87798,7 +87801,7 @@
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B2412" s="1" t="n">
         <v>45657</v>
@@ -87807,7 +87810,7 @@
         <v>45504</v>
       </c>
       <c r="D2412" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E2412" t="n">
         <v>0.606060606060606</v>
@@ -87973,7 +87976,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B2417" s="1" t="n">
         <v>45657</v>
@@ -87982,7 +87985,7 @@
         <v>45504</v>
       </c>
       <c r="D2417" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E2417" t="n">
         <v>0.575757575757576</v>
@@ -88148,7 +88151,7 @@
     </row>
     <row r="2422">
       <c r="A2422" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2422" s="1" t="n">
         <v>45473</v>
@@ -88157,7 +88160,7 @@
         <v>45322</v>
       </c>
       <c r="D2422" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E2422" t="n">
         <v>0.575757575757576</v>
@@ -88253,7 +88256,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B2425" s="1" t="n">
         <v>45657</v>
@@ -88262,7 +88265,7 @@
         <v>45503</v>
       </c>
       <c r="D2425" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E2425" t="n">
         <v>0.696969696969697</v>
@@ -88533,7 +88536,7 @@
     </row>
     <row r="2433">
       <c r="A2433" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B2433" s="1" t="n">
         <v>45657</v>
@@ -88542,7 +88545,7 @@
         <v>45504</v>
       </c>
       <c r="D2433" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E2433" t="n">
         <v>0.696969696969697</v>
@@ -89513,7 +89516,7 @@
     </row>
     <row r="2461">
       <c r="A2461" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B2461" s="1" t="n">
         <v>45657</v>
@@ -89522,7 +89525,7 @@
         <v>45504</v>
       </c>
       <c r="D2461" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2461" t="n">
         <v>0.696969696969697</v>
@@ -89583,7 +89586,7 @@
     </row>
     <row r="2463">
       <c r="A2463" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2463" s="1" t="n">
         <v>45657</v>
@@ -89592,7 +89595,7 @@
         <v>45504</v>
       </c>
       <c r="D2463" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E2463" t="n">
         <v>0.575757575757576</v>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1023">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -2696,6 +2696,9 @@
     <t xml:space="preserve">HUMBERG AGRIBRASIL COMÉRCIO E EXPORTAÇÃO DE GRÃOS S.A.</t>
   </si>
   <si>
+    <t xml:space="preserve">COMPANHIA INDUSTRIAL CATAGUASES</t>
+  </si>
+  <si>
     <t xml:space="preserve">19.796.586/0001-70</t>
   </si>
   <si>
@@ -2829,6 +2832,9 @@
   </si>
   <si>
     <t xml:space="preserve">RODOBENS SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHLE METAL LEVE S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">61.409.892/0001-73</t>
@@ -41120,7 +41126,7 @@
         <v>44400</v>
       </c>
       <c r="D1078" t="s">
-        <v>481</v>
+        <v>894</v>
       </c>
       <c r="E1078" t="n">
         <v>0.545454545454545</v>
@@ -41146,7 +41152,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B1079" s="1" t="n">
         <v>44561</v>
@@ -41155,7 +41161,7 @@
         <v>44410</v>
       </c>
       <c r="D1079" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E1079" t="n">
         <v>0.575757575757576</v>
@@ -41216,7 +41222,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B1081" s="1" t="n">
         <v>44561</v>
@@ -41225,7 +41231,7 @@
         <v>44407</v>
       </c>
       <c r="D1081" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E1081" t="n">
         <v>0.727272727272727</v>
@@ -41286,7 +41292,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B1083" s="1" t="n">
         <v>44561</v>
@@ -41295,7 +41301,7 @@
         <v>44407</v>
       </c>
       <c r="D1083" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E1083" t="n">
         <v>0.606060606060606</v>
@@ -41496,7 +41502,7 @@
     </row>
     <row r="1089">
       <c r="A1089" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1089" s="1" t="n">
         <v>44561</v>
@@ -41505,7 +41511,7 @@
         <v>44407</v>
       </c>
       <c r="D1089" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E1089" t="n">
         <v>0.575757575757576</v>
@@ -41636,7 +41642,7 @@
     </row>
     <row r="1093">
       <c r="A1093" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B1093" s="1" t="n">
         <v>44561</v>
@@ -41645,7 +41651,7 @@
         <v>44407</v>
       </c>
       <c r="D1093" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E1093" t="n">
         <v>0.575757575757576</v>
@@ -41671,7 +41677,7 @@
     </row>
     <row r="1094">
       <c r="A1094" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B1094" s="1" t="n">
         <v>44561</v>
@@ -41680,7 +41686,7 @@
         <v>44410</v>
       </c>
       <c r="D1094" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E1094" t="n">
         <v>0.575757575757576</v>
@@ -41706,7 +41712,7 @@
     </row>
     <row r="1095">
       <c r="A1095" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B1095" s="1" t="n">
         <v>44561</v>
@@ -41715,7 +41721,7 @@
         <v>44407</v>
       </c>
       <c r="D1095" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E1095" t="n">
         <v>0.636363636363636</v>
@@ -41776,7 +41782,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B1097" s="1" t="n">
         <v>44561</v>
@@ -41785,7 +41791,7 @@
         <v>44407</v>
       </c>
       <c r="D1097" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E1097" t="n">
         <v>0.636363636363636</v>
@@ -41811,7 +41817,7 @@
     </row>
     <row r="1098">
       <c r="A1098" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B1098" s="1" t="n">
         <v>44561</v>
@@ -41820,7 +41826,7 @@
         <v>44407</v>
       </c>
       <c r="D1098" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E1098" t="n">
         <v>0.606060606060606</v>
@@ -42056,7 +42062,7 @@
     </row>
     <row r="1105">
       <c r="A1105" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B1105" s="1" t="n">
         <v>44561</v>
@@ -42065,7 +42071,7 @@
         <v>44407</v>
       </c>
       <c r="D1105" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E1105" t="n">
         <v>0.545454545454545</v>
@@ -42161,7 +42167,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B1108" s="1" t="n">
         <v>44561</v>
@@ -42170,7 +42176,7 @@
         <v>44410</v>
       </c>
       <c r="D1108" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E1108" t="n">
         <v>0.727272727272727</v>
@@ -42196,7 +42202,7 @@
     </row>
     <row r="1109">
       <c r="A1109" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B1109" s="1" t="n">
         <v>44561</v>
@@ -42205,7 +42211,7 @@
         <v>44407</v>
       </c>
       <c r="D1109" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E1109" t="n">
         <v>0.636363636363636</v>
@@ -42231,7 +42237,7 @@
     </row>
     <row r="1110">
       <c r="A1110" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B1110" s="1" t="n">
         <v>44561</v>
@@ -42240,7 +42246,7 @@
         <v>44410</v>
       </c>
       <c r="D1110" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E1110" t="n">
         <v>0.606060606060606</v>
@@ -43176,7 +43182,7 @@
     </row>
     <row r="1137">
       <c r="A1137" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B1137" s="1" t="n">
         <v>44561</v>
@@ -43185,7 +43191,7 @@
         <v>44223</v>
       </c>
       <c r="D1137" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E1137" t="n">
         <v>0.515151515151515</v>
@@ -43281,7 +43287,7 @@
     </row>
     <row r="1140">
       <c r="A1140" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B1140" s="1" t="n">
         <v>44561</v>
@@ -43290,7 +43296,7 @@
         <v>44407</v>
       </c>
       <c r="D1140" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E1140" t="n">
         <v>0.575757575757576</v>
@@ -43316,7 +43322,7 @@
     </row>
     <row r="1141">
       <c r="A1141" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1141" s="1" t="n">
         <v>44561</v>
@@ -43325,7 +43331,7 @@
         <v>44407</v>
       </c>
       <c r="D1141" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E1141" t="n">
         <v>0.515151515151515</v>
@@ -43351,7 +43357,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B1142" s="1" t="n">
         <v>44561</v>
@@ -43360,7 +43366,7 @@
         <v>44407</v>
       </c>
       <c r="D1142" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E1142" t="n">
         <v>0.666666666666667</v>
@@ -43386,7 +43392,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B1143" s="1" t="n">
         <v>44561</v>
@@ -43395,7 +43401,7 @@
         <v>44410</v>
       </c>
       <c r="D1143" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E1143" t="n">
         <v>0.454545454545455</v>
@@ -43736,7 +43742,7 @@
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B1153" s="1" t="n">
         <v>44561</v>
@@ -43745,7 +43751,7 @@
         <v>44411</v>
       </c>
       <c r="D1153" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1153" t="n">
         <v>0.606060606060606</v>
@@ -44025,7 +44031,7 @@
         <v>44407</v>
       </c>
       <c r="D1161" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E1161" t="n">
         <v>0.575757575757576</v>
@@ -44576,7 +44582,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B1177" s="1" t="n">
         <v>44561</v>
@@ -44585,7 +44591,7 @@
         <v>44410</v>
       </c>
       <c r="D1177" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E1177" t="n">
         <v>0.575757575757576</v>
@@ -44611,7 +44617,7 @@
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B1178" s="1" t="n">
         <v>44561</v>
@@ -44620,7 +44626,7 @@
         <v>44410</v>
       </c>
       <c r="D1178" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E1178" t="n">
         <v>0.575757575757576</v>
@@ -44681,7 +44687,7 @@
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B1180" s="1" t="n">
         <v>44561</v>
@@ -44690,7 +44696,7 @@
         <v>44410</v>
       </c>
       <c r="D1180" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E1180" t="n">
         <v>0.666666666666667</v>
@@ -44760,7 +44766,7 @@
         <v>44406</v>
       </c>
       <c r="D1182" t="s">
-        <v>600</v>
+        <v>940</v>
       </c>
       <c r="E1182" t="n">
         <v>0.575757575757576</v>
@@ -45731,7 +45737,7 @@
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B1210" s="1" t="n">
         <v>44561</v>
@@ -45740,7 +45746,7 @@
         <v>44407</v>
       </c>
       <c r="D1210" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E1210" t="n">
         <v>0.606060606060606</v>
@@ -46011,7 +46017,7 @@
     </row>
     <row r="1218">
       <c r="A1218" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B1218" s="1" t="n">
         <v>44561</v>
@@ -46020,7 +46026,7 @@
         <v>44410</v>
       </c>
       <c r="D1218" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E1218" t="n">
         <v>0.636363636363636</v>
@@ -46046,7 +46052,7 @@
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B1219" s="1" t="n">
         <v>44561</v>
@@ -46055,7 +46061,7 @@
         <v>44404</v>
       </c>
       <c r="D1219" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E1219" t="n">
         <v>0.636363636363636</v>
@@ -46326,7 +46332,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B1227" s="1" t="n">
         <v>44561</v>
@@ -46335,7 +46341,7 @@
         <v>44410</v>
       </c>
       <c r="D1227" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E1227" t="n">
         <v>0.696969696969697</v>
@@ -46746,7 +46752,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B1239" s="1" t="n">
         <v>44561</v>
@@ -46755,7 +46761,7 @@
         <v>44407</v>
       </c>
       <c r="D1239" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E1239" t="n">
         <v>0.727272727272727</v>
@@ -48216,7 +48222,7 @@
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B1281" s="1" t="n">
         <v>44561</v>
@@ -48225,7 +48231,7 @@
         <v>44406</v>
       </c>
       <c r="D1281" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E1281" t="n">
         <v>0.696969696969697</v>
@@ -48286,7 +48292,7 @@
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B1283" s="1" t="n">
         <v>44561</v>
@@ -48295,7 +48301,7 @@
         <v>44406</v>
       </c>
       <c r="D1283" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E1283" t="n">
         <v>0.636363636363636</v>
@@ -48566,7 +48572,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B1291" s="1" t="n">
         <v>44926</v>
@@ -48575,7 +48581,7 @@
         <v>44761</v>
       </c>
       <c r="D1291" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E1291" t="n">
         <v>0.666666666666667</v>
@@ -48601,7 +48607,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B1292" s="1" t="n">
         <v>44926</v>
@@ -48610,7 +48616,7 @@
         <v>44774</v>
       </c>
       <c r="D1292" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E1292" t="n">
         <v>0.636363636363636</v>
@@ -50071,7 +50077,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B1334" s="1" t="n">
         <v>44651</v>
@@ -50080,7 +50086,7 @@
         <v>44501</v>
       </c>
       <c r="D1334" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E1334" t="n">
         <v>0.606060606060606</v>
@@ -50771,7 +50777,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B1354" s="1" t="n">
         <v>44926</v>
@@ -50780,7 +50786,7 @@
         <v>44755</v>
       </c>
       <c r="D1354" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E1354" t="n">
         <v>0.636363636363636</v>
@@ -50841,7 +50847,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B1356" s="1" t="n">
         <v>44926</v>
@@ -50850,7 +50856,7 @@
         <v>44771</v>
       </c>
       <c r="D1356" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E1356" t="n">
         <v>0.666666666666667</v>
@@ -52171,7 +52177,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1394" s="1" t="n">
         <v>44926</v>
@@ -52180,7 +52186,7 @@
         <v>44760</v>
       </c>
       <c r="D1394" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E1394" t="n">
         <v>0.484848484848485</v>
@@ -53081,7 +53087,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B1420" s="1" t="n">
         <v>44926</v>
@@ -53090,7 +53096,7 @@
         <v>44770</v>
       </c>
       <c r="D1420" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E1420" t="n">
         <v>0.696969696969697</v>
@@ -54026,7 +54032,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B1447" s="1" t="n">
         <v>44926</v>
@@ -54035,7 +54041,7 @@
         <v>44771</v>
       </c>
       <c r="D1447" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E1447" t="n">
         <v>0.636363636363636</v>
@@ -54551,7 +54557,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B1462" s="1" t="n">
         <v>44926</v>
@@ -54560,7 +54566,7 @@
         <v>44773</v>
       </c>
       <c r="D1462" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E1462" t="n">
         <v>0.636363636363636</v>
@@ -54936,7 +54942,7 @@
     </row>
     <row r="1473">
       <c r="A1473" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B1473" s="1" t="n">
         <v>44926</v>
@@ -54945,7 +54951,7 @@
         <v>44762</v>
       </c>
       <c r="D1473" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E1473" t="n">
         <v>0.454545454545455</v>
@@ -56205,7 +56211,7 @@
         <v>44774</v>
       </c>
       <c r="D1509" t="s">
-        <v>481</v>
+        <v>894</v>
       </c>
       <c r="E1509" t="n">
         <v>0.545454545454545</v>
@@ -56231,7 +56237,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B1510" s="1" t="n">
         <v>44926</v>
@@ -56240,7 +56246,7 @@
         <v>44771</v>
       </c>
       <c r="D1510" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E1510" t="n">
         <v>0.636363636363636</v>
@@ -56266,7 +56272,7 @@
     </row>
     <row r="1511">
       <c r="A1511" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B1511" s="1" t="n">
         <v>44926</v>
@@ -56275,7 +56281,7 @@
         <v>44771</v>
       </c>
       <c r="D1511" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E1511" t="n">
         <v>0.757575757575758</v>
@@ -56336,7 +56342,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B1513" s="1" t="n">
         <v>44926</v>
@@ -56345,7 +56351,7 @@
         <v>44771</v>
       </c>
       <c r="D1513" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E1513" t="n">
         <v>0.636363636363636</v>
@@ -56511,7 +56517,7 @@
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1518" s="1" t="n">
         <v>44926</v>
@@ -56520,7 +56526,7 @@
         <v>44771</v>
       </c>
       <c r="D1518" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E1518" t="n">
         <v>0.575757575757576</v>
@@ -56581,7 +56587,7 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B1520" s="1" t="n">
         <v>44926</v>
@@ -56590,7 +56596,7 @@
         <v>44771</v>
       </c>
       <c r="D1520" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E1520" t="n">
         <v>0.727272727272727</v>
@@ -56686,7 +56692,7 @@
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B1523" s="1" t="n">
         <v>44926</v>
@@ -56695,7 +56701,7 @@
         <v>44742</v>
       </c>
       <c r="D1523" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E1523" t="n">
         <v>0.606060606060606</v>
@@ -56721,7 +56727,7 @@
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B1524" s="1" t="n">
         <v>44926</v>
@@ -56730,7 +56736,7 @@
         <v>44804</v>
       </c>
       <c r="D1524" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E1524" t="n">
         <v>0.515151515151515</v>
@@ -56756,7 +56762,7 @@
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B1525" s="1" t="n">
         <v>44926</v>
@@ -56765,7 +56771,7 @@
         <v>44771</v>
       </c>
       <c r="D1525" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E1525" t="n">
         <v>0.636363636363636</v>
@@ -56791,7 +56797,7 @@
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B1526" s="1" t="n">
         <v>44926</v>
@@ -56800,7 +56806,7 @@
         <v>44771</v>
       </c>
       <c r="D1526" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E1526" t="n">
         <v>0.575757575757576</v>
@@ -56826,7 +56832,7 @@
     </row>
     <row r="1527">
       <c r="A1527" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B1527" s="1" t="n">
         <v>44926</v>
@@ -56835,7 +56841,7 @@
         <v>44771</v>
       </c>
       <c r="D1527" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E1527" t="n">
         <v>0.606060606060606</v>
@@ -56896,7 +56902,7 @@
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B1529" s="1" t="n">
         <v>44926</v>
@@ -56905,7 +56911,7 @@
         <v>44742</v>
       </c>
       <c r="D1529" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E1529" t="n">
         <v>0.636363636363636</v>
@@ -57036,7 +57042,7 @@
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B1533" s="1" t="n">
         <v>44926</v>
@@ -57045,7 +57051,7 @@
         <v>44771</v>
       </c>
       <c r="D1533" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E1533" t="n">
         <v>0.515151515151515</v>
@@ -57176,7 +57182,7 @@
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B1537" s="1" t="n">
         <v>44926</v>
@@ -57185,7 +57191,7 @@
         <v>44774</v>
       </c>
       <c r="D1537" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E1537" t="n">
         <v>0.575757575757576</v>
@@ -57281,7 +57287,7 @@
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B1540" s="1" t="n">
         <v>44926</v>
@@ -57290,7 +57296,7 @@
         <v>44771</v>
       </c>
       <c r="D1540" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E1540" t="n">
         <v>0.666666666666667</v>
@@ -57316,7 +57322,7 @@
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B1541" s="1" t="n">
         <v>44926</v>
@@ -57325,7 +57331,7 @@
         <v>44771</v>
       </c>
       <c r="D1541" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E1541" t="n">
         <v>0.696969696969697</v>
@@ -57351,7 +57357,7 @@
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B1542" s="1" t="n">
         <v>44926</v>
@@ -57360,7 +57366,7 @@
         <v>44776</v>
       </c>
       <c r="D1542" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E1542" t="n">
         <v>0.606060606060606</v>
@@ -57386,7 +57392,7 @@
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B1543" s="1" t="n">
         <v>44926</v>
@@ -57395,7 +57401,7 @@
         <v>44774</v>
       </c>
       <c r="D1543" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E1543" t="n">
         <v>0.515151515151515</v>
@@ -57806,7 +57812,7 @@
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B1555" s="1" t="n">
         <v>44926</v>
@@ -57815,7 +57821,7 @@
         <v>44742</v>
       </c>
       <c r="D1555" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E1555" t="n">
         <v>0.606060606060606</v>
@@ -58051,7 +58057,7 @@
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B1562" s="1" t="n">
         <v>44651</v>
@@ -58060,7 +58066,7 @@
         <v>44497</v>
       </c>
       <c r="D1562" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E1562" t="n">
         <v>0.757575757575758</v>
@@ -58436,7 +58442,7 @@
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B1573" s="1" t="n">
         <v>44926</v>
@@ -58445,7 +58451,7 @@
         <v>44771</v>
       </c>
       <c r="D1573" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E1573" t="n">
         <v>0.606060606060606</v>
@@ -58471,7 +58477,7 @@
     </row>
     <row r="1574">
       <c r="A1574" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1574" s="1" t="n">
         <v>44926</v>
@@ -58480,7 +58486,7 @@
         <v>44771</v>
       </c>
       <c r="D1574" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E1574" t="n">
         <v>0.515151515151515</v>
@@ -58506,7 +58512,7 @@
     </row>
     <row r="1575">
       <c r="A1575" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B1575" s="1" t="n">
         <v>44926</v>
@@ -58515,7 +58521,7 @@
         <v>44773</v>
       </c>
       <c r="D1575" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E1575" t="n">
         <v>0.636363636363636</v>
@@ -58541,7 +58547,7 @@
     </row>
     <row r="1576">
       <c r="A1576" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B1576" s="1" t="n">
         <v>44926</v>
@@ -58550,7 +58556,7 @@
         <v>44767</v>
       </c>
       <c r="D1576" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E1576" t="n">
         <v>0.424242424242424</v>
@@ -58576,7 +58582,7 @@
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B1577" s="1" t="n">
         <v>44926</v>
@@ -58585,7 +58591,7 @@
         <v>44774</v>
       </c>
       <c r="D1577" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E1577" t="n">
         <v>0.424242424242424</v>
@@ -58646,7 +58652,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B1579" s="1" t="n">
         <v>44926</v>
@@ -58655,7 +58661,7 @@
         <v>44764</v>
       </c>
       <c r="D1579" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E1579" t="n">
         <v>0.515151515151515</v>
@@ -58786,7 +58792,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B1583" s="1" t="n">
         <v>44926</v>
@@ -58795,7 +58801,7 @@
         <v>44769</v>
       </c>
       <c r="D1583" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E1583" t="n">
         <v>0.636363636363636</v>
@@ -58961,7 +58967,7 @@
     </row>
     <row r="1588">
       <c r="A1588" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B1588" s="1" t="n">
         <v>44926</v>
@@ -58970,7 +58976,7 @@
         <v>44771</v>
       </c>
       <c r="D1588" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E1588" t="n">
         <v>0.606060606060606</v>
@@ -59031,7 +59037,7 @@
     </row>
     <row r="1590">
       <c r="A1590" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B1590" s="1" t="n">
         <v>44926</v>
@@ -59040,7 +59046,7 @@
         <v>44771</v>
       </c>
       <c r="D1590" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1590" t="n">
         <v>0.636363636363636</v>
@@ -59320,7 +59326,7 @@
         <v>44768</v>
       </c>
       <c r="D1598" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E1598" t="n">
         <v>0.575757575757576</v>
@@ -59836,7 +59842,7 @@
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B1613" s="1" t="n">
         <v>44926</v>
@@ -59845,7 +59851,7 @@
         <v>44774</v>
       </c>
       <c r="D1613" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E1613" t="n">
         <v>0.575757575757576</v>
@@ -59871,7 +59877,7 @@
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B1614" s="1" t="n">
         <v>44926</v>
@@ -59880,7 +59886,7 @@
         <v>44771</v>
       </c>
       <c r="D1614" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E1614" t="n">
         <v>0.575757575757576</v>
@@ -59941,7 +59947,7 @@
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B1616" s="1" t="n">
         <v>44926</v>
@@ -59950,7 +59956,7 @@
         <v>44774</v>
       </c>
       <c r="D1616" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E1616" t="n">
         <v>0.666666666666667</v>
@@ -60020,7 +60026,7 @@
         <v>44770</v>
       </c>
       <c r="D1618" t="s">
-        <v>600</v>
+        <v>940</v>
       </c>
       <c r="E1618" t="n">
         <v>0.636363636363636</v>
@@ -60886,7 +60892,7 @@
     </row>
     <row r="1643">
       <c r="A1643" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B1643" s="1" t="n">
         <v>44926</v>
@@ -60895,7 +60901,7 @@
         <v>44770</v>
       </c>
       <c r="D1643" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E1643" t="n">
         <v>0.727272727272727</v>
@@ -60991,7 +60997,7 @@
     </row>
     <row r="1646">
       <c r="A1646" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B1646" s="1" t="n">
         <v>44926</v>
@@ -61000,7 +61006,7 @@
         <v>44767</v>
       </c>
       <c r="D1646" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E1646" t="n">
         <v>0.606060606060606</v>
@@ -61271,7 +61277,7 @@
     </row>
     <row r="1654">
       <c r="A1654" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B1654" s="1" t="n">
         <v>44926</v>
@@ -61280,7 +61286,7 @@
         <v>44774</v>
       </c>
       <c r="D1654" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E1654" t="n">
         <v>0.636363636363636</v>
@@ -61306,7 +61312,7 @@
     </row>
     <row r="1655">
       <c r="A1655" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B1655" s="1" t="n">
         <v>44926</v>
@@ -61315,7 +61321,7 @@
         <v>44771</v>
       </c>
       <c r="D1655" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E1655" t="n">
         <v>0.545454545454545</v>
@@ -61481,7 +61487,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B1660" s="1" t="n">
         <v>44742</v>
@@ -61490,7 +61496,7 @@
         <v>44592</v>
       </c>
       <c r="D1660" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E1660" t="n">
         <v>0.606060606060606</v>
@@ -61621,7 +61627,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B1664" s="1" t="n">
         <v>44926</v>
@@ -61630,7 +61636,7 @@
         <v>44774</v>
       </c>
       <c r="D1664" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E1664" t="n">
         <v>0.696969696969697</v>
@@ -62006,7 +62012,7 @@
     </row>
     <row r="1675">
       <c r="A1675" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B1675" s="1" t="n">
         <v>44562</v>
@@ -62015,7 +62021,7 @@
         <v>44771</v>
       </c>
       <c r="D1675" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E1675" t="n">
         <v>0.727272727272727</v>
@@ -62041,7 +62047,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B1676" s="1" t="n">
         <v>44926</v>
@@ -62050,7 +62056,7 @@
         <v>44771</v>
       </c>
       <c r="D1676" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E1676" t="n">
         <v>0.727272727272727</v>
@@ -63476,7 +63482,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B1717" s="1" t="n">
         <v>44926</v>
@@ -63485,7 +63491,7 @@
         <v>44771</v>
       </c>
       <c r="D1717" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E1717" t="n">
         <v>0.696969696969697</v>
@@ -63546,7 +63552,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B1719" s="1" t="n">
         <v>44926</v>
@@ -63555,7 +63561,7 @@
         <v>44771</v>
       </c>
       <c r="D1719" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E1719" t="n">
         <v>0.636363636363636</v>
@@ -63826,7 +63832,7 @@
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B1727" s="1" t="n">
         <v>45291</v>
@@ -63835,7 +63841,7 @@
         <v>45112</v>
       </c>
       <c r="D1727" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E1727" t="n">
         <v>0.666666666666667</v>
@@ -63861,7 +63867,7 @@
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B1728" s="1" t="n">
         <v>45291</v>
@@ -63870,7 +63876,7 @@
         <v>45138</v>
       </c>
       <c r="D1728" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E1728" t="n">
         <v>0.636363636363636</v>
@@ -65191,7 +65197,7 @@
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B1766" s="1" t="n">
         <v>45016</v>
@@ -65200,7 +65206,7 @@
         <v>44861</v>
       </c>
       <c r="D1766" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E1766" t="n">
         <v>0.606060606060606</v>
@@ -65821,7 +65827,7 @@
     </row>
     <row r="1784">
       <c r="A1784" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B1784" s="1" t="n">
         <v>45291</v>
@@ -65830,7 +65836,7 @@
         <v>45137</v>
       </c>
       <c r="D1784" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E1784" t="n">
         <v>0.636363636363636</v>
@@ -65891,7 +65897,7 @@
     </row>
     <row r="1786">
       <c r="A1786" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B1786" s="1" t="n">
         <v>45291</v>
@@ -65900,7 +65906,7 @@
         <v>45138</v>
       </c>
       <c r="D1786" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E1786" t="n">
         <v>0.666666666666667</v>
@@ -67151,7 +67157,7 @@
     </row>
     <row r="1822">
       <c r="A1822" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1822" s="1" t="n">
         <v>45291</v>
@@ -67160,7 +67166,7 @@
         <v>45138</v>
       </c>
       <c r="D1822" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E1822" t="n">
         <v>0.484848484848485</v>
@@ -68061,7 +68067,7 @@
     </row>
     <row r="1848">
       <c r="A1848" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B1848" s="1" t="n">
         <v>45291</v>
@@ -68070,7 +68076,7 @@
         <v>45174</v>
       </c>
       <c r="D1848" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E1848" t="n">
         <v>0.636363636363636</v>
@@ -69391,7 +69397,7 @@
     </row>
     <row r="1886">
       <c r="A1886" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B1886" s="1" t="n">
         <v>45291</v>
@@ -69400,7 +69406,7 @@
         <v>45138</v>
       </c>
       <c r="D1886" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E1886" t="n">
         <v>0.636363636363636</v>
@@ -69776,7 +69782,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B1897" s="1" t="n">
         <v>45291</v>
@@ -69785,7 +69791,7 @@
         <v>45133</v>
       </c>
       <c r="D1897" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E1897" t="n">
         <v>0.454545454545455</v>
@@ -70931,7 +70937,7 @@
     </row>
     <row r="1930">
       <c r="A1930" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B1930" s="1" t="n">
         <v>45291</v>
@@ -70940,7 +70946,7 @@
         <v>45138</v>
       </c>
       <c r="D1930" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E1930" t="n">
         <v>0.636363636363636</v>
@@ -70975,7 +70981,7 @@
         <v>45141</v>
       </c>
       <c r="D1931" t="s">
-        <v>481</v>
+        <v>894</v>
       </c>
       <c r="E1931" t="n">
         <v>0.545454545454545</v>
@@ -71001,7 +71007,7 @@
     </row>
     <row r="1932">
       <c r="A1932" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B1932" s="1" t="n">
         <v>45291</v>
@@ -71010,7 +71016,7 @@
         <v>45135</v>
       </c>
       <c r="D1932" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E1932" t="n">
         <v>0.606060606060606</v>
@@ -71036,7 +71042,7 @@
     </row>
     <row r="1933">
       <c r="A1933" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B1933" s="1" t="n">
         <v>45291</v>
@@ -71045,7 +71051,7 @@
         <v>45138</v>
       </c>
       <c r="D1933" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E1933" t="n">
         <v>0.757575757575758</v>
@@ -71106,7 +71112,7 @@
     </row>
     <row r="1935">
       <c r="A1935" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B1935" s="1" t="n">
         <v>45291</v>
@@ -71115,7 +71121,7 @@
         <v>45138</v>
       </c>
       <c r="D1935" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E1935" t="n">
         <v>0.696969696969697</v>
@@ -71141,7 +71147,7 @@
     </row>
     <row r="1936">
       <c r="A1936" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B1936" s="1" t="n">
         <v>45291</v>
@@ -71150,7 +71156,7 @@
         <v>45134</v>
       </c>
       <c r="D1936" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E1936" t="n">
         <v>0.575757575757576</v>
@@ -71316,7 +71322,7 @@
     </row>
     <row r="1941">
       <c r="A1941" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1941" s="1" t="n">
         <v>45291</v>
@@ -71325,7 +71331,7 @@
         <v>45135</v>
       </c>
       <c r="D1941" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E1941" t="n">
         <v>0.575757575757576</v>
@@ -71386,7 +71392,7 @@
     </row>
     <row r="1943">
       <c r="A1943" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B1943" s="1" t="n">
         <v>45291</v>
@@ -71395,7 +71401,7 @@
         <v>45138</v>
       </c>
       <c r="D1943" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E1943" t="n">
         <v>0.727272727272727</v>
@@ -71456,7 +71462,7 @@
     </row>
     <row r="1945">
       <c r="A1945" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B1945" s="1" t="n">
         <v>45291</v>
@@ -71465,7 +71471,7 @@
         <v>45135</v>
       </c>
       <c r="D1945" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E1945" t="n">
         <v>0.696969696969697</v>
@@ -71526,7 +71532,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B1947" s="1" t="n">
         <v>45291</v>
@@ -71535,7 +71541,7 @@
         <v>45135</v>
       </c>
       <c r="D1947" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E1947" t="n">
         <v>0.636363636363636</v>
@@ -71561,7 +71567,7 @@
     </row>
     <row r="1948">
       <c r="A1948" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B1948" s="1" t="n">
         <v>45291</v>
@@ -71570,7 +71576,7 @@
         <v>45135</v>
       </c>
       <c r="D1948" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E1948" t="n">
         <v>0.575757575757576</v>
@@ -71596,7 +71602,7 @@
     </row>
     <row r="1949">
       <c r="A1949" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B1949" s="1" t="n">
         <v>45291</v>
@@ -71605,7 +71611,7 @@
         <v>45135</v>
       </c>
       <c r="D1949" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E1949" t="n">
         <v>0.606060606060606</v>
@@ -71666,7 +71672,7 @@
     </row>
     <row r="1951">
       <c r="A1951" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B1951" s="1" t="n">
         <v>45291</v>
@@ -71675,7 +71681,7 @@
         <v>45138</v>
       </c>
       <c r="D1951" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E1951" t="n">
         <v>0.666666666666667</v>
@@ -71806,7 +71812,7 @@
     </row>
     <row r="1955">
       <c r="A1955" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B1955" s="1" t="n">
         <v>45291</v>
@@ -71815,7 +71821,7 @@
         <v>45138</v>
       </c>
       <c r="D1955" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E1955" t="n">
         <v>0.606060606060606</v>
@@ -71911,7 +71917,7 @@
     </row>
     <row r="1958">
       <c r="A1958" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B1958" s="1" t="n">
         <v>45291</v>
@@ -71920,7 +71926,7 @@
         <v>45138</v>
       </c>
       <c r="D1958" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E1958" t="n">
         <v>0.545454545454545</v>
@@ -72016,7 +72022,7 @@
     </row>
     <row r="1961">
       <c r="A1961" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B1961" s="1" t="n">
         <v>45291</v>
@@ -72025,7 +72031,7 @@
         <v>45138</v>
       </c>
       <c r="D1961" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E1961" t="n">
         <v>0.666666666666667</v>
@@ -72051,7 +72057,7 @@
     </row>
     <row r="1962">
       <c r="A1962" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B1962" s="1" t="n">
         <v>45291</v>
@@ -72060,7 +72066,7 @@
         <v>45133</v>
       </c>
       <c r="D1962" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E1962" t="n">
         <v>0.696969696969697</v>
@@ -72086,7 +72092,7 @@
     </row>
     <row r="1963">
       <c r="A1963" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B1963" s="1" t="n">
         <v>45291</v>
@@ -72095,7 +72101,7 @@
         <v>45138</v>
       </c>
       <c r="D1963" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E1963" t="n">
         <v>0.515151515151515</v>
@@ -72471,7 +72477,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B1974" s="1" t="n">
         <v>45291</v>
@@ -72480,7 +72486,7 @@
         <v>45106</v>
       </c>
       <c r="D1974" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E1974" t="n">
         <v>0.606060606060606</v>
@@ -72716,7 +72722,7 @@
     </row>
     <row r="1981">
       <c r="A1981" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B1981" s="1" t="n">
         <v>45016</v>
@@ -72725,7 +72731,7 @@
         <v>44865</v>
       </c>
       <c r="D1981" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E1981" t="n">
         <v>0.757575757575758</v>
@@ -73101,7 +73107,7 @@
     </row>
     <row r="1992">
       <c r="A1992" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B1992" s="1" t="n">
         <v>45291</v>
@@ -73110,7 +73116,7 @@
         <v>45138</v>
       </c>
       <c r="D1992" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E1992" t="n">
         <v>0.606060606060606</v>
@@ -73136,7 +73142,7 @@
     </row>
     <row r="1993">
       <c r="A1993" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1993" s="1" t="n">
         <v>45291</v>
@@ -73145,7 +73151,7 @@
         <v>45135</v>
       </c>
       <c r="D1993" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E1993" t="n">
         <v>0.515151515151515</v>
@@ -73171,7 +73177,7 @@
     </row>
     <row r="1994">
       <c r="A1994" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B1994" s="1" t="n">
         <v>45291</v>
@@ -73180,7 +73186,7 @@
         <v>45139</v>
       </c>
       <c r="D1994" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E1994" t="n">
         <v>0.636363636363636</v>
@@ -73206,7 +73212,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B1995" s="1" t="n">
         <v>45291</v>
@@ -73215,7 +73221,7 @@
         <v>45134</v>
       </c>
       <c r="D1995" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E1995" t="n">
         <v>0.636363636363636</v>
@@ -73241,7 +73247,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B1996" s="1" t="n">
         <v>45291</v>
@@ -73250,7 +73256,7 @@
         <v>45138</v>
       </c>
       <c r="D1996" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E1996" t="n">
         <v>0.696969696969697</v>
@@ -73276,7 +73282,7 @@
     </row>
     <row r="1997">
       <c r="A1997" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B1997" s="1" t="n">
         <v>45291</v>
@@ -73285,7 +73291,7 @@
         <v>45138</v>
       </c>
       <c r="D1997" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E1997" t="n">
         <v>0.424242424242424</v>
@@ -73311,7 +73317,7 @@
     </row>
     <row r="1998">
       <c r="A1998" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B1998" s="1" t="n">
         <v>45291</v>
@@ -73320,7 +73326,7 @@
         <v>45138</v>
       </c>
       <c r="D1998" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E1998" t="n">
         <v>0.606060606060606</v>
@@ -73381,7 +73387,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B2000" s="1" t="n">
         <v>45291</v>
@@ -73390,7 +73396,7 @@
         <v>45132</v>
       </c>
       <c r="D2000" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E2000" t="n">
         <v>0.515151515151515</v>
@@ -73521,7 +73527,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B2004" s="1" t="n">
         <v>45291</v>
@@ -73530,7 +73536,7 @@
         <v>45135</v>
       </c>
       <c r="D2004" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2004" t="n">
         <v>0.606060606060606</v>
@@ -73556,7 +73562,7 @@
     </row>
     <row r="2005">
       <c r="A2005" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B2005" s="1" t="n">
         <v>45291</v>
@@ -73565,7 +73571,7 @@
         <v>45138</v>
       </c>
       <c r="D2005" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E2005" t="n">
         <v>0.606060606060606</v>
@@ -73696,7 +73702,7 @@
     </row>
     <row r="2009">
       <c r="A2009" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B2009" s="1" t="n">
         <v>45291</v>
@@ -73705,7 +73711,7 @@
         <v>45138</v>
       </c>
       <c r="D2009" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E2009" t="n">
         <v>0.606060606060606</v>
@@ -73766,7 +73772,7 @@
     </row>
     <row r="2011">
       <c r="A2011" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2011" s="1" t="n">
         <v>45291</v>
@@ -73775,7 +73781,7 @@
         <v>45132</v>
       </c>
       <c r="D2011" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2011" t="n">
         <v>0.606060606060606</v>
@@ -73836,7 +73842,7 @@
     </row>
     <row r="2013">
       <c r="A2013" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B2013" s="1" t="n">
         <v>45291</v>
@@ -73845,7 +73851,7 @@
         <v>45128</v>
       </c>
       <c r="D2013" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E2013" t="n">
         <v>0.696969696969697</v>
@@ -74090,7 +74096,7 @@
         <v>45135</v>
       </c>
       <c r="D2020" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E2020" t="n">
         <v>0.575757575757576</v>
@@ -74606,7 +74612,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B2035" s="1" t="n">
         <v>45291</v>
@@ -74615,7 +74621,7 @@
         <v>45138</v>
       </c>
       <c r="D2035" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E2035" t="n">
         <v>0.575757575757576</v>
@@ -74641,7 +74647,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B2036" s="1" t="n">
         <v>45291</v>
@@ -74650,7 +74656,7 @@
         <v>45138</v>
       </c>
       <c r="D2036" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E2036" t="n">
         <v>0.606060606060606</v>
@@ -74711,7 +74717,7 @@
     </row>
     <row r="2038">
       <c r="A2038" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B2038" s="1" t="n">
         <v>45291</v>
@@ -74720,7 +74726,7 @@
         <v>45138</v>
       </c>
       <c r="D2038" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E2038" t="n">
         <v>0.666666666666667</v>
@@ -74790,7 +74796,7 @@
         <v>45138</v>
       </c>
       <c r="D2040" t="s">
-        <v>600</v>
+        <v>940</v>
       </c>
       <c r="E2040" t="n">
         <v>0.666666666666667</v>
@@ -75621,7 +75627,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B2064" s="1" t="n">
         <v>45291</v>
@@ -75630,7 +75636,7 @@
         <v>45132</v>
       </c>
       <c r="D2064" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E2064" t="n">
         <v>0.757575757575758</v>
@@ -75726,7 +75732,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B2067" s="1" t="n">
         <v>45291</v>
@@ -75735,7 +75741,7 @@
         <v>45135</v>
       </c>
       <c r="D2067" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E2067" t="n">
         <v>0.666666666666667</v>
@@ -76006,7 +76012,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2075" s="1" t="n">
         <v>45291</v>
@@ -76015,7 +76021,7 @@
         <v>45138</v>
       </c>
       <c r="D2075" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E2075" t="n">
         <v>0.575757575757576</v>
@@ -76181,7 +76187,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B2080" s="1" t="n">
         <v>45107</v>
@@ -76190,7 +76196,7 @@
         <v>44944</v>
       </c>
       <c r="D2080" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E2080" t="n">
         <v>0.636363636363636</v>
@@ -76321,7 +76327,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B2084" s="1" t="n">
         <v>45291</v>
@@ -76330,7 +76336,7 @@
         <v>45128</v>
       </c>
       <c r="D2084" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E2084" t="n">
         <v>0.696969696969697</v>
@@ -76671,7 +76677,7 @@
     </row>
     <row r="2094">
       <c r="A2094" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B2094" s="1" t="n">
         <v>45291</v>
@@ -76680,7 +76686,7 @@
         <v>45138</v>
       </c>
       <c r="D2094" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2094" t="n">
         <v>0.696969696969697</v>
@@ -78071,7 +78077,7 @@
     </row>
     <row r="2134">
       <c r="A2134" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B2134" s="1" t="n">
         <v>45291</v>
@@ -78080,7 +78086,7 @@
         <v>45138</v>
       </c>
       <c r="D2134" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E2134" t="n">
         <v>0.696969696969697</v>
@@ -78141,7 +78147,7 @@
     </row>
     <row r="2136">
       <c r="A2136" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B2136" s="1" t="n">
         <v>45291</v>
@@ -78150,7 +78156,7 @@
         <v>45135</v>
       </c>
       <c r="D2136" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E2136" t="n">
         <v>0.666666666666667</v>
@@ -78421,7 +78427,7 @@
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B2144" s="1" t="n">
         <v>45657</v>
@@ -78430,7 +78436,7 @@
         <v>45503</v>
       </c>
       <c r="D2144" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E2144" t="n">
         <v>0.666666666666667</v>
@@ -78456,7 +78462,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B2145" s="1" t="n">
         <v>45657</v>
@@ -78465,7 +78471,7 @@
         <v>45504</v>
       </c>
       <c r="D2145" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E2145" t="n">
         <v>0.636363636363636</v>
@@ -79576,7 +79582,7 @@
     </row>
     <row r="2177">
       <c r="A2177" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B2177" s="1" t="n">
         <v>45382</v>
@@ -79585,7 +79591,7 @@
         <v>45230</v>
       </c>
       <c r="D2177" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E2177" t="n">
         <v>0.606060606060606</v>
@@ -80066,7 +80072,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B2191" s="1" t="n">
         <v>45657</v>
@@ -80075,7 +80081,7 @@
         <v>45489</v>
       </c>
       <c r="D2191" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E2191" t="n">
         <v>0.636363636363636</v>
@@ -81641,7 +81647,7 @@
     </row>
     <row r="2236">
       <c r="A2236" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B2236" s="1" t="n">
         <v>45657</v>
@@ -81650,7 +81656,7 @@
         <v>45492</v>
       </c>
       <c r="D2236" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E2236" t="n">
         <v>0.636363636363636</v>
@@ -82761,7 +82767,7 @@
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B2268" s="1" t="n">
         <v>45657</v>
@@ -82770,7 +82776,7 @@
         <v>45504</v>
       </c>
       <c r="D2268" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E2268" t="n">
         <v>0.636363636363636</v>
@@ -83111,7 +83117,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B2278" s="1" t="n">
         <v>45657</v>
@@ -83120,7 +83126,7 @@
         <v>45503</v>
       </c>
       <c r="D2278" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E2278" t="n">
         <v>0.454545454545455</v>
@@ -83951,7 +83957,7 @@
     </row>
     <row r="2302">
       <c r="A2302" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B2302" s="1" t="n">
         <v>45657</v>
@@ -83960,7 +83966,7 @@
         <v>45504</v>
       </c>
       <c r="D2302" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E2302" t="n">
         <v>0.636363636363636</v>
@@ -83995,7 +84001,7 @@
         <v>45504</v>
       </c>
       <c r="D2303" t="s">
-        <v>481</v>
+        <v>894</v>
       </c>
       <c r="E2303" t="n">
         <v>0.545454545454545</v>
@@ -84021,7 +84027,7 @@
     </row>
     <row r="2304">
       <c r="A2304" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2304" s="1" t="n">
         <v>45657</v>
@@ -84030,7 +84036,7 @@
         <v>45504</v>
       </c>
       <c r="D2304" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2304" t="n">
         <v>0.606060606060606</v>
@@ -84056,7 +84062,7 @@
     </row>
     <row r="2305">
       <c r="A2305" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2305" s="1" t="n">
         <v>45657</v>
@@ -84065,7 +84071,7 @@
         <v>45504</v>
       </c>
       <c r="D2305" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2305" t="n">
         <v>0.757575757575758</v>
@@ -84091,7 +84097,7 @@
     </row>
     <row r="2306">
       <c r="A2306" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B2306" s="1" t="n">
         <v>45657</v>
@@ -84100,7 +84106,7 @@
         <v>45496</v>
       </c>
       <c r="D2306" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E2306" t="n">
         <v>0.636363636363636</v>
@@ -84126,7 +84132,7 @@
     </row>
     <row r="2307">
       <c r="A2307" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2307" s="1" t="n">
         <v>45657</v>
@@ -84135,7 +84141,7 @@
         <v>45504</v>
       </c>
       <c r="D2307" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2307" t="n">
         <v>0.696969696969697</v>
@@ -84161,7 +84167,7 @@
     </row>
     <row r="2308">
       <c r="A2308" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B2308" s="1" t="n">
         <v>45657</v>
@@ -84170,7 +84176,7 @@
         <v>45491</v>
       </c>
       <c r="D2308" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E2308" t="n">
         <v>0.575757575757576</v>
@@ -84336,7 +84342,7 @@
     </row>
     <row r="2313">
       <c r="A2313" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2313" s="1" t="n">
         <v>45657</v>
@@ -84345,7 +84351,7 @@
         <v>45499</v>
       </c>
       <c r="D2313" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2313" t="n">
         <v>0.575757575757576</v>
@@ -84406,7 +84412,7 @@
     </row>
     <row r="2315">
       <c r="A2315" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B2315" s="1" t="n">
         <v>45657</v>
@@ -84415,7 +84421,7 @@
         <v>45371</v>
       </c>
       <c r="D2315" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E2315" t="n">
         <v>0.666666666666667</v>
@@ -84476,7 +84482,7 @@
     </row>
     <row r="2317">
       <c r="A2317" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B2317" s="1" t="n">
         <v>45657</v>
@@ -84485,7 +84491,7 @@
         <v>45587</v>
       </c>
       <c r="D2317" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E2317" t="n">
         <v>0.636363636363636</v>
@@ -84546,7 +84552,7 @@
     </row>
     <row r="2319">
       <c r="A2319" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B2319" s="1" t="n">
         <v>45657</v>
@@ -84555,7 +84561,7 @@
         <v>45504</v>
       </c>
       <c r="D2319" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E2319" t="n">
         <v>0.606060606060606</v>
@@ -84581,7 +84587,7 @@
     </row>
     <row r="2320">
       <c r="A2320" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2320" s="1" t="n">
         <v>45657</v>
@@ -84590,7 +84596,7 @@
         <v>45504</v>
       </c>
       <c r="D2320" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2320" t="n">
         <v>0.606060606060606</v>
@@ -84686,7 +84692,7 @@
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B2323" s="1" t="n">
         <v>45657</v>
@@ -84695,7 +84701,7 @@
         <v>45503</v>
       </c>
       <c r="D2323" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E2323" t="n">
         <v>0.606060606060606</v>
@@ -84826,7 +84832,7 @@
     </row>
     <row r="2327">
       <c r="A2327" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B2327" s="1" t="n">
         <v>45657</v>
@@ -84835,7 +84841,7 @@
         <v>45504</v>
       </c>
       <c r="D2327" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E2327" t="n">
         <v>0.636363636363636</v>
@@ -85211,7 +85217,7 @@
     </row>
     <row r="2338">
       <c r="A2338" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B2338" s="1" t="n">
         <v>45657</v>
@@ -85220,7 +85226,7 @@
         <v>45488</v>
       </c>
       <c r="D2338" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E2338" t="n">
         <v>0.606060606060606</v>
@@ -85351,7 +85357,7 @@
     </row>
     <row r="2342">
       <c r="A2342" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B2342" s="1" t="n">
         <v>45382</v>
@@ -85360,7 +85366,7 @@
         <v>45230</v>
       </c>
       <c r="D2342" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E2342" t="n">
         <v>0.727272727272727</v>
@@ -85701,7 +85707,7 @@
     </row>
     <row r="2352">
       <c r="A2352" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2352" s="1" t="n">
         <v>45657</v>
@@ -85710,7 +85716,7 @@
         <v>45504</v>
       </c>
       <c r="D2352" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E2352" t="n">
         <v>0.636363636363636</v>
@@ -85736,7 +85742,7 @@
     </row>
     <row r="2353">
       <c r="A2353" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B2353" s="1" t="n">
         <v>45657</v>
@@ -85745,7 +85751,7 @@
         <v>45504</v>
       </c>
       <c r="D2353" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2353" t="n">
         <v>0.515151515151515</v>
@@ -85771,7 +85777,7 @@
     </row>
     <row r="2354">
       <c r="A2354" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2354" s="1" t="n">
         <v>45657</v>
@@ -85780,7 +85786,7 @@
         <v>45504</v>
       </c>
       <c r="D2354" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2354" t="n">
         <v>0.636363636363636</v>
@@ -85806,7 +85812,7 @@
     </row>
     <row r="2355">
       <c r="A2355" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B2355" s="1" t="n">
         <v>45657</v>
@@ -85815,7 +85821,7 @@
         <v>45503</v>
       </c>
       <c r="D2355" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E2355" t="n">
         <v>0.696969696969697</v>
@@ -85841,7 +85847,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B2356" s="1" t="n">
         <v>45657</v>
@@ -85850,7 +85856,7 @@
         <v>45504</v>
       </c>
       <c r="D2356" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E2356" t="n">
         <v>0.606060606060606</v>
@@ -85911,7 +85917,7 @@
     </row>
     <row r="2358">
       <c r="A2358" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B2358" s="1" t="n">
         <v>45657</v>
@@ -85920,7 +85926,7 @@
         <v>45502</v>
       </c>
       <c r="D2358" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E2358" t="n">
         <v>0.515151515151515</v>
@@ -86051,7 +86057,7 @@
     </row>
     <row r="2362">
       <c r="A2362" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B2362" s="1" t="n">
         <v>45657</v>
@@ -86060,7 +86066,7 @@
         <v>45504</v>
       </c>
       <c r="D2362" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E2362" t="n">
         <v>0.575757575757576</v>
@@ -86086,7 +86092,7 @@
     </row>
     <row r="2363">
       <c r="A2363" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B2363" s="1" t="n">
         <v>45657</v>
@@ -86095,7 +86101,7 @@
         <v>45503</v>
       </c>
       <c r="D2363" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E2363" t="n">
         <v>0.636363636363636</v>
@@ -86226,7 +86232,7 @@
     </row>
     <row r="2367">
       <c r="A2367" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B2367" s="1" t="n">
         <v>45657</v>
@@ -86235,7 +86241,7 @@
         <v>45628</v>
       </c>
       <c r="D2367" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E2367" t="n">
         <v>0.606060606060606</v>
@@ -86296,7 +86302,7 @@
     </row>
     <row r="2369">
       <c r="A2369" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2369" s="1" t="n">
         <v>45657</v>
@@ -86305,7 +86311,7 @@
         <v>45503</v>
       </c>
       <c r="D2369" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E2369" t="n">
         <v>0.606060606060606</v>
@@ -86366,7 +86372,7 @@
     </row>
     <row r="2371">
       <c r="A2371" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B2371" s="1" t="n">
         <v>45657</v>
@@ -86375,7 +86381,7 @@
         <v>45503</v>
       </c>
       <c r="D2371" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E2371" t="n">
         <v>0.696969696969697</v>
@@ -86585,7 +86591,7 @@
         <v>45499</v>
       </c>
       <c r="D2377" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E2377" t="n">
         <v>0.575757575757576</v>
@@ -87031,7 +87037,7 @@
     </row>
     <row r="2390">
       <c r="A2390" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B2390" s="1" t="n">
         <v>45657</v>
@@ -87040,7 +87046,7 @@
         <v>45503</v>
       </c>
       <c r="D2390" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E2390" t="n">
         <v>0.606060606060606</v>
@@ -87101,7 +87107,7 @@
     </row>
     <row r="2392">
       <c r="A2392" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B2392" s="1" t="n">
         <v>45657</v>
@@ -87110,7 +87116,7 @@
         <v>45503</v>
       </c>
       <c r="D2392" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E2392" t="n">
         <v>0.666666666666667</v>
@@ -87180,7 +87186,7 @@
         <v>45499</v>
       </c>
       <c r="D2394" t="s">
-        <v>600</v>
+        <v>940</v>
       </c>
       <c r="E2394" t="n">
         <v>0.666666666666667</v>
@@ -87801,7 +87807,7 @@
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B2412" s="1" t="n">
         <v>45657</v>
@@ -87810,7 +87816,7 @@
         <v>45504</v>
       </c>
       <c r="D2412" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E2412" t="n">
         <v>0.606060606060606</v>
@@ -87976,7 +87982,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2417" s="1" t="n">
         <v>45657</v>
@@ -87985,7 +87991,7 @@
         <v>45504</v>
       </c>
       <c r="D2417" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E2417" t="n">
         <v>0.575757575757576</v>
@@ -88151,7 +88157,7 @@
     </row>
     <row r="2422">
       <c r="A2422" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B2422" s="1" t="n">
         <v>45473</v>
@@ -88160,7 +88166,7 @@
         <v>45322</v>
       </c>
       <c r="D2422" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E2422" t="n">
         <v>0.575757575757576</v>
@@ -88256,7 +88262,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B2425" s="1" t="n">
         <v>45657</v>
@@ -88265,7 +88271,7 @@
         <v>45503</v>
       </c>
       <c r="D2425" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E2425" t="n">
         <v>0.696969696969697</v>
@@ -88536,7 +88542,7 @@
     </row>
     <row r="2433">
       <c r="A2433" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B2433" s="1" t="n">
         <v>45657</v>
@@ -88545,7 +88551,7 @@
         <v>45504</v>
       </c>
       <c r="D2433" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E2433" t="n">
         <v>0.696969696969697</v>
@@ -89516,7 +89522,7 @@
     </row>
     <row r="2461">
       <c r="A2461" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B2461" s="1" t="n">
         <v>45657</v>
@@ -89525,7 +89531,7 @@
         <v>45504</v>
       </c>
       <c r="D2461" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E2461" t="n">
         <v>0.696969696969697</v>
@@ -89586,7 +89592,7 @@
     </row>
     <row r="2463">
       <c r="A2463" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B2463" s="1" t="n">
         <v>45657</v>
@@ -89595,7 +89601,7 @@
         <v>45504</v>
       </c>
       <c r="D2463" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E2463" t="n">
         <v>0.575757575757576</v>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">10.739.356/0001-03</t>
   </si>
   <si>
-    <t xml:space="preserve">BR ADVISORY PARTNERS PARTICIPAÇÕES S.A.</t>
+    <t xml:space="preserve">BRBI BR PARTNERS S.A</t>
   </si>
   <si>
     <t xml:space="preserve">10.807.374/0001-77</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">23.438.929/0001-00</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIPLE PLAY BRASIL PARTICIPAÇÕES S.A.</t>
+    <t xml:space="preserve">ALARES INTERNET PARTICIPAÇÕES S/A</t>
   </si>
   <si>
     <t xml:space="preserve">39.881.421/0001-04</t>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="1028">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -2504,6 +2504,9 @@
     <t xml:space="preserve">PETRORECÔNCAVO S.A.</t>
   </si>
   <si>
+    <t xml:space="preserve">CONTAX PARTICIPAÇÕES S.A. - EM RECUPERAÇÃO JUDICIAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">05.917.486/0001-40</t>
   </si>
   <si>
@@ -2771,7 +2774,7 @@
     <t xml:space="preserve">31.553.627/0001-01</t>
   </si>
   <si>
-    <t xml:space="preserve">MOBLY S.A.</t>
+    <t xml:space="preserve">GRUPO TOKY S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">31.701.408/0001-14</t>
@@ -2816,6 +2819,9 @@
     <t xml:space="preserve">VITTIA S.A.</t>
   </si>
   <si>
+    <t xml:space="preserve">BIOMA EDUCAÇÃO S.A.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOMBRIL S.A. - EM RECUPERAÇÃO JUDICIAL</t>
   </si>
   <si>
@@ -2838,6 +2844,9 @@
   </si>
   <si>
     <t xml:space="preserve">MAHLE METAL LEVE S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIPERTI S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">61.409.892/0001-73</t>
@@ -35917,7 +35926,7 @@
         <v>44407</v>
       </c>
       <c r="D929" t="s">
-        <v>333</v>
+        <v>830</v>
       </c>
       <c r="E929" t="n">
         <v>0.636363636363636</v>
@@ -36433,7 +36442,7 @@
     </row>
     <row r="944">
       <c r="A944" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B944" s="1" t="n">
         <v>44561</v>
@@ -36442,7 +36451,7 @@
         <v>44410</v>
       </c>
       <c r="D944" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E944" t="n">
         <v>0.575757575757576</v>
@@ -36468,7 +36477,7 @@
     </row>
     <row r="945">
       <c r="A945" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B945" s="1" t="n">
         <v>44561</v>
@@ -36477,7 +36486,7 @@
         <v>44410</v>
       </c>
       <c r="D945" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E945" t="n">
         <v>0.636363636363636</v>
@@ -36503,7 +36512,7 @@
     </row>
     <row r="946">
       <c r="A946" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B946" s="1" t="n">
         <v>44561</v>
@@ -36512,7 +36521,7 @@
         <v>44410</v>
       </c>
       <c r="D946" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E946" t="n">
         <v>0.636363636363636</v>
@@ -37553,7 +37562,7 @@
     </row>
     <row r="976">
       <c r="A976" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B976" s="1" t="n">
         <v>44561</v>
@@ -37562,7 +37571,7 @@
         <v>44410</v>
       </c>
       <c r="D976" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E976" t="n">
         <v>0.606060606060606</v>
@@ -37877,7 +37886,7 @@
         <v>44407</v>
       </c>
       <c r="D985" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E985" t="n">
         <v>0.666666666666667</v>
@@ -38183,7 +38192,7 @@
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B994" s="1" t="n">
         <v>44561</v>
@@ -38192,7 +38201,7 @@
         <v>44410</v>
       </c>
       <c r="D994" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E994" t="n">
         <v>0.606060606060606</v>
@@ -38253,7 +38262,7 @@
     </row>
     <row r="996">
       <c r="A996" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B996" s="1" t="n">
         <v>44561</v>
@@ -38262,7 +38271,7 @@
         <v>44407</v>
       </c>
       <c r="D996" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E996" t="n">
         <v>0.606060606060606</v>
@@ -38358,7 +38367,7 @@
     </row>
     <row r="999">
       <c r="A999" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B999" s="1" t="n">
         <v>44561</v>
@@ -38367,7 +38376,7 @@
         <v>44404</v>
       </c>
       <c r="D999" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E999" t="n">
         <v>0.666666666666667</v>
@@ -38428,7 +38437,7 @@
     </row>
     <row r="1001">
       <c r="A1001" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B1001" s="1" t="n">
         <v>44561</v>
@@ -38437,7 +38446,7 @@
         <v>44410</v>
       </c>
       <c r="D1001" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E1001" t="n">
         <v>0.575757575757576</v>
@@ -38498,7 +38507,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1003" s="1" t="n">
         <v>44561</v>
@@ -38507,7 +38516,7 @@
         <v>44407</v>
       </c>
       <c r="D1003" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1003" t="n">
         <v>0.666666666666667</v>
@@ -38568,7 +38577,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1005" s="1" t="n">
         <v>44561</v>
@@ -38577,7 +38586,7 @@
         <v>44410</v>
       </c>
       <c r="D1005" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1005" t="n">
         <v>0.515151515151515</v>
@@ -38638,7 +38647,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1007" s="1" t="n">
         <v>44561</v>
@@ -38647,7 +38656,7 @@
         <v>44407</v>
       </c>
       <c r="D1007" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1007" t="n">
         <v>0.666666666666667</v>
@@ -38813,7 +38822,7 @@
     </row>
     <row r="1012">
       <c r="A1012" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1012" s="1" t="n">
         <v>44561</v>
@@ -38822,7 +38831,7 @@
         <v>44407</v>
       </c>
       <c r="D1012" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1012" t="n">
         <v>0.636363636363636</v>
@@ -38883,7 +38892,7 @@
     </row>
     <row r="1014">
       <c r="A1014" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1014" s="1" t="n">
         <v>44561</v>
@@ -38892,7 +38901,7 @@
         <v>44410</v>
       </c>
       <c r="D1014" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1014" t="n">
         <v>0.696969696969697</v>
@@ -38918,7 +38927,7 @@
     </row>
     <row r="1015">
       <c r="A1015" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1015" s="1" t="n">
         <v>44561</v>
@@ -38927,7 +38936,7 @@
         <v>44408</v>
       </c>
       <c r="D1015" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1015" t="n">
         <v>0.636363636363636</v>
@@ -39093,7 +39102,7 @@
     </row>
     <row r="1020">
       <c r="A1020" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1020" s="1" t="n">
         <v>44561</v>
@@ -39102,7 +39111,7 @@
         <v>44410</v>
       </c>
       <c r="D1020" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1020" t="n">
         <v>0.696969696969697</v>
@@ -39163,7 +39172,7 @@
     </row>
     <row r="1022">
       <c r="A1022" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1022" s="1" t="n">
         <v>44561</v>
@@ -39172,7 +39181,7 @@
         <v>44407</v>
       </c>
       <c r="D1022" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1022" t="n">
         <v>0.545454545454545</v>
@@ -39268,7 +39277,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1025" s="1" t="n">
         <v>44561</v>
@@ -39277,7 +39286,7 @@
         <v>44406</v>
       </c>
       <c r="D1025" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1025" t="n">
         <v>0.636363636363636</v>
@@ -39303,7 +39312,7 @@
     </row>
     <row r="1026">
       <c r="A1026" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1026" s="1" t="n">
         <v>44561</v>
@@ -39312,7 +39321,7 @@
         <v>44407</v>
       </c>
       <c r="D1026" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1026" t="n">
         <v>0.696969696969697</v>
@@ -39513,7 +39522,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1032" s="1" t="n">
         <v>44561</v>
@@ -39522,7 +39531,7 @@
         <v>44407</v>
       </c>
       <c r="D1032" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1032" t="n">
         <v>0.545454545454545</v>
@@ -39618,7 +39627,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1035" s="1" t="n">
         <v>44561</v>
@@ -39627,7 +39636,7 @@
         <v>44410</v>
       </c>
       <c r="D1035" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1035" t="n">
         <v>0.696969696969697</v>
@@ -39653,7 +39662,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1036" s="1" t="n">
         <v>44561</v>
@@ -39662,7 +39671,7 @@
         <v>44407</v>
       </c>
       <c r="D1036" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1036" t="n">
         <v>0.666666666666667</v>
@@ -39828,7 +39837,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1041" s="1" t="n">
         <v>44561</v>
@@ -39837,7 +39846,7 @@
         <v>44406</v>
       </c>
       <c r="D1041" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1041" t="n">
         <v>0.666666666666667</v>
@@ -39898,7 +39907,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1043" s="1" t="n">
         <v>44561</v>
@@ -39907,7 +39916,7 @@
         <v>44407</v>
       </c>
       <c r="D1043" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1043" t="n">
         <v>0.636363636363636</v>
@@ -39933,7 +39942,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1044" s="1" t="n">
         <v>44561</v>
@@ -39942,7 +39951,7 @@
         <v>44410</v>
       </c>
       <c r="D1044" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1044" t="n">
         <v>0.636363636363636</v>
@@ -39968,7 +39977,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1045" s="1" t="n">
         <v>44561</v>
@@ -39977,7 +39986,7 @@
         <v>44407</v>
       </c>
       <c r="D1045" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1045" t="n">
         <v>0.515151515151515</v>
@@ -40003,7 +40012,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1046" s="1" t="n">
         <v>44561</v>
@@ -40012,7 +40021,7 @@
         <v>44410</v>
       </c>
       <c r="D1046" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1046" t="n">
         <v>0.636363636363636</v>
@@ -40283,7 +40292,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1054" s="1" t="n">
         <v>44561</v>
@@ -40292,7 +40301,7 @@
         <v>44410</v>
       </c>
       <c r="D1054" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1054" t="n">
         <v>0.484848484848485</v>
@@ -40458,7 +40467,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1059" s="1" t="n">
         <v>44561</v>
@@ -40467,7 +40476,7 @@
         <v>44410</v>
       </c>
       <c r="D1059" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1059" t="n">
         <v>0.636363636363636</v>
@@ -40493,7 +40502,7 @@
     </row>
     <row r="1060">
       <c r="A1060" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1060" s="1" t="n">
         <v>44561</v>
@@ -40502,7 +40511,7 @@
         <v>44406</v>
       </c>
       <c r="D1060" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1060" t="n">
         <v>0.666666666666667</v>
@@ -40528,7 +40537,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1061" s="1" t="n">
         <v>44561</v>
@@ -40537,7 +40546,7 @@
         <v>44407</v>
       </c>
       <c r="D1061" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1061" t="n">
         <v>0.606060606060606</v>
@@ -40948,7 +40957,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1073" s="1" t="n">
         <v>44561</v>
@@ -40957,7 +40966,7 @@
         <v>44407</v>
       </c>
       <c r="D1073" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1073" t="n">
         <v>0.606060606060606</v>
@@ -41018,7 +41027,7 @@
     </row>
     <row r="1075">
       <c r="A1075" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1075" s="1" t="n">
         <v>44561</v>
@@ -41027,7 +41036,7 @@
         <v>44408</v>
       </c>
       <c r="D1075" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1075" t="n">
         <v>0.484848484848485</v>
@@ -41132,7 +41141,7 @@
         <v>44400</v>
       </c>
       <c r="D1078" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E1078" t="n">
         <v>0.545454545454545</v>
@@ -41158,7 +41167,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B1079" s="1" t="n">
         <v>44561</v>
@@ -41167,7 +41176,7 @@
         <v>44410</v>
       </c>
       <c r="D1079" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E1079" t="n">
         <v>0.575757575757576</v>
@@ -41228,7 +41237,7 @@
     </row>
     <row r="1081">
       <c r="A1081" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B1081" s="1" t="n">
         <v>44561</v>
@@ -41237,7 +41246,7 @@
         <v>44407</v>
       </c>
       <c r="D1081" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E1081" t="n">
         <v>0.727272727272727</v>
@@ -41298,7 +41307,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1083" s="1" t="n">
         <v>44561</v>
@@ -41307,7 +41316,7 @@
         <v>44407</v>
       </c>
       <c r="D1083" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E1083" t="n">
         <v>0.606060606060606</v>
@@ -41508,7 +41517,7 @@
     </row>
     <row r="1089">
       <c r="A1089" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B1089" s="1" t="n">
         <v>44561</v>
@@ -41517,7 +41526,7 @@
         <v>44407</v>
       </c>
       <c r="D1089" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E1089" t="n">
         <v>0.575757575757576</v>
@@ -41648,7 +41657,7 @@
     </row>
     <row r="1093">
       <c r="A1093" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B1093" s="1" t="n">
         <v>44561</v>
@@ -41657,7 +41666,7 @@
         <v>44407</v>
       </c>
       <c r="D1093" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E1093" t="n">
         <v>0.575757575757576</v>
@@ -41683,7 +41692,7 @@
     </row>
     <row r="1094">
       <c r="A1094" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B1094" s="1" t="n">
         <v>44561</v>
@@ -41692,7 +41701,7 @@
         <v>44410</v>
       </c>
       <c r="D1094" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E1094" t="n">
         <v>0.575757575757576</v>
@@ -41718,7 +41727,7 @@
     </row>
     <row r="1095">
       <c r="A1095" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B1095" s="1" t="n">
         <v>44561</v>
@@ -41727,7 +41736,7 @@
         <v>44407</v>
       </c>
       <c r="D1095" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E1095" t="n">
         <v>0.636363636363636</v>
@@ -41788,7 +41797,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B1097" s="1" t="n">
         <v>44561</v>
@@ -41797,7 +41806,7 @@
         <v>44407</v>
       </c>
       <c r="D1097" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E1097" t="n">
         <v>0.636363636363636</v>
@@ -41823,7 +41832,7 @@
     </row>
     <row r="1098">
       <c r="A1098" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B1098" s="1" t="n">
         <v>44561</v>
@@ -41832,7 +41841,7 @@
         <v>44407</v>
       </c>
       <c r="D1098" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E1098" t="n">
         <v>0.606060606060606</v>
@@ -42068,7 +42077,7 @@
     </row>
     <row r="1105">
       <c r="A1105" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B1105" s="1" t="n">
         <v>44561</v>
@@ -42077,7 +42086,7 @@
         <v>44407</v>
       </c>
       <c r="D1105" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E1105" t="n">
         <v>0.545454545454545</v>
@@ -42173,7 +42182,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B1108" s="1" t="n">
         <v>44561</v>
@@ -42182,7 +42191,7 @@
         <v>44410</v>
       </c>
       <c r="D1108" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E1108" t="n">
         <v>0.727272727272727</v>
@@ -42208,7 +42217,7 @@
     </row>
     <row r="1109">
       <c r="A1109" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B1109" s="1" t="n">
         <v>44561</v>
@@ -42217,7 +42226,7 @@
         <v>44407</v>
       </c>
       <c r="D1109" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E1109" t="n">
         <v>0.636363636363636</v>
@@ -42243,7 +42252,7 @@
     </row>
     <row r="1110">
       <c r="A1110" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B1110" s="1" t="n">
         <v>44561</v>
@@ -42252,7 +42261,7 @@
         <v>44410</v>
       </c>
       <c r="D1110" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E1110" t="n">
         <v>0.606060606060606</v>
@@ -43188,7 +43197,7 @@
     </row>
     <row r="1137">
       <c r="A1137" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B1137" s="1" t="n">
         <v>44561</v>
@@ -43197,7 +43206,7 @@
         <v>44223</v>
       </c>
       <c r="D1137" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E1137" t="n">
         <v>0.515151515151515</v>
@@ -43293,7 +43302,7 @@
     </row>
     <row r="1140">
       <c r="A1140" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1140" s="1" t="n">
         <v>44561</v>
@@ -43302,7 +43311,7 @@
         <v>44407</v>
       </c>
       <c r="D1140" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E1140" t="n">
         <v>0.575757575757576</v>
@@ -43328,7 +43337,7 @@
     </row>
     <row r="1141">
       <c r="A1141" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B1141" s="1" t="n">
         <v>44561</v>
@@ -43337,7 +43346,7 @@
         <v>44407</v>
       </c>
       <c r="D1141" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E1141" t="n">
         <v>0.515151515151515</v>
@@ -43363,7 +43372,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B1142" s="1" t="n">
         <v>44561</v>
@@ -43372,7 +43381,7 @@
         <v>44407</v>
       </c>
       <c r="D1142" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E1142" t="n">
         <v>0.666666666666667</v>
@@ -43398,7 +43407,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B1143" s="1" t="n">
         <v>44561</v>
@@ -43407,7 +43416,7 @@
         <v>44410</v>
       </c>
       <c r="D1143" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1143" t="n">
         <v>0.454545454545455</v>
@@ -43748,7 +43757,7 @@
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B1153" s="1" t="n">
         <v>44561</v>
@@ -43757,7 +43766,7 @@
         <v>44411</v>
       </c>
       <c r="D1153" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E1153" t="n">
         <v>0.606060606060606</v>
@@ -43827,7 +43836,7 @@
         <v>44410</v>
       </c>
       <c r="D1155" t="s">
-        <v>562</v>
+        <v>935</v>
       </c>
       <c r="E1155" t="n">
         <v>0.454545454545455</v>
@@ -44037,7 +44046,7 @@
         <v>44407</v>
       </c>
       <c r="D1161" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E1161" t="n">
         <v>0.575757575757576</v>
@@ -44588,7 +44597,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B1177" s="1" t="n">
         <v>44561</v>
@@ -44597,7 +44606,7 @@
         <v>44410</v>
       </c>
       <c r="D1177" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E1177" t="n">
         <v>0.575757575757576</v>
@@ -44623,7 +44632,7 @@
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B1178" s="1" t="n">
         <v>44561</v>
@@ -44632,7 +44641,7 @@
         <v>44410</v>
       </c>
       <c r="D1178" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E1178" t="n">
         <v>0.575757575757576</v>
@@ -44693,7 +44702,7 @@
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B1180" s="1" t="n">
         <v>44561</v>
@@ -44702,7 +44711,7 @@
         <v>44410</v>
       </c>
       <c r="D1180" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E1180" t="n">
         <v>0.666666666666667</v>
@@ -44772,7 +44781,7 @@
         <v>44406</v>
       </c>
       <c r="D1182" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E1182" t="n">
         <v>0.575757575757576</v>
@@ -45577,7 +45586,7 @@
         <v>44393</v>
       </c>
       <c r="D1205" t="s">
-        <v>632</v>
+        <v>944</v>
       </c>
       <c r="E1205" t="n">
         <v>0.393939393939394</v>
@@ -45743,7 +45752,7 @@
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B1210" s="1" t="n">
         <v>44561</v>
@@ -45752,7 +45761,7 @@
         <v>44407</v>
       </c>
       <c r="D1210" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E1210" t="n">
         <v>0.606060606060606</v>
@@ -46023,7 +46032,7 @@
     </row>
     <row r="1218">
       <c r="A1218" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B1218" s="1" t="n">
         <v>44561</v>
@@ -46032,7 +46041,7 @@
         <v>44410</v>
       </c>
       <c r="D1218" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E1218" t="n">
         <v>0.636363636363636</v>
@@ -46058,7 +46067,7 @@
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B1219" s="1" t="n">
         <v>44561</v>
@@ -46067,7 +46076,7 @@
         <v>44404</v>
       </c>
       <c r="D1219" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E1219" t="n">
         <v>0.636363636363636</v>
@@ -46338,7 +46347,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B1227" s="1" t="n">
         <v>44561</v>
@@ -46347,7 +46356,7 @@
         <v>44410</v>
       </c>
       <c r="D1227" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E1227" t="n">
         <v>0.696969696969697</v>
@@ -46758,7 +46767,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B1239" s="1" t="n">
         <v>44561</v>
@@ -46767,7 +46776,7 @@
         <v>44407</v>
       </c>
       <c r="D1239" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E1239" t="n">
         <v>0.727272727272727</v>
@@ -47397,7 +47406,7 @@
         <v>44407</v>
       </c>
       <c r="D1257" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E1257" t="n">
         <v>0.757575757575758</v>
@@ -48228,7 +48237,7 @@
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B1281" s="1" t="n">
         <v>44561</v>
@@ -48237,7 +48246,7 @@
         <v>44406</v>
       </c>
       <c r="D1281" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E1281" t="n">
         <v>0.696969696969697</v>
@@ -48298,7 +48307,7 @@
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B1283" s="1" t="n">
         <v>44561</v>
@@ -48307,7 +48316,7 @@
         <v>44406</v>
       </c>
       <c r="D1283" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E1283" t="n">
         <v>0.636363636363636</v>
@@ -48578,7 +48587,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B1291" s="1" t="n">
         <v>44926</v>
@@ -48587,7 +48596,7 @@
         <v>44761</v>
       </c>
       <c r="D1291" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E1291" t="n">
         <v>0.666666666666667</v>
@@ -48613,7 +48622,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B1292" s="1" t="n">
         <v>44926</v>
@@ -48622,7 +48631,7 @@
         <v>44774</v>
       </c>
       <c r="D1292" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E1292" t="n">
         <v>0.636363636363636</v>
@@ -50083,7 +50092,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B1334" s="1" t="n">
         <v>44651</v>
@@ -50092,7 +50101,7 @@
         <v>44501</v>
       </c>
       <c r="D1334" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E1334" t="n">
         <v>0.606060606060606</v>
@@ -50783,7 +50792,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B1354" s="1" t="n">
         <v>44926</v>
@@ -50792,7 +50801,7 @@
         <v>44755</v>
       </c>
       <c r="D1354" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E1354" t="n">
         <v>0.636363636363636</v>
@@ -50853,7 +50862,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B1356" s="1" t="n">
         <v>44926</v>
@@ -50862,7 +50871,7 @@
         <v>44771</v>
       </c>
       <c r="D1356" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E1356" t="n">
         <v>0.666666666666667</v>
@@ -51072,7 +51081,7 @@
         <v>44771</v>
       </c>
       <c r="D1362" t="s">
-        <v>333</v>
+        <v>830</v>
       </c>
       <c r="E1362" t="n">
         <v>0.606060606060606</v>
@@ -51483,7 +51492,7 @@
     </row>
     <row r="1374">
       <c r="A1374" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B1374" s="1" t="n">
         <v>44926</v>
@@ -51492,7 +51501,7 @@
         <v>44768</v>
       </c>
       <c r="D1374" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E1374" t="n">
         <v>0.575757575757576</v>
@@ -51518,7 +51527,7 @@
     </row>
     <row r="1375">
       <c r="A1375" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B1375" s="1" t="n">
         <v>44926</v>
@@ -51527,7 +51536,7 @@
         <v>44771</v>
       </c>
       <c r="D1375" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E1375" t="n">
         <v>0.636363636363636</v>
@@ -51553,7 +51562,7 @@
     </row>
     <row r="1376">
       <c r="A1376" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B1376" s="1" t="n">
         <v>44926</v>
@@ -51562,7 +51571,7 @@
         <v>44774</v>
       </c>
       <c r="D1376" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E1376" t="n">
         <v>0.636363636363636</v>
@@ -52183,7 +52192,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B1394" s="1" t="n">
         <v>44926</v>
@@ -52192,7 +52201,7 @@
         <v>44760</v>
       </c>
       <c r="D1394" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E1394" t="n">
         <v>0.484848484848485</v>
@@ -52603,7 +52612,7 @@
     </row>
     <row r="1406">
       <c r="A1406" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B1406" s="1" t="n">
         <v>44926</v>
@@ -52612,7 +52621,7 @@
         <v>44771</v>
       </c>
       <c r="D1406" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E1406" t="n">
         <v>0.636363636363636</v>
@@ -52927,7 +52936,7 @@
         <v>44774</v>
       </c>
       <c r="D1415" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E1415" t="n">
         <v>0.666666666666667</v>
@@ -53093,7 +53102,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B1420" s="1" t="n">
         <v>44926</v>
@@ -53102,7 +53111,7 @@
         <v>44770</v>
       </c>
       <c r="D1420" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E1420" t="n">
         <v>0.696969696969697</v>
@@ -53268,7 +53277,7 @@
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B1425" s="1" t="n">
         <v>44926</v>
@@ -53277,7 +53286,7 @@
         <v>44774</v>
       </c>
       <c r="D1425" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E1425" t="n">
         <v>0.606060606060606</v>
@@ -53338,7 +53347,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1427" s="1" t="n">
         <v>44926</v>
@@ -53347,7 +53356,7 @@
         <v>44771</v>
       </c>
       <c r="D1427" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E1427" t="n">
         <v>0.606060606060606</v>
@@ -53443,7 +53452,7 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1430" s="1" t="n">
         <v>44926</v>
@@ -53452,7 +53461,7 @@
         <v>44771</v>
       </c>
       <c r="D1430" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1430" t="n">
         <v>0.575757575757576</v>
@@ -53548,7 +53557,7 @@
     </row>
     <row r="1433">
       <c r="A1433" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1433" s="1" t="n">
         <v>44926</v>
@@ -53557,7 +53566,7 @@
         <v>44771</v>
       </c>
       <c r="D1433" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1433" t="n">
         <v>0.666666666666667</v>
@@ -53618,7 +53627,7 @@
     </row>
     <row r="1435">
       <c r="A1435" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1435" s="1" t="n">
         <v>44926</v>
@@ -53627,7 +53636,7 @@
         <v>44774</v>
       </c>
       <c r="D1435" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1435" t="n">
         <v>0.515151515151515</v>
@@ -53653,7 +53662,7 @@
     </row>
     <row r="1436">
       <c r="A1436" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1436" s="1" t="n">
         <v>44926</v>
@@ -53662,7 +53671,7 @@
         <v>44771</v>
       </c>
       <c r="D1436" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1436" t="n">
         <v>0.666666666666667</v>
@@ -53828,7 +53837,7 @@
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1441" s="1" t="n">
         <v>44926</v>
@@ -53837,7 +53846,7 @@
         <v>44769</v>
       </c>
       <c r="D1441" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1441" t="n">
         <v>0.636363636363636</v>
@@ -53898,7 +53907,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1443" s="1" t="n">
         <v>44926</v>
@@ -53907,7 +53916,7 @@
         <v>44771</v>
       </c>
       <c r="D1443" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1443" t="n">
         <v>0.636363636363636</v>
@@ -54038,7 +54047,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B1447" s="1" t="n">
         <v>44926</v>
@@ -54047,7 +54056,7 @@
         <v>44771</v>
       </c>
       <c r="D1447" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E1447" t="n">
         <v>0.636363636363636</v>
@@ -54108,7 +54117,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1449" s="1" t="n">
         <v>44926</v>
@@ -54117,7 +54126,7 @@
         <v>44767</v>
       </c>
       <c r="D1449" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1449" t="n">
         <v>0.666666666666667</v>
@@ -54178,7 +54187,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1451" s="1" t="n">
         <v>44926</v>
@@ -54187,7 +54196,7 @@
         <v>44770</v>
       </c>
       <c r="D1451" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1451" t="n">
         <v>0.666666666666667</v>
@@ -54283,7 +54292,7 @@
     </row>
     <row r="1454">
       <c r="A1454" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1454" s="1" t="n">
         <v>44926</v>
@@ -54292,7 +54301,7 @@
         <v>44771</v>
       </c>
       <c r="D1454" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1454" t="n">
         <v>0.636363636363636</v>
@@ -54318,7 +54327,7 @@
     </row>
     <row r="1455">
       <c r="A1455" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1455" s="1" t="n">
         <v>44926</v>
@@ -54327,7 +54336,7 @@
         <v>44771</v>
       </c>
       <c r="D1455" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1455" t="n">
         <v>0.696969696969697</v>
@@ -54528,7 +54537,7 @@
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1461" s="1" t="n">
         <v>44926</v>
@@ -54537,7 +54546,7 @@
         <v>44771</v>
       </c>
       <c r="D1461" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1461" t="n">
         <v>0.606060606060606</v>
@@ -54563,7 +54572,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B1462" s="1" t="n">
         <v>44926</v>
@@ -54572,7 +54581,7 @@
         <v>44773</v>
       </c>
       <c r="D1462" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E1462" t="n">
         <v>0.636363636363636</v>
@@ -54668,7 +54677,7 @@
     </row>
     <row r="1465">
       <c r="A1465" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1465" s="1" t="n">
         <v>44926</v>
@@ -54677,7 +54686,7 @@
         <v>44771</v>
       </c>
       <c r="D1465" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1465" t="n">
         <v>0.636363636363636</v>
@@ -54703,7 +54712,7 @@
     </row>
     <row r="1466">
       <c r="A1466" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1466" s="1" t="n">
         <v>44926</v>
@@ -54712,7 +54721,7 @@
         <v>44771</v>
       </c>
       <c r="D1466" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1466" t="n">
         <v>0.666666666666667</v>
@@ -54878,7 +54887,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1471" s="1" t="n">
         <v>44926</v>
@@ -54887,7 +54896,7 @@
         <v>44770</v>
       </c>
       <c r="D1471" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1471" t="n">
         <v>0.606060606060606</v>
@@ -54948,7 +54957,7 @@
     </row>
     <row r="1473">
       <c r="A1473" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B1473" s="1" t="n">
         <v>44926</v>
@@ -54957,7 +54966,7 @@
         <v>44762</v>
       </c>
       <c r="D1473" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E1473" t="n">
         <v>0.454545454545455</v>
@@ -54983,7 +54992,7 @@
     </row>
     <row r="1474">
       <c r="A1474" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1474" s="1" t="n">
         <v>44926</v>
@@ -54992,7 +55001,7 @@
         <v>44771</v>
       </c>
       <c r="D1474" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1474" t="n">
         <v>0.636363636363636</v>
@@ -55018,7 +55027,7 @@
     </row>
     <row r="1475">
       <c r="A1475" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1475" s="1" t="n">
         <v>44926</v>
@@ -55027,7 +55036,7 @@
         <v>44742</v>
       </c>
       <c r="D1475" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1475" t="n">
         <v>0.575757575757576</v>
@@ -55053,7 +55062,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1476" s="1" t="n">
         <v>44926</v>
@@ -55062,7 +55071,7 @@
         <v>44771</v>
       </c>
       <c r="D1476" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1476" t="n">
         <v>0.575757575757576</v>
@@ -55088,7 +55097,7 @@
     </row>
     <row r="1477">
       <c r="A1477" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1477" s="1" t="n">
         <v>44926</v>
@@ -55097,7 +55106,7 @@
         <v>44770</v>
       </c>
       <c r="D1477" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1477" t="n">
         <v>0.636363636363636</v>
@@ -55368,7 +55377,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B1485" s="1" t="n">
         <v>44926</v>
@@ -55377,7 +55386,7 @@
         <v>44774</v>
       </c>
       <c r="D1485" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E1485" t="n">
         <v>0.484848484848485</v>
@@ -55543,7 +55552,7 @@
     </row>
     <row r="1490">
       <c r="A1490" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1490" s="1" t="n">
         <v>44926</v>
@@ -55552,7 +55561,7 @@
         <v>44771</v>
       </c>
       <c r="D1490" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1490" t="n">
         <v>0.727272727272727</v>
@@ -55578,7 +55587,7 @@
     </row>
     <row r="1491">
       <c r="A1491" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1491" s="1" t="n">
         <v>44926</v>
@@ -55587,7 +55596,7 @@
         <v>44771</v>
       </c>
       <c r="D1491" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1491" t="n">
         <v>0.666666666666667</v>
@@ -55613,7 +55622,7 @@
     </row>
     <row r="1492">
       <c r="A1492" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1492" s="1" t="n">
         <v>44926</v>
@@ -55622,7 +55631,7 @@
         <v>44770</v>
       </c>
       <c r="D1492" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1492" t="n">
         <v>0.636363636363636</v>
@@ -56033,7 +56042,7 @@
     </row>
     <row r="1504">
       <c r="A1504" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1504" s="1" t="n">
         <v>44926</v>
@@ -56042,7 +56051,7 @@
         <v>44771</v>
       </c>
       <c r="D1504" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1504" t="n">
         <v>0.606060606060606</v>
@@ -56103,7 +56112,7 @@
     </row>
     <row r="1506">
       <c r="A1506" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1506" s="1" t="n">
         <v>44926</v>
@@ -56112,7 +56121,7 @@
         <v>44774</v>
       </c>
       <c r="D1506" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1506" t="n">
         <v>0.545454545454545</v>
@@ -56217,7 +56226,7 @@
         <v>44774</v>
       </c>
       <c r="D1509" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E1509" t="n">
         <v>0.545454545454545</v>
@@ -56243,7 +56252,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B1510" s="1" t="n">
         <v>44926</v>
@@ -56252,7 +56261,7 @@
         <v>44771</v>
       </c>
       <c r="D1510" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E1510" t="n">
         <v>0.636363636363636</v>
@@ -56278,7 +56287,7 @@
     </row>
     <row r="1511">
       <c r="A1511" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B1511" s="1" t="n">
         <v>44926</v>
@@ -56287,7 +56296,7 @@
         <v>44771</v>
       </c>
       <c r="D1511" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E1511" t="n">
         <v>0.757575757575758</v>
@@ -56348,7 +56357,7 @@
     </row>
     <row r="1513">
       <c r="A1513" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1513" s="1" t="n">
         <v>44926</v>
@@ -56357,7 +56366,7 @@
         <v>44771</v>
       </c>
       <c r="D1513" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E1513" t="n">
         <v>0.636363636363636</v>
@@ -56523,7 +56532,7 @@
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B1518" s="1" t="n">
         <v>44926</v>
@@ -56532,7 +56541,7 @@
         <v>44771</v>
       </c>
       <c r="D1518" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E1518" t="n">
         <v>0.575757575757576</v>
@@ -56593,7 +56602,7 @@
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B1520" s="1" t="n">
         <v>44926</v>
@@ -56602,7 +56611,7 @@
         <v>44771</v>
       </c>
       <c r="D1520" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E1520" t="n">
         <v>0.727272727272727</v>
@@ -56698,7 +56707,7 @@
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B1523" s="1" t="n">
         <v>44926</v>
@@ -56707,7 +56716,7 @@
         <v>44742</v>
       </c>
       <c r="D1523" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E1523" t="n">
         <v>0.606060606060606</v>
@@ -56733,7 +56742,7 @@
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B1524" s="1" t="n">
         <v>44926</v>
@@ -56742,7 +56751,7 @@
         <v>44804</v>
       </c>
       <c r="D1524" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E1524" t="n">
         <v>0.515151515151515</v>
@@ -56768,7 +56777,7 @@
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B1525" s="1" t="n">
         <v>44926</v>
@@ -56777,7 +56786,7 @@
         <v>44771</v>
       </c>
       <c r="D1525" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E1525" t="n">
         <v>0.636363636363636</v>
@@ -56803,7 +56812,7 @@
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B1526" s="1" t="n">
         <v>44926</v>
@@ -56812,7 +56821,7 @@
         <v>44771</v>
       </c>
       <c r="D1526" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E1526" t="n">
         <v>0.575757575757576</v>
@@ -56838,7 +56847,7 @@
     </row>
     <row r="1527">
       <c r="A1527" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B1527" s="1" t="n">
         <v>44926</v>
@@ -56847,7 +56856,7 @@
         <v>44771</v>
       </c>
       <c r="D1527" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E1527" t="n">
         <v>0.606060606060606</v>
@@ -56908,7 +56917,7 @@
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B1529" s="1" t="n">
         <v>44926</v>
@@ -56917,7 +56926,7 @@
         <v>44742</v>
       </c>
       <c r="D1529" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E1529" t="n">
         <v>0.636363636363636</v>
@@ -57048,7 +57057,7 @@
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B1533" s="1" t="n">
         <v>44926</v>
@@ -57057,7 +57066,7 @@
         <v>44771</v>
       </c>
       <c r="D1533" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E1533" t="n">
         <v>0.515151515151515</v>
@@ -57188,7 +57197,7 @@
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B1537" s="1" t="n">
         <v>44926</v>
@@ -57197,7 +57206,7 @@
         <v>44774</v>
       </c>
       <c r="D1537" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E1537" t="n">
         <v>0.575757575757576</v>
@@ -57293,7 +57302,7 @@
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B1540" s="1" t="n">
         <v>44926</v>
@@ -57302,7 +57311,7 @@
         <v>44771</v>
       </c>
       <c r="D1540" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E1540" t="n">
         <v>0.666666666666667</v>
@@ -57328,7 +57337,7 @@
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B1541" s="1" t="n">
         <v>44926</v>
@@ -57337,7 +57346,7 @@
         <v>44771</v>
       </c>
       <c r="D1541" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E1541" t="n">
         <v>0.696969696969697</v>
@@ -57363,7 +57372,7 @@
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B1542" s="1" t="n">
         <v>44926</v>
@@ -57372,7 +57381,7 @@
         <v>44776</v>
       </c>
       <c r="D1542" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E1542" t="n">
         <v>0.606060606060606</v>
@@ -57398,7 +57407,7 @@
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B1543" s="1" t="n">
         <v>44926</v>
@@ -57407,7 +57416,7 @@
         <v>44774</v>
       </c>
       <c r="D1543" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E1543" t="n">
         <v>0.515151515151515</v>
@@ -57818,7 +57827,7 @@
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B1555" s="1" t="n">
         <v>44926</v>
@@ -57827,7 +57836,7 @@
         <v>44742</v>
       </c>
       <c r="D1555" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E1555" t="n">
         <v>0.606060606060606</v>
@@ -58063,7 +58072,7 @@
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B1562" s="1" t="n">
         <v>44651</v>
@@ -58072,7 +58081,7 @@
         <v>44497</v>
       </c>
       <c r="D1562" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E1562" t="n">
         <v>0.757575757575758</v>
@@ -58448,7 +58457,7 @@
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1573" s="1" t="n">
         <v>44926</v>
@@ -58457,7 +58466,7 @@
         <v>44771</v>
       </c>
       <c r="D1573" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E1573" t="n">
         <v>0.606060606060606</v>
@@ -58483,7 +58492,7 @@
     </row>
     <row r="1574">
       <c r="A1574" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B1574" s="1" t="n">
         <v>44926</v>
@@ -58492,7 +58501,7 @@
         <v>44771</v>
       </c>
       <c r="D1574" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E1574" t="n">
         <v>0.515151515151515</v>
@@ -58518,7 +58527,7 @@
     </row>
     <row r="1575">
       <c r="A1575" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B1575" s="1" t="n">
         <v>44926</v>
@@ -58527,7 +58536,7 @@
         <v>44773</v>
       </c>
       <c r="D1575" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E1575" t="n">
         <v>0.636363636363636</v>
@@ -58553,7 +58562,7 @@
     </row>
     <row r="1576">
       <c r="A1576" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B1576" s="1" t="n">
         <v>44926</v>
@@ -58562,7 +58571,7 @@
         <v>44767</v>
       </c>
       <c r="D1576" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E1576" t="n">
         <v>0.424242424242424</v>
@@ -58588,7 +58597,7 @@
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B1577" s="1" t="n">
         <v>44926</v>
@@ -58597,7 +58606,7 @@
         <v>44774</v>
       </c>
       <c r="D1577" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1577" t="n">
         <v>0.424242424242424</v>
@@ -58658,7 +58667,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B1579" s="1" t="n">
         <v>44926</v>
@@ -58667,7 +58676,7 @@
         <v>44764</v>
       </c>
       <c r="D1579" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E1579" t="n">
         <v>0.515151515151515</v>
@@ -58798,7 +58807,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B1583" s="1" t="n">
         <v>44926</v>
@@ -58807,7 +58816,7 @@
         <v>44769</v>
       </c>
       <c r="D1583" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E1583" t="n">
         <v>0.636363636363636</v>
@@ -58973,7 +58982,7 @@
     </row>
     <row r="1588">
       <c r="A1588" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B1588" s="1" t="n">
         <v>44926</v>
@@ -58982,7 +58991,7 @@
         <v>44771</v>
       </c>
       <c r="D1588" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E1588" t="n">
         <v>0.606060606060606</v>
@@ -59043,7 +59052,7 @@
     </row>
     <row r="1590">
       <c r="A1590" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B1590" s="1" t="n">
         <v>44926</v>
@@ -59052,7 +59061,7 @@
         <v>44771</v>
       </c>
       <c r="D1590" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E1590" t="n">
         <v>0.636363636363636</v>
@@ -59122,7 +59131,7 @@
         <v>44768</v>
       </c>
       <c r="D1592" t="s">
-        <v>562</v>
+        <v>935</v>
       </c>
       <c r="E1592" t="n">
         <v>0.545454545454545</v>
@@ -59332,7 +59341,7 @@
         <v>44768</v>
       </c>
       <c r="D1598" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E1598" t="n">
         <v>0.575757575757576</v>
@@ -59848,7 +59857,7 @@
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B1613" s="1" t="n">
         <v>44926</v>
@@ -59857,7 +59866,7 @@
         <v>44774</v>
       </c>
       <c r="D1613" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E1613" t="n">
         <v>0.575757575757576</v>
@@ -59883,7 +59892,7 @@
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B1614" s="1" t="n">
         <v>44926</v>
@@ -59892,7 +59901,7 @@
         <v>44771</v>
       </c>
       <c r="D1614" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E1614" t="n">
         <v>0.575757575757576</v>
@@ -59953,7 +59962,7 @@
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B1616" s="1" t="n">
         <v>44926</v>
@@ -59962,7 +59971,7 @@
         <v>44774</v>
       </c>
       <c r="D1616" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E1616" t="n">
         <v>0.666666666666667</v>
@@ -60032,7 +60041,7 @@
         <v>44770</v>
       </c>
       <c r="D1618" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E1618" t="n">
         <v>0.636363636363636</v>
@@ -60802,7 +60811,7 @@
         <v>44762</v>
       </c>
       <c r="D1640" t="s">
-        <v>632</v>
+        <v>944</v>
       </c>
       <c r="E1640" t="n">
         <v>0.393939393939394</v>
@@ -60898,7 +60907,7 @@
     </row>
     <row r="1643">
       <c r="A1643" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B1643" s="1" t="n">
         <v>44926</v>
@@ -60907,7 +60916,7 @@
         <v>44770</v>
       </c>
       <c r="D1643" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E1643" t="n">
         <v>0.727272727272727</v>
@@ -61003,7 +61012,7 @@
     </row>
     <row r="1646">
       <c r="A1646" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B1646" s="1" t="n">
         <v>44926</v>
@@ -61012,7 +61021,7 @@
         <v>44767</v>
       </c>
       <c r="D1646" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E1646" t="n">
         <v>0.606060606060606</v>
@@ -61283,7 +61292,7 @@
     </row>
     <row r="1654">
       <c r="A1654" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B1654" s="1" t="n">
         <v>44926</v>
@@ -61292,7 +61301,7 @@
         <v>44774</v>
       </c>
       <c r="D1654" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E1654" t="n">
         <v>0.636363636363636</v>
@@ -61318,7 +61327,7 @@
     </row>
     <row r="1655">
       <c r="A1655" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B1655" s="1" t="n">
         <v>44926</v>
@@ -61327,7 +61336,7 @@
         <v>44771</v>
       </c>
       <c r="D1655" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E1655" t="n">
         <v>0.545454545454545</v>
@@ -61493,7 +61502,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B1660" s="1" t="n">
         <v>44742</v>
@@ -61502,7 +61511,7 @@
         <v>44592</v>
       </c>
       <c r="D1660" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E1660" t="n">
         <v>0.606060606060606</v>
@@ -61633,7 +61642,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B1664" s="1" t="n">
         <v>44926</v>
@@ -61642,7 +61651,7 @@
         <v>44774</v>
       </c>
       <c r="D1664" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E1664" t="n">
         <v>0.696969696969697</v>
@@ -62018,7 +62027,7 @@
     </row>
     <row r="1675">
       <c r="A1675" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B1675" s="1" t="n">
         <v>44562</v>
@@ -62027,7 +62036,7 @@
         <v>44771</v>
       </c>
       <c r="D1675" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E1675" t="n">
         <v>0.727272727272727</v>
@@ -62053,7 +62062,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B1676" s="1" t="n">
         <v>44926</v>
@@ -62062,7 +62071,7 @@
         <v>44771</v>
       </c>
       <c r="D1676" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E1676" t="n">
         <v>0.727272727272727</v>
@@ -62692,7 +62701,7 @@
         <v>44771</v>
       </c>
       <c r="D1694" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E1694" t="n">
         <v>0.757575757575758</v>
@@ -63488,7 +63497,7 @@
     </row>
     <row r="1717">
       <c r="A1717" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B1717" s="1" t="n">
         <v>44926</v>
@@ -63497,7 +63506,7 @@
         <v>44771</v>
       </c>
       <c r="D1717" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E1717" t="n">
         <v>0.696969696969697</v>
@@ -63558,7 +63567,7 @@
     </row>
     <row r="1719">
       <c r="A1719" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B1719" s="1" t="n">
         <v>44926</v>
@@ -63567,7 +63576,7 @@
         <v>44771</v>
       </c>
       <c r="D1719" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E1719" t="n">
         <v>0.636363636363636</v>
@@ -63838,7 +63847,7 @@
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B1727" s="1" t="n">
         <v>45291</v>
@@ -63847,7 +63856,7 @@
         <v>45112</v>
       </c>
       <c r="D1727" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E1727" t="n">
         <v>0.666666666666667</v>
@@ -63873,7 +63882,7 @@
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B1728" s="1" t="n">
         <v>45291</v>
@@ -63882,7 +63891,7 @@
         <v>45138</v>
       </c>
       <c r="D1728" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E1728" t="n">
         <v>0.636363636363636</v>
@@ -65203,7 +65212,7 @@
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B1766" s="1" t="n">
         <v>45016</v>
@@ -65212,7 +65221,7 @@
         <v>44861</v>
       </c>
       <c r="D1766" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E1766" t="n">
         <v>0.606060606060606</v>
@@ -65833,7 +65842,7 @@
     </row>
     <row r="1784">
       <c r="A1784" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B1784" s="1" t="n">
         <v>45291</v>
@@ -65842,7 +65851,7 @@
         <v>45137</v>
       </c>
       <c r="D1784" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E1784" t="n">
         <v>0.636363636363636</v>
@@ -65903,7 +65912,7 @@
     </row>
     <row r="1786">
       <c r="A1786" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B1786" s="1" t="n">
         <v>45291</v>
@@ -65912,7 +65921,7 @@
         <v>45138</v>
       </c>
       <c r="D1786" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E1786" t="n">
         <v>0.666666666666667</v>
@@ -66122,7 +66131,7 @@
         <v>45138</v>
       </c>
       <c r="D1792" t="s">
-        <v>333</v>
+        <v>830</v>
       </c>
       <c r="E1792" t="n">
         <v>0.606060606060606</v>
@@ -66533,7 +66542,7 @@
     </row>
     <row r="1804">
       <c r="A1804" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B1804" s="1" t="n">
         <v>45291</v>
@@ -66542,7 +66551,7 @@
         <v>45135</v>
       </c>
       <c r="D1804" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E1804" t="n">
         <v>0.575757575757576</v>
@@ -66568,7 +66577,7 @@
     </row>
     <row r="1805">
       <c r="A1805" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B1805" s="1" t="n">
         <v>45291</v>
@@ -66577,7 +66586,7 @@
         <v>45138</v>
       </c>
       <c r="D1805" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E1805" t="n">
         <v>0.636363636363636</v>
@@ -66603,7 +66612,7 @@
     </row>
     <row r="1806">
       <c r="A1806" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B1806" s="1" t="n">
         <v>45291</v>
@@ -66612,7 +66621,7 @@
         <v>45138</v>
       </c>
       <c r="D1806" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E1806" t="n">
         <v>0.636363636363636</v>
@@ -67163,7 +67172,7 @@
     </row>
     <row r="1822">
       <c r="A1822" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B1822" s="1" t="n">
         <v>45291</v>
@@ -67172,7 +67181,7 @@
         <v>45138</v>
       </c>
       <c r="D1822" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E1822" t="n">
         <v>0.484848484848485</v>
@@ -67583,7 +67592,7 @@
     </row>
     <row r="1834">
       <c r="A1834" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B1834" s="1" t="n">
         <v>45291</v>
@@ -67592,7 +67601,7 @@
         <v>45138</v>
       </c>
       <c r="D1834" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E1834" t="n">
         <v>0.636363636363636</v>
@@ -67907,7 +67916,7 @@
         <v>45138</v>
       </c>
       <c r="D1843" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E1843" t="n">
         <v>0.666666666666667</v>
@@ -68073,7 +68082,7 @@
     </row>
     <row r="1848">
       <c r="A1848" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B1848" s="1" t="n">
         <v>45291</v>
@@ -68082,7 +68091,7 @@
         <v>45174</v>
       </c>
       <c r="D1848" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E1848" t="n">
         <v>0.636363636363636</v>
@@ -68283,7 +68292,7 @@
     </row>
     <row r="1854">
       <c r="A1854" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1854" s="1" t="n">
         <v>45291</v>
@@ -68292,7 +68301,7 @@
         <v>45134</v>
       </c>
       <c r="D1854" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E1854" t="n">
         <v>0.606060606060606</v>
@@ -68353,7 +68362,7 @@
     </row>
     <row r="1856">
       <c r="A1856" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1856" s="1" t="n">
         <v>45291</v>
@@ -68362,7 +68371,7 @@
         <v>45138</v>
       </c>
       <c r="D1856" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E1856" t="n">
         <v>0.575757575757576</v>
@@ -68458,7 +68467,7 @@
     </row>
     <row r="1859">
       <c r="A1859" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B1859" s="1" t="n">
         <v>45291</v>
@@ -68467,7 +68476,7 @@
         <v>45138</v>
       </c>
       <c r="D1859" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E1859" t="n">
         <v>0.606060606060606</v>
@@ -68528,7 +68537,7 @@
     </row>
     <row r="1861">
       <c r="A1861" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B1861" s="1" t="n">
         <v>45291</v>
@@ -68537,7 +68546,7 @@
         <v>45128</v>
       </c>
       <c r="D1861" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E1861" t="n">
         <v>0.575757575757576</v>
@@ -68563,7 +68572,7 @@
     </row>
     <row r="1862">
       <c r="A1862" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B1862" s="1" t="n">
         <v>45291</v>
@@ -68572,7 +68581,7 @@
         <v>45135</v>
       </c>
       <c r="D1862" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E1862" t="n">
         <v>0.666666666666667</v>
@@ -68738,7 +68747,7 @@
     </row>
     <row r="1867">
       <c r="A1867" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B1867" s="1" t="n">
         <v>45291</v>
@@ -68747,7 +68756,7 @@
         <v>45138</v>
       </c>
       <c r="D1867" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E1867" t="n">
         <v>0.636363636363636</v>
@@ -68808,7 +68817,7 @@
     </row>
     <row r="1869">
       <c r="A1869" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B1869" s="1" t="n">
         <v>45291</v>
@@ -68817,7 +68826,7 @@
         <v>45137</v>
       </c>
       <c r="D1869" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E1869" t="n">
         <v>0.696969696969697</v>
@@ -68843,7 +68852,7 @@
     </row>
     <row r="1870">
       <c r="A1870" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B1870" s="1" t="n">
         <v>45291</v>
@@ -68852,7 +68861,7 @@
         <v>45138</v>
       </c>
       <c r="D1870" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E1870" t="n">
         <v>0.636363636363636</v>
@@ -68983,7 +68992,7 @@
     </row>
     <row r="1874">
       <c r="A1874" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B1874" s="1" t="n">
         <v>45291</v>
@@ -68992,7 +69001,7 @@
         <v>45103</v>
       </c>
       <c r="D1874" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E1874" t="n">
         <v>0.666666666666667</v>
@@ -69053,7 +69062,7 @@
     </row>
     <row r="1876">
       <c r="A1876" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B1876" s="1" t="n">
         <v>45291</v>
@@ -69062,7 +69071,7 @@
         <v>45138</v>
       </c>
       <c r="D1876" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E1876" t="n">
         <v>0.666666666666667</v>
@@ -69123,7 +69132,7 @@
     </row>
     <row r="1878">
       <c r="A1878" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1878" s="1" t="n">
         <v>45291</v>
@@ -69132,7 +69141,7 @@
         <v>45138</v>
       </c>
       <c r="D1878" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E1878" t="n">
         <v>0.636363636363636</v>
@@ -69158,7 +69167,7 @@
     </row>
     <row r="1879">
       <c r="A1879" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1879" s="1" t="n">
         <v>45291</v>
@@ -69167,7 +69176,7 @@
         <v>45138</v>
       </c>
       <c r="D1879" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E1879" t="n">
         <v>0.727272727272727</v>
@@ -69368,7 +69377,7 @@
     </row>
     <row r="1885">
       <c r="A1885" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B1885" s="1" t="n">
         <v>45291</v>
@@ -69377,7 +69386,7 @@
         <v>45138</v>
       </c>
       <c r="D1885" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E1885" t="n">
         <v>0.636363636363636</v>
@@ -69403,7 +69412,7 @@
     </row>
     <row r="1886">
       <c r="A1886" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B1886" s="1" t="n">
         <v>45291</v>
@@ -69412,7 +69421,7 @@
         <v>45138</v>
       </c>
       <c r="D1886" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E1886" t="n">
         <v>0.636363636363636</v>
@@ -69508,7 +69517,7 @@
     </row>
     <row r="1889">
       <c r="A1889" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B1889" s="1" t="n">
         <v>45291</v>
@@ -69517,7 +69526,7 @@
         <v>45135</v>
       </c>
       <c r="D1889" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E1889" t="n">
         <v>0.666666666666667</v>
@@ -69543,7 +69552,7 @@
     </row>
     <row r="1890">
       <c r="A1890" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B1890" s="1" t="n">
         <v>45291</v>
@@ -69552,7 +69561,7 @@
         <v>45134</v>
       </c>
       <c r="D1890" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E1890" t="n">
         <v>0.666666666666667</v>
@@ -69718,7 +69727,7 @@
     </row>
     <row r="1895">
       <c r="A1895" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1895" s="1" t="n">
         <v>45291</v>
@@ -69727,7 +69736,7 @@
         <v>45138</v>
       </c>
       <c r="D1895" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1895" t="n">
         <v>0.636363636363636</v>
@@ -69788,7 +69797,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B1897" s="1" t="n">
         <v>45291</v>
@@ -69797,7 +69806,7 @@
         <v>45133</v>
       </c>
       <c r="D1897" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E1897" t="n">
         <v>0.454545454545455</v>
@@ -69823,7 +69832,7 @@
     </row>
     <row r="1898">
       <c r="A1898" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B1898" s="1" t="n">
         <v>45291</v>
@@ -69832,7 +69841,7 @@
         <v>45136</v>
       </c>
       <c r="D1898" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E1898" t="n">
         <v>0.636363636363636</v>
@@ -69858,7 +69867,7 @@
     </row>
     <row r="1899">
       <c r="A1899" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B1899" s="1" t="n">
         <v>45291</v>
@@ -69867,7 +69876,7 @@
         <v>45135</v>
       </c>
       <c r="D1899" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E1899" t="n">
         <v>0.575757575757576</v>
@@ -69893,7 +69902,7 @@
     </row>
     <row r="1900">
       <c r="A1900" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B1900" s="1" t="n">
         <v>45291</v>
@@ -69902,7 +69911,7 @@
         <v>45138</v>
       </c>
       <c r="D1900" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E1900" t="n">
         <v>0.575757575757576</v>
@@ -69928,7 +69937,7 @@
     </row>
     <row r="1901">
       <c r="A1901" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B1901" s="1" t="n">
         <v>45291</v>
@@ -69937,7 +69946,7 @@
         <v>45138</v>
       </c>
       <c r="D1901" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E1901" t="n">
         <v>0.636363636363636</v>
@@ -70348,7 +70357,7 @@
     </row>
     <row r="1913">
       <c r="A1913" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B1913" s="1" t="n">
         <v>45291</v>
@@ -70357,7 +70366,7 @@
         <v>45138</v>
       </c>
       <c r="D1913" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E1913" t="n">
         <v>0.727272727272727</v>
@@ -70383,7 +70392,7 @@
     </row>
     <row r="1914">
       <c r="A1914" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1914" s="1" t="n">
         <v>45291</v>
@@ -70392,7 +70401,7 @@
         <v>45133</v>
       </c>
       <c r="D1914" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E1914" t="n">
         <v>0.666666666666667</v>
@@ -70418,7 +70427,7 @@
     </row>
     <row r="1915">
       <c r="A1915" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1915" s="1" t="n">
         <v>45291</v>
@@ -70427,7 +70436,7 @@
         <v>45138</v>
       </c>
       <c r="D1915" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E1915" t="n">
         <v>0.636363636363636</v>
@@ -70803,7 +70812,7 @@
     </row>
     <row r="1926">
       <c r="A1926" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1926" s="1" t="n">
         <v>45291</v>
@@ -70812,7 +70821,7 @@
         <v>45138</v>
       </c>
       <c r="D1926" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E1926" t="n">
         <v>0.606060606060606</v>
@@ -70873,7 +70882,7 @@
     </row>
     <row r="1928">
       <c r="A1928" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B1928" s="1" t="n">
         <v>45291</v>
@@ -70882,7 +70891,7 @@
         <v>45145</v>
       </c>
       <c r="D1928" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1928" t="n">
         <v>0.545454545454545</v>
@@ -70943,7 +70952,7 @@
     </row>
     <row r="1930">
       <c r="A1930" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B1930" s="1" t="n">
         <v>45291</v>
@@ -70952,7 +70961,7 @@
         <v>45138</v>
       </c>
       <c r="D1930" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E1930" t="n">
         <v>0.636363636363636</v>
@@ -70987,7 +70996,7 @@
         <v>45141</v>
       </c>
       <c r="D1931" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E1931" t="n">
         <v>0.545454545454545</v>
@@ -71013,7 +71022,7 @@
     </row>
     <row r="1932">
       <c r="A1932" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B1932" s="1" t="n">
         <v>45291</v>
@@ -71022,7 +71031,7 @@
         <v>45135</v>
       </c>
       <c r="D1932" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E1932" t="n">
         <v>0.606060606060606</v>
@@ -71048,7 +71057,7 @@
     </row>
     <row r="1933">
       <c r="A1933" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B1933" s="1" t="n">
         <v>45291</v>
@@ -71057,7 +71066,7 @@
         <v>45138</v>
       </c>
       <c r="D1933" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E1933" t="n">
         <v>0.757575757575758</v>
@@ -71118,7 +71127,7 @@
     </row>
     <row r="1935">
       <c r="A1935" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B1935" s="1" t="n">
         <v>45291</v>
@@ -71127,7 +71136,7 @@
         <v>45138</v>
       </c>
       <c r="D1935" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E1935" t="n">
         <v>0.696969696969697</v>
@@ -71153,7 +71162,7 @@
     </row>
     <row r="1936">
       <c r="A1936" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B1936" s="1" t="n">
         <v>45291</v>
@@ -71162,7 +71171,7 @@
         <v>45134</v>
       </c>
       <c r="D1936" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E1936" t="n">
         <v>0.575757575757576</v>
@@ -71328,7 +71337,7 @@
     </row>
     <row r="1941">
       <c r="A1941" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B1941" s="1" t="n">
         <v>45291</v>
@@ -71337,7 +71346,7 @@
         <v>45135</v>
       </c>
       <c r="D1941" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E1941" t="n">
         <v>0.575757575757576</v>
@@ -71398,7 +71407,7 @@
     </row>
     <row r="1943">
       <c r="A1943" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B1943" s="1" t="n">
         <v>45291</v>
@@ -71407,7 +71416,7 @@
         <v>45138</v>
       </c>
       <c r="D1943" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E1943" t="n">
         <v>0.727272727272727</v>
@@ -71468,7 +71477,7 @@
     </row>
     <row r="1945">
       <c r="A1945" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B1945" s="1" t="n">
         <v>45291</v>
@@ -71477,7 +71486,7 @@
         <v>45135</v>
       </c>
       <c r="D1945" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E1945" t="n">
         <v>0.696969696969697</v>
@@ -71538,7 +71547,7 @@
     </row>
     <row r="1947">
       <c r="A1947" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B1947" s="1" t="n">
         <v>45291</v>
@@ -71547,7 +71556,7 @@
         <v>45135</v>
       </c>
       <c r="D1947" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E1947" t="n">
         <v>0.636363636363636</v>
@@ -71573,7 +71582,7 @@
     </row>
     <row r="1948">
       <c r="A1948" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B1948" s="1" t="n">
         <v>45291</v>
@@ -71582,7 +71591,7 @@
         <v>45135</v>
       </c>
       <c r="D1948" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E1948" t="n">
         <v>0.575757575757576</v>
@@ -71608,7 +71617,7 @@
     </row>
     <row r="1949">
       <c r="A1949" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B1949" s="1" t="n">
         <v>45291</v>
@@ -71617,7 +71626,7 @@
         <v>45135</v>
       </c>
       <c r="D1949" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E1949" t="n">
         <v>0.606060606060606</v>
@@ -71678,7 +71687,7 @@
     </row>
     <row r="1951">
       <c r="A1951" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B1951" s="1" t="n">
         <v>45291</v>
@@ -71687,7 +71696,7 @@
         <v>45138</v>
       </c>
       <c r="D1951" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E1951" t="n">
         <v>0.666666666666667</v>
@@ -71818,7 +71827,7 @@
     </row>
     <row r="1955">
       <c r="A1955" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B1955" s="1" t="n">
         <v>45291</v>
@@ -71827,7 +71836,7 @@
         <v>45138</v>
       </c>
       <c r="D1955" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E1955" t="n">
         <v>0.606060606060606</v>
@@ -71923,7 +71932,7 @@
     </row>
     <row r="1958">
       <c r="A1958" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B1958" s="1" t="n">
         <v>45291</v>
@@ -71932,7 +71941,7 @@
         <v>45138</v>
       </c>
       <c r="D1958" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E1958" t="n">
         <v>0.545454545454545</v>
@@ -72028,7 +72037,7 @@
     </row>
     <row r="1961">
       <c r="A1961" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B1961" s="1" t="n">
         <v>45291</v>
@@ -72037,7 +72046,7 @@
         <v>45138</v>
       </c>
       <c r="D1961" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E1961" t="n">
         <v>0.666666666666667</v>
@@ -72063,7 +72072,7 @@
     </row>
     <row r="1962">
       <c r="A1962" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B1962" s="1" t="n">
         <v>45291</v>
@@ -72072,7 +72081,7 @@
         <v>45133</v>
       </c>
       <c r="D1962" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E1962" t="n">
         <v>0.696969696969697</v>
@@ -72098,7 +72107,7 @@
     </row>
     <row r="1963">
       <c r="A1963" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B1963" s="1" t="n">
         <v>45291</v>
@@ -72107,7 +72116,7 @@
         <v>45138</v>
       </c>
       <c r="D1963" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E1963" t="n">
         <v>0.515151515151515</v>
@@ -72483,7 +72492,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B1974" s="1" t="n">
         <v>45291</v>
@@ -72492,7 +72501,7 @@
         <v>45106</v>
       </c>
       <c r="D1974" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E1974" t="n">
         <v>0.606060606060606</v>
@@ -72728,7 +72737,7 @@
     </row>
     <row r="1981">
       <c r="A1981" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B1981" s="1" t="n">
         <v>45016</v>
@@ -72737,7 +72746,7 @@
         <v>44865</v>
       </c>
       <c r="D1981" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E1981" t="n">
         <v>0.757575757575758</v>
@@ -73113,7 +73122,7 @@
     </row>
     <row r="1992">
       <c r="A1992" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1992" s="1" t="n">
         <v>45291</v>
@@ -73122,7 +73131,7 @@
         <v>45138</v>
       </c>
       <c r="D1992" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E1992" t="n">
         <v>0.606060606060606</v>
@@ -73148,7 +73157,7 @@
     </row>
     <row r="1993">
       <c r="A1993" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B1993" s="1" t="n">
         <v>45291</v>
@@ -73157,7 +73166,7 @@
         <v>45135</v>
       </c>
       <c r="D1993" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E1993" t="n">
         <v>0.515151515151515</v>
@@ -73183,7 +73192,7 @@
     </row>
     <row r="1994">
       <c r="A1994" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B1994" s="1" t="n">
         <v>45291</v>
@@ -73192,7 +73201,7 @@
         <v>45139</v>
       </c>
       <c r="D1994" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E1994" t="n">
         <v>0.636363636363636</v>
@@ -73218,7 +73227,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B1995" s="1" t="n">
         <v>45291</v>
@@ -73227,7 +73236,7 @@
         <v>45134</v>
       </c>
       <c r="D1995" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E1995" t="n">
         <v>0.636363636363636</v>
@@ -73253,7 +73262,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B1996" s="1" t="n">
         <v>45291</v>
@@ -73262,7 +73271,7 @@
         <v>45138</v>
       </c>
       <c r="D1996" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E1996" t="n">
         <v>0.696969696969697</v>
@@ -73288,7 +73297,7 @@
     </row>
     <row r="1997">
       <c r="A1997" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B1997" s="1" t="n">
         <v>45291</v>
@@ -73297,7 +73306,7 @@
         <v>45138</v>
       </c>
       <c r="D1997" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E1997" t="n">
         <v>0.424242424242424</v>
@@ -73323,7 +73332,7 @@
     </row>
     <row r="1998">
       <c r="A1998" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B1998" s="1" t="n">
         <v>45291</v>
@@ -73332,7 +73341,7 @@
         <v>45138</v>
       </c>
       <c r="D1998" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E1998" t="n">
         <v>0.606060606060606</v>
@@ -73393,7 +73402,7 @@
     </row>
     <row r="2000">
       <c r="A2000" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B2000" s="1" t="n">
         <v>45291</v>
@@ -73402,7 +73411,7 @@
         <v>45132</v>
       </c>
       <c r="D2000" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E2000" t="n">
         <v>0.515151515151515</v>
@@ -73533,7 +73542,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B2004" s="1" t="n">
         <v>45291</v>
@@ -73542,7 +73551,7 @@
         <v>45135</v>
       </c>
       <c r="D2004" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E2004" t="n">
         <v>0.606060606060606</v>
@@ -73568,7 +73577,7 @@
     </row>
     <row r="2005">
       <c r="A2005" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B2005" s="1" t="n">
         <v>45291</v>
@@ -73577,7 +73586,7 @@
         <v>45138</v>
       </c>
       <c r="D2005" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E2005" t="n">
         <v>0.606060606060606</v>
@@ -73708,7 +73717,7 @@
     </row>
     <row r="2009">
       <c r="A2009" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B2009" s="1" t="n">
         <v>45291</v>
@@ -73717,7 +73726,7 @@
         <v>45138</v>
       </c>
       <c r="D2009" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E2009" t="n">
         <v>0.606060606060606</v>
@@ -73778,7 +73787,7 @@
     </row>
     <row r="2011">
       <c r="A2011" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2011" s="1" t="n">
         <v>45291</v>
@@ -73787,7 +73796,7 @@
         <v>45132</v>
       </c>
       <c r="D2011" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2011" t="n">
         <v>0.606060606060606</v>
@@ -73848,7 +73857,7 @@
     </row>
     <row r="2013">
       <c r="A2013" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B2013" s="1" t="n">
         <v>45291</v>
@@ -73857,7 +73866,7 @@
         <v>45128</v>
       </c>
       <c r="D2013" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="E2013" t="n">
         <v>0.696969696969697</v>
@@ -73892,7 +73901,7 @@
         <v>45138</v>
       </c>
       <c r="D2014" t="s">
-        <v>562</v>
+        <v>935</v>
       </c>
       <c r="E2014" t="n">
         <v>0.636363636363636</v>
@@ -74102,7 +74111,7 @@
         <v>45135</v>
       </c>
       <c r="D2020" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E2020" t="n">
         <v>0.575757575757576</v>
@@ -74618,7 +74627,7 @@
     </row>
     <row r="2035">
       <c r="A2035" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B2035" s="1" t="n">
         <v>45291</v>
@@ -74627,7 +74636,7 @@
         <v>45138</v>
       </c>
       <c r="D2035" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E2035" t="n">
         <v>0.575757575757576</v>
@@ -74653,7 +74662,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B2036" s="1" t="n">
         <v>45291</v>
@@ -74662,7 +74671,7 @@
         <v>45138</v>
       </c>
       <c r="D2036" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E2036" t="n">
         <v>0.606060606060606</v>
@@ -74723,7 +74732,7 @@
     </row>
     <row r="2038">
       <c r="A2038" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B2038" s="1" t="n">
         <v>45291</v>
@@ -74732,7 +74741,7 @@
         <v>45138</v>
       </c>
       <c r="D2038" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E2038" t="n">
         <v>0.666666666666667</v>
@@ -74802,7 +74811,7 @@
         <v>45138</v>
       </c>
       <c r="D2040" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E2040" t="n">
         <v>0.666666666666667</v>
@@ -75537,7 +75546,7 @@
         <v>45160</v>
       </c>
       <c r="D2061" t="s">
-        <v>632</v>
+        <v>944</v>
       </c>
       <c r="E2061" t="n">
         <v>0.393939393939394</v>
@@ -75633,7 +75642,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B2064" s="1" t="n">
         <v>45291</v>
@@ -75642,7 +75651,7 @@
         <v>45132</v>
       </c>
       <c r="D2064" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E2064" t="n">
         <v>0.757575757575758</v>
@@ -75738,7 +75747,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B2067" s="1" t="n">
         <v>45291</v>
@@ -75747,7 +75756,7 @@
         <v>45135</v>
       </c>
       <c r="D2067" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E2067" t="n">
         <v>0.666666666666667</v>
@@ -76018,7 +76027,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B2075" s="1" t="n">
         <v>45291</v>
@@ -76027,7 +76036,7 @@
         <v>45138</v>
       </c>
       <c r="D2075" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E2075" t="n">
         <v>0.575757575757576</v>
@@ -76193,7 +76202,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B2080" s="1" t="n">
         <v>45107</v>
@@ -76202,7 +76211,7 @@
         <v>44944</v>
       </c>
       <c r="D2080" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E2080" t="n">
         <v>0.636363636363636</v>
@@ -76333,7 +76342,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B2084" s="1" t="n">
         <v>45291</v>
@@ -76342,7 +76351,7 @@
         <v>45128</v>
       </c>
       <c r="D2084" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E2084" t="n">
         <v>0.696969696969697</v>
@@ -76683,7 +76692,7 @@
     </row>
     <row r="2094">
       <c r="A2094" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B2094" s="1" t="n">
         <v>45291</v>
@@ -76692,7 +76701,7 @@
         <v>45138</v>
       </c>
       <c r="D2094" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E2094" t="n">
         <v>0.696969696969697</v>
@@ -77322,7 +77331,7 @@
         <v>45138</v>
       </c>
       <c r="D2112" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E2112" t="n">
         <v>0.757575757575758</v>
@@ -78083,7 +78092,7 @@
     </row>
     <row r="2134">
       <c r="A2134" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B2134" s="1" t="n">
         <v>45291</v>
@@ -78092,7 +78101,7 @@
         <v>45138</v>
       </c>
       <c r="D2134" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E2134" t="n">
         <v>0.696969696969697</v>
@@ -78153,7 +78162,7 @@
     </row>
     <row r="2136">
       <c r="A2136" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B2136" s="1" t="n">
         <v>45291</v>
@@ -78162,7 +78171,7 @@
         <v>45135</v>
       </c>
       <c r="D2136" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E2136" t="n">
         <v>0.666666666666667</v>
@@ -78433,7 +78442,7 @@
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B2144" s="1" t="n">
         <v>45657</v>
@@ -78442,7 +78451,7 @@
         <v>45503</v>
       </c>
       <c r="D2144" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E2144" t="n">
         <v>0.666666666666667</v>
@@ -78468,7 +78477,7 @@
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B2145" s="1" t="n">
         <v>45657</v>
@@ -78477,7 +78486,7 @@
         <v>45504</v>
       </c>
       <c r="D2145" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E2145" t="n">
         <v>0.636363636363636</v>
@@ -79588,7 +79597,7 @@
     </row>
     <row r="2177">
       <c r="A2177" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B2177" s="1" t="n">
         <v>45382</v>
@@ -79597,7 +79606,7 @@
         <v>45230</v>
       </c>
       <c r="D2177" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E2177" t="n">
         <v>0.606060606060606</v>
@@ -80078,7 +80087,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B2191" s="1" t="n">
         <v>45657</v>
@@ -80087,7 +80096,7 @@
         <v>45489</v>
       </c>
       <c r="D2191" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E2191" t="n">
         <v>0.636363636363636</v>
@@ -80192,7 +80201,7 @@
         <v>45504</v>
       </c>
       <c r="D2194" t="s">
-        <v>333</v>
+        <v>830</v>
       </c>
       <c r="E2194" t="n">
         <v>0.606060606060606</v>
@@ -80498,7 +80507,7 @@
     </row>
     <row r="2203">
       <c r="A2203" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2203" s="1" t="n">
         <v>45657</v>
@@ -80507,7 +80516,7 @@
         <v>45492</v>
       </c>
       <c r="D2203" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2203" t="n">
         <v>0.575757575757576</v>
@@ -80533,7 +80542,7 @@
     </row>
     <row r="2204">
       <c r="A2204" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B2204" s="1" t="n">
         <v>45657</v>
@@ -80542,7 +80551,7 @@
         <v>45504</v>
       </c>
       <c r="D2204" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E2204" t="n">
         <v>0.636363636363636</v>
@@ -80568,7 +80577,7 @@
     </row>
     <row r="2205">
       <c r="A2205" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B2205" s="1" t="n">
         <v>45657</v>
@@ -80577,7 +80586,7 @@
         <v>45504</v>
       </c>
       <c r="D2205" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2205" t="n">
         <v>0.636363636363636</v>
@@ -81233,7 +81242,7 @@
     </row>
     <row r="2224">
       <c r="A2224" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2224" s="1" t="n">
         <v>45657</v>
@@ -81242,7 +81251,7 @@
         <v>45504</v>
       </c>
       <c r="D2224" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E2224" t="n">
         <v>0.636363636363636</v>
@@ -81522,7 +81531,7 @@
         <v>45504</v>
       </c>
       <c r="D2232" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E2232" t="n">
         <v>0.666666666666667</v>
@@ -81653,7 +81662,7 @@
     </row>
     <row r="2236">
       <c r="A2236" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B2236" s="1" t="n">
         <v>45657</v>
@@ -81662,7 +81671,7 @@
         <v>45492</v>
       </c>
       <c r="D2236" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E2236" t="n">
         <v>0.636363636363636</v>
@@ -81828,7 +81837,7 @@
     </row>
     <row r="2241">
       <c r="A2241" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B2241" s="1" t="n">
         <v>45657</v>
@@ -81837,7 +81846,7 @@
         <v>45504</v>
       </c>
       <c r="D2241" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E2241" t="n">
         <v>0.606060606060606</v>
@@ -81968,7 +81977,7 @@
     </row>
     <row r="2245">
       <c r="A2245" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B2245" s="1" t="n">
         <v>45657</v>
@@ -81977,7 +81986,7 @@
         <v>45504</v>
       </c>
       <c r="D2245" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E2245" t="n">
         <v>0.606060606060606</v>
@@ -82003,7 +82012,7 @@
     </row>
     <row r="2246">
       <c r="A2246" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B2246" s="1" t="n">
         <v>45657</v>
@@ -82012,7 +82021,7 @@
         <v>45503</v>
       </c>
       <c r="D2246" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E2246" t="n">
         <v>0.515151515151515</v>
@@ -82038,7 +82047,7 @@
     </row>
     <row r="2247">
       <c r="A2247" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B2247" s="1" t="n">
         <v>45657</v>
@@ -82047,7 +82056,7 @@
         <v>45497</v>
       </c>
       <c r="D2247" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E2247" t="n">
         <v>0.666666666666667</v>
@@ -82248,7 +82257,7 @@
     </row>
     <row r="2253">
       <c r="A2253" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B2253" s="1" t="n">
         <v>45657</v>
@@ -82257,7 +82266,7 @@
         <v>45504</v>
       </c>
       <c r="D2253" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E2253" t="n">
         <v>0.696969696969697</v>
@@ -82283,7 +82292,7 @@
     </row>
     <row r="2254">
       <c r="A2254" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B2254" s="1" t="n">
         <v>45657</v>
@@ -82292,7 +82301,7 @@
         <v>45504</v>
       </c>
       <c r="D2254" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E2254" t="n">
         <v>0.636363636363636</v>
@@ -82423,7 +82432,7 @@
     </row>
     <row r="2258">
       <c r="A2258" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B2258" s="1" t="n">
         <v>45657</v>
@@ -82432,7 +82441,7 @@
         <v>45496</v>
       </c>
       <c r="D2258" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E2258" t="n">
         <v>0.666666666666667</v>
@@ -82493,7 +82502,7 @@
     </row>
     <row r="2260">
       <c r="A2260" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B2260" s="1" t="n">
         <v>45657</v>
@@ -82502,7 +82511,7 @@
         <v>45504</v>
       </c>
       <c r="D2260" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E2260" t="n">
         <v>0.636363636363636</v>
@@ -82528,7 +82537,7 @@
     </row>
     <row r="2261">
       <c r="A2261" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B2261" s="1" t="n">
         <v>45657</v>
@@ -82537,7 +82546,7 @@
         <v>45502</v>
       </c>
       <c r="D2261" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E2261" t="n">
         <v>0.636363636363636</v>
@@ -82563,7 +82572,7 @@
     </row>
     <row r="2262">
       <c r="A2262" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B2262" s="1" t="n">
         <v>45657</v>
@@ -82572,7 +82581,7 @@
         <v>45504</v>
       </c>
       <c r="D2262" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E2262" t="n">
         <v>0.727272727272727</v>
@@ -82738,7 +82747,7 @@
     </row>
     <row r="2267">
       <c r="A2267" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2267" s="1" t="n">
         <v>45656</v>
@@ -82747,7 +82756,7 @@
         <v>45503</v>
       </c>
       <c r="D2267" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E2267" t="n">
         <v>0.636363636363636</v>
@@ -82773,7 +82782,7 @@
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B2268" s="1" t="n">
         <v>45657</v>
@@ -82782,7 +82791,7 @@
         <v>45504</v>
       </c>
       <c r="D2268" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E2268" t="n">
         <v>0.636363636363636</v>
@@ -82878,7 +82887,7 @@
     </row>
     <row r="2271">
       <c r="A2271" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B2271" s="1" t="n">
         <v>45657</v>
@@ -82887,7 +82896,7 @@
         <v>45504</v>
       </c>
       <c r="D2271" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E2271" t="n">
         <v>0.666666666666667</v>
@@ -82913,7 +82922,7 @@
     </row>
     <row r="2272">
       <c r="A2272" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B2272" s="1" t="n">
         <v>45657</v>
@@ -82922,7 +82931,7 @@
         <v>45490</v>
       </c>
       <c r="D2272" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E2272" t="n">
         <v>0.666666666666667</v>
@@ -83053,7 +83062,7 @@
     </row>
     <row r="2276">
       <c r="A2276" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B2276" s="1" t="n">
         <v>45657</v>
@@ -83062,7 +83071,7 @@
         <v>45509</v>
       </c>
       <c r="D2276" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E2276" t="n">
         <v>0.636363636363636</v>
@@ -83123,7 +83132,7 @@
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B2278" s="1" t="n">
         <v>45657</v>
@@ -83132,7 +83141,7 @@
         <v>45503</v>
       </c>
       <c r="D2278" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E2278" t="n">
         <v>0.454545454545455</v>
@@ -83158,7 +83167,7 @@
     </row>
     <row r="2279">
       <c r="A2279" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B2279" s="1" t="n">
         <v>45657</v>
@@ -83167,7 +83176,7 @@
         <v>45499</v>
       </c>
       <c r="D2279" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E2279" t="n">
         <v>0.636363636363636</v>
@@ -83193,7 +83202,7 @@
     </row>
     <row r="2280">
       <c r="A2280" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B2280" s="1" t="n">
         <v>45657</v>
@@ -83202,7 +83211,7 @@
         <v>45504</v>
       </c>
       <c r="D2280" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E2280" t="n">
         <v>0.575757575757576</v>
@@ -83228,7 +83237,7 @@
     </row>
     <row r="2281">
       <c r="A2281" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B2281" s="1" t="n">
         <v>45657</v>
@@ -83237,7 +83246,7 @@
         <v>45504</v>
       </c>
       <c r="D2281" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E2281" t="n">
         <v>0.575757575757576</v>
@@ -83578,7 +83587,7 @@
     </row>
     <row r="2291">
       <c r="A2291" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B2291" s="1" t="n">
         <v>45657</v>
@@ -83587,7 +83596,7 @@
         <v>45504</v>
       </c>
       <c r="D2291" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E2291" t="n">
         <v>0.727272727272727</v>
@@ -83613,7 +83622,7 @@
     </row>
     <row r="2292">
       <c r="A2292" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B2292" s="1" t="n">
         <v>45657</v>
@@ -83622,7 +83631,7 @@
         <v>45503</v>
       </c>
       <c r="D2292" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E2292" t="n">
         <v>0.696969696969697</v>
@@ -83648,7 +83657,7 @@
     </row>
     <row r="2293">
       <c r="A2293" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B2293" s="1" t="n">
         <v>45657</v>
@@ -83657,7 +83666,7 @@
         <v>45503</v>
       </c>
       <c r="D2293" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E2293" t="n">
         <v>0.636363636363636</v>
@@ -83893,7 +83902,7 @@
     </row>
     <row r="2300">
       <c r="A2300" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B2300" s="1" t="n">
         <v>45657</v>
@@ -83902,7 +83911,7 @@
         <v>45495</v>
       </c>
       <c r="D2300" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E2300" t="n">
         <v>0.606060606060606</v>
@@ -83963,7 +83972,7 @@
     </row>
     <row r="2302">
       <c r="A2302" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B2302" s="1" t="n">
         <v>45657</v>
@@ -83972,7 +83981,7 @@
         <v>45504</v>
       </c>
       <c r="D2302" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E2302" t="n">
         <v>0.636363636363636</v>
@@ -84007,7 +84016,7 @@
         <v>45504</v>
       </c>
       <c r="D2303" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E2303" t="n">
         <v>0.545454545454545</v>
@@ -84033,7 +84042,7 @@
     </row>
     <row r="2304">
       <c r="A2304" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B2304" s="1" t="n">
         <v>45657</v>
@@ -84042,7 +84051,7 @@
         <v>45504</v>
       </c>
       <c r="D2304" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2304" t="n">
         <v>0.606060606060606</v>
@@ -84068,7 +84077,7 @@
     </row>
     <row r="2305">
       <c r="A2305" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B2305" s="1" t="n">
         <v>45657</v>
@@ -84077,7 +84086,7 @@
         <v>45504</v>
       </c>
       <c r="D2305" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E2305" t="n">
         <v>0.757575757575758</v>
@@ -84103,7 +84112,7 @@
     </row>
     <row r="2306">
       <c r="A2306" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B2306" s="1" t="n">
         <v>45657</v>
@@ -84112,7 +84121,7 @@
         <v>45496</v>
       </c>
       <c r="D2306" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E2306" t="n">
         <v>0.636363636363636</v>
@@ -84138,7 +84147,7 @@
     </row>
     <row r="2307">
       <c r="A2307" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2307" s="1" t="n">
         <v>45657</v>
@@ -84147,7 +84156,7 @@
         <v>45504</v>
       </c>
       <c r="D2307" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E2307" t="n">
         <v>0.696969696969697</v>
@@ -84173,7 +84182,7 @@
     </row>
     <row r="2308">
       <c r="A2308" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B2308" s="1" t="n">
         <v>45657</v>
@@ -84182,7 +84191,7 @@
         <v>45491</v>
       </c>
       <c r="D2308" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E2308" t="n">
         <v>0.575757575757576</v>
@@ -84348,7 +84357,7 @@
     </row>
     <row r="2313">
       <c r="A2313" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B2313" s="1" t="n">
         <v>45657</v>
@@ -84357,7 +84366,7 @@
         <v>45499</v>
       </c>
       <c r="D2313" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E2313" t="n">
         <v>0.575757575757576</v>
@@ -84418,7 +84427,7 @@
     </row>
     <row r="2315">
       <c r="A2315" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B2315" s="1" t="n">
         <v>45657</v>
@@ -84427,7 +84436,7 @@
         <v>45371</v>
       </c>
       <c r="D2315" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E2315" t="n">
         <v>0.666666666666667</v>
@@ -84488,7 +84497,7 @@
     </row>
     <row r="2317">
       <c r="A2317" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B2317" s="1" t="n">
         <v>45657</v>
@@ -84497,7 +84506,7 @@
         <v>45587</v>
       </c>
       <c r="D2317" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E2317" t="n">
         <v>0.636363636363636</v>
@@ -84558,7 +84567,7 @@
     </row>
     <row r="2319">
       <c r="A2319" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B2319" s="1" t="n">
         <v>45657</v>
@@ -84567,7 +84576,7 @@
         <v>45504</v>
       </c>
       <c r="D2319" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E2319" t="n">
         <v>0.606060606060606</v>
@@ -84593,7 +84602,7 @@
     </row>
     <row r="2320">
       <c r="A2320" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B2320" s="1" t="n">
         <v>45657</v>
@@ -84602,7 +84611,7 @@
         <v>45504</v>
       </c>
       <c r="D2320" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E2320" t="n">
         <v>0.606060606060606</v>
@@ -84698,7 +84707,7 @@
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B2323" s="1" t="n">
         <v>45657</v>
@@ -84707,7 +84716,7 @@
         <v>45503</v>
       </c>
       <c r="D2323" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E2323" t="n">
         <v>0.606060606060606</v>
@@ -84838,7 +84847,7 @@
     </row>
     <row r="2327">
       <c r="A2327" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B2327" s="1" t="n">
         <v>45657</v>
@@ -84847,7 +84856,7 @@
         <v>45504</v>
       </c>
       <c r="D2327" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E2327" t="n">
         <v>0.636363636363636</v>
@@ -85223,7 +85232,7 @@
     </row>
     <row r="2338">
       <c r="A2338" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B2338" s="1" t="n">
         <v>45657</v>
@@ -85232,7 +85241,7 @@
         <v>45488</v>
       </c>
       <c r="D2338" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E2338" t="n">
         <v>0.606060606060606</v>
@@ -85363,7 +85372,7 @@
     </row>
     <row r="2342">
       <c r="A2342" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B2342" s="1" t="n">
         <v>45382</v>
@@ -85372,7 +85381,7 @@
         <v>45230</v>
       </c>
       <c r="D2342" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E2342" t="n">
         <v>0.727272727272727</v>
@@ -85713,7 +85722,7 @@
     </row>
     <row r="2352">
       <c r="A2352" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B2352" s="1" t="n">
         <v>45657</v>
@@ -85722,7 +85731,7 @@
         <v>45504</v>
       </c>
       <c r="D2352" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2352" t="n">
         <v>0.636363636363636</v>
@@ -85748,7 +85757,7 @@
     </row>
     <row r="2353">
       <c r="A2353" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B2353" s="1" t="n">
         <v>45657</v>
@@ -85757,7 +85766,7 @@
         <v>45504</v>
       </c>
       <c r="D2353" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E2353" t="n">
         <v>0.515151515151515</v>
@@ -85783,7 +85792,7 @@
     </row>
     <row r="2354">
       <c r="A2354" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B2354" s="1" t="n">
         <v>45657</v>
@@ -85792,7 +85801,7 @@
         <v>45504</v>
       </c>
       <c r="D2354" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E2354" t="n">
         <v>0.636363636363636</v>
@@ -85818,7 +85827,7 @@
     </row>
     <row r="2355">
       <c r="A2355" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B2355" s="1" t="n">
         <v>45657</v>
@@ -85827,7 +85836,7 @@
         <v>45503</v>
       </c>
       <c r="D2355" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E2355" t="n">
         <v>0.696969696969697</v>
@@ -85853,7 +85862,7 @@
     </row>
     <row r="2356">
       <c r="A2356" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B2356" s="1" t="n">
         <v>45657</v>
@@ -85862,7 +85871,7 @@
         <v>45504</v>
       </c>
       <c r="D2356" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E2356" t="n">
         <v>0.606060606060606</v>
@@ -85923,7 +85932,7 @@
     </row>
     <row r="2358">
       <c r="A2358" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B2358" s="1" t="n">
         <v>45657</v>
@@ -85932,7 +85941,7 @@
         <v>45502</v>
       </c>
       <c r="D2358" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E2358" t="n">
         <v>0.515151515151515</v>
@@ -86063,7 +86072,7 @@
     </row>
     <row r="2362">
       <c r="A2362" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B2362" s="1" t="n">
         <v>45657</v>
@@ -86072,7 +86081,7 @@
         <v>45504</v>
       </c>
       <c r="D2362" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E2362" t="n">
         <v>0.575757575757576</v>
@@ -86098,7 +86107,7 @@
     </row>
     <row r="2363">
       <c r="A2363" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B2363" s="1" t="n">
         <v>45657</v>
@@ -86107,7 +86116,7 @@
         <v>45503</v>
       </c>
       <c r="D2363" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E2363" t="n">
         <v>0.636363636363636</v>
@@ -86238,7 +86247,7 @@
     </row>
     <row r="2367">
       <c r="A2367" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B2367" s="1" t="n">
         <v>45657</v>
@@ -86247,7 +86256,7 @@
         <v>45628</v>
       </c>
       <c r="D2367" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E2367" t="n">
         <v>0.606060606060606</v>
@@ -86308,7 +86317,7 @@
     </row>
     <row r="2369">
       <c r="A2369" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B2369" s="1" t="n">
         <v>45657</v>
@@ -86317,7 +86326,7 @@
         <v>45503</v>
       </c>
       <c r="D2369" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E2369" t="n">
         <v>0.606060606060606</v>
@@ -86378,7 +86387,7 @@
     </row>
     <row r="2371">
       <c r="A2371" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B2371" s="1" t="n">
         <v>45657</v>
@@ -86387,7 +86396,7 @@
         <v>45503</v>
       </c>
       <c r="D2371" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="E2371" t="n">
         <v>0.696969696969697</v>
@@ -86422,7 +86431,7 @@
         <v>45504</v>
       </c>
       <c r="D2372" t="s">
-        <v>562</v>
+        <v>935</v>
       </c>
       <c r="E2372" t="n">
         <v>0.636363636363636</v>
@@ -86597,7 +86606,7 @@
         <v>45499</v>
       </c>
       <c r="D2377" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E2377" t="n">
         <v>0.575757575757576</v>
@@ -87043,7 +87052,7 @@
     </row>
     <row r="2390">
       <c r="A2390" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B2390" s="1" t="n">
         <v>45657</v>
@@ -87052,7 +87061,7 @@
         <v>45503</v>
       </c>
       <c r="D2390" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E2390" t="n">
         <v>0.606060606060606</v>
@@ -87113,7 +87122,7 @@
     </row>
     <row r="2392">
       <c r="A2392" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B2392" s="1" t="n">
         <v>45657</v>
@@ -87122,7 +87131,7 @@
         <v>45503</v>
       </c>
       <c r="D2392" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E2392" t="n">
         <v>0.666666666666667</v>
@@ -87192,7 +87201,7 @@
         <v>45499</v>
       </c>
       <c r="D2394" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E2394" t="n">
         <v>0.666666666666667</v>
@@ -87682,7 +87691,7 @@
         <v>45502</v>
       </c>
       <c r="D2408" t="s">
-        <v>632</v>
+        <v>944</v>
       </c>
       <c r="E2408" t="n">
         <v>0.454545454545455</v>
@@ -87813,7 +87822,7 @@
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B2412" s="1" t="n">
         <v>45657</v>
@@ -87822,7 +87831,7 @@
         <v>45504</v>
       </c>
       <c r="D2412" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E2412" t="n">
         <v>0.606060606060606</v>
@@ -87988,7 +87997,7 @@
     </row>
     <row r="2417">
       <c r="A2417" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B2417" s="1" t="n">
         <v>45657</v>
@@ -87997,7 +88006,7 @@
         <v>45504</v>
       </c>
       <c r="D2417" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E2417" t="n">
         <v>0.575757575757576</v>
@@ -88163,7 +88172,7 @@
     </row>
     <row r="2422">
       <c r="A2422" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B2422" s="1" t="n">
         <v>45473</v>
@@ -88172,7 +88181,7 @@
         <v>45322</v>
       </c>
       <c r="D2422" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E2422" t="n">
         <v>0.575757575757576</v>
@@ -88268,7 +88277,7 @@
     </row>
     <row r="2425">
       <c r="A2425" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B2425" s="1" t="n">
         <v>45657</v>
@@ -88277,7 +88286,7 @@
         <v>45503</v>
       </c>
       <c r="D2425" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E2425" t="n">
         <v>0.696969696969697</v>
@@ -88548,7 +88557,7 @@
     </row>
     <row r="2433">
       <c r="A2433" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B2433" s="1" t="n">
         <v>45657</v>
@@ -88557,7 +88566,7 @@
         <v>45504</v>
       </c>
       <c r="D2433" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E2433" t="n">
         <v>0.696969696969697</v>
@@ -88977,7 +88986,7 @@
         <v>45504</v>
       </c>
       <c r="D2445" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E2445" t="n">
         <v>0.696969696969697</v>
@@ -89528,7 +89537,7 @@
     </row>
     <row r="2461">
       <c r="A2461" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B2461" s="1" t="n">
         <v>45657</v>
@@ -89537,7 +89546,7 @@
         <v>45504</v>
       </c>
       <c r="D2461" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E2461" t="n">
         <v>0.696969696969697</v>
@@ -89598,7 +89607,7 @@
     </row>
     <row r="2463">
       <c r="A2463" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B2463" s="1" t="n">
         <v>45657</v>
@@ -89607,7 +89616,7 @@
         <v>45504</v>
       </c>
       <c r="D2463" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E2463" t="n">
         <v>0.575757575757576</v>
@@ -89703,106 +89712,141 @@
     </row>
     <row r="2466">
       <c r="A2466" t="s">
-        <v>631</v>
+        <v>486</v>
       </c>
       <c r="B2466" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2466" s="1" t="n">
-        <v>45754</v>
+        <v>45796</v>
       </c>
       <c r="D2466" t="s">
-        <v>632</v>
+        <v>792</v>
       </c>
       <c r="E2466" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2466" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2466" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="H2466" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2466" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2466" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2466" t="n">
-        <v>0.285714285714286</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>810</v>
+        <v>631</v>
       </c>
       <c r="B2467" s="1" t="n">
-        <v>45716</v>
+        <v>46022</v>
       </c>
       <c r="C2467" s="1" t="n">
-        <v>45565</v>
+        <v>45754</v>
       </c>
       <c r="D2467" t="s">
-        <v>811</v>
+        <v>944</v>
       </c>
       <c r="E2467" t="n">
-        <v>0.666666666666667</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2467" t="n">
-        <v>0.696969696969697</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2467" t="n">
-        <v>0.583333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="H2467" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2467" t="n">
-        <v>0.266666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2467" t="n">
         <v>0</v>
       </c>
       <c r="K2467" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2468" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C2468" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2468" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2468" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="s">
         <v>812</v>
       </c>
-      <c r="B2468" s="1" t="n">
+      <c r="B2469" s="1" t="n">
         <v>45838</v>
       </c>
-      <c r="C2468" s="1" t="n">
+      <c r="C2469" s="1" t="n">
         <v>45681</v>
       </c>
-      <c r="D2468" t="s">
+      <c r="D2469" t="s">
         <v>813</v>
       </c>
-      <c r="E2468" t="n">
+      <c r="E2469" t="n">
         <v>0.454545454545455</v>
       </c>
-      <c r="F2468" t="n">
+      <c r="F2469" t="n">
         <v>0.575757575757576</v>
       </c>
-      <c r="G2468" t="n">
+      <c r="G2469" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="H2468" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I2468" t="n">
+      <c r="H2469" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2469" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="J2468" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="K2468" t="n">
+      <c r="J2469" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2469" t="n">
         <v>0.619047619047619</v>
       </c>
     </row>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -89712,141 +89712,246 @@
     </row>
     <row r="2466">
       <c r="A2466" t="s">
-        <v>486</v>
+        <v>289</v>
       </c>
       <c r="B2466" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2466" s="1" t="n">
-        <v>45796</v>
+        <v>45813</v>
       </c>
       <c r="D2466" t="s">
-        <v>792</v>
+        <v>290</v>
       </c>
       <c r="E2466" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2466" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2466" t="n">
-        <v>0.75</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2466" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I2466" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J2466" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2466" t="n">
-        <v>0.666666666666667</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>631</v>
+        <v>486</v>
       </c>
       <c r="B2467" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2467" s="1" t="n">
-        <v>45754</v>
+        <v>45796</v>
       </c>
       <c r="D2467" t="s">
-        <v>944</v>
+        <v>792</v>
       </c>
       <c r="E2467" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2467" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2467" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="H2467" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2467" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2467" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2467" t="n">
-        <v>0.285714285714286</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" t="s">
-        <v>810</v>
+        <v>547</v>
       </c>
       <c r="B2468" s="1" t="n">
-        <v>45716</v>
+        <v>46022</v>
       </c>
       <c r="C2468" s="1" t="n">
-        <v>45565</v>
+        <v>45814</v>
       </c>
       <c r="D2468" t="s">
-        <v>811</v>
+        <v>548</v>
       </c>
       <c r="E2468" t="n">
-        <v>0.666666666666667</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2468" t="n">
-        <v>0.696969696969697</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="G2468" t="n">
-        <v>0.583333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2468" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2468" t="n">
-        <v>0.266666666666667</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J2468" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="K2468" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2469">
       <c r="A2469" t="s">
-        <v>812</v>
+        <v>627</v>
       </c>
       <c r="B2469" s="1" t="n">
-        <v>45838</v>
+        <v>46022</v>
       </c>
       <c r="C2469" s="1" t="n">
-        <v>45681</v>
+        <v>45810</v>
       </c>
       <c r="D2469" t="s">
-        <v>813</v>
+        <v>628</v>
       </c>
       <c r="E2469" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2469" t="n">
-        <v>0.575757575757576</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="G2469" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="H2469" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I2469" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2469" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2470" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2470" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>944</v>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2470" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2470" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2471" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C2471" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2471" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2471" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2472" s="1" t="n">
+        <v>45838</v>
+      </c>
+      <c r="C2472" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>813</v>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2472" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="J2469" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="K2469" t="n">
+      <c r="J2472" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2472" t="n">
         <v>0.619047619047619</v>
       </c>
     </row>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -89747,101 +89747,101 @@
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>486</v>
+        <v>39</v>
       </c>
       <c r="B2467" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2467" s="1" t="n">
-        <v>45796</v>
+        <v>45842</v>
       </c>
       <c r="D2467" t="s">
-        <v>792</v>
+        <v>40</v>
       </c>
       <c r="E2467" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2467" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="G2467" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H2467" t="n">
-        <v>0.571428571428571</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2467" t="n">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2467" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2467" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" t="s">
-        <v>547</v>
+        <v>831</v>
       </c>
       <c r="B2468" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2468" s="1" t="n">
-        <v>45814</v>
+        <v>45841</v>
       </c>
       <c r="D2468" t="s">
-        <v>548</v>
+        <v>832</v>
       </c>
       <c r="E2468" t="n">
-        <v>0.575757575757576</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2468" t="n">
-        <v>0.818181818181818</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2468" t="n">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2468" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2468" t="n">
-        <v>0.533333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2468" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="K2468" t="n">
-        <v>0.428571428571429</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2469">
       <c r="A2469" t="s">
-        <v>627</v>
+        <v>401</v>
       </c>
       <c r="B2469" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2469" s="1" t="n">
-        <v>45810</v>
+        <v>45839</v>
       </c>
       <c r="D2469" t="s">
-        <v>628</v>
+        <v>402</v>
       </c>
       <c r="E2469" t="n">
-        <v>0.636363636363636</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2469" t="n">
-        <v>0.757575757575758</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2469" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="H2469" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2469" t="n">
-        <v>0.133333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="J2469" t="n">
         <v>0</v>
@@ -89852,107 +89852,737 @@
     </row>
     <row r="2470">
       <c r="A2470" t="s">
-        <v>631</v>
+        <v>860</v>
       </c>
       <c r="B2470" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2470" s="1" t="n">
-        <v>45811</v>
+        <v>45831</v>
       </c>
       <c r="D2470" t="s">
-        <v>944</v>
+        <v>861</v>
       </c>
       <c r="E2470" t="n">
-        <v>0.454545454545455</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2470" t="n">
         <v>0.606060606060606</v>
       </c>
       <c r="G2470" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="H2470" t="n">
-        <v>0.571428571428571</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2470" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2470" t="n">
-        <v>0</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="K2470" t="n">
-        <v>0.285714285714286</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2471">
       <c r="A2471" t="s">
-        <v>810</v>
+        <v>978</v>
       </c>
       <c r="B2471" s="1" t="n">
-        <v>45716</v>
+        <v>46022</v>
       </c>
       <c r="C2471" s="1" t="n">
-        <v>45565</v>
+        <v>45838</v>
       </c>
       <c r="D2471" t="s">
-        <v>811</v>
+        <v>979</v>
       </c>
       <c r="E2471" t="n">
-        <v>0.666666666666667</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2471" t="n">
-        <v>0.696969696969697</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2471" t="n">
-        <v>0.583333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2471" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2471" t="n">
-        <v>0.266666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2471" t="n">
-        <v>0</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="K2471" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2472">
       <c r="A2472" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2472" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2472" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2472" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2472" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2473" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2473" s="1" t="n">
+        <v>45841</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2473" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2474" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2474" s="1" t="n">
+        <v>45796</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2474" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2474" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2475" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2475" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2475" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2475" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2476" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2476" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2476" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="K2476" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2477" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2477" s="1" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2477" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2477" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2478" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2478" s="1" t="n">
+        <v>45841</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>584</v>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2478" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="K2478" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2479" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2479" s="1" t="n">
+        <v>45841</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2479" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2479" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2480" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2480" s="1" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2480" t="n">
+        <v>0.761904761904762</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2481" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2481" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2481" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2482" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2482" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>944</v>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2482" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2483" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2483" s="1" t="n">
+        <v>45831</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>648</v>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="J2483" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2483" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2484" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C2484" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2484" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2484" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2485" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2485" s="1" t="n">
+        <v>45832</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2485" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2485" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2486" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2486" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2486" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2486" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2487" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2487" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J2487" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2487" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="s">
         <v>812</v>
       </c>
-      <c r="B2472" s="1" t="n">
+      <c r="B2488" s="1" t="n">
         <v>45838</v>
       </c>
-      <c r="C2472" s="1" t="n">
+      <c r="C2488" s="1" t="n">
         <v>45681</v>
       </c>
-      <c r="D2472" t="s">
+      <c r="D2488" t="s">
         <v>813</v>
       </c>
-      <c r="E2472" t="n">
+      <c r="E2488" t="n">
         <v>0.454545454545455</v>
       </c>
-      <c r="F2472" t="n">
+      <c r="F2488" t="n">
         <v>0.575757575757576</v>
       </c>
-      <c r="G2472" t="n">
+      <c r="G2488" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="H2472" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I2472" t="n">
+      <c r="H2488" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2488" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="J2472" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="K2472" t="n">
+      <c r="J2488" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2488" t="n">
         <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="s">
+        <v>721</v>
+      </c>
+      <c r="B2489" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2489" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2489" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2489" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2490" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2490" s="1" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>816</v>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2490" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2490" t="n">
+        <v>0.571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -89712,92 +89712,92 @@
     </row>
     <row r="2466">
       <c r="A2466" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B2466" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2466" s="1" t="n">
-        <v>45813</v>
+        <v>45845</v>
       </c>
       <c r="D2466" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="E2466" t="n">
-        <v>0.515151515151515</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2466" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2466" t="n">
-        <v>0.458333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2466" t="n">
-        <v>0.428571428571429</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2466" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2466" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2466" t="n">
-        <v>0.285714285714286</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="B2467" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2467" s="1" t="n">
-        <v>45842</v>
+        <v>45813</v>
       </c>
       <c r="D2467" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="E2467" t="n">
-        <v>0.666666666666667</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2467" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2467" t="n">
-        <v>0.5</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2467" t="n">
-        <v>0.523809523809524</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I2467" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="J2467" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2467" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" t="s">
-        <v>831</v>
+        <v>293</v>
       </c>
       <c r="B2468" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2468" s="1" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="D2468" t="s">
-        <v>832</v>
+        <v>294</v>
       </c>
       <c r="E2468" t="n">
-        <v>0.606060606060606</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F2468" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2468" t="n">
         <v>0.458333333333333</v>
@@ -89806,42 +89806,42 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2468" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2468" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K2468" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2469">
       <c r="A2469" t="s">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="B2469" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2469" s="1" t="n">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="D2469" t="s">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="E2469" t="n">
-        <v>0.575757575757576</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2469" t="n">
-        <v>0.727272727272727</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2469" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2469" t="n">
-        <v>0.571428571428571</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2469" t="n">
-        <v>0.8</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2469" t="n">
         <v>0</v>
@@ -89852,57 +89852,57 @@
     </row>
     <row r="2470">
       <c r="A2470" t="s">
-        <v>860</v>
+        <v>319</v>
       </c>
       <c r="B2470" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2470" s="1" t="n">
-        <v>45831</v>
+        <v>45849</v>
       </c>
       <c r="D2470" t="s">
-        <v>861</v>
+        <v>320</v>
       </c>
       <c r="E2470" t="n">
-        <v>0.666666666666667</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2470" t="n">
-        <v>0.606060606060606</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2470" t="n">
         <v>0.5</v>
       </c>
       <c r="H2470" t="n">
-        <v>0.523809523809524</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2470" t="n">
-        <v>0.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="J2470" t="n">
-        <v>0.466666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2470" t="n">
-        <v>0.428571428571429</v>
+        <v>0.19047619047619</v>
       </c>
     </row>
     <row r="2471">
       <c r="A2471" t="s">
-        <v>978</v>
+        <v>831</v>
       </c>
       <c r="B2471" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2471" s="1" t="n">
-        <v>45838</v>
+        <v>45841</v>
       </c>
       <c r="D2471" t="s">
-        <v>979</v>
+        <v>832</v>
       </c>
       <c r="E2471" t="n">
-        <v>0.454545454545455</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2471" t="n">
-        <v>0.606060606060606</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2471" t="n">
         <v>0.458333333333333</v>
@@ -89914,7 +89914,7 @@
         <v>0.2</v>
       </c>
       <c r="J2471" t="n">
-        <v>0.533333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="K2471" t="n">
         <v>0.333333333333333</v>
@@ -89922,16 +89922,16 @@
     </row>
     <row r="2472">
       <c r="A2472" t="s">
-        <v>119</v>
+        <v>365</v>
       </c>
       <c r="B2472" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2472" s="1" t="n">
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="D2472" t="s">
-        <v>120</v>
+        <v>366</v>
       </c>
       <c r="E2472" t="n">
         <v>0.606060606060606</v>
@@ -89940,16 +89940,16 @@
         <v>0.636363636363636</v>
       </c>
       <c r="G2472" t="n">
-        <v>0.625</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2472" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2472" t="n">
-        <v>0.2</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J2472" t="n">
-        <v>0.4</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2472" t="n">
         <v>0.571428571428571</v>
@@ -89957,22 +89957,22 @@
     </row>
     <row r="2473">
       <c r="A2473" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="B2473" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2473" s="1" t="n">
-        <v>45841</v>
+        <v>45839</v>
       </c>
       <c r="D2473" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="E2473" t="n">
-        <v>0.545454545454545</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2473" t="n">
-        <v>0.515151515151515</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2473" t="n">
         <v>0.541666666666667</v>
@@ -89981,7 +89981,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2473" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J2473" t="n">
         <v>0</v>
@@ -89992,182 +89992,182 @@
     </row>
     <row r="2474">
       <c r="A2474" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="B2474" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2474" s="1" t="n">
-        <v>45796</v>
+        <v>45845</v>
       </c>
       <c r="D2474" t="s">
-        <v>792</v>
+        <v>435</v>
       </c>
       <c r="E2474" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2474" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="F2474" t="n">
-        <v>0.666666666666667</v>
-      </c>
       <c r="G2474" t="n">
-        <v>0.75</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2474" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2474" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2474" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2474" t="n">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2475">
       <c r="A2475" t="s">
-        <v>147</v>
+        <v>860</v>
       </c>
       <c r="B2475" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2475" s="1" t="n">
-        <v>45842</v>
+        <v>45831</v>
       </c>
       <c r="D2475" t="s">
-        <v>148</v>
+        <v>861</v>
       </c>
       <c r="E2475" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2475" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2475" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2475" t="n">
-        <v>0.571428571428571</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2475" t="n">
-        <v>0.6</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2475" t="n">
-        <v>0.2</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="K2475" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2476">
       <c r="A2476" t="s">
-        <v>547</v>
+        <v>978</v>
       </c>
       <c r="B2476" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2476" s="1" t="n">
-        <v>45814</v>
+        <v>45838</v>
       </c>
       <c r="D2476" t="s">
-        <v>548</v>
+        <v>979</v>
       </c>
       <c r="E2476" t="n">
-        <v>0.575757575757576</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2476" t="n">
-        <v>0.818181818181818</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2476" t="n">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2476" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2476" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2476" t="n">
         <v>0.533333333333333</v>
       </c>
-      <c r="J2476" t="n">
-        <v>0.0666666666666667</v>
-      </c>
       <c r="K2476" t="n">
-        <v>0.428571428571429</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2477">
       <c r="A2477" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="B2477" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2477" s="1" t="n">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D2477" t="s">
-        <v>564</v>
+        <v>463</v>
       </c>
       <c r="E2477" t="n">
-        <v>0.484848484848485</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2477" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2477" t="n">
-        <v>0.625</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2477" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2477" t="n">
-        <v>0.533333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2477" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2477" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="2478">
       <c r="A2478" t="s">
-        <v>583</v>
+        <v>119</v>
       </c>
       <c r="B2478" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2478" s="1" t="n">
-        <v>45841</v>
+        <v>45834</v>
       </c>
       <c r="D2478" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="E2478" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2478" t="n">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2478" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="H2478" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2478" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2478" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K2478" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2479">
       <c r="A2479" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B2479" s="1" t="n">
         <v>46022</v>
@@ -90176,22 +90176,22 @@
         <v>45841</v>
       </c>
       <c r="D2479" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="E2479" t="n">
-        <v>0.636363636363636</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2479" t="n">
-        <v>0.666666666666667</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2479" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2479" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2479" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J2479" t="n">
         <v>0</v>
@@ -90202,69 +90202,69 @@
     </row>
     <row r="2480">
       <c r="A2480" t="s">
-        <v>617</v>
+        <v>486</v>
       </c>
       <c r="B2480" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2480" s="1" t="n">
-        <v>45835</v>
+        <v>45796</v>
       </c>
       <c r="D2480" t="s">
-        <v>618</v>
+        <v>792</v>
       </c>
       <c r="E2480" t="n">
         <v>0.636363636363636</v>
       </c>
       <c r="F2480" t="n">
-        <v>0.454545454545455</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2480" t="n">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H2480" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2480" t="n">
         <v>0.2</v>
       </c>
       <c r="J2480" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2480" t="n">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2481">
       <c r="A2481" t="s">
-        <v>627</v>
+        <v>512</v>
       </c>
       <c r="B2481" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2481" s="1" t="n">
-        <v>45810</v>
+        <v>45846</v>
       </c>
       <c r="D2481" t="s">
-        <v>628</v>
+        <v>513</v>
       </c>
       <c r="E2481" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2481" t="n">
-        <v>0.757575757575758</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="G2481" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2481" t="n">
-        <v>0.333333333333333</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2481" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2481" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2481" t="n">
         <v>0.571428571428571</v>
@@ -90272,104 +90272,104 @@
     </row>
     <row r="2482">
       <c r="A2482" t="s">
-        <v>631</v>
+        <v>147</v>
       </c>
       <c r="B2482" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2482" s="1" t="n">
-        <v>45811</v>
+        <v>45842</v>
       </c>
       <c r="D2482" t="s">
-        <v>944</v>
+        <v>148</v>
       </c>
       <c r="E2482" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2482" t="n">
-        <v>0.606060606060606</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2482" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2482" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2482" t="n">
-        <v>0.133333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="J2482" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2482" t="n">
-        <v>0.285714285714286</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2483">
       <c r="A2483" t="s">
-        <v>647</v>
+        <v>533</v>
       </c>
       <c r="B2483" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2483" s="1" t="n">
-        <v>45831</v>
+        <v>45849</v>
       </c>
       <c r="D2483" t="s">
-        <v>648</v>
+        <v>534</v>
       </c>
       <c r="E2483" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2483" t="n">
         <v>0.575757575757576</v>
-      </c>
-      <c r="F2483" t="n">
-        <v>0.545454545454545</v>
       </c>
       <c r="G2483" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="H2483" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2483" t="n">
-        <v>0.466666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2483" t="n">
-        <v>0.133333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="K2483" t="n">
-        <v>0.523809523809524</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2484">
       <c r="A2484" t="s">
-        <v>810</v>
+        <v>545</v>
       </c>
       <c r="B2484" s="1" t="n">
-        <v>45716</v>
+        <v>46022</v>
       </c>
       <c r="C2484" s="1" t="n">
-        <v>45565</v>
+        <v>45845</v>
       </c>
       <c r="D2484" t="s">
-        <v>811</v>
+        <v>546</v>
       </c>
       <c r="E2484" t="n">
-        <v>0.666666666666667</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2484" t="n">
-        <v>0.696969696969697</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2484" t="n">
-        <v>0.583333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="H2484" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2484" t="n">
-        <v>0.266666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2484" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2484" t="n">
         <v>0.571428571428571</v>
@@ -90377,203 +90377,203 @@
     </row>
     <row r="2485">
       <c r="A2485" t="s">
-        <v>667</v>
+        <v>547</v>
       </c>
       <c r="B2485" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2485" s="1" t="n">
-        <v>45832</v>
+        <v>45814</v>
       </c>
       <c r="D2485" t="s">
-        <v>668</v>
+        <v>548</v>
       </c>
       <c r="E2485" t="n">
-        <v>0.727272727272727</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2485" t="n">
-        <v>0.636363636363636</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="G2485" t="n">
-        <v>0.5</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2485" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2485" t="n">
         <v>0.533333333333333</v>
       </c>
       <c r="J2485" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="K2485" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2486">
       <c r="A2486" t="s">
-        <v>675</v>
+        <v>563</v>
       </c>
       <c r="B2486" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2486" s="1" t="n">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D2486" t="s">
-        <v>676</v>
+        <v>564</v>
       </c>
       <c r="E2486" t="n">
         <v>0.484848484848485</v>
       </c>
       <c r="F2486" t="n">
-        <v>0.484848484848485</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2486" t="n">
-        <v>0.458333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="H2486" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2486" t="n">
-        <v>0.2</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J2486" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="K2486" t="n">
-        <v>0.523809523809524</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2487">
       <c r="A2487" t="s">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="B2487" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2487" s="1" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="D2487" t="s">
-        <v>680</v>
+        <v>584</v>
       </c>
       <c r="E2487" t="n">
-        <v>0.636363636363636</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2487" t="n">
-        <v>0.636363636363636</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2487" t="n">
         <v>0.5</v>
       </c>
       <c r="H2487" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2487" t="n">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J2487" t="n">
-        <v>0.4</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2487" t="n">
-        <v>0.619047619047619</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2488">
       <c r="A2488" t="s">
-        <v>812</v>
+        <v>193</v>
       </c>
       <c r="B2488" s="1" t="n">
-        <v>45838</v>
+        <v>46022</v>
       </c>
       <c r="C2488" s="1" t="n">
-        <v>45681</v>
+        <v>45841</v>
       </c>
       <c r="D2488" t="s">
-        <v>813</v>
+        <v>194</v>
       </c>
       <c r="E2488" t="n">
-        <v>0.454545454545455</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2488" t="n">
-        <v>0.575757575757576</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2488" t="n">
-        <v>0.541666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H2488" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2488" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2488" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2488" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2489">
       <c r="A2489" t="s">
-        <v>721</v>
+        <v>617</v>
       </c>
       <c r="B2489" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2489" s="1" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="D2489" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
       <c r="E2489" t="n">
-        <v>0.484848484848485</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2489" t="n">
-        <v>0.515151515151515</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2489" t="n">
-        <v>0.458333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2489" t="n">
-        <v>0.476190476190476</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I2489" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2489" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2489" t="n">
-        <v>0.666666666666667</v>
+        <v>0.761904761904762</v>
       </c>
     </row>
     <row r="2490">
       <c r="A2490" t="s">
-        <v>815</v>
+        <v>627</v>
       </c>
       <c r="B2490" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2490" s="1" t="n">
-        <v>45838</v>
+        <v>45810</v>
       </c>
       <c r="D2490" t="s">
-        <v>816</v>
+        <v>628</v>
       </c>
       <c r="E2490" t="n">
-        <v>0.666666666666667</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2490" t="n">
-        <v>0.636363636363636</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="G2490" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="H2490" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I2490" t="n">
         <v>0.133333333333333</v>
@@ -90582,6 +90582,356 @@
         <v>0</v>
       </c>
       <c r="K2490" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2491" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2491" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>944</v>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2491" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2491" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2492" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2492" s="1" t="n">
+        <v>45831</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>648</v>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="J2492" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2492" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2493" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C2493" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2493" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2493" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2494" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2494" s="1" t="n">
+        <v>45832</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2494" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2494" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2495" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2495" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2495" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2495" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2496" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2496" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J2496" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2496" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2497" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2497" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2497" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="K2497" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2498" s="1" t="n">
+        <v>45838</v>
+      </c>
+      <c r="C2498" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>813</v>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2498" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2498" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="s">
+        <v>721</v>
+      </c>
+      <c r="B2499" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2499" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2499" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2499" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2500" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2500" s="1" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>816</v>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2500" t="n">
         <v>0.571428571428571</v>
       </c>
     </row>

--- a/public/docs/index_07_dim_CG.xlsx
+++ b/public/docs/index_07_dim_CG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
   <si>
     <t xml:space="preserve">CNPJ_Companhia</t>
   </si>
@@ -3096,6 +3096,24 @@
   </si>
   <si>
     <t xml:space="preserve">ATOM EDUCAÇÃO E EDITORA S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.270.350/0001-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIABRASF - CIA. BRASILEIRA DE SERVIÇOS FINANCEIROS S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.805.925/0001-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELORA RDVC CITY DESENVOLVIMENTO IMOBILIÁRIO S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.841.191/0001-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVEE S.A.</t>
   </si>
 </sst>
 </file>
@@ -89712,34 +89730,34 @@
     </row>
     <row r="2466">
       <c r="A2466" t="s">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="B2466" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2466" s="1" t="n">
-        <v>45845</v>
+        <v>45862</v>
       </c>
       <c r="D2466" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="E2466" t="n">
-        <v>0.666666666666667</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2466" t="n">
-        <v>0.666666666666667</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="G2466" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="H2466" t="n">
-        <v>0.523809523809524</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2466" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2466" t="n">
-        <v>0</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2466" t="n">
         <v>0.571428571428571</v>
@@ -89747,69 +89765,69 @@
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B2467" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2467" s="1" t="n">
-        <v>45813</v>
+        <v>45853</v>
       </c>
       <c r="D2467" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="E2467" t="n">
-        <v>0.515151515151515</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="F2467" t="n">
-        <v>0.606060606060606</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="G2467" t="n">
-        <v>0.458333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H2467" t="n">
-        <v>0.428571428571429</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2467" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2467" t="n">
-        <v>0.333333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2467" t="n">
-        <v>0.285714285714286</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="B2468" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2468" s="1" t="n">
-        <v>45845</v>
+        <v>45859</v>
       </c>
       <c r="D2468" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E2468" t="n">
-        <v>0.696969696969697</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2468" t="n">
-        <v>0.515151515151515</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G2468" t="n">
-        <v>0.458333333333333</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H2468" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I2468" t="n">
-        <v>0.133333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J2468" t="n">
-        <v>0</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="K2468" t="n">
         <v>0.571428571428571</v>
@@ -89817,16 +89835,16 @@
     </row>
     <row r="2469">
       <c r="A2469" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="B2469" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2469" s="1" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="D2469" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="E2469" t="n">
         <v>0.666666666666667</v>
@@ -89835,13 +89853,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G2469" t="n">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2469" t="n">
         <v>0.523809523809524</v>
       </c>
       <c r="I2469" t="n">
-        <v>0.266666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2469" t="n">
         <v>0</v>
@@ -89852,28 +89870,28 @@
     </row>
     <row r="2470">
       <c r="A2470" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B2470" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2470" s="1" t="n">
-        <v>45849</v>
+        <v>45813</v>
       </c>
       <c r="D2470" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="E2470" t="n">
-        <v>0.545454545454545</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2470" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2470" t="n">
-        <v>0.5</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2470" t="n">
-        <v>0.476190476190476</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I2470" t="n">
         <v>0.4</v>
@@ -89882,27 +89900,27 @@
         <v>0.333333333333333</v>
       </c>
       <c r="K2470" t="n">
-        <v>0.19047619047619</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2471">
       <c r="A2471" t="s">
-        <v>831</v>
+        <v>293</v>
       </c>
       <c r="B2471" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2471" s="1" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="D2471" t="s">
-        <v>832</v>
+        <v>294</v>
       </c>
       <c r="E2471" t="n">
-        <v>0.606060606060606</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F2471" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2471" t="n">
         <v>0.458333333333333</v>
@@ -89911,80 +89929,80 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2471" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2471" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K2471" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2472">
       <c r="A2472" t="s">
-        <v>365</v>
+        <v>748</v>
       </c>
       <c r="B2472" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2472" s="1" t="n">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="D2472" t="s">
-        <v>366</v>
+        <v>749</v>
       </c>
       <c r="E2472" t="n">
         <v>0.606060606060606</v>
       </c>
       <c r="F2472" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2472" t="n">
-        <v>0.583333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2472" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2472" t="n">
-        <v>0.533333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J2472" t="n">
-        <v>0.266666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="K2472" t="n">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2473">
       <c r="A2473" t="s">
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="B2473" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2473" s="1" t="n">
-        <v>45839</v>
+        <v>45860</v>
       </c>
       <c r="D2473" t="s">
-        <v>402</v>
+        <v>298</v>
       </c>
       <c r="E2473" t="n">
-        <v>0.575757575757576</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2473" t="n">
-        <v>0.727272727272727</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2473" t="n">
-        <v>0.541666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H2473" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2473" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J2473" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2473" t="n">
         <v>0.571428571428571</v>
@@ -89992,156 +90010,156 @@
     </row>
     <row r="2474">
       <c r="A2474" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="B2474" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2474" s="1" t="n">
-        <v>45845</v>
+        <v>45842</v>
       </c>
       <c r="D2474" t="s">
-        <v>435</v>
+        <v>40</v>
       </c>
       <c r="E2474" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="F2474" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2474" t="n">
-        <v>0.458333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H2474" t="n">
-        <v>0.619047619047619</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2474" t="n">
-        <v>0.133333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2474" t="n">
         <v>0</v>
       </c>
       <c r="K2474" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2475">
       <c r="A2475" t="s">
-        <v>860</v>
+        <v>299</v>
       </c>
       <c r="B2475" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2475" s="1" t="n">
-        <v>45831</v>
+        <v>45860</v>
       </c>
       <c r="D2475" t="s">
-        <v>861</v>
+        <v>300</v>
       </c>
       <c r="E2475" t="n">
-        <v>0.666666666666667</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2475" t="n">
-        <v>0.606060606060606</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2475" t="n">
         <v>0.5</v>
       </c>
       <c r="H2475" t="n">
-        <v>0.523809523809524</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2475" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2475" t="n">
-        <v>0.466666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="K2475" t="n">
-        <v>0.428571428571429</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2476">
       <c r="A2476" t="s">
-        <v>978</v>
+        <v>319</v>
       </c>
       <c r="B2476" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2476" s="1" t="n">
-        <v>45838</v>
+        <v>45849</v>
       </c>
       <c r="D2476" t="s">
-        <v>979</v>
+        <v>320</v>
       </c>
       <c r="E2476" t="n">
-        <v>0.454545454545455</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2476" t="n">
-        <v>0.606060606060606</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2476" t="n">
-        <v>0.458333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H2476" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2476" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J2476" t="n">
-        <v>0.533333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2476" t="n">
-        <v>0.333333333333333</v>
+        <v>0.19047619047619</v>
       </c>
     </row>
     <row r="2477">
       <c r="A2477" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
       <c r="B2477" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2477" s="1" t="n">
-        <v>45845</v>
+        <v>45854</v>
       </c>
       <c r="D2477" t="s">
-        <v>463</v>
+        <v>345</v>
       </c>
       <c r="E2477" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2477" t="n">
-        <v>0.515151515151515</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2477" t="n">
-        <v>0.458333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2477" t="n">
-        <v>0.619047619047619</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2477" t="n">
-        <v>0.133333333333333</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="J2477" t="n">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2477" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2478">
       <c r="A2478" t="s">
-        <v>119</v>
+        <v>831</v>
       </c>
       <c r="B2478" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2478" s="1" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="D2478" t="s">
-        <v>120</v>
+        <v>832</v>
       </c>
       <c r="E2478" t="n">
         <v>0.606060606060606</v>
@@ -90150,7 +90168,7 @@
         <v>0.636363636363636</v>
       </c>
       <c r="G2478" t="n">
-        <v>0.625</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2478" t="n">
         <v>0.571428571428571</v>
@@ -90159,129 +90177,129 @@
         <v>0.2</v>
       </c>
       <c r="J2478" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K2478" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2479">
       <c r="A2479" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B2479" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2479" s="1" t="n">
-        <v>45841</v>
+        <v>45859</v>
       </c>
       <c r="D2479" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="E2479" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2479" t="n">
-        <v>0.515151515151515</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="G2479" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2479" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2479" t="n">
-        <v>0.6</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2479" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2479" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="2480">
       <c r="A2480" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="B2480" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2480" s="1" t="n">
-        <v>45796</v>
+        <v>45848</v>
       </c>
       <c r="D2480" t="s">
-        <v>792</v>
+        <v>366</v>
       </c>
       <c r="E2480" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2480" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="F2480" t="n">
-        <v>0.666666666666667</v>
-      </c>
       <c r="G2480" t="n">
-        <v>0.75</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H2480" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2480" t="n">
-        <v>0.2</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J2480" t="n">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="K2480" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2481">
       <c r="A2481" t="s">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="B2481" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2481" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="D2481" t="s">
-        <v>513</v>
+        <v>388</v>
       </c>
       <c r="E2481" t="n">
-        <v>0.666666666666667</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2481" t="n">
-        <v>0.424242424242424</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2481" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H2481" t="n">
         <v>0.619047619047619</v>
       </c>
       <c r="I2481" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J2481" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2481" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2482">
       <c r="A2482" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B2482" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2482" s="1" t="n">
-        <v>45842</v>
+        <v>45860</v>
       </c>
       <c r="D2482" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E2482" t="n">
         <v>0.636363636363636</v>
@@ -90290,86 +90308,86 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G2482" t="n">
-        <v>0.541666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2482" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2482" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J2482" t="n">
         <v>0.2</v>
       </c>
       <c r="K2482" t="n">
-        <v>0.571428571428571</v>
+        <v>0.380952380952381</v>
       </c>
     </row>
     <row r="2483">
       <c r="A2483" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="B2483" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2483" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="D2483" t="s">
-        <v>534</v>
+        <v>96</v>
       </c>
       <c r="E2483" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="F2483" t="n">
-        <v>0.575757575757576</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2483" t="n">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="H2483" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I2483" t="n">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2483" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2483" t="n">
-        <v>0.571428571428571</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="2484">
       <c r="A2484" t="s">
-        <v>545</v>
+        <v>401</v>
       </c>
       <c r="B2484" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2484" s="1" t="n">
-        <v>45845</v>
+        <v>45839</v>
       </c>
       <c r="D2484" t="s">
-        <v>546</v>
+        <v>402</v>
       </c>
       <c r="E2484" t="n">
-        <v>0.636363636363636</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2484" t="n">
-        <v>0.636363636363636</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2484" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2484" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2484" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J2484" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2484" t="n">
         <v>0.571428571428571</v>
@@ -90377,454 +90395,454 @@
     </row>
     <row r="2485">
       <c r="A2485" t="s">
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="B2485" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2485" s="1" t="n">
-        <v>45814</v>
+        <v>45859</v>
       </c>
       <c r="D2485" t="s">
-        <v>548</v>
+        <v>770</v>
       </c>
       <c r="E2485" t="n">
-        <v>0.575757575757576</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2485" t="n">
-        <v>0.818181818181818</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2485" t="n">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="H2485" t="n">
-        <v>0.619047619047619</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="I2485" t="n">
-        <v>0.533333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2485" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2485" t="n">
-        <v>0.428571428571429</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="2486">
       <c r="A2486" t="s">
-        <v>563</v>
+        <v>842</v>
       </c>
       <c r="B2486" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2486" s="1" t="n">
-        <v>45835</v>
+        <v>45863</v>
       </c>
       <c r="D2486" t="s">
-        <v>564</v>
+        <v>843</v>
       </c>
       <c r="E2486" t="n">
-        <v>0.484848484848485</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2486" t="n">
-        <v>0.636363636363636</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G2486" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2486" t="n">
-        <v>0.571428571428571</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="I2486" t="n">
-        <v>0.533333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J2486" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K2486" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2487">
       <c r="A2487" t="s">
-        <v>583</v>
+        <v>103</v>
       </c>
       <c r="B2487" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2487" s="1" t="n">
-        <v>45841</v>
+        <v>45853</v>
       </c>
       <c r="D2487" t="s">
-        <v>584</v>
+        <v>104</v>
       </c>
       <c r="E2487" t="n">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2487" t="n">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2487" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="H2487" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2487" t="n">
-        <v>0.333333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2487" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K2487" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2488">
       <c r="A2488" t="s">
-        <v>193</v>
+        <v>434</v>
       </c>
       <c r="B2488" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2488" s="1" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="D2488" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="E2488" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2488" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="F2488" t="n">
-        <v>0.666666666666667</v>
-      </c>
       <c r="G2488" t="n">
-        <v>0.625</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2488" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2488" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2488" t="n">
         <v>0</v>
       </c>
       <c r="K2488" t="n">
-        <v>0.571428571428571</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2489">
       <c r="A2489" t="s">
-        <v>617</v>
+        <v>438</v>
       </c>
       <c r="B2489" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2489" s="1" t="n">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="D2489" t="s">
-        <v>618</v>
+        <v>439</v>
       </c>
       <c r="E2489" t="n">
         <v>0.636363636363636</v>
       </c>
       <c r="F2489" t="n">
-        <v>0.454545454545455</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2489" t="n">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="H2489" t="n">
-        <v>0.666666666666667</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2489" t="n">
         <v>0.2</v>
       </c>
       <c r="J2489" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2489" t="n">
-        <v>0.761904761904762</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="2490">
       <c r="A2490" t="s">
-        <v>627</v>
+        <v>860</v>
       </c>
       <c r="B2490" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2490" s="1" t="n">
-        <v>45810</v>
+        <v>45831</v>
       </c>
       <c r="D2490" t="s">
-        <v>628</v>
+        <v>861</v>
       </c>
       <c r="E2490" t="n">
-        <v>0.636363636363636</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2490" t="n">
-        <v>0.757575757575758</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2490" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H2490" t="n">
-        <v>0.333333333333333</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2490" t="n">
         <v>0.133333333333333</v>
       </c>
       <c r="J2490" t="n">
-        <v>0</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="K2490" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="2491">
       <c r="A2491" t="s">
-        <v>631</v>
+        <v>872</v>
       </c>
       <c r="B2491" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2491" s="1" t="n">
-        <v>45811</v>
+        <v>45863</v>
       </c>
       <c r="D2491" t="s">
-        <v>944</v>
+        <v>873</v>
       </c>
       <c r="E2491" t="n">
-        <v>0.454545454545455</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2491" t="n">
-        <v>0.606060606060606</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2491" t="n">
-        <v>0.625</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2491" t="n">
-        <v>0.571428571428571</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="I2491" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J2491" t="n">
-        <v>0</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="K2491" t="n">
-        <v>0.285714285714286</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="2492">
       <c r="A2492" t="s">
-        <v>647</v>
+        <v>978</v>
       </c>
       <c r="B2492" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2492" s="1" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="D2492" t="s">
-        <v>648</v>
+        <v>979</v>
       </c>
       <c r="E2492" t="n">
-        <v>0.575757575757576</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F2492" t="n">
-        <v>0.545454545454545</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="G2492" t="n">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2492" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2492" t="n">
-        <v>0.466666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2492" t="n">
-        <v>0.133333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="K2492" t="n">
-        <v>0.523809523809524</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="2493">
       <c r="A2493" t="s">
-        <v>810</v>
+        <v>878</v>
       </c>
       <c r="B2493" s="1" t="n">
-        <v>45716</v>
+        <v>46022</v>
       </c>
       <c r="C2493" s="1" t="n">
-        <v>45565</v>
+        <v>45861</v>
       </c>
       <c r="D2493" t="s">
-        <v>811</v>
+        <v>879</v>
       </c>
       <c r="E2493" t="n">
-        <v>0.666666666666667</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="F2493" t="n">
-        <v>0.696969696969697</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G2493" t="n">
-        <v>0.583333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2493" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2493" t="n">
-        <v>0.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="J2493" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2493" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2494">
       <c r="A2494" t="s">
-        <v>667</v>
+        <v>462</v>
       </c>
       <c r="B2494" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2494" s="1" t="n">
-        <v>45832</v>
+        <v>45845</v>
       </c>
       <c r="D2494" t="s">
-        <v>668</v>
+        <v>463</v>
       </c>
       <c r="E2494" t="n">
-        <v>0.727272727272727</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F2494" t="n">
-        <v>0.636363636363636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2494" t="n">
-        <v>0.5</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="H2494" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I2494" t="n">
-        <v>0.533333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J2494" t="n">
         <v>0</v>
       </c>
       <c r="K2494" t="n">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
     </row>
     <row r="2495">
       <c r="A2495" t="s">
-        <v>675</v>
+        <v>117</v>
       </c>
       <c r="B2495" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2495" s="1" t="n">
-        <v>45825</v>
+        <v>45863</v>
       </c>
       <c r="D2495" t="s">
-        <v>676</v>
+        <v>118</v>
       </c>
       <c r="E2495" t="n">
-        <v>0.484848484848485</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F2495" t="n">
-        <v>0.484848484848485</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="G2495" t="n">
-        <v>0.458333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="H2495" t="n">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I2495" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J2495" t="n">
-        <v>0.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="K2495" t="n">
-        <v>0.523809523809524</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2496">
       <c r="A2496" t="s">
-        <v>679</v>
+        <v>119</v>
       </c>
       <c r="B2496" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2496" s="1" t="n">
-        <v>45840</v>
+        <v>45834</v>
       </c>
       <c r="D2496" t="s">
-        <v>680</v>
+        <v>120</v>
       </c>
       <c r="E2496" t="n">
-        <v>0.636363636363636</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2496" t="n">
         <v>0.636363636363636</v>
       </c>
       <c r="G2496" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="H2496" t="n">
         <v>0.571428571428571</v>
       </c>
       <c r="I2496" t="n">
-        <v>0.666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J2496" t="n">
         <v>0.4</v>
       </c>
       <c r="K2496" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2497">
       <c r="A2497" t="s">
-        <v>689</v>
+        <v>886</v>
       </c>
       <c r="B2497" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2497" s="1" t="n">
-        <v>45848</v>
+        <v>45859</v>
       </c>
       <c r="D2497" t="s">
-        <v>690</v>
+        <v>887</v>
       </c>
       <c r="E2497" t="n">
-        <v>0.454545454545455</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="F2497" t="n">
-        <v>0.454545454545455</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="G2497" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I2497" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="H2497" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I2497" t="n">
-        <v>0.2</v>
-      </c>
       <c r="J2497" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K2497" t="n">
         <v>0.666666666666667</v>
@@ -90832,22 +90850,22 @@
     </row>
     <row r="2498">
       <c r="A2498" t="s">
-        <v>812</v>
+        <v>121</v>
       </c>
       <c r="B2498" s="1" t="n">
-        <v>45838</v>
+        <v>46022</v>
       </c>
       <c r="C2498" s="1" t="n">
-        <v>45681</v>
+        <v>45841</v>
       </c>
       <c r="D2498" t="s">
-        <v>813</v>
+        <v>122</v>
       </c>
       <c r="E2498" t="n">
-        <v>0.454545454545455</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F2498" t="n">
-        <v>0.575757575757576</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="G2498" t="n">
         <v>0.541666666666667</v>
@@ -90856,36 +90874,36 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I2498" t="n">
-        <v>0.333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="J2498" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2498" t="n">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="2499">
       <c r="A2499" t="s">
-        <v>721</v>
+        <v>894</v>
       </c>
       <c r="B2499" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2499" s="1" t="n">
-        <v>45834</v>
+        <v>45862</v>
       </c>
       <c r="D2499" t="s">
-        <v>722</v>
+        <v>895</v>
       </c>
       <c r="E2499" t="n">
-        <v>0.484848484848485</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="F2499" t="n">
-        <v>0.515151515151515</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="G2499" t="n">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H2499" t="n">
         <v>0.476190476190476</v>
@@ -90894,44 +90912,1654 @@
         <v>0.133333333333333</v>
       </c>
       <c r="J2499" t="n">
-        <v>0.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="K2499" t="n">
-        <v>0.666666666666667</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="2500">
       <c r="A2500" t="s">
-        <v>815</v>
+        <v>486</v>
       </c>
       <c r="B2500" s="1" t="n">
         <v>46022</v>
       </c>
       <c r="C2500" s="1" t="n">
+        <v>45796</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2500" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2500" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B2501" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2501" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E2501" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2501" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2502" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2502" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2502" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2502" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2503" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2503" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>991</v>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2503" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2504" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2504" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2504" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2504" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2505" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2505" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2505" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2505" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="s">
+        <v>992</v>
+      </c>
+      <c r="B2506" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2506" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2506" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2506" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2507" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2507" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2507" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="K2507" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2508" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2508" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2508" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2508" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2509" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2509" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2509" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2509" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2510" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2510" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2510" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="K2510" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2511" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2511" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2511" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2511" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="s">
+        <v>933</v>
+      </c>
+      <c r="B2512" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2512" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>934</v>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2512" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2512" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2513" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2513" s="1" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2513" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2513" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2514" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2514" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2514" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2514" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2515" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2515" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2515" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2515" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2516" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2516" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2516" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2516" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2517" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2517" s="1" t="n">
+        <v>45841</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>584</v>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2517" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="K2517" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2518" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2518" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.523809523809524</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2518" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2518" t="n">
+        <v>0.714285714285714</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2519" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2519" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2519" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2519" t="n">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2520" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2520" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2520" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2520" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2520" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2521" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2521" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2521" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>0.523809523809524</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2521" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2521" t="n">
+        <v>0.380952380952381</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2522" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2522" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2522" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2522" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2522" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2522" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2522" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2523" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2523" s="1" t="n">
+        <v>45841</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2523" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2523" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2523" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2523" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2524" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2524" s="1" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2524" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="G2524" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2524" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I2524" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2524" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2524" t="n">
+        <v>0.761904761904762</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2525" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2525" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2525" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2525" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H2525" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2525" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="J2525" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2525" t="n">
+        <v>0.238095238095238</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2526" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2526" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2526" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="G2526" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2526" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I2526" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2526" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2526" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2527" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2527" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>944</v>
+      </c>
+      <c r="E2527" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="G2527" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2527" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2527" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2527" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2527" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2528" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2528" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>946</v>
+      </c>
+      <c r="E2528" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="G2528" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2528" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2528" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J2528" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2528" t="n">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2529" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2529" s="1" t="n">
+        <v>45831</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>648</v>
+      </c>
+      <c r="E2529" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2529" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2529" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2529" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="J2529" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2529" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2530" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C2530" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2530" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="G2530" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2530" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2530" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2530" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2530" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2531" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2531" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2531" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2531" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2531" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2531" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2531" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="K2531" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2532" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2532" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.606060606060606</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2532" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2532" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2533" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2533" s="1" t="n">
+        <v>45832</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2533" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2533" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2533" t="n">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="J2533" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2533" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2534" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2534" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2534" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2534" t="n">
+        <v>0.380952380952381</v>
+      </c>
+      <c r="I2534" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2534" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2534" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2535" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2535" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2535" t="n">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2535" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2535" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2536" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2536" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2536" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2536" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2536" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2537" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2537" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J2537" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2537" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2538" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2538" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2538" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="K2538" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="s">
+        <v>701</v>
+      </c>
+      <c r="B2539" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2539" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>702</v>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2539" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2540" s="1" t="n">
         <v>45838</v>
       </c>
-      <c r="D2500" t="s">
+      <c r="C2540" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>813</v>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2540" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2540" t="n">
+        <v>0.619047619047619</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="s">
+        <v>721</v>
+      </c>
+      <c r="B2541" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2541" s="1" t="n">
+        <v>45834</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2541" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2541" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2542" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2542" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J2542" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K2542" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2543" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2543" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J2543" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2543" t="n">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2544" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2544" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2544" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="K2544" t="n">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2545" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2545" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>738</v>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2545" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="K2545" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2546" s="1" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C2546" s="1" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D2546" t="s">
         <v>816</v>
       </c>
-      <c r="E2500" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F2500" t="n">
+      <c r="E2546" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F2546" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="G2500" t="n">
+      <c r="G2546" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="H2500" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I2500" t="n">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="J2500" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2500" t="n">
+      <c r="H2546" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="J2546" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2546" t="n">
         <v>0.571428571428571</v>
       </c>
     </row>
